--- a/1. Final Documentation/24. Time Sheet/Project Time Sheet.xlsx
+++ b/1. Final Documentation/24. Time Sheet/Project Time Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="168">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -183,94 +183,88 @@
     <t xml:space="preserve">4:00 PM to 5:00 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">Talk about the Project Proposal and Methodology(Spiral), Assigning of Roles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Took some notes and listen to Robert Class, Read the Guidelines and Planning to take SAD book from the Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewing methodology to use, read the EBHost article and search Internet, took SAD book read the first 5 pages and take it home with me</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ask Patrick about the Methodology, Scanned the SAD book, Read online article for methodology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Review methodology look at the S:, print out the Spiral, MSF, DSDM and XP methodology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Team meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attend Robert class, Create the Approach section for Spiral</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Robert check our proposal, read the DSDM methodology and OpenUp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read Agile Metodology vs. Traditional, Reading Agile whats best to use, what are the available options, how to apply it and many more.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Discuss the DSDM to member, Read DSDM again, help PM for any task he needs help</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the DSDM Atern in the Project in a Box,still reading articles, Reviewing the template to use to project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Studying DSDM Lifecycle, Core techniques, Roles, Deadlines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watch Video tutorial of DSDM on youtube, read some articles DSDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the Atern Handbook on the dsdm.org and study it much detailed over 50 pages I think</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Set dates to the DSDM atern Life cycle
-Team meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Did the Approach and Project Analysis for methodology to the proposal, book Learning commons to proof read</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check the Proposal and Approach and Project Analysis, Ask Learning common to check proposal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attend Mariki workshop, fix errors advice from Learning commons, Did the Planning of website some design and created the logo.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write some of the diary and thinking analysis for almost 4 hours about the deadlines and methodology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timebox assigned each member for the coming week, ask member what their task for the whole project
-Team meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read the Project Guidelines whole, continue reading the Atern Handbook from their website</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Found a synopsis about the DSDM sample project management read it and tryin to planned again the project what to do prioritizing, template Project in a Box</t>
+    <t xml:space="preserve">12:00pm – 5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30am – 4:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:00pm – 9:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00pm – 5:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3:00pm – 4:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:30pm – 7:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00pm – 3:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30pm – 4:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:30pm – 09:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00pm – 9:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:30pm – 9:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5:00pm – 9:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00pm – 4:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00pm – 5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12:30pm -5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11:00am – 7:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4:00pm – 8:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10am-11:30am &amp; 1pm -4:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1:00pm – 8:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:00pm – 8:00pm</t>
   </si>
   <si>
     <t xml:space="preserve">Meeting with Steve then Robert</t>
   </si>
   <si>
-    <t xml:space="preserve">Write down the Core techniques function and what is the importance of it</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edit and fix Project analysis and Approach, listed the weeks left, study the Gantt chart
-Team meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix the Gantt chart, Check Diary and Timesheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fix my Time sheet and Diary, talk to members about the meeting</t>
+    <t xml:space="preserve">1:00pm -5:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2:30pm – 4:30pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pre-project, Feasibility and Foundation : Project Gantt Chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10am-11am &amp; 2:30pm – 10:00pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Admin : Timesheet, Project Admin : Personal Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10:30am – 1pm &amp; 3:00pm – 5:00pm</t>
   </si>
   <si>
     <t xml:space="preserve">Project Audit: Project Audit 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3:00pm – 4:00pm</t>
   </si>
   <si>
     <t xml:space="preserve">12:30pm – 3:00pm</t>
@@ -429,9 +423,6 @@
     <t xml:space="preserve">Pre-project, Feasibility and Foundation : Scope of Project</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-project, Feasibility and Foundation : Project Gantt Chart</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pre-project, Feasibility and Foundation : Meet Project Advisor</t>
   </si>
   <si>
@@ -571,6 +562,9 @@
   </si>
   <si>
     <t xml:space="preserve">Project Admin : Project Diary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting : Consulting Robert For Documents Review</t>
   </si>
   <si>
     <t xml:space="preserve">Project Audit : Project Audit 2</t>
@@ -594,15 +588,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="DDDD&quot;, &quot;MMMM\ DD&quot;, &quot;YYYY"/>
+    <numFmt numFmtId="165" formatCode="DDDD, MMMM\ DD&quot;, &quot;YYYY"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -624,46 +617,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -678,11 +631,26 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF363636"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -801,7 +769,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -922,7 +890,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -947,6 +915,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -954,15 +926,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -974,7 +938,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -995,22 +959,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <diagonal/>
-      </border>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1081,7 +1029,7 @@
   </sheetPr>
   <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
@@ -1089,15 +1037,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.0604651162791"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="14.646511627907"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.5209302325581"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.0279069767442"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.2139534883721"/>
-    <col collapsed="false" hidden="false" max="26" min="8" style="1" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.553488372093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="15.0139534883721"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="14.8883720930233"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.706976744186"/>
+    <col collapsed="false" hidden="false" max="26" min="8" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1158,7 +1106,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="2" t="n">
-        <f aca="false">VLOOKUP(A2,'Kwinno Pineda'!A1:F106,6,0)</f>
+        <f aca="false">VLOOKUP(A2,'Kwinno Pineda'!A1:F107,6,0)</f>
         <v>26</v>
       </c>
       <c r="F2" s="2" t="n">
@@ -1205,8 +1153,8 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="n">
-        <f aca="false">VLOOKUP(A3,'Kwinno Pineda'!A2:F107,6,0)</f>
-        <v>21</v>
+        <f aca="false">VLOOKUP(A3,'Kwinno Pineda'!A2:F108,6,0)</f>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="n">
         <f aca="false">VLOOKUP(A3,'Patrick Cura'!A2:F100,6,0)</f>
@@ -1214,7 +1162,7 @@
       </c>
       <c r="G3" s="2" t="n">
         <f aca="false">SUM(C3:F3)</f>
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -1252,7 +1200,7 @@
         <v>24</v>
       </c>
       <c r="E4" s="2" t="n">
-        <f aca="false">VLOOKUP(A4,'Kwinno Pineda'!A3:F108,6,0)</f>
+        <f aca="false">VLOOKUP(A4,'Kwinno Pineda'!A3:F109,6,0)</f>
         <v>30</v>
       </c>
       <c r="F4" s="2" t="n">
@@ -1299,8 +1247,8 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="n">
-        <f aca="false">VLOOKUP(A5,'Kwinno Pineda'!A4:F109,6,0)</f>
-        <v>26.5</v>
+        <f aca="false">VLOOKUP(A5,'Kwinno Pineda'!A4:F110,6,0)</f>
+        <v>27.5</v>
       </c>
       <c r="F5" s="2" t="n">
         <f aca="false">VLOOKUP(A5,'Patrick Cura'!A4:F102,6,0)</f>
@@ -1308,7 +1256,7 @@
       </c>
       <c r="G5" s="2" t="n">
         <f aca="false">SUM(C5:F5)</f>
-        <v>76.5</v>
+        <v>77.5</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1346,8 +1294,8 @@
         <v>23</v>
       </c>
       <c r="E6" s="2" t="n">
-        <f aca="false">VLOOKUP(A6,'Kwinno Pineda'!A5:F110,6,0)</f>
-        <v>24.5</v>
+        <f aca="false">VLOOKUP(A6,'Kwinno Pineda'!A5:F111,6,0)</f>
+        <v>24</v>
       </c>
       <c r="F6" s="2" t="n">
         <f aca="false">VLOOKUP(A6,'Patrick Cura'!A5:F103,6,0)</f>
@@ -1355,7 +1303,7 @@
       </c>
       <c r="G6" s="2" t="n">
         <f aca="false">SUM(C6:F6)</f>
-        <v>75.5</v>
+        <v>75</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1393,7 +1341,7 @@
         <v>42</v>
       </c>
       <c r="E7" s="2" t="n">
-        <f aca="false">VLOOKUP(A7,'Kwinno Pineda'!A6:F111,6,0)</f>
+        <f aca="false">VLOOKUP(A7,'Kwinno Pineda'!A6:F112,6,0)</f>
         <v>34</v>
       </c>
       <c r="F7" s="2" t="n">
@@ -1440,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
-        <f aca="false">VLOOKUP(A8,'Kwinno Pineda'!A7:F112,6,0)</f>
+        <f aca="false">VLOOKUP(A8,'Kwinno Pineda'!A7:F113,6,0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
@@ -1487,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="n">
-        <f aca="false">VLOOKUP(A9,'Kwinno Pineda'!A8:F113,6,0)</f>
+        <f aca="false">VLOOKUP(A9,'Kwinno Pineda'!A8:F114,6,0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="2" t="n">
@@ -1534,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
-        <f aca="false">VLOOKUP(A10,'Kwinno Pineda'!A9:F114,6,0)</f>
+        <f aca="false">VLOOKUP(A10,'Kwinno Pineda'!A9:F115,6,0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
@@ -1581,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="n">
-        <f aca="false">VLOOKUP(A11,'Kwinno Pineda'!A10:F115,6,0)</f>
+        <f aca="false">VLOOKUP(A11,'Kwinno Pineda'!A11:F116,6,0)</f>
         <v>0</v>
       </c>
       <c r="F11" s="2" t="n">
@@ -1628,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
-        <f aca="false">VLOOKUP(A12,'Kwinno Pineda'!A11:F116,6,0)</f>
+        <f aca="false">VLOOKUP(A12,'Kwinno Pineda'!A12:F117,6,0)</f>
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
@@ -1675,7 +1623,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="n">
-        <f aca="false">VLOOKUP(A13,'Kwinno Pineda'!A12:F117,6,0)</f>
+        <f aca="false">VLOOKUP(A13,'Kwinno Pineda'!A13:F118,6,0)</f>
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
@@ -1722,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="n">
-        <f aca="false">VLOOKUP(A14,'Kwinno Pineda'!A13:F118,6,0)</f>
+        <f aca="false">VLOOKUP(A14,'Kwinno Pineda'!A14:F119,6,0)</f>
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
@@ -1769,7 +1717,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="n">
-        <f aca="false">VLOOKUP(A15,'Kwinno Pineda'!A14:F119,6,0)</f>
+        <f aca="false">VLOOKUP(A15,'Kwinno Pineda'!A15:F120,6,0)</f>
         <v>0</v>
       </c>
       <c r="F15" s="2" t="n">
@@ -1813,7 +1761,7 @@
       </c>
       <c r="E16" s="2" t="n">
         <f aca="false">SUM(E2:E15)</f>
-        <v>162</v>
+        <v>167.5</v>
       </c>
       <c r="F16" s="2" t="n">
         <f aca="false">SUM(F2:F15)</f>
@@ -1821,7 +1769,7 @@
       </c>
       <c r="G16" s="2" t="n">
         <f aca="false">SUM(G2:G15)</f>
-        <v>466</v>
+        <v>471.5</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1867,14 +1815,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="61.7767441860465"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="1" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="63.6232558139535"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="6.52093023255814"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="1" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,11 +4906,6 @@
     <mergeCell ref="A93:A99"/>
     <mergeCell ref="F93:F99"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C2,C4,C6:C1000">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>LEN(TRIM(C1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4981,21 +4924,21 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C56" activeCellId="0" sqref="C56"/>
+      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.78604651162791"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.6418604651163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="78.5116279069767"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.1674418604651"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.02790697674419"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="16.9813953488372"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="1" width="11.3209302325581"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.90697674418605"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="31.5023255813953"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="14" width="80.8511627906977"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="21.6604651162791"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="6.15348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="17.4744186046512"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="1" width="11.693023255814"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="1" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,7 +4961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -6568,24 +6511,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z106"/>
+  <dimension ref="A1:Z107"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.1302325581395"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3395348837209"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5674418604651"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.9767441860465"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="29.5441860465116"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.9348837209302"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6636,9 +6579,11 @@
         <v>42562</v>
       </c>
       <c r="C2" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="31"/>
       <c r="E2" s="32" t="n">
         <v>5</v>
       </c>
@@ -6673,9 +6618,11 @@
         <v>42563</v>
       </c>
       <c r="C3" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="31"/>
       <c r="E3" s="32" t="n">
         <v>5.5</v>
       </c>
@@ -6707,9 +6654,11 @@
         <v>42564</v>
       </c>
       <c r="C4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="31"/>
       <c r="E4" s="32" t="n">
         <v>6</v>
       </c>
@@ -6741,9 +6690,11 @@
         <v>42565</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="31"/>
       <c r="E5" s="32" t="n">
         <v>3.5</v>
       </c>
@@ -6775,9 +6726,11 @@
         <v>42566</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>53</v>
+      </c>
       <c r="E6" s="32" t="n">
         <v>6</v>
       </c>
@@ -6838,9 +6791,7 @@
       <c r="B8" s="29" t="n">
         <v>42568</v>
       </c>
-      <c r="C8" s="35" t="s">
-        <v>56</v>
-      </c>
+      <c r="C8" s="35"/>
       <c r="D8" s="31"/>
       <c r="E8" s="34"/>
       <c r="F8" s="25"/>
@@ -6872,12 +6823,18 @@
       <c r="B9" s="29" t="n">
         <v>42569</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="34"/>
+      <c r="C9" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="34" t="n">
+        <v>4</v>
+      </c>
       <c r="F9" s="25" t="n">
-        <f aca="false">SUM(E9:E15)</f>
-        <v>21</v>
+        <f aca="false">SUM(E9:E16)</f>
+        <v>26</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -6906,10 +6863,12 @@
         <v>42570</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32" t="n">
+        <v>33</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="34" t="n">
         <v>5</v>
       </c>
       <c r="F10" s="25"/>
@@ -6940,11 +6899,13 @@
         <v>42571</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="31"/>
+        <v>37</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>57</v>
+      </c>
       <c r="E11" s="32" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F11" s="25"/>
       <c r="G11" s="28"/>
@@ -6971,11 +6932,17 @@
     <row r="12" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25"/>
       <c r="B12" s="29" t="n">
-        <v>42572</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="34"/>
+        <v>42571</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E12" s="32" t="n">
+        <v>6</v>
+      </c>
       <c r="F12" s="25"/>
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
@@ -7001,15 +6968,11 @@
     <row r="13" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25"/>
       <c r="B13" s="29" t="n">
-        <v>42573</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>59</v>
-      </c>
+        <v>42572</v>
+      </c>
+      <c r="C13" s="33"/>
       <c r="D13" s="31"/>
-      <c r="E13" s="32" t="n">
-        <v>6</v>
-      </c>
+      <c r="E13" s="34"/>
       <c r="F13" s="25"/>
       <c r="G13" s="28"/>
       <c r="H13" s="28"/>
@@ -7035,11 +6998,17 @@
     <row r="14" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25"/>
       <c r="B14" s="29" t="n">
-        <v>42574</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="34"/>
+        <v>42573</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="32" t="n">
+        <v>6</v>
+      </c>
       <c r="F14" s="25"/>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -7065,15 +7034,11 @@
     <row r="15" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25"/>
       <c r="B15" s="29" t="n">
-        <v>42575</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>60</v>
-      </c>
+        <v>42574</v>
+      </c>
+      <c r="C15" s="33"/>
       <c r="D15" s="31"/>
-      <c r="E15" s="32" t="n">
-        <v>4</v>
-      </c>
+      <c r="E15" s="34"/>
       <c r="F15" s="25"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
@@ -7097,23 +7062,20 @@
       <c r="Z15" s="28"/>
     </row>
     <row r="16" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="n">
-        <v>3</v>
-      </c>
+      <c r="A16" s="25"/>
       <c r="B16" s="29" t="n">
-        <v>42576</v>
+        <v>42575</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" s="31"/>
+        <v>35</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>58</v>
+      </c>
       <c r="E16" s="32" t="n">
-        <v>7</v>
-      </c>
-      <c r="F16" s="25" t="n">
-        <f aca="false">SUM(E16:E22)</f>
-        <v>30</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F16" s="25"/>
       <c r="G16" s="28"/>
       <c r="H16" s="28"/>
       <c r="I16" s="28"/>
@@ -7136,18 +7098,25 @@
       <c r="Z16" s="28"/>
     </row>
     <row r="17" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25"/>
+      <c r="A17" s="25" t="n">
+        <v>3</v>
+      </c>
       <c r="B17" s="29" t="n">
-        <v>42577</v>
+        <v>42576</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>59</v>
+      </c>
       <c r="E17" s="32" t="n">
-        <v>8</v>
-      </c>
-      <c r="F17" s="25"/>
+        <v>7</v>
+      </c>
+      <c r="F17" s="25" t="n">
+        <f aca="false">SUM(E17:E23)</f>
+        <v>30</v>
+      </c>
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
@@ -7172,14 +7141,16 @@
     <row r="18" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="25"/>
       <c r="B18" s="29" t="n">
-        <v>42578</v>
+        <v>42577</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>60</v>
+      </c>
       <c r="E18" s="32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F18" s="25"/>
       <c r="G18" s="28"/>
@@ -7206,11 +7177,17 @@
     <row r="19" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="25"/>
       <c r="B19" s="29" t="n">
-        <v>42579</v>
-      </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="34"/>
+        <v>42578</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="32" t="n">
+        <v>7.5</v>
+      </c>
       <c r="F19" s="25"/>
       <c r="G19" s="28"/>
       <c r="H19" s="28"/>
@@ -7236,15 +7213,11 @@
     <row r="20" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="25"/>
       <c r="B20" s="29" t="n">
-        <v>42580</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>64</v>
-      </c>
+        <v>42579</v>
+      </c>
+      <c r="C20" s="33"/>
       <c r="D20" s="31"/>
-      <c r="E20" s="32" t="n">
-        <v>4</v>
-      </c>
+      <c r="E20" s="34"/>
       <c r="F20" s="25"/>
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
@@ -7270,11 +7243,17 @@
     <row r="21" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="25"/>
       <c r="B21" s="29" t="n">
-        <v>42581</v>
-      </c>
-      <c r="C21" s="33"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="34"/>
+        <v>42580</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="32" t="n">
+        <v>4</v>
+      </c>
       <c r="F21" s="25"/>
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
@@ -7300,15 +7279,11 @@
     <row r="22" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="25"/>
       <c r="B22" s="29" t="n">
-        <v>42582</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>65</v>
-      </c>
+        <v>42581</v>
+      </c>
+      <c r="C22" s="33"/>
       <c r="D22" s="31"/>
-      <c r="E22" s="32" t="n">
-        <v>3.5</v>
-      </c>
+      <c r="E22" s="34"/>
       <c r="F22" s="25"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -7332,23 +7307,20 @@
       <c r="Z22" s="28"/>
     </row>
     <row r="23" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="25" t="n">
-        <v>4</v>
-      </c>
+      <c r="A23" s="25"/>
       <c r="B23" s="29" t="n">
-        <v>42583</v>
+        <v>42582</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>63</v>
+      </c>
       <c r="E23" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="F23" s="25" t="n">
-        <f aca="false">SUM(E23:E29)</f>
-        <v>26.5</v>
-      </c>
+        <v>3.5</v>
+      </c>
+      <c r="F23" s="25"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="I23" s="28"/>
@@ -7371,18 +7343,25 @@
       <c r="Z23" s="28"/>
     </row>
     <row r="24" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="25"/>
+      <c r="A24" s="25" t="n">
+        <v>4</v>
+      </c>
       <c r="B24" s="29" t="n">
-        <v>42584</v>
+        <v>42583</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>64</v>
+      </c>
       <c r="E24" s="32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F24" s="25"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="25" t="n">
+        <f aca="false">SUM(E24:E30)</f>
+        <v>27.5</v>
+      </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
       <c r="I24" s="28"/>
@@ -7407,14 +7386,16 @@
     <row r="25" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="25"/>
       <c r="B25" s="29" t="n">
-        <v>42585</v>
+        <v>42584</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="25" t="n">
-        <v>8.5</v>
+        <v>33</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="32" t="n">
+        <v>4.5</v>
       </c>
       <c r="F25" s="25"/>
       <c r="G25" s="28"/>
@@ -7441,11 +7422,17 @@
     <row r="26" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="25"/>
       <c r="B26" s="29" t="n">
-        <v>42586</v>
-      </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="34"/>
+        <v>42585</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="25" t="n">
+        <v>8.5</v>
+      </c>
       <c r="F26" s="25"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
@@ -7471,15 +7458,11 @@
     <row r="27" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="25"/>
       <c r="B27" s="29" t="n">
-        <v>42587</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>69</v>
-      </c>
+        <v>42586</v>
+      </c>
+      <c r="C27" s="33"/>
       <c r="D27" s="31"/>
-      <c r="E27" s="25" t="n">
-        <v>4.5</v>
-      </c>
+      <c r="E27" s="34"/>
       <c r="F27" s="25"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -7505,11 +7488,17 @@
     <row r="28" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="25"/>
       <c r="B28" s="29" t="n">
-        <v>42588</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="34"/>
+        <v>42587</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="25" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F28" s="25"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
@@ -7535,15 +7524,11 @@
     <row r="29" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="25"/>
       <c r="B29" s="29" t="n">
-        <v>42589</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>70</v>
-      </c>
+        <v>42588</v>
+      </c>
+      <c r="C29" s="33"/>
       <c r="D29" s="31"/>
-      <c r="E29" s="25" t="n">
-        <v>5</v>
-      </c>
+      <c r="E29" s="34"/>
       <c r="F29" s="25"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
@@ -7567,23 +7552,20 @@
       <c r="Z29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="25" t="n">
-        <v>5</v>
-      </c>
+      <c r="A30" s="25"/>
       <c r="B30" s="29" t="n">
-        <v>42590</v>
+        <v>42589</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>68</v>
+      </c>
       <c r="E30" s="25" t="n">
-        <v>8</v>
-      </c>
-      <c r="F30" s="25" t="n">
-        <f aca="false">SUM(E30:E36)</f>
-        <v>24.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="F30" s="25"/>
       <c r="G30" s="28"/>
       <c r="H30" s="28"/>
       <c r="I30" s="28"/>
@@ -7606,18 +7588,25 @@
       <c r="Z30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25"/>
+      <c r="A31" s="25" t="n">
+        <v>5</v>
+      </c>
       <c r="B31" s="29" t="n">
-        <v>42591</v>
+        <v>42590</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>69</v>
+      </c>
       <c r="E31" s="25" t="n">
-        <v>6</v>
-      </c>
-      <c r="F31" s="25"/>
+        <v>8</v>
+      </c>
+      <c r="F31" s="25" t="n">
+        <f aca="false">SUM(E31:E37)</f>
+        <v>24</v>
+      </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28"/>
       <c r="I31" s="28"/>
@@ -7642,14 +7631,16 @@
     <row r="32" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="25"/>
       <c r="B32" s="29" t="n">
-        <v>42592</v>
+        <v>42591</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="31"/>
+        <v>33</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>70</v>
+      </c>
       <c r="E32" s="25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F32" s="25"/>
       <c r="G32" s="28"/>
@@ -7676,11 +7667,17 @@
     <row r="33" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="25"/>
       <c r="B33" s="29" t="n">
-        <v>42593</v>
-      </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="34"/>
+        <v>42592</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E33" s="25" t="n">
+        <v>4</v>
+      </c>
       <c r="F33" s="25"/>
       <c r="G33" s="28"/>
       <c r="H33" s="28"/>
@@ -7706,15 +7703,11 @@
     <row r="34" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="25"/>
       <c r="B34" s="29" t="n">
-        <v>42594</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>74</v>
-      </c>
+        <v>42593</v>
+      </c>
+      <c r="C34" s="33"/>
       <c r="D34" s="31"/>
-      <c r="E34" s="25" t="n">
-        <v>2.5</v>
-      </c>
+      <c r="E34" s="34"/>
       <c r="F34" s="25"/>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -7740,11 +7733,17 @@
     <row r="35" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="25"/>
       <c r="B35" s="29" t="n">
-        <v>42595</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="34"/>
+        <v>42594</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E35" s="25" t="n">
+        <v>2</v>
+      </c>
       <c r="F35" s="25"/>
       <c r="G35" s="28"/>
       <c r="H35" s="28"/>
@@ -7770,15 +7769,11 @@
     <row r="36" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="25"/>
       <c r="B36" s="29" t="n">
-        <v>42596</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>75</v>
-      </c>
+        <v>42595</v>
+      </c>
+      <c r="C36" s="33"/>
       <c r="D36" s="31"/>
-      <c r="E36" s="25" t="n">
-        <v>4</v>
-      </c>
+      <c r="E36" s="34"/>
       <c r="F36" s="25"/>
       <c r="G36" s="28"/>
       <c r="H36" s="28"/>
@@ -7802,23 +7797,20 @@
       <c r="Z36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="25" t="n">
-        <v>6</v>
-      </c>
+      <c r="A37" s="25"/>
       <c r="B37" s="29" t="n">
-        <v>42597</v>
+        <v>42596</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="31"/>
+        <v>74</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="E37" s="25" t="n">
-        <v>9</v>
-      </c>
-      <c r="F37" s="25" t="n">
-        <f aca="false">SUM(E37:E50)</f>
-        <v>34</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="F37" s="25"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
       <c r="I37" s="28"/>
@@ -7841,18 +7833,25 @@
       <c r="Z37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="25"/>
+      <c r="A38" s="25" t="n">
+        <v>6</v>
+      </c>
       <c r="B38" s="29" t="n">
-        <v>42598</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="D38" s="37"/>
+        <v>42597</v>
+      </c>
+      <c r="C38" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>75</v>
+      </c>
       <c r="E38" s="25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F38" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="F38" s="25" t="n">
+        <f aca="false">SUM(E38:E51)</f>
+        <v>34</v>
+      </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
       <c r="I38" s="28"/>
@@ -7877,16 +7876,16 @@
     <row r="39" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="25"/>
       <c r="B39" s="29" t="n">
-        <v>42599</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>79</v>
+        <v>42598</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="38" t="s">
+        <v>77</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="28"/>
@@ -7912,17 +7911,17 @@
     </row>
     <row r="40" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="25"/>
-      <c r="B40" s="38" t="n">
+      <c r="B40" s="29" t="n">
         <v>42599</v>
       </c>
       <c r="C40" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="37" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>55</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="28"/>
@@ -7948,17 +7947,17 @@
     </row>
     <row r="41" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="25"/>
-      <c r="B41" s="38" t="n">
+      <c r="B41" s="29" t="n">
         <v>42599</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D41" s="37" t="s">
-        <v>81</v>
+      <c r="D41" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="28"/>
@@ -7984,17 +7983,17 @@
     </row>
     <row r="42" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="25"/>
-      <c r="B42" s="38" t="n">
+      <c r="B42" s="29" t="n">
         <v>42599</v>
       </c>
-      <c r="C42" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="37" t="s">
-        <v>82</v>
+      <c r="C42" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="38" t="s">
+        <v>80</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="28"/>
@@ -8020,14 +8019,14 @@
     </row>
     <row r="43" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="25"/>
-      <c r="B43" s="38" t="n">
+      <c r="B43" s="29" t="n">
         <v>42599</v>
       </c>
-      <c r="C43" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>82</v>
+      <c r="C43" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>81</v>
       </c>
       <c r="E43" s="25" t="n">
         <v>0.5</v>
@@ -8057,13 +8056,17 @@
     <row r="44" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="25"/>
       <c r="B44" s="29" t="n">
-        <v>42600</v>
-      </c>
-      <c r="C44" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="37"/>
-      <c r="E44" s="25"/>
+        <v>42599</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="25" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F44" s="25"/>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
@@ -8089,17 +8092,13 @@
     <row r="45" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="25"/>
       <c r="B45" s="29" t="n">
-        <v>42601</v>
-      </c>
-      <c r="C45" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E45" s="25" t="n">
-        <v>2.5</v>
-      </c>
+        <v>42600</v>
+      </c>
+      <c r="C45" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" s="38"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -8125,16 +8124,16 @@
     <row r="46" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="25"/>
       <c r="B46" s="29" t="n">
-        <v>42602</v>
-      </c>
-      <c r="C46" s="39" t="s">
+        <v>42601</v>
+      </c>
+      <c r="C46" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="37" t="s">
-        <v>84</v>
+      <c r="D46" s="38" t="s">
+        <v>82</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="28"/>
@@ -8160,17 +8159,17 @@
     </row>
     <row r="47" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="25"/>
-      <c r="B47" s="38" t="n">
-        <v>42603</v>
-      </c>
-      <c r="C47" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>85</v>
+      <c r="B47" s="29" t="n">
+        <v>42602</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>83</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="28"/>
@@ -8196,14 +8195,14 @@
     </row>
     <row r="48" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="25"/>
-      <c r="B48" s="38" t="n">
+      <c r="B48" s="29" t="n">
         <v>42603</v>
       </c>
-      <c r="C48" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D48" s="37" t="s">
-        <v>85</v>
+      <c r="C48" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="E48" s="25" t="n">
         <v>0.5</v>
@@ -8232,17 +8231,17 @@
     </row>
     <row r="49" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="25"/>
-      <c r="B49" s="38" t="n">
+      <c r="B49" s="29" t="n">
         <v>42603</v>
       </c>
-      <c r="C49" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" s="37" t="s">
-        <v>87</v>
+      <c r="C49" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="E49" s="25" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F49" s="25"/>
       <c r="G49" s="28"/>
@@ -8271,11 +8270,11 @@
       <c r="B50" s="29" t="n">
         <v>42603</v>
       </c>
-      <c r="C50" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>87</v>
+      <c r="C50" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="38" t="s">
+        <v>86</v>
       </c>
       <c r="E50" s="25" t="n">
         <v>3.5</v>
@@ -8303,19 +8302,20 @@
       <c r="Z50" s="28"/>
     </row>
     <row r="51" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="25" t="n">
-        <v>7</v>
-      </c>
+      <c r="A51" s="25"/>
       <c r="B51" s="29" t="n">
-        <v>42604</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25" t="n">
-        <f aca="false">SUM(E51:E57)</f>
-        <v>0</v>
-      </c>
+        <v>42603</v>
+      </c>
+      <c r="C51" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="E51" s="25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F51" s="25"/>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
       <c r="I51" s="28"/>
@@ -8338,14 +8338,19 @@
       <c r="Z51" s="28"/>
     </row>
     <row r="52" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="25"/>
+      <c r="A52" s="25" t="n">
+        <v>7</v>
+      </c>
       <c r="B52" s="29" t="n">
-        <v>42605</v>
-      </c>
-      <c r="C52" s="36"/>
-      <c r="D52" s="37"/>
+        <v>42604</v>
+      </c>
+      <c r="C52" s="39"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
+      <c r="F52" s="25" t="n">
+        <f aca="false">SUM(E52:E58)</f>
+        <v>0</v>
+      </c>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
       <c r="I52" s="28"/>
@@ -8370,10 +8375,10 @@
     <row r="53" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="25"/>
       <c r="B53" s="29" t="n">
-        <v>42606</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="37"/>
+        <v>42605</v>
+      </c>
+      <c r="C53" s="39"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="28"/>
@@ -8400,10 +8405,10 @@
     <row r="54" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="25"/>
       <c r="B54" s="29" t="n">
-        <v>42607</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="37"/>
+        <v>42606</v>
+      </c>
+      <c r="C54" s="39"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="28"/>
@@ -8430,10 +8435,10 @@
     <row r="55" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="25"/>
       <c r="B55" s="29" t="n">
-        <v>42608</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+        <v>42607</v>
+      </c>
+      <c r="C55" s="39"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="28"/>
@@ -8460,10 +8465,10 @@
     <row r="56" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="25"/>
       <c r="B56" s="29" t="n">
-        <v>42609</v>
-      </c>
-      <c r="C56" s="36"/>
-      <c r="D56" s="37"/>
+        <v>42608</v>
+      </c>
+      <c r="C56" s="39"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="28"/>
@@ -8490,10 +8495,10 @@
     <row r="57" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="25"/>
       <c r="B57" s="29" t="n">
-        <v>42610</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="37"/>
+        <v>42609</v>
+      </c>
+      <c r="C57" s="39"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="28"/>
@@ -8518,19 +8523,14 @@
       <c r="Z57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="25" t="n">
-        <v>8</v>
-      </c>
+      <c r="A58" s="25"/>
       <c r="B58" s="29" t="n">
-        <v>42611</v>
-      </c>
-      <c r="C58" s="36"/>
-      <c r="D58" s="37"/>
+        <v>42610</v>
+      </c>
+      <c r="C58" s="39"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="25"/>
-      <c r="F58" s="25" t="n">
-        <f aca="false">SUM(E58:E64)</f>
-        <v>0</v>
-      </c>
+      <c r="F58" s="25"/>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
       <c r="I58" s="28"/>
@@ -8553,14 +8553,19 @@
       <c r="Z58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="25"/>
+      <c r="A59" s="25" t="n">
+        <v>8</v>
+      </c>
       <c r="B59" s="29" t="n">
-        <v>42612</v>
-      </c>
-      <c r="C59" s="36"/>
-      <c r="D59" s="37"/>
+        <v>42611</v>
+      </c>
+      <c r="C59" s="39"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
+      <c r="F59" s="25" t="n">
+        <f aca="false">SUM(E59:E65)</f>
+        <v>0</v>
+      </c>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
       <c r="I59" s="28"/>
@@ -8585,10 +8590,10 @@
     <row r="60" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="25"/>
       <c r="B60" s="29" t="n">
-        <v>42613</v>
-      </c>
-      <c r="C60" s="36"/>
-      <c r="D60" s="37"/>
+        <v>42612</v>
+      </c>
+      <c r="C60" s="39"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
       <c r="G60" s="28"/>
@@ -8615,10 +8620,10 @@
     <row r="61" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="25"/>
       <c r="B61" s="29" t="n">
-        <v>42614</v>
-      </c>
-      <c r="C61" s="36"/>
-      <c r="D61" s="37"/>
+        <v>42613</v>
+      </c>
+      <c r="C61" s="39"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
       <c r="G61" s="28"/>
@@ -8645,10 +8650,10 @@
     <row r="62" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="25"/>
       <c r="B62" s="29" t="n">
-        <v>42615</v>
-      </c>
-      <c r="C62" s="36"/>
-      <c r="D62" s="37"/>
+        <v>42614</v>
+      </c>
+      <c r="C62" s="39"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
       <c r="G62" s="28"/>
@@ -8675,10 +8680,10 @@
     <row r="63" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="25"/>
       <c r="B63" s="29" t="n">
-        <v>42616</v>
-      </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="37"/>
+        <v>42615</v>
+      </c>
+      <c r="C63" s="39"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="28"/>
@@ -8705,10 +8710,10 @@
     <row r="64" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="25"/>
       <c r="B64" s="29" t="n">
-        <v>42617</v>
-      </c>
-      <c r="C64" s="36"/>
-      <c r="D64" s="37"/>
+        <v>42616</v>
+      </c>
+      <c r="C64" s="39"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
       <c r="G64" s="28"/>
@@ -8733,19 +8738,14 @@
       <c r="Z64" s="28"/>
     </row>
     <row r="65" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25" t="n">
-        <v>9</v>
-      </c>
+      <c r="A65" s="25"/>
       <c r="B65" s="29" t="n">
-        <v>42618</v>
-      </c>
-      <c r="C65" s="36"/>
-      <c r="D65" s="37"/>
+        <v>42617</v>
+      </c>
+      <c r="C65" s="39"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="25"/>
-      <c r="F65" s="25" t="n">
-        <f aca="false">SUM(E65:E71)</f>
-        <v>0</v>
-      </c>
+      <c r="F65" s="25"/>
       <c r="G65" s="28"/>
       <c r="H65" s="28"/>
       <c r="I65" s="28"/>
@@ -8768,14 +8768,19 @@
       <c r="Z65" s="28"/>
     </row>
     <row r="66" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25"/>
+      <c r="A66" s="25" t="n">
+        <v>9</v>
+      </c>
       <c r="B66" s="29" t="n">
-        <v>42619</v>
-      </c>
-      <c r="C66" s="36"/>
-      <c r="D66" s="37"/>
+        <v>42618</v>
+      </c>
+      <c r="C66" s="39"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="25"/>
-      <c r="F66" s="25"/>
+      <c r="F66" s="25" t="n">
+        <f aca="false">SUM(E66:E72)</f>
+        <v>0</v>
+      </c>
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="28"/>
@@ -8800,10 +8805,10 @@
     <row r="67" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="25"/>
       <c r="B67" s="29" t="n">
-        <v>42620</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="37"/>
+        <v>42619</v>
+      </c>
+      <c r="C67" s="39"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
       <c r="G67" s="28"/>
@@ -8830,10 +8835,10 @@
     <row r="68" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="25"/>
       <c r="B68" s="29" t="n">
-        <v>42621</v>
-      </c>
-      <c r="C68" s="36"/>
-      <c r="D68" s="37"/>
+        <v>42620</v>
+      </c>
+      <c r="C68" s="39"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="28"/>
@@ -8860,10 +8865,10 @@
     <row r="69" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="25"/>
       <c r="B69" s="29" t="n">
-        <v>42622</v>
-      </c>
-      <c r="C69" s="36"/>
-      <c r="D69" s="37"/>
+        <v>42621</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="28"/>
@@ -8890,10 +8895,10 @@
     <row r="70" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="25"/>
       <c r="B70" s="29" t="n">
-        <v>42623</v>
-      </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="37"/>
+        <v>42622</v>
+      </c>
+      <c r="C70" s="39"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="28"/>
@@ -8920,10 +8925,10 @@
     <row r="71" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="25"/>
       <c r="B71" s="29" t="n">
-        <v>42624</v>
-      </c>
-      <c r="C71" s="36"/>
-      <c r="D71" s="37"/>
+        <v>42623</v>
+      </c>
+      <c r="C71" s="39"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
       <c r="G71" s="28"/>
@@ -8948,19 +8953,14 @@
       <c r="Z71" s="28"/>
     </row>
     <row r="72" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="25" t="n">
-        <v>10</v>
-      </c>
+      <c r="A72" s="25"/>
       <c r="B72" s="29" t="n">
-        <v>42625</v>
-      </c>
-      <c r="C72" s="36"/>
-      <c r="D72" s="37"/>
+        <v>42624</v>
+      </c>
+      <c r="C72" s="39"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="25"/>
-      <c r="F72" s="25" t="n">
-        <f aca="false">SUM(E72:E78)</f>
-        <v>0</v>
-      </c>
+      <c r="F72" s="25"/>
       <c r="G72" s="28"/>
       <c r="H72" s="28"/>
       <c r="I72" s="28"/>
@@ -8983,14 +8983,19 @@
       <c r="Z72" s="28"/>
     </row>
     <row r="73" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="25"/>
+      <c r="A73" s="25" t="n">
+        <v>10</v>
+      </c>
       <c r="B73" s="29" t="n">
-        <v>42626</v>
-      </c>
-      <c r="C73" s="36"/>
-      <c r="D73" s="37"/>
+        <v>42625</v>
+      </c>
+      <c r="C73" s="39"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="25"/>
-      <c r="F73" s="25"/>
+      <c r="F73" s="25" t="n">
+        <f aca="false">SUM(E73:E79)</f>
+        <v>0</v>
+      </c>
       <c r="G73" s="28"/>
       <c r="H73" s="28"/>
       <c r="I73" s="28"/>
@@ -9015,10 +9020,10 @@
     <row r="74" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="25"/>
       <c r="B74" s="29" t="n">
-        <v>42627</v>
-      </c>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
+        <v>42626</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="28"/>
@@ -9045,10 +9050,10 @@
     <row r="75" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="25"/>
       <c r="B75" s="29" t="n">
-        <v>42628</v>
-      </c>
-      <c r="C75" s="36"/>
-      <c r="D75" s="37"/>
+        <v>42627</v>
+      </c>
+      <c r="C75" s="39"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
       <c r="G75" s="28"/>
@@ -9075,10 +9080,10 @@
     <row r="76" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="25"/>
       <c r="B76" s="29" t="n">
-        <v>42629</v>
-      </c>
-      <c r="C76" s="36"/>
-      <c r="D76" s="37"/>
+        <v>42628</v>
+      </c>
+      <c r="C76" s="39"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
       <c r="G76" s="28"/>
@@ -9105,10 +9110,10 @@
     <row r="77" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="25"/>
       <c r="B77" s="29" t="n">
-        <v>42630</v>
-      </c>
-      <c r="C77" s="36"/>
-      <c r="D77" s="37"/>
+        <v>42629</v>
+      </c>
+      <c r="C77" s="39"/>
+      <c r="D77" s="38"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="28"/>
@@ -9135,10 +9140,10 @@
     <row r="78" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="25"/>
       <c r="B78" s="29" t="n">
-        <v>42631</v>
-      </c>
-      <c r="C78" s="36"/>
-      <c r="D78" s="37"/>
+        <v>42630</v>
+      </c>
+      <c r="C78" s="39"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
       <c r="G78" s="28"/>
@@ -9163,19 +9168,14 @@
       <c r="Z78" s="28"/>
     </row>
     <row r="79" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="25" t="n">
-        <v>11</v>
-      </c>
+      <c r="A79" s="25"/>
       <c r="B79" s="29" t="n">
-        <v>42632</v>
-      </c>
-      <c r="C79" s="36"/>
-      <c r="D79" s="37"/>
+        <v>42631</v>
+      </c>
+      <c r="C79" s="39"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="25"/>
-      <c r="F79" s="25" t="n">
-        <f aca="false">SUM(E79:E85)</f>
-        <v>0</v>
-      </c>
+      <c r="F79" s="25"/>
       <c r="G79" s="28"/>
       <c r="H79" s="28"/>
       <c r="I79" s="28"/>
@@ -9198,14 +9198,19 @@
       <c r="Z79" s="28"/>
     </row>
     <row r="80" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="25"/>
+      <c r="A80" s="25" t="n">
+        <v>11</v>
+      </c>
       <c r="B80" s="29" t="n">
-        <v>42633</v>
-      </c>
-      <c r="C80" s="36"/>
-      <c r="D80" s="37"/>
+        <v>42632</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="25"/>
-      <c r="F80" s="25"/>
+      <c r="F80" s="25" t="n">
+        <f aca="false">SUM(E80:E86)</f>
+        <v>0</v>
+      </c>
       <c r="G80" s="28"/>
       <c r="H80" s="28"/>
       <c r="I80" s="28"/>
@@ -9230,10 +9235,10 @@
     <row r="81" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="25"/>
       <c r="B81" s="29" t="n">
-        <v>42634</v>
-      </c>
-      <c r="C81" s="36"/>
-      <c r="D81" s="37"/>
+        <v>42633</v>
+      </c>
+      <c r="C81" s="39"/>
+      <c r="D81" s="38"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
       <c r="G81" s="28"/>
@@ -9260,10 +9265,10 @@
     <row r="82" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="25"/>
       <c r="B82" s="29" t="n">
-        <v>42635</v>
-      </c>
-      <c r="C82" s="36"/>
-      <c r="D82" s="37"/>
+        <v>42634</v>
+      </c>
+      <c r="C82" s="39"/>
+      <c r="D82" s="38"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
       <c r="G82" s="28"/>
@@ -9290,10 +9295,10 @@
     <row r="83" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="25"/>
       <c r="B83" s="29" t="n">
-        <v>42636</v>
-      </c>
-      <c r="C83" s="36"/>
-      <c r="D83" s="37"/>
+        <v>42635</v>
+      </c>
+      <c r="C83" s="39"/>
+      <c r="D83" s="38"/>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
       <c r="G83" s="28"/>
@@ -9320,10 +9325,10 @@
     <row r="84" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="25"/>
       <c r="B84" s="29" t="n">
-        <v>42637</v>
-      </c>
-      <c r="C84" s="36"/>
-      <c r="D84" s="37"/>
+        <v>42636</v>
+      </c>
+      <c r="C84" s="39"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
       <c r="G84" s="28"/>
@@ -9350,10 +9355,10 @@
     <row r="85" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="25"/>
       <c r="B85" s="29" t="n">
-        <v>42638</v>
-      </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="37"/>
+        <v>42637</v>
+      </c>
+      <c r="C85" s="39"/>
+      <c r="D85" s="38"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
       <c r="G85" s="28"/>
@@ -9378,19 +9383,14 @@
       <c r="Z85" s="28"/>
     </row>
     <row r="86" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="25" t="n">
-        <v>12</v>
-      </c>
+      <c r="A86" s="25"/>
       <c r="B86" s="29" t="n">
-        <v>42639</v>
-      </c>
-      <c r="C86" s="36"/>
-      <c r="D86" s="37"/>
+        <v>42638</v>
+      </c>
+      <c r="C86" s="39"/>
+      <c r="D86" s="38"/>
       <c r="E86" s="25"/>
-      <c r="F86" s="25" t="n">
-        <f aca="false">SUM(E86:E92)</f>
-        <v>0</v>
-      </c>
+      <c r="F86" s="25"/>
       <c r="G86" s="28"/>
       <c r="H86" s="28"/>
       <c r="I86" s="28"/>
@@ -9413,14 +9413,19 @@
       <c r="Z86" s="28"/>
     </row>
     <row r="87" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="25"/>
+      <c r="A87" s="25" t="n">
+        <v>12</v>
+      </c>
       <c r="B87" s="29" t="n">
-        <v>42640</v>
-      </c>
-      <c r="C87" s="36"/>
-      <c r="D87" s="37"/>
+        <v>42639</v>
+      </c>
+      <c r="C87" s="39"/>
+      <c r="D87" s="38"/>
       <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
+      <c r="F87" s="25" t="n">
+        <f aca="false">SUM(E87:E93)</f>
+        <v>0</v>
+      </c>
       <c r="G87" s="28"/>
       <c r="H87" s="28"/>
       <c r="I87" s="28"/>
@@ -9445,10 +9450,10 @@
     <row r="88" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="25"/>
       <c r="B88" s="29" t="n">
-        <v>42641</v>
-      </c>
-      <c r="C88" s="36"/>
-      <c r="D88" s="37"/>
+        <v>42640</v>
+      </c>
+      <c r="C88" s="39"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
       <c r="G88" s="28"/>
@@ -9475,10 +9480,10 @@
     <row r="89" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="25"/>
       <c r="B89" s="29" t="n">
-        <v>42642</v>
-      </c>
-      <c r="C89" s="36"/>
-      <c r="D89" s="37"/>
+        <v>42641</v>
+      </c>
+      <c r="C89" s="39"/>
+      <c r="D89" s="38"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
       <c r="G89" s="28"/>
@@ -9505,10 +9510,10 @@
     <row r="90" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="25"/>
       <c r="B90" s="29" t="n">
-        <v>42643</v>
-      </c>
-      <c r="C90" s="36"/>
-      <c r="D90" s="37"/>
+        <v>42642</v>
+      </c>
+      <c r="C90" s="39"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
       <c r="G90" s="28"/>
@@ -9535,10 +9540,10 @@
     <row r="91" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="25"/>
       <c r="B91" s="29" t="n">
-        <v>42644</v>
-      </c>
-      <c r="C91" s="36"/>
-      <c r="D91" s="37"/>
+        <v>42643</v>
+      </c>
+      <c r="C91" s="39"/>
+      <c r="D91" s="38"/>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
       <c r="G91" s="28"/>
@@ -9565,10 +9570,10 @@
     <row r="92" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="25"/>
       <c r="B92" s="29" t="n">
-        <v>42645</v>
-      </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="37"/>
+        <v>42644</v>
+      </c>
+      <c r="C92" s="39"/>
+      <c r="D92" s="38"/>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
       <c r="G92" s="28"/>
@@ -9593,19 +9598,14 @@
       <c r="Z92" s="28"/>
     </row>
     <row r="93" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="25" t="n">
-        <v>13</v>
-      </c>
+      <c r="A93" s="25"/>
       <c r="B93" s="29" t="n">
-        <v>42646</v>
-      </c>
-      <c r="C93" s="36"/>
-      <c r="D93" s="37"/>
+        <v>42645</v>
+      </c>
+      <c r="C93" s="39"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="25"/>
-      <c r="F93" s="25" t="n">
-        <f aca="false">SUM(E93:E99)</f>
-        <v>0</v>
-      </c>
+      <c r="F93" s="25"/>
       <c r="G93" s="28"/>
       <c r="H93" s="28"/>
       <c r="I93" s="28"/>
@@ -9628,14 +9628,19 @@
       <c r="Z93" s="28"/>
     </row>
     <row r="94" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="25"/>
+      <c r="A94" s="25" t="n">
+        <v>13</v>
+      </c>
       <c r="B94" s="29" t="n">
-        <v>42647</v>
-      </c>
-      <c r="C94" s="36"/>
-      <c r="D94" s="37"/>
+        <v>42646</v>
+      </c>
+      <c r="C94" s="39"/>
+      <c r="D94" s="38"/>
       <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
+      <c r="F94" s="25" t="n">
+        <f aca="false">SUM(E94:E100)</f>
+        <v>0</v>
+      </c>
       <c r="G94" s="28"/>
       <c r="H94" s="28"/>
       <c r="I94" s="28"/>
@@ -9660,10 +9665,10 @@
     <row r="95" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="25"/>
       <c r="B95" s="29" t="n">
-        <v>42648</v>
-      </c>
-      <c r="C95" s="36"/>
-      <c r="D95" s="37"/>
+        <v>42647</v>
+      </c>
+      <c r="C95" s="39"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
       <c r="G95" s="28"/>
@@ -9690,10 +9695,10 @@
     <row r="96" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="25"/>
       <c r="B96" s="29" t="n">
-        <v>42649</v>
-      </c>
-      <c r="C96" s="36"/>
-      <c r="D96" s="37"/>
+        <v>42648</v>
+      </c>
+      <c r="C96" s="39"/>
+      <c r="D96" s="38"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
       <c r="G96" s="28"/>
@@ -9720,10 +9725,10 @@
     <row r="97" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="25"/>
       <c r="B97" s="29" t="n">
-        <v>42650</v>
-      </c>
-      <c r="C97" s="36"/>
-      <c r="D97" s="37"/>
+        <v>42649</v>
+      </c>
+      <c r="C97" s="39"/>
+      <c r="D97" s="38"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="28"/>
@@ -9750,10 +9755,10 @@
     <row r="98" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="25"/>
       <c r="B98" s="29" t="n">
-        <v>42651</v>
-      </c>
-      <c r="C98" s="36"/>
-      <c r="D98" s="37"/>
+        <v>42650</v>
+      </c>
+      <c r="C98" s="39"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
       <c r="G98" s="28"/>
@@ -9780,10 +9785,10 @@
     <row r="99" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="25"/>
       <c r="B99" s="29" t="n">
-        <v>42652</v>
-      </c>
-      <c r="C99" s="36"/>
-      <c r="D99" s="37"/>
+        <v>42651</v>
+      </c>
+      <c r="C99" s="39"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
       <c r="G99" s="28"/>
@@ -9808,19 +9813,14 @@
       <c r="Z99" s="28"/>
     </row>
     <row r="100" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="25" t="n">
-        <v>14</v>
-      </c>
+      <c r="A100" s="25"/>
       <c r="B100" s="29" t="n">
-        <v>42653</v>
-      </c>
-      <c r="C100" s="36"/>
-      <c r="D100" s="37"/>
+        <v>42652</v>
+      </c>
+      <c r="C100" s="39"/>
+      <c r="D100" s="38"/>
       <c r="E100" s="25"/>
-      <c r="F100" s="25" t="n">
-        <f aca="false">SUM(E100:E106)</f>
-        <v>0</v>
-      </c>
+      <c r="F100" s="25"/>
       <c r="G100" s="28"/>
       <c r="H100" s="28"/>
       <c r="I100" s="28"/>
@@ -9843,14 +9843,19 @@
       <c r="Z100" s="28"/>
     </row>
     <row r="101" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="25"/>
+      <c r="A101" s="25" t="n">
+        <v>14</v>
+      </c>
       <c r="B101" s="29" t="n">
-        <v>42654</v>
-      </c>
-      <c r="C101" s="36"/>
-      <c r="D101" s="37"/>
+        <v>42653</v>
+      </c>
+      <c r="C101" s="39"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
+      <c r="F101" s="25" t="n">
+        <f aca="false">SUM(E101:E107)</f>
+        <v>0</v>
+      </c>
       <c r="G101" s="28"/>
       <c r="H101" s="28"/>
       <c r="I101" s="28"/>
@@ -9875,10 +9880,10 @@
     <row r="102" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="25"/>
       <c r="B102" s="29" t="n">
-        <v>42655</v>
-      </c>
-      <c r="C102" s="36"/>
-      <c r="D102" s="37"/>
+        <v>42654</v>
+      </c>
+      <c r="C102" s="39"/>
+      <c r="D102" s="38"/>
       <c r="E102" s="25"/>
       <c r="F102" s="25"/>
       <c r="G102" s="28"/>
@@ -9905,10 +9910,10 @@
     <row r="103" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="25"/>
       <c r="B103" s="29" t="n">
-        <v>42656</v>
-      </c>
-      <c r="C103" s="36"/>
-      <c r="D103" s="37"/>
+        <v>42655</v>
+      </c>
+      <c r="C103" s="39"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="25"/>
       <c r="F103" s="25"/>
       <c r="G103" s="28"/>
@@ -9935,10 +9940,10 @@
     <row r="104" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="25"/>
       <c r="B104" s="29" t="n">
-        <v>42657</v>
-      </c>
-      <c r="C104" s="36"/>
-      <c r="D104" s="37"/>
+        <v>42656</v>
+      </c>
+      <c r="C104" s="39"/>
+      <c r="D104" s="38"/>
       <c r="E104" s="25"/>
       <c r="F104" s="25"/>
       <c r="G104" s="28"/>
@@ -9965,10 +9970,10 @@
     <row r="105" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="25"/>
       <c r="B105" s="29" t="n">
-        <v>42658</v>
-      </c>
-      <c r="C105" s="36"/>
-      <c r="D105" s="37"/>
+        <v>42657</v>
+      </c>
+      <c r="C105" s="39"/>
+      <c r="D105" s="38"/>
       <c r="E105" s="25"/>
       <c r="F105" s="25"/>
       <c r="G105" s="28"/>
@@ -9995,10 +10000,10 @@
     <row r="106" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="25"/>
       <c r="B106" s="29" t="n">
-        <v>42659</v>
-      </c>
-      <c r="C106" s="36"/>
-      <c r="D106" s="37"/>
+        <v>42658</v>
+      </c>
+      <c r="C106" s="39"/>
+      <c r="D106" s="38"/>
       <c r="E106" s="25"/>
       <c r="F106" s="25"/>
       <c r="G106" s="28"/>
@@ -10022,36 +10027,66 @@
       <c r="Y106" s="28"/>
       <c r="Z106" s="28"/>
     </row>
+    <row r="107" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="25"/>
+      <c r="B107" s="29" t="n">
+        <v>42659</v>
+      </c>
+      <c r="C107" s="39"/>
+      <c r="D107" s="38"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="28"/>
+      <c r="O107" s="28"/>
+      <c r="P107" s="28"/>
+      <c r="Q107" s="28"/>
+      <c r="R107" s="28"/>
+      <c r="S107" s="28"/>
+      <c r="T107" s="28"/>
+      <c r="U107" s="28"/>
+      <c r="V107" s="28"/>
+      <c r="W107" s="28"/>
+      <c r="X107" s="28"/>
+      <c r="Y107" s="28"/>
+      <c r="Z107" s="28"/>
+    </row>
   </sheetData>
   <mergeCells count="28">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="A37:A50"/>
-    <mergeCell ref="F37:F50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="A65:A71"/>
-    <mergeCell ref="F65:F71"/>
-    <mergeCell ref="A72:A78"/>
-    <mergeCell ref="F72:F78"/>
-    <mergeCell ref="A79:A85"/>
-    <mergeCell ref="F79:F85"/>
-    <mergeCell ref="A86:A92"/>
-    <mergeCell ref="F86:F92"/>
-    <mergeCell ref="A93:A99"/>
-    <mergeCell ref="F93:F99"/>
-    <mergeCell ref="A100:A106"/>
-    <mergeCell ref="F100:F106"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="F38:F51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="F66:F72"/>
+    <mergeCell ref="A73:A79"/>
+    <mergeCell ref="F73:F79"/>
+    <mergeCell ref="A80:A86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="A87:A93"/>
+    <mergeCell ref="F87:F93"/>
+    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="F94:F100"/>
+    <mergeCell ref="A101:A107"/>
+    <mergeCell ref="F101:F107"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -10080,13 +10115,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3395348837209"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3348837209302"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.1302325581395"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.5674418604651"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.2"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.7813953488372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5813953488372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.3209302325581"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="64.9767441860465"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.1813953488372"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.5674418604651"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="14.153488372093"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10136,10 +10171,10 @@
       <c r="B2" s="29" t="n">
         <v>42562</v>
       </c>
-      <c r="C2" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="37"/>
+      <c r="C2" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="38"/>
       <c r="E2" s="32" t="n">
         <v>9</v>
       </c>
@@ -10173,10 +10208,10 @@
       <c r="B3" s="29" t="n">
         <v>42563</v>
       </c>
-      <c r="C3" s="41" t="s">
-        <v>89</v>
-      </c>
-      <c r="D3" s="37"/>
+      <c r="C3" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="38"/>
       <c r="E3" s="32" t="n">
         <v>7</v>
       </c>
@@ -10207,10 +10242,10 @@
       <c r="B4" s="29" t="n">
         <v>42564</v>
       </c>
-      <c r="C4" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="37"/>
+      <c r="C4" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4" s="38"/>
       <c r="E4" s="32" t="n">
         <v>7</v>
       </c>
@@ -10241,8 +10276,8 @@
       <c r="B5" s="29" t="n">
         <v>42565</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="37"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="32"/>
       <c r="F5" s="25"/>
       <c r="G5" s="28"/>
@@ -10271,8 +10306,8 @@
       <c r="B6" s="29" t="n">
         <v>42566</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="37"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="32"/>
       <c r="F6" s="25"/>
       <c r="G6" s="28"/>
@@ -10301,8 +10336,8 @@
       <c r="B7" s="29" t="n">
         <v>42567</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="38"/>
       <c r="E7" s="32"/>
       <c r="F7" s="25"/>
       <c r="G7" s="28"/>
@@ -10331,10 +10366,10 @@
       <c r="B8" s="29" t="n">
         <v>42568</v>
       </c>
-      <c r="C8" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="37"/>
+      <c r="C8" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="38"/>
       <c r="E8" s="32" t="n">
         <v>4</v>
       </c>
@@ -10367,10 +10402,10 @@
       <c r="B9" s="29" t="n">
         <v>42569</v>
       </c>
-      <c r="C9" s="41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D9" s="37"/>
+      <c r="C9" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="38"/>
       <c r="E9" s="32" t="n">
         <v>4</v>
       </c>
@@ -10404,10 +10439,10 @@
       <c r="B10" s="29" t="n">
         <v>42570</v>
       </c>
-      <c r="C10" s="41" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="37"/>
+      <c r="C10" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="38"/>
       <c r="E10" s="32" t="n">
         <v>5</v>
       </c>
@@ -10438,10 +10473,10 @@
       <c r="B11" s="29" t="n">
         <v>42571</v>
       </c>
-      <c r="C11" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="D11" s="37"/>
+      <c r="C11" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="38"/>
       <c r="E11" s="32" t="n">
         <v>6</v>
       </c>
@@ -10472,8 +10507,8 @@
       <c r="B12" s="29" t="n">
         <v>42572</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="37"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="38"/>
       <c r="E12" s="32"/>
       <c r="F12" s="25"/>
       <c r="G12" s="28"/>
@@ -10502,8 +10537,8 @@
       <c r="B13" s="29" t="n">
         <v>42573</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="37"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="32"/>
       <c r="F13" s="25"/>
       <c r="G13" s="28"/>
@@ -10532,10 +10567,10 @@
       <c r="B14" s="29" t="n">
         <v>42574</v>
       </c>
-      <c r="C14" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="37"/>
+      <c r="C14" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="38"/>
       <c r="E14" s="32" t="n">
         <v>1</v>
       </c>
@@ -10566,10 +10601,10 @@
       <c r="B15" s="29" t="n">
         <v>42575</v>
       </c>
-      <c r="C15" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="37"/>
+      <c r="C15" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="38"/>
       <c r="E15" s="32" t="n">
         <v>5</v>
       </c>
@@ -10602,10 +10637,10 @@
       <c r="B16" s="29" t="n">
         <v>42576</v>
       </c>
-      <c r="C16" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="D16" s="37"/>
+      <c r="C16" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="38"/>
       <c r="E16" s="32" t="n">
         <v>7</v>
       </c>
@@ -10639,10 +10674,10 @@
       <c r="B17" s="29" t="n">
         <v>42577</v>
       </c>
-      <c r="C17" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="37"/>
+      <c r="C17" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="38"/>
       <c r="E17" s="32" t="n">
         <v>7</v>
       </c>
@@ -10673,10 +10708,10 @@
       <c r="B18" s="29" t="n">
         <v>42578</v>
       </c>
-      <c r="C18" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="37"/>
+      <c r="C18" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="38"/>
       <c r="E18" s="32" t="n">
         <v>6</v>
       </c>
@@ -10707,8 +10742,8 @@
       <c r="B19" s="29" t="n">
         <v>42579</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="37"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="38"/>
       <c r="E19" s="32"/>
       <c r="F19" s="25"/>
       <c r="G19" s="28"/>
@@ -10737,8 +10772,8 @@
       <c r="B20" s="29" t="n">
         <v>42580</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="37"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="32"/>
       <c r="F20" s="25"/>
       <c r="G20" s="28"/>
@@ -10767,10 +10802,10 @@
       <c r="B21" s="29" t="n">
         <v>42581</v>
       </c>
-      <c r="C21" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="37"/>
+      <c r="C21" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="38"/>
       <c r="E21" s="32" t="n">
         <v>5</v>
       </c>
@@ -10801,10 +10836,10 @@
       <c r="B22" s="29" t="n">
         <v>42582</v>
       </c>
-      <c r="C22" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="37"/>
+      <c r="C22" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="38"/>
       <c r="E22" s="32" t="n">
         <v>5</v>
       </c>
@@ -10837,10 +10872,10 @@
       <c r="B23" s="29" t="n">
         <v>42583</v>
       </c>
-      <c r="C23" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" s="37"/>
+      <c r="C23" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="38"/>
       <c r="E23" s="32" t="n">
         <v>7</v>
       </c>
@@ -10874,10 +10909,10 @@
       <c r="B24" s="29" t="n">
         <v>42584</v>
       </c>
-      <c r="C24" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="37"/>
+      <c r="C24" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="38"/>
       <c r="E24" s="32" t="n">
         <v>10</v>
       </c>
@@ -10908,10 +10943,10 @@
       <c r="B25" s="29" t="n">
         <v>42585</v>
       </c>
-      <c r="C25" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="D25" s="37"/>
+      <c r="C25" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="D25" s="38"/>
       <c r="E25" s="25" t="n">
         <v>6</v>
       </c>
@@ -10942,8 +10977,8 @@
       <c r="B26" s="29" t="n">
         <v>42586</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="37"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="25"/>
       <c r="F26" s="25"/>
       <c r="G26" s="28"/>
@@ -10972,8 +11007,8 @@
       <c r="B27" s="29" t="n">
         <v>42587</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="37"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="38"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="28"/>
@@ -11002,8 +11037,8 @@
       <c r="B28" s="29" t="n">
         <v>42588</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="37"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="38"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="28"/>
@@ -11032,10 +11067,10 @@
       <c r="B29" s="29" t="n">
         <v>42589</v>
       </c>
-      <c r="C29" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D29" s="37"/>
+      <c r="C29" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="38"/>
       <c r="E29" s="25" t="n">
         <v>5</v>
       </c>
@@ -11068,10 +11103,10 @@
       <c r="B30" s="29" t="n">
         <v>42590</v>
       </c>
-      <c r="C30" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D30" s="37"/>
+      <c r="C30" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D30" s="38"/>
       <c r="E30" s="25" t="n">
         <v>5</v>
       </c>
@@ -11105,10 +11140,10 @@
       <c r="B31" s="29" t="n">
         <v>42591</v>
       </c>
-      <c r="C31" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="D31" s="37"/>
+      <c r="C31" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="38"/>
       <c r="E31" s="25" t="n">
         <v>4</v>
       </c>
@@ -11139,10 +11174,10 @@
       <c r="B32" s="29" t="n">
         <v>42592</v>
       </c>
-      <c r="C32" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="D32" s="37"/>
+      <c r="C32" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D32" s="38"/>
       <c r="E32" s="25" t="n">
         <v>4</v>
       </c>
@@ -11173,8 +11208,8 @@
       <c r="B33" s="29" t="n">
         <v>42593</v>
       </c>
-      <c r="C33" s="41"/>
-      <c r="D33" s="37"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="25"/>
       <c r="F33" s="25"/>
       <c r="G33" s="28"/>
@@ -11203,8 +11238,8 @@
       <c r="B34" s="29" t="n">
         <v>42594</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="37"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="28"/>
@@ -11233,10 +11268,10 @@
       <c r="B35" s="29" t="n">
         <v>42595</v>
       </c>
-      <c r="C35" s="41" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="37"/>
+      <c r="C35" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="38"/>
       <c r="E35" s="25" t="n">
         <v>7</v>
       </c>
@@ -11267,10 +11302,10 @@
       <c r="B36" s="29" t="n">
         <v>42596</v>
       </c>
-      <c r="C36" s="41" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="37"/>
+      <c r="C36" s="40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="38"/>
       <c r="E36" s="25" t="n">
         <v>8</v>
       </c>
@@ -11303,10 +11338,10 @@
       <c r="B37" s="29" t="n">
         <v>42597</v>
       </c>
-      <c r="C37" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="37"/>
+      <c r="C37" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="38"/>
       <c r="E37" s="25" t="n">
         <v>8</v>
       </c>
@@ -11340,10 +11375,10 @@
       <c r="B38" s="29" t="n">
         <v>42598</v>
       </c>
-      <c r="C38" s="41" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="37"/>
+      <c r="C38" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="38"/>
       <c r="E38" s="25" t="n">
         <v>8</v>
       </c>
@@ -11374,8 +11409,8 @@
       <c r="B39" s="29" t="n">
         <v>42599</v>
       </c>
-      <c r="C39" s="41"/>
-      <c r="D39" s="37"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="38"/>
       <c r="E39" s="25"/>
       <c r="F39" s="25"/>
       <c r="G39" s="28"/>
@@ -11404,8 +11439,8 @@
       <c r="B40" s="29" t="n">
         <v>42600</v>
       </c>
-      <c r="C40" s="41"/>
-      <c r="D40" s="37"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="38"/>
       <c r="E40" s="25"/>
       <c r="F40" s="25"/>
       <c r="G40" s="28"/>
@@ -11434,8 +11469,8 @@
       <c r="B41" s="29" t="n">
         <v>42601</v>
       </c>
-      <c r="C41" s="41"/>
-      <c r="D41" s="37"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="25"/>
       <c r="F41" s="25"/>
       <c r="G41" s="28"/>
@@ -11464,8 +11499,8 @@
       <c r="B42" s="29" t="n">
         <v>42602</v>
       </c>
-      <c r="C42" s="41"/>
-      <c r="D42" s="37"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="38"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="28"/>
@@ -11494,8 +11529,8 @@
       <c r="B43" s="29" t="n">
         <v>42603</v>
       </c>
-      <c r="C43" s="41"/>
-      <c r="D43" s="37"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="38"/>
       <c r="E43" s="25"/>
       <c r="F43" s="25"/>
       <c r="G43" s="28"/>
@@ -11526,8 +11561,8 @@
       <c r="B44" s="29" t="n">
         <v>42604</v>
       </c>
-      <c r="C44" s="41"/>
-      <c r="D44" s="37"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="38"/>
       <c r="E44" s="25"/>
       <c r="F44" s="25" t="n">
         <f aca="false">SUM(E44:E50)</f>
@@ -11559,8 +11594,8 @@
       <c r="B45" s="29" t="n">
         <v>42605</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="37"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="28"/>
@@ -11589,8 +11624,8 @@
       <c r="B46" s="29" t="n">
         <v>42606</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="37"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="38"/>
       <c r="E46" s="25"/>
       <c r="F46" s="25"/>
       <c r="G46" s="28"/>
@@ -11619,8 +11654,8 @@
       <c r="B47" s="29" t="n">
         <v>42607</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="37"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="38"/>
       <c r="E47" s="25"/>
       <c r="F47" s="25"/>
       <c r="G47" s="28"/>
@@ -11649,8 +11684,8 @@
       <c r="B48" s="29" t="n">
         <v>42608</v>
       </c>
-      <c r="C48" s="41"/>
-      <c r="D48" s="37"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
       <c r="G48" s="28"/>
@@ -11679,8 +11714,8 @@
       <c r="B49" s="29" t="n">
         <v>42609</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="37"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="28"/>
@@ -11709,8 +11744,8 @@
       <c r="B50" s="29" t="n">
         <v>42610</v>
       </c>
-      <c r="C50" s="41"/>
-      <c r="D50" s="37"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="25"/>
       <c r="F50" s="25"/>
       <c r="G50" s="28"/>
@@ -11741,8 +11776,8 @@
       <c r="B51" s="29" t="n">
         <v>42611</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="37"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="25"/>
       <c r="F51" s="25" t="n">
         <f aca="false">SUM(E51:E57)</f>
@@ -11774,8 +11809,8 @@
       <c r="B52" s="29" t="n">
         <v>42612</v>
       </c>
-      <c r="C52" s="41"/>
-      <c r="D52" s="37"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="25"/>
       <c r="F52" s="25"/>
       <c r="G52" s="28"/>
@@ -11804,8 +11839,8 @@
       <c r="B53" s="29" t="n">
         <v>42613</v>
       </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="37"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="38"/>
       <c r="E53" s="25"/>
       <c r="F53" s="25"/>
       <c r="G53" s="28"/>
@@ -11834,8 +11869,8 @@
       <c r="B54" s="29" t="n">
         <v>42614</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="37"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="38"/>
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="28"/>
@@ -11864,8 +11899,8 @@
       <c r="B55" s="29" t="n">
         <v>42615</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="37"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="38"/>
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="28"/>
@@ -11894,8 +11929,8 @@
       <c r="B56" s="29" t="n">
         <v>42616</v>
       </c>
-      <c r="C56" s="41"/>
-      <c r="D56" s="37"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="38"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="28"/>
@@ -11924,8 +11959,8 @@
       <c r="B57" s="29" t="n">
         <v>42617</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="37"/>
+      <c r="C57" s="40"/>
+      <c r="D57" s="38"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="28"/>
@@ -11956,8 +11991,8 @@
       <c r="B58" s="29" t="n">
         <v>42618</v>
       </c>
-      <c r="C58" s="41"/>
-      <c r="D58" s="37"/>
+      <c r="C58" s="40"/>
+      <c r="D58" s="38"/>
       <c r="E58" s="25"/>
       <c r="F58" s="25" t="n">
         <f aca="false">SUM(E58:E64)</f>
@@ -11989,8 +12024,8 @@
       <c r="B59" s="29" t="n">
         <v>42619</v>
       </c>
-      <c r="C59" s="41"/>
-      <c r="D59" s="37"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="38"/>
       <c r="E59" s="25"/>
       <c r="F59" s="25"/>
       <c r="G59" s="28"/>
@@ -12019,8 +12054,8 @@
       <c r="B60" s="29" t="n">
         <v>42620</v>
       </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="37"/>
+      <c r="C60" s="40"/>
+      <c r="D60" s="38"/>
       <c r="E60" s="25"/>
       <c r="F60" s="25"/>
       <c r="G60" s="28"/>
@@ -12049,8 +12084,8 @@
       <c r="B61" s="29" t="n">
         <v>42621</v>
       </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="37"/>
+      <c r="C61" s="40"/>
+      <c r="D61" s="38"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
       <c r="G61" s="28"/>
@@ -12079,8 +12114,8 @@
       <c r="B62" s="29" t="n">
         <v>42622</v>
       </c>
-      <c r="C62" s="41"/>
-      <c r="D62" s="37"/>
+      <c r="C62" s="40"/>
+      <c r="D62" s="38"/>
       <c r="E62" s="25"/>
       <c r="F62" s="25"/>
       <c r="G62" s="28"/>
@@ -12109,8 +12144,8 @@
       <c r="B63" s="29" t="n">
         <v>42623</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="37"/>
+      <c r="C63" s="40"/>
+      <c r="D63" s="38"/>
       <c r="E63" s="25"/>
       <c r="F63" s="25"/>
       <c r="G63" s="28"/>
@@ -12139,8 +12174,8 @@
       <c r="B64" s="29" t="n">
         <v>42624</v>
       </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="37"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="38"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
       <c r="G64" s="28"/>
@@ -12171,8 +12206,8 @@
       <c r="B65" s="29" t="n">
         <v>42625</v>
       </c>
-      <c r="C65" s="41"/>
-      <c r="D65" s="37"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="38"/>
       <c r="E65" s="25"/>
       <c r="F65" s="25" t="n">
         <f aca="false">SUM(E65:E71)</f>
@@ -12204,8 +12239,8 @@
       <c r="B66" s="29" t="n">
         <v>42626</v>
       </c>
-      <c r="C66" s="41"/>
-      <c r="D66" s="37"/>
+      <c r="C66" s="40"/>
+      <c r="D66" s="38"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
       <c r="G66" s="28"/>
@@ -12234,8 +12269,8 @@
       <c r="B67" s="29" t="n">
         <v>42627</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="37"/>
+      <c r="C67" s="40"/>
+      <c r="D67" s="38"/>
       <c r="E67" s="25"/>
       <c r="F67" s="25"/>
       <c r="G67" s="28"/>
@@ -12264,8 +12299,8 @@
       <c r="B68" s="29" t="n">
         <v>42628</v>
       </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="37"/>
+      <c r="C68" s="40"/>
+      <c r="D68" s="38"/>
       <c r="E68" s="25"/>
       <c r="F68" s="25"/>
       <c r="G68" s="28"/>
@@ -12294,8 +12329,8 @@
       <c r="B69" s="29" t="n">
         <v>42629</v>
       </c>
-      <c r="C69" s="41"/>
-      <c r="D69" s="37"/>
+      <c r="C69" s="40"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="25"/>
       <c r="F69" s="25"/>
       <c r="G69" s="28"/>
@@ -12324,8 +12359,8 @@
       <c r="B70" s="29" t="n">
         <v>42630</v>
       </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="37"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="38"/>
       <c r="E70" s="25"/>
       <c r="F70" s="25"/>
       <c r="G70" s="28"/>
@@ -12354,8 +12389,8 @@
       <c r="B71" s="29" t="n">
         <v>42631</v>
       </c>
-      <c r="C71" s="41"/>
-      <c r="D71" s="37"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="38"/>
       <c r="E71" s="25"/>
       <c r="F71" s="25"/>
       <c r="G71" s="28"/>
@@ -12386,8 +12421,8 @@
       <c r="B72" s="29" t="n">
         <v>42632</v>
       </c>
-      <c r="C72" s="41"/>
-      <c r="D72" s="37"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="38"/>
       <c r="E72" s="25"/>
       <c r="F72" s="25" t="n">
         <f aca="false">SUM(E72:E78)</f>
@@ -12419,8 +12454,8 @@
       <c r="B73" s="29" t="n">
         <v>42633</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="37"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="25"/>
       <c r="F73" s="25"/>
       <c r="G73" s="28"/>
@@ -12449,8 +12484,8 @@
       <c r="B74" s="29" t="n">
         <v>42634</v>
       </c>
-      <c r="C74" s="41"/>
-      <c r="D74" s="37"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="38"/>
       <c r="E74" s="25"/>
       <c r="F74" s="25"/>
       <c r="G74" s="28"/>
@@ -12479,8 +12514,8 @@
       <c r="B75" s="29" t="n">
         <v>42635</v>
       </c>
-      <c r="C75" s="41"/>
-      <c r="D75" s="37"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="38"/>
       <c r="E75" s="25"/>
       <c r="F75" s="25"/>
       <c r="G75" s="28"/>
@@ -12509,8 +12544,8 @@
       <c r="B76" s="29" t="n">
         <v>42636</v>
       </c>
-      <c r="C76" s="41"/>
-      <c r="D76" s="37"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="38"/>
       <c r="E76" s="25"/>
       <c r="F76" s="25"/>
       <c r="G76" s="28"/>
@@ -12539,8 +12574,8 @@
       <c r="B77" s="29" t="n">
         <v>42637</v>
       </c>
-      <c r="C77" s="41"/>
-      <c r="D77" s="37"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="38"/>
       <c r="E77" s="25"/>
       <c r="F77" s="25"/>
       <c r="G77" s="28"/>
@@ -12569,8 +12604,8 @@
       <c r="B78" s="29" t="n">
         <v>42638</v>
       </c>
-      <c r="C78" s="41"/>
-      <c r="D78" s="37"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="38"/>
       <c r="E78" s="25"/>
       <c r="F78" s="25"/>
       <c r="G78" s="28"/>
@@ -12601,8 +12636,8 @@
       <c r="B79" s="29" t="n">
         <v>42639</v>
       </c>
-      <c r="C79" s="41"/>
-      <c r="D79" s="37"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="38"/>
       <c r="E79" s="25"/>
       <c r="F79" s="25" t="n">
         <f aca="false">SUM(E79:E85)</f>
@@ -12634,8 +12669,8 @@
       <c r="B80" s="29" t="n">
         <v>42640</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="37"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="38"/>
       <c r="E80" s="25"/>
       <c r="F80" s="25"/>
       <c r="G80" s="28"/>
@@ -12664,8 +12699,8 @@
       <c r="B81" s="29" t="n">
         <v>42641</v>
       </c>
-      <c r="C81" s="41"/>
-      <c r="D81" s="37"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="38"/>
       <c r="E81" s="25"/>
       <c r="F81" s="25"/>
       <c r="G81" s="28"/>
@@ -12694,8 +12729,8 @@
       <c r="B82" s="29" t="n">
         <v>42642</v>
       </c>
-      <c r="C82" s="41"/>
-      <c r="D82" s="37"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="38"/>
       <c r="E82" s="25"/>
       <c r="F82" s="25"/>
       <c r="G82" s="28"/>
@@ -12724,8 +12759,8 @@
       <c r="B83" s="29" t="n">
         <v>42643</v>
       </c>
-      <c r="C83" s="41"/>
-      <c r="D83" s="37"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="38"/>
       <c r="E83" s="25"/>
       <c r="F83" s="25"/>
       <c r="G83" s="28"/>
@@ -12754,8 +12789,8 @@
       <c r="B84" s="29" t="n">
         <v>42644</v>
       </c>
-      <c r="C84" s="41"/>
-      <c r="D84" s="37"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="38"/>
       <c r="E84" s="25"/>
       <c r="F84" s="25"/>
       <c r="G84" s="28"/>
@@ -12784,8 +12819,8 @@
       <c r="B85" s="29" t="n">
         <v>42645</v>
       </c>
-      <c r="C85" s="41"/>
-      <c r="D85" s="37"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="38"/>
       <c r="E85" s="25"/>
       <c r="F85" s="25"/>
       <c r="G85" s="28"/>
@@ -12816,8 +12851,8 @@
       <c r="B86" s="29" t="n">
         <v>42646</v>
       </c>
-      <c r="C86" s="41"/>
-      <c r="D86" s="37"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="38"/>
       <c r="E86" s="25"/>
       <c r="F86" s="25" t="n">
         <f aca="false">SUM(E86:E92)</f>
@@ -12849,8 +12884,8 @@
       <c r="B87" s="29" t="n">
         <v>42647</v>
       </c>
-      <c r="C87" s="41"/>
-      <c r="D87" s="37"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="38"/>
       <c r="E87" s="25"/>
       <c r="F87" s="25"/>
       <c r="G87" s="28"/>
@@ -12879,8 +12914,8 @@
       <c r="B88" s="29" t="n">
         <v>42648</v>
       </c>
-      <c r="C88" s="41"/>
-      <c r="D88" s="37"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="38"/>
       <c r="E88" s="25"/>
       <c r="F88" s="25"/>
       <c r="G88" s="28"/>
@@ -12909,8 +12944,8 @@
       <c r="B89" s="29" t="n">
         <v>42649</v>
       </c>
-      <c r="C89" s="41"/>
-      <c r="D89" s="37"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="38"/>
       <c r="E89" s="25"/>
       <c r="F89" s="25"/>
       <c r="G89" s="28"/>
@@ -12939,8 +12974,8 @@
       <c r="B90" s="29" t="n">
         <v>42650</v>
       </c>
-      <c r="C90" s="41"/>
-      <c r="D90" s="37"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="38"/>
       <c r="E90" s="25"/>
       <c r="F90" s="25"/>
       <c r="G90" s="28"/>
@@ -12969,8 +13004,8 @@
       <c r="B91" s="29" t="n">
         <v>42651</v>
       </c>
-      <c r="C91" s="41"/>
-      <c r="D91" s="37"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="38"/>
       <c r="E91" s="25"/>
       <c r="F91" s="25"/>
       <c r="G91" s="28"/>
@@ -12999,8 +13034,8 @@
       <c r="B92" s="29" t="n">
         <v>42652</v>
       </c>
-      <c r="C92" s="41"/>
-      <c r="D92" s="37"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="38"/>
       <c r="E92" s="25"/>
       <c r="F92" s="25"/>
       <c r="G92" s="28"/>
@@ -13031,8 +13066,8 @@
       <c r="B93" s="29" t="n">
         <v>42653</v>
       </c>
-      <c r="C93" s="41"/>
-      <c r="D93" s="37"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="38"/>
       <c r="E93" s="25"/>
       <c r="F93" s="25" t="n">
         <f aca="false">SUM(E93:E99)</f>
@@ -13064,8 +13099,8 @@
       <c r="B94" s="29" t="n">
         <v>42654</v>
       </c>
-      <c r="C94" s="41"/>
-      <c r="D94" s="37"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="38"/>
       <c r="E94" s="25"/>
       <c r="F94" s="25"/>
       <c r="G94" s="28"/>
@@ -13094,8 +13129,8 @@
       <c r="B95" s="29" t="n">
         <v>42655</v>
       </c>
-      <c r="C95" s="41"/>
-      <c r="D95" s="37"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="38"/>
       <c r="E95" s="25"/>
       <c r="F95" s="25"/>
       <c r="G95" s="28"/>
@@ -13124,8 +13159,8 @@
       <c r="B96" s="29" t="n">
         <v>42656</v>
       </c>
-      <c r="C96" s="41"/>
-      <c r="D96" s="37"/>
+      <c r="C96" s="40"/>
+      <c r="D96" s="38"/>
       <c r="E96" s="25"/>
       <c r="F96" s="25"/>
       <c r="G96" s="28"/>
@@ -13154,8 +13189,8 @@
       <c r="B97" s="29" t="n">
         <v>42657</v>
       </c>
-      <c r="C97" s="41"/>
-      <c r="D97" s="37"/>
+      <c r="C97" s="40"/>
+      <c r="D97" s="38"/>
       <c r="E97" s="25"/>
       <c r="F97" s="25"/>
       <c r="G97" s="28"/>
@@ -13184,8 +13219,8 @@
       <c r="B98" s="29" t="n">
         <v>42658</v>
       </c>
-      <c r="C98" s="41"/>
-      <c r="D98" s="37"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="38"/>
       <c r="E98" s="25"/>
       <c r="F98" s="25"/>
       <c r="G98" s="28"/>
@@ -13214,8 +13249,8 @@
       <c r="B99" s="29" t="n">
         <v>42659</v>
       </c>
-      <c r="C99" s="41"/>
-      <c r="D99" s="37"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="25"/>
       <c r="F99" s="25"/>
       <c r="G99" s="28"/>
@@ -13287,23 +13322,23 @@
   </sheetPr>
   <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="42" width="100.786046511628"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="42" width="34.9488372093023"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="42" width="8.98139534883721"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="41" width="103.739534883721"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="41" width="36.0558139534884"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="41" width="9.22790697674419"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>113</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13320,7 +13355,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="0"/>
     </row>
@@ -13344,37 +13379,37 @@
     </row>
     <row r="8" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B13" s="0"/>
     </row>
@@ -13398,55 +13433,55 @@
     </row>
     <row r="17" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B25" s="0"/>
     </row>
@@ -13470,205 +13505,205 @@
     </row>
     <row r="29" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B30" s="0"/>
     </row>
     <row r="31" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="23" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="23" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="23" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="23" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="23" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="23" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B50" s="0"/>
     </row>
     <row r="51" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B51" s="0"/>
     </row>
     <row r="52" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="23" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B53" s="0"/>
     </row>
     <row r="54" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="23" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B55" s="0"/>
     </row>
     <row r="56" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="23" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="23" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="23" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="23" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="23" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B62" s="0"/>
     </row>
@@ -13690,7 +13725,7 @@
       </c>
       <c r="B65" s="0"/>
     </row>
-    <row r="66" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="23" t="s">
         <v>30</v>
       </c>
@@ -13702,9 +13737,9 @@
       </c>
       <c r="B67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="23" t="s">
-        <v>37</v>
+        <v>162</v>
       </c>
       <c r="B68" s="0"/>
     </row>
@@ -13716,38 +13751,38 @@
     </row>
     <row r="70" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="0"/>
-    </row>
-    <row r="72" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="44" t="s">
+      <c r="B72" s="43"/>
+    </row>
+    <row r="73" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B73" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="B72" s="44"/>
-    </row>
-    <row r="73" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B73" s="44" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="43" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="44" t="s">
-        <v>168</v>
-      </c>
-      <c r="B74" s="44"/>
+      <c r="B74" s="43"/>
     </row>
     <row r="75" customFormat="false" ht="12.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="44" t="s">
         <v>41</v>
       </c>
     </row>

--- a/1. Final Documentation/24. Time Sheet/Project Time Sheet.xlsx
+++ b/1. Final Documentation/24. Time Sheet/Project Time Sheet.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="258">
   <si>
     <t>Week</t>
   </si>
@@ -1043,7 +1043,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1151,6 +1151,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,7 +1586,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="2">
-        <f>VLOOKUP(A2,'Hardik Kansara'!A1:F122,6,0)</f>
+        <f>VLOOKUP(A2,'Hardik Kansara'!A1:F124,6,0)</f>
         <v>21</v>
       </c>
       <c r="E2" s="2">
@@ -1630,7 +1633,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2">
-        <f>VLOOKUP(A3,'Hardik Kansara'!A2:F123,6,0)</f>
+        <f>VLOOKUP(A3,'Hardik Kansara'!A2:F125,6,0)</f>
         <v>22</v>
       </c>
       <c r="E3" s="2">
@@ -1677,7 +1680,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <f>VLOOKUP(A4,'Hardik Kansara'!A4:F124,6,0)</f>
+        <f>VLOOKUP(A4,'Hardik Kansara'!A4:F126,6,0)</f>
         <v>24</v>
       </c>
       <c r="E4" s="2">
@@ -1724,7 +1727,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="2">
-        <f>VLOOKUP(A5,'Hardik Kansara'!A5:F125,6,0)</f>
+        <f>VLOOKUP(A5,'Hardik Kansara'!A5:F127,6,0)</f>
         <v>22</v>
       </c>
       <c r="E5" s="2">
@@ -1771,7 +1774,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <f>VLOOKUP(A6,'Hardik Kansara'!A6:F126,6,0)</f>
+        <f>VLOOKUP(A6,'Hardik Kansara'!A6:F128,6,0)</f>
         <v>23</v>
       </c>
       <c r="E6" s="2">
@@ -1818,7 +1821,7 @@
         <v>42.5</v>
       </c>
       <c r="D7" s="2">
-        <f>VLOOKUP(A7,'Hardik Kansara'!A7:F127,6,0)</f>
+        <f>VLOOKUP(A7,'Hardik Kansara'!A7:F129,6,0)</f>
         <v>42</v>
       </c>
       <c r="E7" s="2">
@@ -1865,8 +1868,8 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>VLOOKUP(A8,'Hardik Kansara'!A9:F128,6,0)</f>
-        <v>36</v>
+        <f>VLOOKUP(A8,'Hardik Kansara'!A9:F130,6,0)</f>
+        <v>42</v>
       </c>
       <c r="E8" s="2">
         <f>VLOOKUP(A8,'Kwinno Pineda'!A7:F113,6,0)</f>
@@ -1878,7 +1881,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>
-        <v>43.5</v>
+        <v>49.5</v>
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1912,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <f>VLOOKUP(A9,'Hardik Kansara'!A12:F129,6,0)</f>
+        <f>VLOOKUP(A9,'Hardik Kansara'!A12:F131,6,0)</f>
         <v>0</v>
       </c>
       <c r="E9" s="2">
@@ -1959,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f>VLOOKUP(A10,'Hardik Kansara'!A13:F130,6,0)</f>
+        <f>VLOOKUP(A10,'Hardik Kansara'!A13:F132,6,0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="2">
@@ -2006,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f>VLOOKUP(A11,'Hardik Kansara'!A14:F131,6,0)</f>
+        <f>VLOOKUP(A11,'Hardik Kansara'!A14:F133,6,0)</f>
         <v>0</v>
       </c>
       <c r="E11" s="2">
@@ -2053,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f>VLOOKUP(A12,'Hardik Kansara'!A15:F132,6,0)</f>
+        <f>VLOOKUP(A12,'Hardik Kansara'!A15:F134,6,0)</f>
         <v>0</v>
       </c>
       <c r="E12" s="2">
@@ -2100,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f>VLOOKUP(A13,'Hardik Kansara'!A16:F133,6,0)</f>
+        <f>VLOOKUP(A13,'Hardik Kansara'!A16:F135,6,0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="2">
@@ -2147,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f>VLOOKUP(A14,'Hardik Kansara'!A17:F134,6,0)</f>
+        <f>VLOOKUP(A14,'Hardik Kansara'!A17:F136,6,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="2">
@@ -2194,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f>VLOOKUP(A15,'Hardik Kansara'!A20:F135,6,0)</f>
+        <f>VLOOKUP(A15,'Hardik Kansara'!A20:F137,6,0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="2">
@@ -2238,7 +2241,7 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
@@ -2250,7 +2253,7 @@
       </c>
       <c r="G16" s="2">
         <f>SUM(G2:G15)</f>
-        <v>684.5</v>
+        <v>690.5</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2337,10 +2340,10 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="44">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="45">
+      <c r="B2" s="46">
         <v>42562</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -2352,7 +2355,7 @@
       <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="45">
         <f>SUM(E2:E23)</f>
         <v>25</v>
       </c>
@@ -2378,8 +2381,8 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="46"/>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
@@ -2389,7 +2392,7 @@
       <c r="E3" s="2">
         <v>0.5</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2412,8 +2415,8 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
@@ -2423,7 +2426,7 @@
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2446,8 +2449,8 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45">
+      <c r="A5" s="45"/>
+      <c r="B5" s="46">
         <v>42563</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2459,7 +2462,7 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2482,8 +2485,8 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
@@ -2493,7 +2496,7 @@
       <c r="E6" s="2">
         <v>0.5</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2516,8 +2519,8 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
@@ -2527,7 +2530,7 @@
       <c r="E7" s="2">
         <v>0.5</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -2550,8 +2553,8 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45">
+      <c r="A8" s="45"/>
+      <c r="B8" s="46">
         <v>42564</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2563,7 +2566,7 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -2586,8 +2589,8 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="10" t="s">
         <v>27</v>
       </c>
@@ -2597,7 +2600,7 @@
       <c r="E9" s="2">
         <v>0.5</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -2620,8 +2623,8 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
@@ -2631,7 +2634,7 @@
       <c r="E10" s="2">
         <v>0.5</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2654,8 +2657,8 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
@@ -2665,7 +2668,7 @@
       <c r="E11" s="2">
         <v>0.5</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2688,8 +2691,8 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46">
         <v>42565</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2701,7 +2704,7 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2724,8 +2727,8 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
@@ -2735,7 +2738,7 @@
       <c r="E13" s="2">
         <v>0.5</v>
       </c>
-      <c r="F13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2758,8 +2761,8 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
@@ -2769,7 +2772,7 @@
       <c r="E14" s="2">
         <v>0.5</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -2792,14 +2795,14 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="5">
         <v>42566</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -2822,8 +2825,8 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46">
         <v>42567</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2835,7 +2838,7 @@
       <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -2858,8 +2861,8 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
@@ -2869,7 +2872,7 @@
       <c r="E17" s="10">
         <v>0.5</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -2892,8 +2895,8 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46">
         <v>42568</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -2905,7 +2908,7 @@
       <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2928,8 +2931,8 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="45"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
@@ -2939,7 +2942,7 @@
       <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2962,8 +2965,8 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
-      <c r="B20" s="45"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
@@ -2973,7 +2976,7 @@
       <c r="E20" s="10">
         <v>1.5</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2996,8 +2999,8 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
-      <c r="B21" s="45"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3010,7 @@
       <c r="E21" s="10">
         <v>0.5</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -3030,8 +3033,8 @@
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
@@ -3041,7 +3044,7 @@
       <c r="E22" s="10">
         <v>0.5</v>
       </c>
-      <c r="F22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -3064,8 +3067,8 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
@@ -3075,7 +3078,7 @@
       <c r="E23" s="10">
         <v>0.5</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3098,10 +3101,10 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="44">
+      <c r="A24" s="45">
         <v>2</v>
       </c>
-      <c r="B24" s="45">
+      <c r="B24" s="46">
         <v>42569</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3113,7 +3116,7 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="45">
         <f>SUM(E24:E47)</f>
         <v>26</v>
       </c>
@@ -3139,8 +3142,8 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
@@ -3150,7 +3153,7 @@
       <c r="E25" s="2">
         <v>4</v>
       </c>
-      <c r="F25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -3173,8 +3176,8 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
-      <c r="B26" s="45"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="10" t="s">
         <v>27</v>
       </c>
@@ -3184,7 +3187,7 @@
       <c r="E26" s="2">
         <v>0.5</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -3207,8 +3210,8 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
@@ -3218,7 +3221,7 @@
       <c r="E27" s="2">
         <v>0.5</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -3241,8 +3244,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
-      <c r="B28" s="45">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46">
         <v>42570</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3254,7 +3257,7 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -3277,8 +3280,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="10" t="s">
         <v>51</v>
       </c>
@@ -3288,7 +3291,7 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="44"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -3311,8 +3314,8 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
-      <c r="B30" s="45"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="10" t="s">
         <v>53</v>
       </c>
@@ -3322,7 +3325,7 @@
       <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="44"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -3345,8 +3348,8 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="10" t="s">
         <v>29</v>
       </c>
@@ -3356,7 +3359,7 @@
       <c r="E31" s="2">
         <v>0.5</v>
       </c>
-      <c r="F31" s="44"/>
+      <c r="F31" s="45"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -3379,8 +3382,8 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
-      <c r="B32" s="45">
+      <c r="A32" s="45"/>
+      <c r="B32" s="46">
         <v>42571</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -3392,7 +3395,7 @@
       <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -3415,8 +3418,8 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="10" t="s">
         <v>56</v>
       </c>
@@ -3426,7 +3429,7 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3449,8 +3452,8 @@
       <c r="Z33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
@@ -3460,7 +3463,7 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3483,8 +3486,8 @@
       <c r="Z34" s="11"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
-      <c r="B35" s="45"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="10" t="s">
         <v>34</v>
       </c>
@@ -3494,7 +3497,7 @@
       <c r="E35" s="2">
         <v>0.5</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3517,8 +3520,8 @@
       <c r="Z35" s="11"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
-      <c r="B36" s="45"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
@@ -3528,7 +3531,7 @@
       <c r="E36" s="2">
         <v>0.5</v>
       </c>
-      <c r="F36" s="44"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -3551,8 +3554,8 @@
       <c r="Z36" s="11"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
-      <c r="B37" s="45">
+      <c r="A37" s="45"/>
+      <c r="B37" s="46">
         <v>42572</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -3564,7 +3567,7 @@
       <c r="E37" s="2">
         <v>0.5</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -3587,8 +3590,8 @@
       <c r="Z37" s="11"/>
     </row>
     <row r="38" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
-      <c r="B38" s="45"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="10" t="s">
         <v>59</v>
       </c>
@@ -3598,7 +3601,7 @@
       <c r="E38" s="2">
         <v>3.5</v>
       </c>
-      <c r="F38" s="44"/>
+      <c r="F38" s="45"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -3621,8 +3624,8 @@
       <c r="Z38" s="11"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
-      <c r="B39" s="45"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="10" t="s">
         <v>29</v>
       </c>
@@ -3632,7 +3635,7 @@
       <c r="E39" s="2">
         <v>0.5</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3655,14 +3658,14 @@
       <c r="Z39" s="11"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="5">
         <v>42573</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -3685,8 +3688,8 @@
       <c r="Z40" s="11"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
-      <c r="B41" s="45">
+      <c r="A41" s="45"/>
+      <c r="B41" s="46">
         <v>42574</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -3698,7 +3701,7 @@
       <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="44"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -3721,8 +3724,8 @@
       <c r="Z41" s="11"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="44"/>
-      <c r="B42" s="45"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="10" t="s">
         <v>29</v>
       </c>
@@ -3732,7 +3735,7 @@
       <c r="E42" s="10">
         <v>0.5</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -3755,8 +3758,8 @@
       <c r="Z42" s="11"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
-      <c r="B43" s="45">
+      <c r="A43" s="45"/>
+      <c r="B43" s="46">
         <v>42575</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -3768,7 +3771,7 @@
       <c r="E43" s="10">
         <v>1</v>
       </c>
-      <c r="F43" s="44"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3791,8 +3794,8 @@
       <c r="Z43" s="11"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
-      <c r="B44" s="45"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="46"/>
       <c r="C44" s="10" t="s">
         <v>42</v>
       </c>
@@ -3802,7 +3805,7 @@
       <c r="E44" s="10">
         <v>1</v>
       </c>
-      <c r="F44" s="44"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -3825,8 +3828,8 @@
       <c r="Z44" s="11"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="45"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="10" t="s">
         <v>61</v>
       </c>
@@ -3836,7 +3839,7 @@
       <c r="E45" s="10">
         <v>1.5</v>
       </c>
-      <c r="F45" s="44"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -3859,8 +3862,8 @@
       <c r="Z45" s="11"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
-      <c r="B46" s="45"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="10" t="s">
         <v>27</v>
       </c>
@@ -3870,7 +3873,7 @@
       <c r="E46" s="10">
         <v>0.5</v>
       </c>
-      <c r="F46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3893,8 +3896,8 @@
       <c r="Z46" s="11"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
-      <c r="B47" s="45"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="46"/>
       <c r="C47" s="10" t="s">
         <v>29</v>
       </c>
@@ -3904,7 +3907,7 @@
       <c r="E47" s="10">
         <v>0.5</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -3927,10 +3930,10 @@
       <c r="Z47" s="11"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="44">
+      <c r="A48" s="45">
         <v>3</v>
       </c>
-      <c r="B48" s="45">
+      <c r="B48" s="46">
         <v>42576</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -3942,7 +3945,7 @@
       <c r="E48" s="2">
         <v>5</v>
       </c>
-      <c r="F48" s="44">
+      <c r="F48" s="45">
         <f>SUM(E48:E67)</f>
         <v>27</v>
       </c>
@@ -3968,8 +3971,8 @@
       <c r="Z48" s="11"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
-      <c r="B49" s="45"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="10" t="s">
         <v>29</v>
       </c>
@@ -3979,7 +3982,7 @@
       <c r="E49" s="2">
         <v>0.5</v>
       </c>
-      <c r="F49" s="44"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -4002,8 +4005,8 @@
       <c r="Z49" s="11"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
-      <c r="B50" s="45"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="10" t="s">
         <v>27</v>
       </c>
@@ -4013,7 +4016,7 @@
       <c r="E50" s="2">
         <v>0.5</v>
       </c>
-      <c r="F50" s="44"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -4036,8 +4039,8 @@
       <c r="Z50" s="11"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
-      <c r="B51" s="45">
+      <c r="A51" s="45"/>
+      <c r="B51" s="46">
         <v>42577</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -4049,7 +4052,7 @@
       <c r="E51" s="2">
         <v>4</v>
       </c>
-      <c r="F51" s="44"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -4072,8 +4075,8 @@
       <c r="Z51" s="11"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="44"/>
-      <c r="B52" s="45"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="46"/>
       <c r="C52" s="10" t="s">
         <v>27</v>
       </c>
@@ -4083,7 +4086,7 @@
       <c r="E52" s="2">
         <v>0.5</v>
       </c>
-      <c r="F52" s="44"/>
+      <c r="F52" s="45"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -4106,8 +4109,8 @@
       <c r="Z52" s="11"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
       <c r="C53" s="10" t="s">
         <v>34</v>
       </c>
@@ -4117,7 +4120,7 @@
       <c r="E53" s="2">
         <v>0.5</v>
       </c>
-      <c r="F53" s="44"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -4140,8 +4143,8 @@
       <c r="Z53" s="11"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
-      <c r="B54" s="45"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="46"/>
       <c r="C54" s="10" t="s">
         <v>29</v>
       </c>
@@ -4151,7 +4154,7 @@
       <c r="E54" s="2">
         <v>0.5</v>
       </c>
-      <c r="F54" s="44"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -4174,8 +4177,8 @@
       <c r="Z54" s="11"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
-      <c r="B55" s="45">
+      <c r="A55" s="45"/>
+      <c r="B55" s="46">
         <v>42578</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -4187,7 +4190,7 @@
       <c r="E55" s="2">
         <v>5</v>
       </c>
-      <c r="F55" s="44"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -4210,8 +4213,8 @@
       <c r="Z55" s="11"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
-      <c r="B56" s="45"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="46"/>
       <c r="C56" s="10" t="s">
         <v>27</v>
       </c>
@@ -4221,7 +4224,7 @@
       <c r="E56" s="2">
         <v>0.5</v>
       </c>
-      <c r="F56" s="44"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -4244,8 +4247,8 @@
       <c r="Z56" s="11"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
-      <c r="B57" s="45"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="46"/>
       <c r="C57" s="10" t="s">
         <v>29</v>
       </c>
@@ -4255,7 +4258,7 @@
       <c r="E57" s="2">
         <v>0.5</v>
       </c>
-      <c r="F57" s="44"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -4278,14 +4281,14 @@
       <c r="Z57" s="11"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="5">
         <v>42579</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -4308,14 +4311,14 @@
       <c r="Z58" s="11"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="5">
         <v>42580</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="44"/>
+      <c r="F59" s="45"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -4338,8 +4341,8 @@
       <c r="Z59" s="11"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A60" s="44"/>
-      <c r="B60" s="45">
+      <c r="A60" s="45"/>
+      <c r="B60" s="46">
         <v>42581</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -4351,7 +4354,7 @@
       <c r="E60" s="10">
         <v>4</v>
       </c>
-      <c r="F60" s="44"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -4374,8 +4377,8 @@
       <c r="Z60" s="11"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
-      <c r="B61" s="45"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="46"/>
       <c r="C61" s="10" t="s">
         <v>27</v>
       </c>
@@ -4385,7 +4388,7 @@
       <c r="E61" s="10">
         <v>0.5</v>
       </c>
-      <c r="F61" s="44"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -4408,8 +4411,8 @@
       <c r="Z61" s="11"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
-      <c r="B62" s="45"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="46"/>
       <c r="C62" s="10" t="s">
         <v>29</v>
       </c>
@@ -4419,7 +4422,7 @@
       <c r="E62" s="10">
         <v>0.5</v>
       </c>
-      <c r="F62" s="44"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -4442,8 +4445,8 @@
       <c r="Z62" s="11"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
-      <c r="B63" s="45">
+      <c r="A63" s="45"/>
+      <c r="B63" s="46">
         <v>42582</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -4455,7 +4458,7 @@
       <c r="E63" s="10">
         <v>1</v>
       </c>
-      <c r="F63" s="44"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -4478,8 +4481,8 @@
       <c r="Z63" s="11"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
-      <c r="B64" s="45"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="46"/>
       <c r="C64" s="10" t="s">
         <v>42</v>
       </c>
@@ -4489,7 +4492,7 @@
       <c r="E64" s="10">
         <v>1</v>
       </c>
-      <c r="F64" s="44"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -4512,8 +4515,8 @@
       <c r="Z64" s="11"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
-      <c r="B65" s="45"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="46"/>
       <c r="C65" s="10" t="s">
         <v>74</v>
       </c>
@@ -4523,7 +4526,7 @@
       <c r="E65" s="10">
         <v>1.5</v>
       </c>
-      <c r="F65" s="44"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -4546,8 +4549,8 @@
       <c r="Z65" s="11"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="44"/>
-      <c r="B66" s="45"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="46"/>
       <c r="C66" s="10" t="s">
         <v>27</v>
       </c>
@@ -4557,7 +4560,7 @@
       <c r="E66" s="10">
         <v>0.5</v>
       </c>
-      <c r="F66" s="44"/>
+      <c r="F66" s="45"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -4580,8 +4583,8 @@
       <c r="Z66" s="11"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A67" s="44"/>
-      <c r="B67" s="45"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="46"/>
       <c r="C67" s="10" t="s">
         <v>29</v>
       </c>
@@ -4591,7 +4594,7 @@
       <c r="E67" s="10">
         <v>0.5</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -4614,10 +4617,10 @@
       <c r="Z67" s="11"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A68" s="44">
+      <c r="A68" s="45">
         <v>4</v>
       </c>
-      <c r="B68" s="45">
+      <c r="B68" s="46">
         <v>42583</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -4629,7 +4632,7 @@
       <c r="E68" s="2">
         <v>1</v>
       </c>
-      <c r="F68" s="44">
+      <c r="F68" s="45">
         <f>SUM(E68:E92)</f>
         <v>24</v>
       </c>
@@ -4655,8 +4658,8 @@
       <c r="Z68" s="11"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="44"/>
-      <c r="B69" s="45"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="46"/>
       <c r="C69" s="10" t="s">
         <v>76</v>
       </c>
@@ -4666,7 +4669,7 @@
       <c r="E69" s="2">
         <v>4</v>
       </c>
-      <c r="F69" s="44"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -4689,8 +4692,8 @@
       <c r="Z69" s="11"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A70" s="44"/>
-      <c r="B70" s="45"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="10" t="s">
         <v>27</v>
       </c>
@@ -4700,7 +4703,7 @@
       <c r="E70" s="2">
         <v>0.5</v>
       </c>
-      <c r="F70" s="44"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -4723,8 +4726,8 @@
       <c r="Z70" s="11"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A71" s="44"/>
-      <c r="B71" s="45"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="46"/>
       <c r="C71" s="10" t="s">
         <v>34</v>
       </c>
@@ -4734,7 +4737,7 @@
       <c r="E71" s="2">
         <v>0.5</v>
       </c>
-      <c r="F71" s="44"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -4757,8 +4760,8 @@
       <c r="Z71" s="11"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="45"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="10" t="s">
         <v>29</v>
       </c>
@@ -4768,7 +4771,7 @@
       <c r="E72" s="2">
         <v>0.5</v>
       </c>
-      <c r="F72" s="44"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -4791,8 +4794,8 @@
       <c r="Z72" s="11"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
-      <c r="B73" s="45">
+      <c r="A73" s="45"/>
+      <c r="B73" s="46">
         <v>42584</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -4804,7 +4807,7 @@
       <c r="E73" s="2">
         <v>1</v>
       </c>
-      <c r="F73" s="44"/>
+      <c r="F73" s="45"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -4827,8 +4830,8 @@
       <c r="Z73" s="11"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="45"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="46"/>
       <c r="C74" s="10" t="s">
         <v>78</v>
       </c>
@@ -4838,7 +4841,7 @@
       <c r="E74" s="2">
         <v>3</v>
       </c>
-      <c r="F74" s="44"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -4861,8 +4864,8 @@
       <c r="Z74" s="11"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
-      <c r="B75" s="45"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="46"/>
       <c r="C75" s="10" t="s">
         <v>27</v>
       </c>
@@ -4872,7 +4875,7 @@
       <c r="E75" s="2">
         <v>0.5</v>
       </c>
-      <c r="F75" s="44"/>
+      <c r="F75" s="45"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -4895,8 +4898,8 @@
       <c r="Z75" s="11"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="45"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="46"/>
       <c r="C76" s="10" t="s">
         <v>34</v>
       </c>
@@ -4906,7 +4909,7 @@
       <c r="E76" s="2">
         <v>0.5</v>
       </c>
-      <c r="F76" s="44"/>
+      <c r="F76" s="45"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -4929,8 +4932,8 @@
       <c r="Z76" s="11"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
-      <c r="B77" s="45"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="46"/>
       <c r="C77" s="10" t="s">
         <v>29</v>
       </c>
@@ -4940,7 +4943,7 @@
       <c r="E77" s="2">
         <v>0.5</v>
       </c>
-      <c r="F77" s="44"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -4963,8 +4966,8 @@
       <c r="Z77" s="11"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
-      <c r="B78" s="45">
+      <c r="A78" s="45"/>
+      <c r="B78" s="46">
         <v>42585</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -4976,7 +4979,7 @@
       <c r="E78" s="2">
         <v>3</v>
       </c>
-      <c r="F78" s="44"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -4999,8 +5002,8 @@
       <c r="Z78" s="11"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A79" s="44"/>
-      <c r="B79" s="45"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="10" t="s">
         <v>27</v>
       </c>
@@ -5010,7 +5013,7 @@
       <c r="E79" s="2">
         <v>0.5</v>
       </c>
-      <c r="F79" s="44"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -5033,8 +5036,8 @@
       <c r="Z79" s="11"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="44"/>
-      <c r="B80" s="45"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="46"/>
       <c r="C80" s="10" t="s">
         <v>34</v>
       </c>
@@ -5044,7 +5047,7 @@
       <c r="E80" s="2">
         <v>0.5</v>
       </c>
-      <c r="F80" s="44"/>
+      <c r="F80" s="45"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -5067,8 +5070,8 @@
       <c r="Z80" s="11"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A81" s="44"/>
-      <c r="B81" s="45"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="46"/>
       <c r="C81" s="10" t="s">
         <v>29</v>
       </c>
@@ -5078,7 +5081,7 @@
       <c r="E81" s="2">
         <v>0.5</v>
       </c>
-      <c r="F81" s="44"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -5101,14 +5104,14 @@
       <c r="Z81" s="11"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A82" s="44"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="5">
         <v>42586</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="44"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -5131,14 +5134,14 @@
       <c r="Z82" s="11"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
+      <c r="A83" s="45"/>
       <c r="B83" s="5">
         <v>42587</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="44"/>
+      <c r="F83" s="45"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -5161,8 +5164,8 @@
       <c r="Z83" s="11"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
-      <c r="B84" s="45">
+      <c r="A84" s="45"/>
+      <c r="B84" s="46">
         <v>42588</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -5174,7 +5177,7 @@
       <c r="E84" s="10">
         <v>2</v>
       </c>
-      <c r="F84" s="44"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -5197,8 +5200,8 @@
       <c r="Z84" s="11"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
-      <c r="B85" s="45"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="46"/>
       <c r="C85" s="10" t="s">
         <v>27</v>
       </c>
@@ -5208,7 +5211,7 @@
       <c r="E85" s="10">
         <v>0.5</v>
       </c>
-      <c r="F85" s="44"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -5231,8 +5234,8 @@
       <c r="Z85" s="11"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
-      <c r="B86" s="45"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="10" t="s">
         <v>29</v>
       </c>
@@ -5242,7 +5245,7 @@
       <c r="E86" s="10">
         <v>0.5</v>
       </c>
-      <c r="F86" s="44"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -5265,8 +5268,8 @@
       <c r="Z86" s="11"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
-      <c r="B87" s="45">
+      <c r="A87" s="45"/>
+      <c r="B87" s="46">
         <v>42589</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -5278,7 +5281,7 @@
       <c r="E87" s="10">
         <v>1</v>
       </c>
-      <c r="F87" s="44"/>
+      <c r="F87" s="45"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -5301,8 +5304,8 @@
       <c r="Z87" s="11"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" s="44"/>
-      <c r="B88" s="45"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="46"/>
       <c r="C88" s="10" t="s">
         <v>42</v>
       </c>
@@ -5312,7 +5315,7 @@
       <c r="E88" s="10">
         <v>1</v>
       </c>
-      <c r="F88" s="44"/>
+      <c r="F88" s="45"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -5335,8 +5338,8 @@
       <c r="Z88" s="11"/>
     </row>
     <row r="89" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
-      <c r="B89" s="45"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="46"/>
       <c r="C89" s="10" t="s">
         <v>81</v>
       </c>
@@ -5346,7 +5349,7 @@
       <c r="E89" s="10">
         <v>1</v>
       </c>
-      <c r="F89" s="44"/>
+      <c r="F89" s="45"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
@@ -5369,8 +5372,8 @@
       <c r="Z89" s="11"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A90" s="44"/>
-      <c r="B90" s="45"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="46"/>
       <c r="C90" s="10" t="s">
         <v>27</v>
       </c>
@@ -5380,7 +5383,7 @@
       <c r="E90" s="10">
         <v>0.5</v>
       </c>
-      <c r="F90" s="44"/>
+      <c r="F90" s="45"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -5403,8 +5406,8 @@
       <c r="Z90" s="11"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A91" s="44"/>
-      <c r="B91" s="45"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="46"/>
       <c r="C91" s="10" t="s">
         <v>34</v>
       </c>
@@ -5414,7 +5417,7 @@
       <c r="E91" s="10">
         <v>0.5</v>
       </c>
-      <c r="F91" s="44"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
@@ -5437,8 +5440,8 @@
       <c r="Z91" s="11"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A92" s="44"/>
-      <c r="B92" s="45"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="46"/>
       <c r="C92" s="10" t="s">
         <v>29</v>
       </c>
@@ -5448,7 +5451,7 @@
       <c r="E92" s="2">
         <v>0.5</v>
       </c>
-      <c r="F92" s="44"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
@@ -5471,10 +5474,10 @@
       <c r="Z92" s="11"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A93" s="44">
+      <c r="A93" s="45">
         <v>5</v>
       </c>
-      <c r="B93" s="45">
+      <c r="B93" s="46">
         <v>42590</v>
       </c>
       <c r="C93" s="10" t="s">
@@ -5486,7 +5489,7 @@
       <c r="E93" s="2">
         <v>2</v>
       </c>
-      <c r="F93" s="44">
+      <c r="F93" s="45">
         <f>SUM(E93:E115)</f>
         <v>25</v>
       </c>
@@ -5512,8 +5515,8 @@
       <c r="Z93" s="11"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A94" s="44"/>
-      <c r="B94" s="45"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="46"/>
       <c r="C94" s="10" t="s">
         <v>85</v>
       </c>
@@ -5523,7 +5526,7 @@
       <c r="E94" s="2">
         <v>1</v>
       </c>
-      <c r="F94" s="44"/>
+      <c r="F94" s="45"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -5546,8 +5549,8 @@
       <c r="Z94" s="11"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A95" s="44"/>
-      <c r="B95" s="45"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="46"/>
       <c r="C95" s="10" t="s">
         <v>27</v>
       </c>
@@ -5557,7 +5560,7 @@
       <c r="E95" s="2">
         <v>0.5</v>
       </c>
-      <c r="F95" s="44"/>
+      <c r="F95" s="45"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -5580,8 +5583,8 @@
       <c r="Z95" s="11"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A96" s="44"/>
-      <c r="B96" s="45"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="46"/>
       <c r="C96" s="10" t="s">
         <v>29</v>
       </c>
@@ -5591,7 +5594,7 @@
       <c r="E96" s="2">
         <v>0.5</v>
       </c>
-      <c r="F96" s="44"/>
+      <c r="F96" s="45"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
@@ -5614,8 +5617,8 @@
       <c r="Z96" s="11"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
-      <c r="B97" s="45">
+      <c r="A97" s="45"/>
+      <c r="B97" s="46">
         <v>42591</v>
       </c>
       <c r="C97" s="10" t="s">
@@ -5627,7 +5630,7 @@
       <c r="E97" s="2">
         <v>5</v>
       </c>
-      <c r="F97" s="44"/>
+      <c r="F97" s="45"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -5650,8 +5653,8 @@
       <c r="Z97" s="11"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" s="44"/>
-      <c r="B98" s="45"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="46"/>
       <c r="C98" s="10" t="s">
         <v>27</v>
       </c>
@@ -5661,7 +5664,7 @@
       <c r="E98" s="2">
         <v>0.5</v>
       </c>
-      <c r="F98" s="44"/>
+      <c r="F98" s="45"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -5684,8 +5687,8 @@
       <c r="Z98" s="11"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
-      <c r="B99" s="45"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="46"/>
       <c r="C99" s="10" t="s">
         <v>34</v>
       </c>
@@ -5695,7 +5698,7 @@
       <c r="E99" s="2">
         <v>0.5</v>
       </c>
-      <c r="F99" s="44"/>
+      <c r="F99" s="45"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -5718,8 +5721,8 @@
       <c r="Z99" s="11"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A100" s="44"/>
-      <c r="B100" s="45">
+      <c r="A100" s="45"/>
+      <c r="B100" s="46">
         <v>42592</v>
       </c>
       <c r="C100" s="10" t="s">
@@ -5731,7 +5734,7 @@
       <c r="E100" s="2">
         <v>1.5</v>
       </c>
-      <c r="F100" s="44"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -5754,8 +5757,8 @@
       <c r="Z100" s="11"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A101" s="44"/>
-      <c r="B101" s="45"/>
+      <c r="A101" s="45"/>
+      <c r="B101" s="46"/>
       <c r="C101" s="10" t="s">
         <v>91</v>
       </c>
@@ -5765,7 +5768,7 @@
       <c r="E101" s="2">
         <v>1</v>
       </c>
-      <c r="F101" s="44"/>
+      <c r="F101" s="45"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -5788,8 +5791,8 @@
       <c r="Z101" s="11"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A102" s="44"/>
-      <c r="B102" s="45"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="46"/>
       <c r="C102" s="10" t="s">
         <v>56</v>
       </c>
@@ -5799,7 +5802,7 @@
       <c r="E102" s="2">
         <v>1</v>
       </c>
-      <c r="F102" s="44"/>
+      <c r="F102" s="45"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -5822,8 +5825,8 @@
       <c r="Z102" s="11"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A103" s="44"/>
-      <c r="B103" s="45"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="46"/>
       <c r="C103" s="10" t="s">
         <v>27</v>
       </c>
@@ -5833,7 +5836,7 @@
       <c r="E103" s="2">
         <v>0.5</v>
       </c>
-      <c r="F103" s="44"/>
+      <c r="F103" s="45"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -5856,8 +5859,8 @@
       <c r="Z103" s="11"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A104" s="44"/>
-      <c r="B104" s="45"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="46"/>
       <c r="C104" s="10" t="s">
         <v>29</v>
       </c>
@@ -5867,7 +5870,7 @@
       <c r="E104" s="2">
         <v>0.5</v>
       </c>
-      <c r="F104" s="44"/>
+      <c r="F104" s="45"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -5890,7 +5893,7 @@
       <c r="Z104" s="11"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="5">
         <v>42593</v>
       </c>
@@ -5903,7 +5906,7 @@
       <c r="E105" s="2">
         <v>1</v>
       </c>
-      <c r="F105" s="44"/>
+      <c r="F105" s="45"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -5926,14 +5929,14 @@
       <c r="Z105" s="11"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
+      <c r="A106" s="45"/>
       <c r="B106" s="5">
         <v>42594</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="44"/>
+      <c r="F106" s="45"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -5956,8 +5959,8 @@
       <c r="Z106" s="11"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A107" s="44"/>
-      <c r="B107" s="45">
+      <c r="A107" s="45"/>
+      <c r="B107" s="46">
         <v>42595</v>
       </c>
       <c r="C107" s="10" t="s">
@@ -5969,7 +5972,7 @@
       <c r="E107" s="10">
         <v>2.5</v>
       </c>
-      <c r="F107" s="44"/>
+      <c r="F107" s="45"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
@@ -5992,8 +5995,8 @@
       <c r="Z107" s="11"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A108" s="44"/>
-      <c r="B108" s="45"/>
+      <c r="A108" s="45"/>
+      <c r="B108" s="46"/>
       <c r="C108" s="10" t="s">
         <v>27</v>
       </c>
@@ -6003,7 +6006,7 @@
       <c r="E108" s="10">
         <v>0.5</v>
       </c>
-      <c r="F108" s="44"/>
+      <c r="F108" s="45"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
@@ -6026,8 +6029,8 @@
       <c r="Z108" s="11"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A109" s="44"/>
-      <c r="B109" s="45"/>
+      <c r="A109" s="45"/>
+      <c r="B109" s="46"/>
       <c r="C109" s="10" t="s">
         <v>29</v>
       </c>
@@ -6037,7 +6040,7 @@
       <c r="E109" s="10">
         <v>0.5</v>
       </c>
-      <c r="F109" s="44"/>
+      <c r="F109" s="45"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
@@ -6060,8 +6063,8 @@
       <c r="Z109" s="11"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
-      <c r="B110" s="45">
+      <c r="A110" s="45"/>
+      <c r="B110" s="46">
         <v>42596</v>
       </c>
       <c r="C110" s="10" t="s">
@@ -6073,7 +6076,7 @@
       <c r="E110" s="10">
         <v>1</v>
       </c>
-      <c r="F110" s="44"/>
+      <c r="F110" s="45"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
@@ -6096,8 +6099,8 @@
       <c r="Z110" s="11"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A111" s="44"/>
-      <c r="B111" s="45"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="46"/>
       <c r="C111" s="10" t="s">
         <v>42</v>
       </c>
@@ -6107,7 +6110,7 @@
       <c r="E111" s="10">
         <v>1</v>
       </c>
-      <c r="F111" s="44"/>
+      <c r="F111" s="45"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -6130,8 +6133,8 @@
       <c r="Z111" s="11"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A112" s="44"/>
-      <c r="B112" s="45"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="46"/>
       <c r="C112" s="10" t="s">
         <v>96</v>
       </c>
@@ -6141,7 +6144,7 @@
       <c r="E112" s="10">
         <v>2.5</v>
       </c>
-      <c r="F112" s="44"/>
+      <c r="F112" s="45"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
@@ -6164,8 +6167,8 @@
       <c r="Z112" s="11"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A113" s="44"/>
-      <c r="B113" s="45"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="46"/>
       <c r="C113" s="10" t="s">
         <v>27</v>
       </c>
@@ -6175,7 +6178,7 @@
       <c r="E113" s="10">
         <v>0.5</v>
       </c>
-      <c r="F113" s="44"/>
+      <c r="F113" s="45"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
@@ -6198,8 +6201,8 @@
       <c r="Z113" s="11"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A114" s="44"/>
-      <c r="B114" s="45"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="10" t="s">
         <v>34</v>
       </c>
@@ -6209,7 +6212,7 @@
       <c r="E114" s="10">
         <v>0.5</v>
       </c>
-      <c r="F114" s="44"/>
+      <c r="F114" s="45"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
@@ -6232,8 +6235,8 @@
       <c r="Z114" s="11"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A115" s="44"/>
-      <c r="B115" s="45"/>
+      <c r="A115" s="45"/>
+      <c r="B115" s="46"/>
       <c r="C115" s="10" t="s">
         <v>29</v>
       </c>
@@ -6243,7 +6246,7 @@
       <c r="E115" s="2">
         <v>0.5</v>
       </c>
-      <c r="F115" s="44"/>
+      <c r="F115" s="45"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
@@ -6266,10 +6269,10 @@
       <c r="Z115" s="11"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A116" s="44">
+      <c r="A116" s="45">
         <v>6</v>
       </c>
-      <c r="B116" s="45">
+      <c r="B116" s="46">
         <v>42597</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -6281,7 +6284,7 @@
       <c r="E116" s="2">
         <v>0.5</v>
       </c>
-      <c r="F116" s="44">
+      <c r="F116" s="45">
         <f>SUM(E116:E152)</f>
         <v>42.5</v>
       </c>
@@ -6307,8 +6310,8 @@
       <c r="Z116" s="11"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A117" s="44"/>
-      <c r="B117" s="45"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="10" t="s">
         <v>98</v>
       </c>
@@ -6318,7 +6321,7 @@
       <c r="E117" s="2">
         <v>6</v>
       </c>
-      <c r="F117" s="44"/>
+      <c r="F117" s="45"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
       <c r="I117" s="11"/>
@@ -6341,8 +6344,8 @@
       <c r="Z117" s="11"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A118" s="44"/>
-      <c r="B118" s="45"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="10" t="s">
         <v>27</v>
       </c>
@@ -6352,7 +6355,7 @@
       <c r="E118" s="2">
         <v>0.5</v>
       </c>
-      <c r="F118" s="44"/>
+      <c r="F118" s="45"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
@@ -6375,8 +6378,8 @@
       <c r="Z118" s="11"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A119" s="44"/>
-      <c r="B119" s="45"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="10" t="s">
         <v>34</v>
       </c>
@@ -6386,7 +6389,7 @@
       <c r="E119" s="2">
         <v>0.5</v>
       </c>
-      <c r="F119" s="44"/>
+      <c r="F119" s="45"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
       <c r="I119" s="11"/>
@@ -6409,8 +6412,8 @@
       <c r="Z119" s="11"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A120" s="44"/>
-      <c r="B120" s="45"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="46"/>
       <c r="C120" s="10" t="s">
         <v>29</v>
       </c>
@@ -6420,7 +6423,7 @@
       <c r="E120" s="2">
         <v>0.5</v>
       </c>
-      <c r="F120" s="44"/>
+      <c r="F120" s="45"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
@@ -6443,8 +6446,8 @@
       <c r="Z120" s="11"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A121" s="44"/>
-      <c r="B121" s="45">
+      <c r="A121" s="45"/>
+      <c r="B121" s="46">
         <v>42598</v>
       </c>
       <c r="C121" s="10" t="s">
@@ -6456,7 +6459,7 @@
       <c r="E121" s="2">
         <v>0.5</v>
       </c>
-      <c r="F121" s="44"/>
+      <c r="F121" s="45"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
@@ -6479,8 +6482,8 @@
       <c r="Z121" s="11"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A122" s="44"/>
-      <c r="B122" s="45"/>
+      <c r="A122" s="45"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="10" t="s">
         <v>94</v>
       </c>
@@ -6490,7 +6493,7 @@
       <c r="E122" s="2">
         <v>1</v>
       </c>
-      <c r="F122" s="44"/>
+      <c r="F122" s="45"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
@@ -6513,8 +6516,8 @@
       <c r="Z122" s="11"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A123" s="44"/>
-      <c r="B123" s="45"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="10" t="s">
         <v>89</v>
       </c>
@@ -6524,7 +6527,7 @@
       <c r="E123" s="2">
         <v>4</v>
       </c>
-      <c r="F123" s="44"/>
+      <c r="F123" s="45"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
       <c r="I123" s="11"/>
@@ -6547,8 +6550,8 @@
       <c r="Z123" s="11"/>
     </row>
     <row r="124" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A124" s="44"/>
-      <c r="B124" s="45"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="10" t="s">
         <v>104</v>
       </c>
@@ -6558,7 +6561,7 @@
       <c r="E124" s="2">
         <v>1</v>
       </c>
-      <c r="F124" s="44"/>
+      <c r="F124" s="45"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
       <c r="I124" s="11"/>
@@ -6581,8 +6584,8 @@
       <c r="Z124" s="11"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A125" s="44"/>
-      <c r="B125" s="45"/>
+      <c r="A125" s="45"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="10" t="s">
         <v>27</v>
       </c>
@@ -6592,7 +6595,7 @@
       <c r="E125" s="2">
         <v>0.5</v>
       </c>
-      <c r="F125" s="44"/>
+      <c r="F125" s="45"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
       <c r="I125" s="11"/>
@@ -6615,8 +6618,8 @@
       <c r="Z125" s="11"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A126" s="44"/>
-      <c r="B126" s="45"/>
+      <c r="A126" s="45"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="10" t="s">
         <v>34</v>
       </c>
@@ -6626,7 +6629,7 @@
       <c r="E126" s="2">
         <v>0.5</v>
       </c>
-      <c r="F126" s="44"/>
+      <c r="F126" s="45"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
       <c r="I126" s="11"/>
@@ -6649,8 +6652,8 @@
       <c r="Z126" s="11"/>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A127" s="44"/>
-      <c r="B127" s="45"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="10" t="s">
         <v>29</v>
       </c>
@@ -6660,7 +6663,7 @@
       <c r="E127" s="2">
         <v>0.5</v>
       </c>
-      <c r="F127" s="44"/>
+      <c r="F127" s="45"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="11"/>
@@ -6683,8 +6686,8 @@
       <c r="Z127" s="11"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A128" s="44"/>
-      <c r="B128" s="45">
+      <c r="A128" s="45"/>
+      <c r="B128" s="46">
         <v>42599</v>
       </c>
       <c r="C128" s="10" t="s">
@@ -6696,7 +6699,7 @@
       <c r="E128" s="2">
         <v>3</v>
       </c>
-      <c r="F128" s="44"/>
+      <c r="F128" s="45"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
@@ -6719,8 +6722,8 @@
       <c r="Z128" s="11"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A129" s="44"/>
-      <c r="B129" s="45"/>
+      <c r="A129" s="45"/>
+      <c r="B129" s="46"/>
       <c r="C129" s="10" t="s">
         <v>108</v>
       </c>
@@ -6730,7 +6733,7 @@
       <c r="E129" s="2">
         <v>1</v>
       </c>
-      <c r="F129" s="44"/>
+      <c r="F129" s="45"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
@@ -6753,8 +6756,8 @@
       <c r="Z129" s="11"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A130" s="44"/>
-      <c r="B130" s="45"/>
+      <c r="A130" s="45"/>
+      <c r="B130" s="46"/>
       <c r="C130" s="10" t="s">
         <v>109</v>
       </c>
@@ -6764,7 +6767,7 @@
       <c r="E130" s="2">
         <v>2</v>
       </c>
-      <c r="F130" s="44"/>
+      <c r="F130" s="45"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
@@ -6787,8 +6790,8 @@
       <c r="Z130" s="11"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A131" s="44"/>
-      <c r="B131" s="45"/>
+      <c r="A131" s="45"/>
+      <c r="B131" s="46"/>
       <c r="C131" s="10" t="s">
         <v>34</v>
       </c>
@@ -6798,7 +6801,7 @@
       <c r="E131" s="2">
         <v>0.5</v>
       </c>
-      <c r="F131" s="44"/>
+      <c r="F131" s="45"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
@@ -6821,8 +6824,8 @@
       <c r="Z131" s="11"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A132" s="44"/>
-      <c r="B132" s="45"/>
+      <c r="A132" s="45"/>
+      <c r="B132" s="46"/>
       <c r="C132" s="10" t="s">
         <v>29</v>
       </c>
@@ -6832,7 +6835,7 @@
       <c r="E132" s="2">
         <v>0.5</v>
       </c>
-      <c r="F132" s="44"/>
+      <c r="F132" s="45"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
@@ -6855,8 +6858,8 @@
       <c r="Z132" s="11"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A133" s="44"/>
-      <c r="B133" s="45"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="46"/>
       <c r="C133" s="10" t="s">
         <v>27</v>
       </c>
@@ -6866,7 +6869,7 @@
       <c r="E133" s="2">
         <v>0.5</v>
       </c>
-      <c r="F133" s="44"/>
+      <c r="F133" s="45"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -6889,8 +6892,8 @@
       <c r="Z133" s="11"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A134" s="44"/>
-      <c r="B134" s="45">
+      <c r="A134" s="45"/>
+      <c r="B134" s="46">
         <v>42600</v>
       </c>
       <c r="C134" s="10" t="s">
@@ -6902,7 +6905,7 @@
       <c r="E134" s="2">
         <v>2</v>
       </c>
-      <c r="F134" s="44"/>
+      <c r="F134" s="45"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
@@ -6925,8 +6928,8 @@
       <c r="Z134" s="11"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A135" s="44"/>
-      <c r="B135" s="45"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="46"/>
       <c r="C135" s="10" t="s">
         <v>27</v>
       </c>
@@ -6936,7 +6939,7 @@
       <c r="E135" s="2">
         <v>0.5</v>
       </c>
-      <c r="F135" s="44"/>
+      <c r="F135" s="45"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="11"/>
@@ -6959,8 +6962,8 @@
       <c r="Z135" s="11"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A136" s="44"/>
-      <c r="B136" s="45"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="46"/>
       <c r="C136" s="10" t="s">
         <v>34</v>
       </c>
@@ -6970,7 +6973,7 @@
       <c r="E136" s="2">
         <v>0.5</v>
       </c>
-      <c r="F136" s="44"/>
+      <c r="F136" s="45"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
       <c r="I136" s="11"/>
@@ -6993,8 +6996,8 @@
       <c r="Z136" s="11"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A137" s="44"/>
-      <c r="B137" s="45"/>
+      <c r="A137" s="45"/>
+      <c r="B137" s="46"/>
       <c r="C137" s="10" t="s">
         <v>29</v>
       </c>
@@ -7004,7 +7007,7 @@
       <c r="E137" s="2">
         <v>0.5</v>
       </c>
-      <c r="F137" s="44"/>
+      <c r="F137" s="45"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="11"/>
@@ -7027,8 +7030,8 @@
       <c r="Z137" s="11"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A138" s="44"/>
-      <c r="B138" s="45"/>
+      <c r="A138" s="45"/>
+      <c r="B138" s="46"/>
       <c r="C138" s="10" t="s">
         <v>113</v>
       </c>
@@ -7038,7 +7041,7 @@
       <c r="E138" s="2">
         <v>1</v>
       </c>
-      <c r="F138" s="44"/>
+      <c r="F138" s="45"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="11"/>
@@ -7061,8 +7064,8 @@
       <c r="Z138" s="11"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A139" s="44"/>
-      <c r="B139" s="45">
+      <c r="A139" s="45"/>
+      <c r="B139" s="46">
         <v>42601</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -7074,7 +7077,7 @@
       <c r="E139" s="2">
         <v>3</v>
       </c>
-      <c r="F139" s="44"/>
+      <c r="F139" s="45"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
@@ -7097,8 +7100,8 @@
       <c r="Z139" s="11"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A140" s="44"/>
-      <c r="B140" s="45"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="46"/>
       <c r="C140" s="10" t="s">
         <v>27</v>
       </c>
@@ -7108,7 +7111,7 @@
       <c r="E140" s="2">
         <v>0.5</v>
       </c>
-      <c r="F140" s="44"/>
+      <c r="F140" s="45"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="11"/>
@@ -7131,8 +7134,8 @@
       <c r="Z140" s="11"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A141" s="44"/>
-      <c r="B141" s="45"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="46"/>
       <c r="C141" s="10" t="s">
         <v>34</v>
       </c>
@@ -7142,7 +7145,7 @@
       <c r="E141" s="2">
         <v>0.5</v>
       </c>
-      <c r="F141" s="44"/>
+      <c r="F141" s="45"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="11"/>
@@ -7165,8 +7168,8 @@
       <c r="Z141" s="11"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A142" s="44"/>
-      <c r="B142" s="45"/>
+      <c r="A142" s="45"/>
+      <c r="B142" s="46"/>
       <c r="C142" s="10" t="s">
         <v>29</v>
       </c>
@@ -7176,7 +7179,7 @@
       <c r="E142" s="2">
         <v>0.5</v>
       </c>
-      <c r="F142" s="44"/>
+      <c r="F142" s="45"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="11"/>
@@ -7199,8 +7202,8 @@
       <c r="Z142" s="11"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A143" s="44"/>
-      <c r="B143" s="45">
+      <c r="A143" s="45"/>
+      <c r="B143" s="46">
         <v>42602</v>
       </c>
       <c r="C143" s="10" t="s">
@@ -7212,7 +7215,7 @@
       <c r="E143" s="2">
         <v>3</v>
       </c>
-      <c r="F143" s="44"/>
+      <c r="F143" s="45"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
@@ -7235,8 +7238,8 @@
       <c r="Z143" s="11"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A144" s="44"/>
-      <c r="B144" s="45"/>
+      <c r="A144" s="45"/>
+      <c r="B144" s="46"/>
       <c r="C144" s="10" t="s">
         <v>34</v>
       </c>
@@ -7246,7 +7249,7 @@
       <c r="E144" s="2">
         <v>0.5</v>
       </c>
-      <c r="F144" s="44"/>
+      <c r="F144" s="45"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11"/>
@@ -7269,8 +7272,8 @@
       <c r="Z144" s="11"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A145" s="44"/>
-      <c r="B145" s="45"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="46"/>
       <c r="C145" s="10" t="s">
         <v>29</v>
       </c>
@@ -7280,7 +7283,7 @@
       <c r="E145" s="2">
         <v>0.5</v>
       </c>
-      <c r="F145" s="44"/>
+      <c r="F145" s="45"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
@@ -7303,8 +7306,8 @@
       <c r="Z145" s="11"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A146" s="44"/>
-      <c r="B146" s="45"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="46"/>
       <c r="C146" s="10" t="s">
         <v>27</v>
       </c>
@@ -7314,7 +7317,7 @@
       <c r="E146" s="2">
         <v>0.5</v>
       </c>
-      <c r="F146" s="44"/>
+      <c r="F146" s="45"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
@@ -7337,8 +7340,8 @@
       <c r="Z146" s="11"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A147" s="44"/>
-      <c r="B147" s="45">
+      <c r="A147" s="45"/>
+      <c r="B147" s="46">
         <v>42603</v>
       </c>
       <c r="C147" s="10" t="s">
@@ -7350,7 +7353,7 @@
       <c r="E147" s="2">
         <v>1</v>
       </c>
-      <c r="F147" s="44"/>
+      <c r="F147" s="45"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
@@ -7373,8 +7376,8 @@
       <c r="Z147" s="11"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A148" s="44"/>
-      <c r="B148" s="45"/>
+      <c r="A148" s="45"/>
+      <c r="B148" s="46"/>
       <c r="C148" s="10" t="s">
         <v>117</v>
       </c>
@@ -7384,7 +7387,7 @@
       <c r="E148" s="2">
         <v>2</v>
       </c>
-      <c r="F148" s="44"/>
+      <c r="F148" s="45"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
@@ -7407,8 +7410,8 @@
       <c r="Z148" s="11"/>
     </row>
     <row r="149" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="44"/>
-      <c r="B149" s="45"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="46"/>
       <c r="C149" s="10" t="s">
         <v>118</v>
       </c>
@@ -7418,7 +7421,7 @@
       <c r="E149" s="2">
         <v>1</v>
       </c>
-      <c r="F149" s="44"/>
+      <c r="F149" s="45"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
@@ -7441,8 +7444,8 @@
       <c r="Z149" s="11"/>
     </row>
     <row r="150" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="44"/>
-      <c r="B150" s="45"/>
+      <c r="A150" s="45"/>
+      <c r="B150" s="46"/>
       <c r="C150" s="10" t="s">
         <v>27</v>
       </c>
@@ -7452,7 +7455,7 @@
       <c r="E150" s="2">
         <v>0.5</v>
       </c>
-      <c r="F150" s="44"/>
+      <c r="F150" s="45"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
@@ -7475,8 +7478,8 @@
       <c r="Z150" s="11"/>
     </row>
     <row r="151" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="44"/>
-      <c r="B151" s="45"/>
+      <c r="A151" s="45"/>
+      <c r="B151" s="46"/>
       <c r="C151" s="10" t="s">
         <v>34</v>
       </c>
@@ -7486,7 +7489,7 @@
       <c r="E151" s="2">
         <v>0.5</v>
       </c>
-      <c r="F151" s="44"/>
+      <c r="F151" s="45"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
@@ -7509,8 +7512,8 @@
       <c r="Z151" s="11"/>
     </row>
     <row r="152" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="44"/>
-      <c r="B152" s="45"/>
+      <c r="A152" s="45"/>
+      <c r="B152" s="46"/>
       <c r="C152" s="10" t="s">
         <v>29</v>
       </c>
@@ -7520,7 +7523,7 @@
       <c r="E152" s="2">
         <v>0.5</v>
       </c>
-      <c r="F152" s="44"/>
+      <c r="F152" s="45"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -7543,7 +7546,7 @@
       <c r="Z152" s="11"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A153" s="44">
+      <c r="A153" s="45">
         <v>7</v>
       </c>
       <c r="B153" s="5">
@@ -7552,7 +7555,7 @@
       <c r="C153" s="10"/>
       <c r="D153" s="14"/>
       <c r="E153" s="2"/>
-      <c r="F153" s="44">
+      <c r="F153" s="45">
         <f>SUM(E153:E158)</f>
         <v>0</v>
       </c>
@@ -7578,14 +7581,14 @@
       <c r="Z153" s="11"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A154" s="44"/>
+      <c r="A154" s="45"/>
       <c r="B154" s="5">
         <v>42605</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="14"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="44"/>
+      <c r="F154" s="45"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
@@ -7608,14 +7611,14 @@
       <c r="Z154" s="11"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A155" s="44"/>
+      <c r="A155" s="45"/>
       <c r="B155" s="5">
         <v>42606</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="14"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="44"/>
+      <c r="F155" s="45"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
@@ -7638,14 +7641,14 @@
       <c r="Z155" s="11"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A156" s="44"/>
+      <c r="A156" s="45"/>
       <c r="B156" s="5">
         <v>42607</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="14"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="44"/>
+      <c r="F156" s="45"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
@@ -7668,14 +7671,14 @@
       <c r="Z156" s="11"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A157" s="44"/>
+      <c r="A157" s="45"/>
       <c r="B157" s="5">
         <v>42608</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="14"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="44"/>
+      <c r="F157" s="45"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
@@ -7698,14 +7701,14 @@
       <c r="Z157" s="11"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A158" s="44"/>
+      <c r="A158" s="45"/>
       <c r="B158" s="5">
         <v>42609</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="14"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="44"/>
+      <c r="F158" s="45"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
       <c r="I158" s="11"/>
@@ -7728,14 +7731,14 @@
       <c r="Z158" s="11"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A159" s="44"/>
+      <c r="A159" s="45"/>
       <c r="B159" s="5">
         <v>42610</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="14"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="44"/>
+      <c r="F159" s="45"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
@@ -7758,7 +7761,7 @@
       <c r="Z159" s="11"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A160" s="44">
+      <c r="A160" s="45">
         <v>8</v>
       </c>
       <c r="B160" s="5">
@@ -7767,7 +7770,7 @@
       <c r="C160" s="10"/>
       <c r="D160" s="14"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="44">
+      <c r="F160" s="45">
         <f>SUM(E159:E165)</f>
         <v>0</v>
       </c>
@@ -7793,14 +7796,14 @@
       <c r="Z160" s="11"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A161" s="44"/>
+      <c r="A161" s="45"/>
       <c r="B161" s="5">
         <v>42612</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="14"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="44"/>
+      <c r="F161" s="45"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
@@ -7823,14 +7826,14 @@
       <c r="Z161" s="11"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A162" s="44"/>
+      <c r="A162" s="45"/>
       <c r="B162" s="5">
         <v>42613</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="14"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="44"/>
+      <c r="F162" s="45"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
@@ -7853,14 +7856,14 @@
       <c r="Z162" s="11"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A163" s="44"/>
+      <c r="A163" s="45"/>
       <c r="B163" s="5">
         <v>42614</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="14"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="44"/>
+      <c r="F163" s="45"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
       <c r="I163" s="11"/>
@@ -7883,14 +7886,14 @@
       <c r="Z163" s="11"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A164" s="44"/>
+      <c r="A164" s="45"/>
       <c r="B164" s="5">
         <v>42615</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="14"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="44"/>
+      <c r="F164" s="45"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
@@ -7913,14 +7916,14 @@
       <c r="Z164" s="11"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A165" s="44"/>
+      <c r="A165" s="45"/>
       <c r="B165" s="5">
         <v>42616</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="14"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="44"/>
+      <c r="F165" s="45"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
@@ -7943,14 +7946,14 @@
       <c r="Z165" s="11"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A166" s="44"/>
+      <c r="A166" s="45"/>
       <c r="B166" s="5">
         <v>42617</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="14"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="44"/>
+      <c r="F166" s="45"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
       <c r="I166" s="11"/>
@@ -7973,7 +7976,7 @@
       <c r="Z166" s="11"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A167" s="44">
+      <c r="A167" s="45">
         <v>9</v>
       </c>
       <c r="B167" s="5">
@@ -7982,7 +7985,7 @@
       <c r="C167" s="10"/>
       <c r="D167" s="14"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="44">
+      <c r="F167" s="45">
         <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
@@ -8008,14 +8011,14 @@
       <c r="Z167" s="11"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A168" s="44"/>
+      <c r="A168" s="45"/>
       <c r="B168" s="5">
         <v>42619</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="14"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="44"/>
+      <c r="F168" s="45"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
       <c r="I168" s="11"/>
@@ -8038,14 +8041,14 @@
       <c r="Z168" s="11"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A169" s="44"/>
+      <c r="A169" s="45"/>
       <c r="B169" s="5">
         <v>42620</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="14"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="44"/>
+      <c r="F169" s="45"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
       <c r="I169" s="11"/>
@@ -8068,14 +8071,14 @@
       <c r="Z169" s="11"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A170" s="44"/>
+      <c r="A170" s="45"/>
       <c r="B170" s="5">
         <v>42621</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="14"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="44"/>
+      <c r="F170" s="45"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
@@ -8098,14 +8101,14 @@
       <c r="Z170" s="11"/>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A171" s="44"/>
+      <c r="A171" s="45"/>
       <c r="B171" s="5">
         <v>42622</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="14"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="44"/>
+      <c r="F171" s="45"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
@@ -8128,14 +8131,14 @@
       <c r="Z171" s="11"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A172" s="44"/>
+      <c r="A172" s="45"/>
       <c r="B172" s="5">
         <v>42623</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="14"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="44"/>
+      <c r="F172" s="45"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
@@ -8158,14 +8161,14 @@
       <c r="Z172" s="11"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A173" s="44"/>
+      <c r="A173" s="45"/>
       <c r="B173" s="5">
         <v>42624</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="14"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="44"/>
+      <c r="F173" s="45"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
@@ -8188,7 +8191,7 @@
       <c r="Z173" s="11"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A174" s="44">
+      <c r="A174" s="45">
         <v>10</v>
       </c>
       <c r="B174" s="5">
@@ -8197,7 +8200,7 @@
       <c r="C174" s="10"/>
       <c r="D174" s="14"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="44">
+      <c r="F174" s="45">
         <f>SUM(E173:E179)</f>
         <v>0</v>
       </c>
@@ -8223,14 +8226,14 @@
       <c r="Z174" s="11"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A175" s="44"/>
+      <c r="A175" s="45"/>
       <c r="B175" s="5">
         <v>42626</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="14"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="44"/>
+      <c r="F175" s="45"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
@@ -8253,14 +8256,14 @@
       <c r="Z175" s="11"/>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A176" s="44"/>
+      <c r="A176" s="45"/>
       <c r="B176" s="5">
         <v>42627</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="14"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="44"/>
+      <c r="F176" s="45"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
@@ -8283,14 +8286,14 @@
       <c r="Z176" s="11"/>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A177" s="44"/>
+      <c r="A177" s="45"/>
       <c r="B177" s="5">
         <v>42628</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="14"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="44"/>
+      <c r="F177" s="45"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
@@ -8313,37 +8316,37 @@
       <c r="Z177" s="11"/>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A178" s="44"/>
+      <c r="A178" s="45"/>
       <c r="B178" s="5">
         <v>42629</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="14"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="44"/>
+      <c r="F178" s="45"/>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A179" s="44"/>
+      <c r="A179" s="45"/>
       <c r="B179" s="5">
         <v>42630</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="14"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="44"/>
+      <c r="F179" s="45"/>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A180" s="44"/>
+      <c r="A180" s="45"/>
       <c r="B180" s="5">
         <v>42631</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="14"/>
       <c r="E180" s="2"/>
-      <c r="F180" s="44"/>
+      <c r="F180" s="45"/>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A181" s="44">
+      <c r="A181" s="45">
         <v>11</v>
       </c>
       <c r="B181" s="5">
@@ -8352,73 +8355,73 @@
       <c r="C181" s="10"/>
       <c r="D181" s="14"/>
       <c r="E181" s="2"/>
-      <c r="F181" s="44">
+      <c r="F181" s="45">
         <f>SUM(E180:E186)</f>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A182" s="44"/>
+      <c r="A182" s="45"/>
       <c r="B182" s="5">
         <v>42633</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="14"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="44"/>
+      <c r="F182" s="45"/>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A183" s="44"/>
+      <c r="A183" s="45"/>
       <c r="B183" s="5">
         <v>42634</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="14"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="44"/>
+      <c r="F183" s="45"/>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A184" s="44"/>
+      <c r="A184" s="45"/>
       <c r="B184" s="5">
         <v>42635</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="14"/>
       <c r="E184" s="2"/>
-      <c r="F184" s="44"/>
+      <c r="F184" s="45"/>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A185" s="44"/>
+      <c r="A185" s="45"/>
       <c r="B185" s="5">
         <v>42636</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="14"/>
       <c r="E185" s="2"/>
-      <c r="F185" s="44"/>
+      <c r="F185" s="45"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A186" s="44"/>
+      <c r="A186" s="45"/>
       <c r="B186" s="5">
         <v>42637</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="14"/>
       <c r="E186" s="2"/>
-      <c r="F186" s="44"/>
+      <c r="F186" s="45"/>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A187" s="44"/>
+      <c r="A187" s="45"/>
       <c r="B187" s="5">
         <v>42638</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="14"/>
       <c r="E187" s="2"/>
-      <c r="F187" s="44"/>
+      <c r="F187" s="45"/>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A188" s="44">
+      <c r="A188" s="45">
         <v>12</v>
       </c>
       <c r="B188" s="5">
@@ -8427,73 +8430,73 @@
       <c r="C188" s="10"/>
       <c r="D188" s="14"/>
       <c r="E188" s="2"/>
-      <c r="F188" s="44">
+      <c r="F188" s="45">
         <f>SUM(E187:E193)</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A189" s="44"/>
+      <c r="A189" s="45"/>
       <c r="B189" s="5">
         <v>42640</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="14"/>
       <c r="E189" s="2"/>
-      <c r="F189" s="44"/>
+      <c r="F189" s="45"/>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A190" s="44"/>
+      <c r="A190" s="45"/>
       <c r="B190" s="5">
         <v>42641</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="14"/>
       <c r="E190" s="2"/>
-      <c r="F190" s="44"/>
+      <c r="F190" s="45"/>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A191" s="44"/>
+      <c r="A191" s="45"/>
       <c r="B191" s="5">
         <v>42642</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="14"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="44"/>
+      <c r="F191" s="45"/>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A192" s="44"/>
+      <c r="A192" s="45"/>
       <c r="B192" s="5">
         <v>42643</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="14"/>
       <c r="E192" s="2"/>
-      <c r="F192" s="44"/>
+      <c r="F192" s="45"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="44"/>
+      <c r="A193" s="45"/>
       <c r="B193" s="5">
         <v>42644</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="14"/>
       <c r="E193" s="2"/>
-      <c r="F193" s="44"/>
+      <c r="F193" s="45"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="44"/>
+      <c r="A194" s="45"/>
       <c r="B194" s="5">
         <v>42645</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="14"/>
       <c r="E194" s="2"/>
-      <c r="F194" s="44"/>
+      <c r="F194" s="45"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="44">
+      <c r="A195" s="45">
         <v>13</v>
       </c>
       <c r="B195" s="5">
@@ -8502,73 +8505,73 @@
       <c r="C195" s="10"/>
       <c r="D195" s="14"/>
       <c r="E195" s="2"/>
-      <c r="F195" s="44">
+      <c r="F195" s="45">
         <f>SUM(E194:E200)</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="44"/>
+      <c r="A196" s="45"/>
       <c r="B196" s="5">
         <v>42647</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="14"/>
       <c r="E196" s="2"/>
-      <c r="F196" s="44"/>
+      <c r="F196" s="45"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="44"/>
+      <c r="A197" s="45"/>
       <c r="B197" s="5">
         <v>42648</v>
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="14"/>
       <c r="E197" s="2"/>
-      <c r="F197" s="44"/>
+      <c r="F197" s="45"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="44"/>
+      <c r="A198" s="45"/>
       <c r="B198" s="5">
         <v>42649</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="14"/>
       <c r="E198" s="2"/>
-      <c r="F198" s="44"/>
+      <c r="F198" s="45"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="44"/>
+      <c r="A199" s="45"/>
       <c r="B199" s="5">
         <v>42650</v>
       </c>
       <c r="C199" s="10"/>
       <c r="D199" s="14"/>
       <c r="E199" s="2"/>
-      <c r="F199" s="44"/>
+      <c r="F199" s="45"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="44"/>
+      <c r="A200" s="45"/>
       <c r="B200" s="5">
         <v>42651</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="14"/>
       <c r="E200" s="2"/>
-      <c r="F200" s="44"/>
+      <c r="F200" s="45"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="44"/>
+      <c r="A201" s="45"/>
       <c r="B201" s="5">
         <v>42652</v>
       </c>
       <c r="C201" s="10"/>
       <c r="D201" s="14"/>
       <c r="E201" s="2"/>
-      <c r="F201" s="44"/>
+      <c r="F201" s="45"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="44">
+      <c r="A202" s="45">
         <v>14</v>
       </c>
       <c r="B202" s="5">
@@ -8577,125 +8580,73 @@
       <c r="C202" s="10"/>
       <c r="D202" s="14"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="44">
+      <c r="F202" s="45">
         <f>SUM(E201:E207)</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="44"/>
+      <c r="A203" s="45"/>
       <c r="B203" s="5">
         <v>42654</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="14"/>
       <c r="E203" s="2"/>
-      <c r="F203" s="44"/>
+      <c r="F203" s="45"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="44"/>
+      <c r="A204" s="45"/>
       <c r="B204" s="5">
         <v>42655</v>
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="14"/>
       <c r="E204" s="2"/>
-      <c r="F204" s="44"/>
+      <c r="F204" s="45"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="44"/>
+      <c r="A205" s="45"/>
       <c r="B205" s="5">
         <v>42656</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="14"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="44"/>
+      <c r="F205" s="45"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="44"/>
+      <c r="A206" s="45"/>
       <c r="B206" s="5">
         <v>42657</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="14"/>
       <c r="E206" s="2"/>
-      <c r="F206" s="44"/>
+      <c r="F206" s="45"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="44"/>
+      <c r="A207" s="45"/>
       <c r="B207" s="5">
         <v>42658</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="14"/>
       <c r="E207" s="2"/>
-      <c r="F207" s="44"/>
+      <c r="F207" s="45"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="44"/>
+      <c r="A208" s="45"/>
       <c r="B208" s="5">
         <v>42659</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="14"/>
       <c r="E208" s="2"/>
-      <c r="F208" s="44"/>
+      <c r="F208" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F2:F23"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B23"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F24:F47"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A48:A67"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="F48:F67"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="F68:F92"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A93:A115"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="F93:F115"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B115"/>
-    <mergeCell ref="A116:A152"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="F116:F152"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="A153:A159"/>
-    <mergeCell ref="F153:F159"/>
-    <mergeCell ref="A160:A166"/>
-    <mergeCell ref="F160:F166"/>
-    <mergeCell ref="A167:A173"/>
-    <mergeCell ref="F167:F173"/>
     <mergeCell ref="A195:A201"/>
     <mergeCell ref="F195:F201"/>
     <mergeCell ref="A202:A208"/>
@@ -8706,6 +8657,58 @@
     <mergeCell ref="F181:F187"/>
     <mergeCell ref="A188:A194"/>
     <mergeCell ref="F188:F194"/>
+    <mergeCell ref="A153:A159"/>
+    <mergeCell ref="F153:F159"/>
+    <mergeCell ref="A160:A166"/>
+    <mergeCell ref="F160:F166"/>
+    <mergeCell ref="A167:A173"/>
+    <mergeCell ref="F167:F173"/>
+    <mergeCell ref="A116:A152"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="F116:F152"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="A93:A115"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="F93:F115"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B115"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="F68:F92"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="A48:A67"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="F48:F67"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F24:F47"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F2:F23"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8714,11 +8717,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK122"/>
+  <dimension ref="A1:AMK124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8754,7 +8757,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="44">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -8767,13 +8770,13 @@
       <c r="E2" s="20">
         <v>2</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="45">
         <f>SUM(E2:E12)</f>
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="16">
         <v>42562</v>
       </c>
@@ -8784,10 +8787,10 @@
       <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="45"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="16">
         <v>42563</v>
       </c>
@@ -8798,10 +8801,10 @@
       <c r="E4" s="20">
         <v>4</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="44"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="16">
         <v>42564</v>
       </c>
@@ -8812,10 +8815,10 @@
       <c r="E5" s="20">
         <v>4</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="45"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="16">
         <v>42565</v>
       </c>
@@ -8826,10 +8829,10 @@
       <c r="E6" s="20">
         <v>2</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="45"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="16">
         <v>42566</v>
       </c>
@@ -8840,20 +8843,20 @@
       <c r="E7" s="20">
         <v>1</v>
       </c>
-      <c r="F7" s="44"/>
+      <c r="F7" s="45"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="16">
         <v>42567</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="44"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="16">
         <v>42568</v>
       </c>
@@ -8864,10 +8867,10 @@
       <c r="E9" s="20">
         <v>4</v>
       </c>
-      <c r="F9" s="44"/>
+      <c r="F9" s="45"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="44"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="16">
         <v>42568</v>
       </c>
@@ -8878,10 +8881,10 @@
       <c r="E10" s="20">
         <v>1</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="45"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="16">
         <v>42568</v>
       </c>
@@ -8892,10 +8895,10 @@
       <c r="E11" s="20">
         <v>0.5</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="45"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="44"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="16">
         <v>42568</v>
       </c>
@@ -8906,10 +8909,10 @@
       <c r="E12" s="20">
         <v>0.5</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="45"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
+      <c r="A13" s="45">
         <v>2</v>
       </c>
       <c r="B13" s="16">
@@ -8922,13 +8925,13 @@
       <c r="E13" s="20">
         <v>5</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="45">
         <f>SUM(E13:E21)</f>
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="44"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="16">
         <v>42570</v>
       </c>
@@ -8939,20 +8942,20 @@
       <c r="E14" s="20">
         <v>5</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="45"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="44"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="16">
         <v>42571</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="45"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="16">
         <v>42572</v>
       </c>
@@ -8963,10 +8966,10 @@
       <c r="E16" s="20">
         <v>5</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="45"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="16">
         <v>42573</v>
       </c>
@@ -8977,10 +8980,10 @@
       <c r="E17" s="20">
         <v>3</v>
       </c>
-      <c r="F17" s="44"/>
+      <c r="F17" s="45"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="16">
         <v>42574</v>
       </c>
@@ -8991,10 +8994,10 @@
       <c r="E18" s="20">
         <v>2</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="45"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="16">
         <v>42575</v>
       </c>
@@ -9005,10 +9008,10 @@
       <c r="E19" s="20">
         <v>1</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="45"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="44"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="16">
         <v>42575</v>
       </c>
@@ -9019,10 +9022,10 @@
       <c r="E20" s="20">
         <v>0.5</v>
       </c>
-      <c r="F20" s="44"/>
+      <c r="F20" s="45"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="44"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="16">
         <v>42575</v>
       </c>
@@ -9033,10 +9036,10 @@
       <c r="E21" s="20">
         <v>0.5</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="45"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="44">
+      <c r="A22" s="45">
         <v>3</v>
       </c>
       <c r="B22" s="16">
@@ -9049,13 +9052,13 @@
       <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="F22" s="44">
+      <c r="F22" s="45">
         <f>SUM(E22:E32)</f>
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="44"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="21">
         <v>42577</v>
       </c>
@@ -9066,10 +9069,10 @@
       <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="45"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="44"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="16">
         <v>42577</v>
       </c>
@@ -9080,10 +9083,10 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="44"/>
+      <c r="F24" s="45"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="44"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="16">
         <v>42578</v>
       </c>
@@ -9094,10 +9097,10 @@
       <c r="E25" s="2">
         <v>4</v>
       </c>
-      <c r="F25" s="44"/>
+      <c r="F25" s="45"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="44"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="16">
         <v>42578</v>
       </c>
@@ -9108,10 +9111,10 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="45"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="23">
         <v>42579</v>
       </c>
@@ -9122,10 +9125,10 @@
       <c r="E27" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="44"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="44"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="16">
         <v>42580</v>
       </c>
@@ -9136,20 +9139,20 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="45"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="16">
         <v>42581</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="44"/>
+      <c r="F29" s="45"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="16">
         <v>42582</v>
       </c>
@@ -9160,10 +9163,10 @@
       <c r="E30" s="20">
         <v>1</v>
       </c>
-      <c r="F30" s="44"/>
+      <c r="F30" s="45"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="16">
         <v>42582</v>
       </c>
@@ -9174,10 +9177,10 @@
       <c r="E31" s="20">
         <v>0.5</v>
       </c>
-      <c r="F31" s="44"/>
+      <c r="F31" s="45"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="44"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="16">
         <v>42582</v>
       </c>
@@ -9188,10 +9191,10 @@
       <c r="E32" s="20">
         <v>0.5</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="45"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="44">
+      <c r="A33" s="45">
         <v>4</v>
       </c>
       <c r="B33" s="16">
@@ -9204,13 +9207,13 @@
       <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="44">
+      <c r="F33" s="45">
         <f>SUM(E33:E41)</f>
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="16">
         <v>42584</v>
       </c>
@@ -9221,10 +9224,10 @@
       <c r="E34" s="2">
         <v>5</v>
       </c>
-      <c r="F34" s="44"/>
+      <c r="F34" s="45"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="44"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="16">
         <v>42585</v>
       </c>
@@ -9235,10 +9238,10 @@
       <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="45"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="44"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="16">
         <v>42586</v>
       </c>
@@ -9249,10 +9252,10 @@
       <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="44"/>
+      <c r="F36" s="45"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="16">
         <v>42587</v>
       </c>
@@ -9263,10 +9266,10 @@
       <c r="E37" s="2">
         <v>5</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="45"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="16">
         <v>42588</v>
       </c>
@@ -9277,10 +9280,10 @@
       <c r="E38" s="2">
         <v>2</v>
       </c>
-      <c r="F38" s="44"/>
+      <c r="F38" s="45"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="44"/>
+      <c r="A39" s="45"/>
       <c r="B39" s="16">
         <v>42589</v>
       </c>
@@ -9291,10 +9294,10 @@
       <c r="E39" s="20">
         <v>1</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="45"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
+      <c r="A40" s="45"/>
       <c r="B40" s="16">
         <v>42589</v>
       </c>
@@ -9305,10 +9308,10 @@
       <c r="E40" s="20">
         <v>0.5</v>
       </c>
-      <c r="F40" s="44"/>
+      <c r="F40" s="45"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="16">
         <v>42589</v>
       </c>
@@ -9319,10 +9322,10 @@
       <c r="E41" s="20">
         <v>0.5</v>
       </c>
-      <c r="F41" s="44"/>
+      <c r="F41" s="45"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="44">
+      <c r="A42" s="45">
         <v>5</v>
       </c>
       <c r="B42" s="16">
@@ -9333,13 +9336,13 @@
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="44">
+      <c r="F42" s="45">
         <f>SUM(E42:E51)</f>
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="44"/>
+      <c r="A43" s="45"/>
       <c r="B43" s="16">
         <v>42591</v>
       </c>
@@ -9350,10 +9353,10 @@
       <c r="E43" s="2">
         <v>4</v>
       </c>
-      <c r="F43" s="44"/>
+      <c r="F43" s="45"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="44"/>
+      <c r="A44" s="45"/>
       <c r="B44" s="16">
         <v>42592</v>
       </c>
@@ -9364,10 +9367,10 @@
       <c r="E44" s="2">
         <v>0.5</v>
       </c>
-      <c r="F44" s="44"/>
+      <c r="F44" s="45"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="44"/>
+      <c r="A45" s="45"/>
       <c r="B45" s="16">
         <v>42592</v>
       </c>
@@ -9378,10 +9381,10 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="44"/>
+      <c r="F45" s="45"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="44"/>
+      <c r="A46" s="45"/>
       <c r="B46" s="16">
         <v>42592</v>
       </c>
@@ -9392,10 +9395,10 @@
       <c r="E46" s="2">
         <v>2</v>
       </c>
-      <c r="F46" s="44"/>
+      <c r="F46" s="45"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="44"/>
+      <c r="A47" s="45"/>
       <c r="B47" s="16">
         <v>42592</v>
       </c>
@@ -9406,20 +9409,20 @@
       <c r="E47" s="2">
         <v>2.5</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="45"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="44"/>
+      <c r="A48" s="45"/>
       <c r="B48" s="16">
         <v>42593</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="19"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="44"/>
+      <c r="F48" s="45"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="44"/>
+      <c r="A49" s="45"/>
       <c r="B49" s="16">
         <v>42594</v>
       </c>
@@ -9430,10 +9433,10 @@
       <c r="E49" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="44"/>
+      <c r="F49" s="45"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="44"/>
+      <c r="A50" s="45"/>
       <c r="B50" s="16">
         <v>42595</v>
       </c>
@@ -9444,10 +9447,10 @@
       <c r="E50" s="2">
         <v>4</v>
       </c>
-      <c r="F50" s="44"/>
+      <c r="F50" s="45"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="44"/>
+      <c r="A51" s="45"/>
       <c r="B51" s="16">
         <v>42596</v>
       </c>
@@ -9458,10 +9461,10 @@
       <c r="E51" s="2">
         <v>5</v>
       </c>
-      <c r="F51" s="44"/>
+      <c r="F51" s="45"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="44">
+      <c r="A52" s="45">
         <v>6</v>
       </c>
       <c r="B52" s="16">
@@ -9476,13 +9479,13 @@
       <c r="E52" s="2">
         <v>6</v>
       </c>
-      <c r="F52" s="44">
+      <c r="F52" s="45">
         <f>SUM(E52:E63)</f>
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="44"/>
+      <c r="A53" s="45"/>
       <c r="B53" s="16">
         <v>42598</v>
       </c>
@@ -9495,10 +9498,10 @@
       <c r="E53" s="2">
         <v>5.5</v>
       </c>
-      <c r="F53" s="44"/>
+      <c r="F53" s="45"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="44"/>
+      <c r="A54" s="45"/>
       <c r="B54" s="16">
         <v>42598</v>
       </c>
@@ -9511,10 +9514,10 @@
       <c r="E54" s="2">
         <v>0.5</v>
       </c>
-      <c r="F54" s="44"/>
+      <c r="F54" s="45"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="44"/>
+      <c r="A55" s="45"/>
       <c r="B55" s="16">
         <v>42599</v>
       </c>
@@ -9527,10 +9530,10 @@
       <c r="E55" s="2">
         <v>1</v>
       </c>
-      <c r="F55" s="44"/>
+      <c r="F55" s="45"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="44"/>
+      <c r="A56" s="45"/>
       <c r="B56" s="16">
         <v>42599</v>
       </c>
@@ -9543,10 +9546,10 @@
       <c r="E56" s="2">
         <v>4</v>
       </c>
-      <c r="F56" s="44"/>
+      <c r="F56" s="45"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="44"/>
+      <c r="A57" s="45"/>
       <c r="B57" s="16">
         <v>42599</v>
       </c>
@@ -9559,10 +9562,10 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="44"/>
+      <c r="F57" s="45"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="44"/>
+      <c r="A58" s="45"/>
       <c r="B58" s="16">
         <v>42600</v>
       </c>
@@ -9575,10 +9578,10 @@
       <c r="E58" s="2">
         <v>6</v>
       </c>
-      <c r="F58" s="44"/>
+      <c r="F58" s="45"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="44"/>
+      <c r="A59" s="45"/>
       <c r="B59" s="16">
         <v>42601</v>
       </c>
@@ -9591,10 +9594,10 @@
       <c r="E59" s="2">
         <v>6</v>
       </c>
-      <c r="F59" s="44"/>
+      <c r="F59" s="45"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="44"/>
+      <c r="A60" s="45"/>
       <c r="B60" s="16">
         <v>42602</v>
       </c>
@@ -9607,10 +9610,10 @@
       <c r="E60" s="2">
         <v>6</v>
       </c>
-      <c r="F60" s="44"/>
+      <c r="F60" s="45"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="44"/>
+      <c r="A61" s="45"/>
       <c r="B61" s="16">
         <v>42603</v>
       </c>
@@ -9623,10 +9626,10 @@
       <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="44"/>
+      <c r="F61" s="45"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="44"/>
+      <c r="A62" s="45"/>
       <c r="B62" s="16">
         <v>42603</v>
       </c>
@@ -9639,10 +9642,10 @@
       <c r="E62" s="2">
         <v>1</v>
       </c>
-      <c r="F62" s="44"/>
+      <c r="F62" s="45"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="44"/>
+      <c r="A63" s="45"/>
       <c r="B63" s="16">
         <v>42603</v>
       </c>
@@ -9655,10 +9658,10 @@
       <c r="E63" s="2">
         <v>1</v>
       </c>
-      <c r="F63" s="44"/>
+      <c r="F63" s="45"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="44">
+      <c r="A64" s="45">
         <v>7</v>
       </c>
       <c r="B64" s="16">
@@ -9673,13 +9676,13 @@
       <c r="E64" s="2">
         <v>3</v>
       </c>
-      <c r="F64" s="44">
-        <f>SUM(E64:E73)</f>
-        <v>36</v>
+      <c r="F64" s="45">
+        <f>SUM(E64:E75)</f>
+        <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="44"/>
+      <c r="A65" s="45"/>
       <c r="B65" s="16">
         <v>42604</v>
       </c>
@@ -9692,10 +9695,10 @@
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="44"/>
+      <c r="F65" s="45"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="44"/>
+      <c r="A66" s="45"/>
       <c r="B66" s="16">
         <v>42604</v>
       </c>
@@ -9708,10 +9711,10 @@
       <c r="E66" s="2">
         <v>2</v>
       </c>
-      <c r="F66" s="44"/>
+      <c r="F66" s="45"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="44"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="16">
         <v>42605</v>
       </c>
@@ -9724,10 +9727,10 @@
       <c r="E67" s="2">
         <v>6</v>
       </c>
-      <c r="F67" s="44"/>
+      <c r="F67" s="45"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="44"/>
+      <c r="A68" s="45"/>
       <c r="B68" s="16">
         <v>42606</v>
       </c>
@@ -9740,10 +9743,10 @@
       <c r="E68" s="2">
         <v>3</v>
       </c>
-      <c r="F68" s="44"/>
+      <c r="F68" s="45"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="44"/>
+      <c r="A69" s="45"/>
       <c r="B69" s="16">
         <v>42606</v>
       </c>
@@ -9756,10 +9759,10 @@
       <c r="E69" s="2">
         <v>3</v>
       </c>
-      <c r="F69" s="44"/>
+      <c r="F69" s="45"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="44"/>
+      <c r="A70" s="45"/>
       <c r="B70" s="16">
         <v>42607</v>
       </c>
@@ -9772,10 +9775,10 @@
       <c r="E70" s="2">
         <v>6</v>
       </c>
-      <c r="F70" s="44"/>
+      <c r="F70" s="45"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="44"/>
+      <c r="A71" s="45"/>
       <c r="B71" s="16">
         <v>42608</v>
       </c>
@@ -9788,10 +9791,10 @@
       <c r="E71" s="2">
         <v>6</v>
       </c>
-      <c r="F71" s="44"/>
+      <c r="F71" s="45"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
+      <c r="A72" s="45"/>
       <c r="B72" s="16">
         <v>42609</v>
       </c>
@@ -9804,573 +9807,611 @@
       <c r="E72" s="2">
         <v>6</v>
       </c>
-      <c r="F72" s="44"/>
+      <c r="F72" s="45"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="44"/>
+      <c r="A73" s="45"/>
       <c r="B73" s="16">
         <v>42610</v>
       </c>
-      <c r="C73" s="10"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="44"/>
+      <c r="C73" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D73" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E73" s="44">
+        <v>4</v>
+      </c>
+      <c r="F73" s="45"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="44">
+      <c r="A74" s="45"/>
+      <c r="B74" s="16">
+        <v>42610</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="44">
+        <v>1</v>
+      </c>
+      <c r="F74" s="45"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="45"/>
+      <c r="B75" s="16">
+        <v>42610</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E75" s="44">
+        <v>1</v>
+      </c>
+      <c r="F75" s="45"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="45">
         <v>8</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B76" s="16">
         <v>42611</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="44">
-        <f>SUM(E74:E80)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="44"/>
-      <c r="B75" s="16">
-        <v>42612</v>
-      </c>
-      <c r="C75" s="10"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="44"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="16">
-        <v>42613</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="19"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="44"/>
+      <c r="F76" s="45">
+        <f>SUM(E76:E82)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="44"/>
+      <c r="A77" s="45"/>
       <c r="B77" s="16">
-        <v>42614</v>
+        <v>42612</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="19"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="44"/>
+      <c r="F77" s="45"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
+      <c r="A78" s="45"/>
       <c r="B78" s="16">
-        <v>42615</v>
+        <v>42613</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="19"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="44"/>
+      <c r="F78" s="45"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="44"/>
+      <c r="A79" s="45"/>
       <c r="B79" s="16">
-        <v>42616</v>
+        <v>42614</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="19"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="44"/>
+      <c r="F79" s="45"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="44"/>
+      <c r="A80" s="45"/>
       <c r="B80" s="16">
-        <v>42617</v>
+        <v>42615</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="19"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="44"/>
+      <c r="F80" s="45"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="44">
-        <v>9</v>
-      </c>
+      <c r="A81" s="45"/>
       <c r="B81" s="16">
-        <v>42618</v>
+        <v>42616</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="19"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="44">
-        <f>SUM(E81:E87)</f>
-        <v>0</v>
-      </c>
+      <c r="F81" s="45"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="44"/>
+      <c r="A82" s="45"/>
       <c r="B82" s="16">
-        <v>42619</v>
+        <v>42617</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="19"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="44"/>
+      <c r="F82" s="45"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="44"/>
+      <c r="A83" s="45">
+        <v>9</v>
+      </c>
       <c r="B83" s="16">
-        <v>42620</v>
+        <v>42618</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="19"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="44"/>
+      <c r="F83" s="45">
+        <f>SUM(E83:E89)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="44"/>
+      <c r="A84" s="45"/>
       <c r="B84" s="16">
-        <v>42621</v>
+        <v>42619</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="19"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="44"/>
+      <c r="F84" s="45"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="44"/>
+      <c r="A85" s="45"/>
       <c r="B85" s="16">
-        <v>42622</v>
+        <v>42620</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="19"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="44"/>
+      <c r="F85" s="45"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="44"/>
+      <c r="A86" s="45"/>
       <c r="B86" s="16">
-        <v>42623</v>
+        <v>42621</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="19"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="44"/>
+      <c r="F86" s="45"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="44"/>
+      <c r="A87" s="45"/>
       <c r="B87" s="16">
-        <v>42624</v>
+        <v>42622</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="19"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="44"/>
+      <c r="F87" s="45"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="44">
-        <v>10</v>
-      </c>
+      <c r="A88" s="45"/>
       <c r="B88" s="16">
-        <v>42625</v>
+        <v>42623</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="19"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="44">
-        <f>SUM(E88:E94)</f>
-        <v>0</v>
-      </c>
+      <c r="F88" s="45"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="44"/>
+      <c r="A89" s="45"/>
       <c r="B89" s="16">
-        <v>42626</v>
+        <v>42624</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="19"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="44"/>
+      <c r="F89" s="45"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="44"/>
+      <c r="A90" s="45">
+        <v>10</v>
+      </c>
       <c r="B90" s="16">
-        <v>42627</v>
+        <v>42625</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="19"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="44"/>
+      <c r="F90" s="45">
+        <f>SUM(E90:E96)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="44"/>
+      <c r="A91" s="45"/>
       <c r="B91" s="16">
-        <v>42628</v>
+        <v>42626</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="19"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="44"/>
+      <c r="F91" s="45"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="44"/>
+      <c r="A92" s="45"/>
       <c r="B92" s="16">
-        <v>42629</v>
+        <v>42627</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="19"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="44"/>
+      <c r="F92" s="45"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="44"/>
+      <c r="A93" s="45"/>
       <c r="B93" s="16">
-        <v>42630</v>
+        <v>42628</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="19"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="44"/>
+      <c r="F93" s="45"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="44"/>
+      <c r="A94" s="45"/>
       <c r="B94" s="16">
-        <v>42631</v>
+        <v>42629</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="19"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="44"/>
+      <c r="F94" s="45"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="44">
-        <v>11</v>
-      </c>
+      <c r="A95" s="45"/>
       <c r="B95" s="16">
-        <v>42632</v>
+        <v>42630</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="19"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="44">
-        <f>SUM(E95:E101)</f>
-        <v>0</v>
-      </c>
+      <c r="F95" s="45"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="44"/>
+      <c r="A96" s="45"/>
       <c r="B96" s="16">
-        <v>42633</v>
+        <v>42631</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="19"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="44"/>
+      <c r="F96" s="45"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="44"/>
+      <c r="A97" s="45">
+        <v>11</v>
+      </c>
       <c r="B97" s="16">
-        <v>42634</v>
+        <v>42632</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="19"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="44"/>
+      <c r="F97" s="45">
+        <f>SUM(E97:E103)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="44"/>
+      <c r="A98" s="45"/>
       <c r="B98" s="16">
-        <v>42635</v>
+        <v>42633</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="19"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="44"/>
+      <c r="F98" s="45"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="44"/>
+      <c r="A99" s="45"/>
       <c r="B99" s="16">
-        <v>42636</v>
+        <v>42634</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="19"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="44"/>
+      <c r="F99" s="45"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="44"/>
+      <c r="A100" s="45"/>
       <c r="B100" s="16">
-        <v>42637</v>
+        <v>42635</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="19"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="44"/>
+      <c r="F100" s="45"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="44"/>
+      <c r="A101" s="45"/>
       <c r="B101" s="16">
-        <v>42638</v>
+        <v>42636</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="19"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="44"/>
+      <c r="F101" s="45"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="44">
-        <v>12</v>
-      </c>
+      <c r="A102" s="45"/>
       <c r="B102" s="16">
-        <v>42639</v>
+        <v>42637</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="19"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="44">
-        <f>SUM(E102:E108)</f>
-        <v>0</v>
-      </c>
+      <c r="F102" s="45"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="44"/>
+      <c r="A103" s="45"/>
       <c r="B103" s="16">
-        <v>42640</v>
+        <v>42638</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="19"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="44"/>
+      <c r="F103" s="45"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="44"/>
+      <c r="A104" s="45">
+        <v>12</v>
+      </c>
       <c r="B104" s="16">
-        <v>42641</v>
+        <v>42639</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="19"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="44"/>
+      <c r="F104" s="45">
+        <f>SUM(E104:E110)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="44"/>
+      <c r="A105" s="45"/>
       <c r="B105" s="16">
-        <v>42642</v>
+        <v>42640</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="19"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="44"/>
+      <c r="F105" s="45"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="44"/>
+      <c r="A106" s="45"/>
       <c r="B106" s="16">
-        <v>42643</v>
+        <v>42641</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="19"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="44"/>
+      <c r="F106" s="45"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="44"/>
+      <c r="A107" s="45"/>
       <c r="B107" s="16">
-        <v>42644</v>
+        <v>42642</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="19"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="44"/>
+      <c r="F107" s="45"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="44"/>
+      <c r="A108" s="45"/>
       <c r="B108" s="16">
-        <v>42645</v>
+        <v>42643</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="19"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="44"/>
+      <c r="F108" s="45"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="44">
-        <v>13</v>
-      </c>
+      <c r="A109" s="45"/>
       <c r="B109" s="16">
-        <v>42646</v>
+        <v>42644</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="19"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="44">
-        <f>SUM(E109:E115)</f>
-        <v>0</v>
-      </c>
+      <c r="F109" s="45"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="44"/>
+      <c r="A110" s="45"/>
       <c r="B110" s="16">
-        <v>42647</v>
+        <v>42645</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="19"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="44"/>
+      <c r="F110" s="45"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="44"/>
+      <c r="A111" s="45">
+        <v>13</v>
+      </c>
       <c r="B111" s="16">
-        <v>42648</v>
+        <v>42646</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="19"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="44"/>
+      <c r="F111" s="45">
+        <f>SUM(E111:E117)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="44"/>
+      <c r="A112" s="45"/>
       <c r="B112" s="16">
-        <v>42649</v>
+        <v>42647</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="19"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="44"/>
+      <c r="F112" s="45"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="44"/>
+      <c r="A113" s="45"/>
       <c r="B113" s="16">
-        <v>42650</v>
+        <v>42648</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="19"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="44"/>
+      <c r="F113" s="45"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="44"/>
+      <c r="A114" s="45"/>
       <c r="B114" s="16">
-        <v>42651</v>
+        <v>42649</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="19"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="44"/>
+      <c r="F114" s="45"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="44"/>
+      <c r="A115" s="45"/>
       <c r="B115" s="16">
-        <v>42652</v>
+        <v>42650</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="19"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="44"/>
+      <c r="F115" s="45"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="44">
-        <v>14</v>
-      </c>
+      <c r="A116" s="45"/>
       <c r="B116" s="16">
-        <v>42653</v>
+        <v>42651</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="19"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="44">
-        <f>SUM(E116:E122)</f>
-        <v>0</v>
-      </c>
+      <c r="F116" s="45"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="44"/>
+      <c r="A117" s="45"/>
       <c r="B117" s="16">
-        <v>42654</v>
+        <v>42652</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="19"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="44"/>
+      <c r="F117" s="45"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="44"/>
+      <c r="A118" s="45">
+        <v>14</v>
+      </c>
       <c r="B118" s="16">
-        <v>42655</v>
+        <v>42653</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="19"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="44"/>
+      <c r="F118" s="45">
+        <f>SUM(E118:E124)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="44"/>
+      <c r="A119" s="45"/>
       <c r="B119" s="16">
-        <v>42656</v>
+        <v>42654</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="19"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="44"/>
+      <c r="F119" s="45"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="44"/>
+      <c r="A120" s="45"/>
       <c r="B120" s="16">
-        <v>42657</v>
+        <v>42655</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="19"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="44"/>
+      <c r="F120" s="45"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="44"/>
+      <c r="A121" s="45"/>
       <c r="B121" s="16">
-        <v>42658</v>
+        <v>42656</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="19"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="44"/>
+      <c r="F121" s="45"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="44"/>
+      <c r="A122" s="45"/>
       <c r="B122" s="16">
-        <v>42659</v>
+        <v>42657</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="19"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="44"/>
+      <c r="F122" s="45"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="45"/>
+      <c r="B123" s="16">
+        <v>42658</v>
+      </c>
+      <c r="C123" s="10"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="45"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="45"/>
+      <c r="B124" s="16">
+        <v>42659</v>
+      </c>
+      <c r="C124" s="10"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A111:A117"/>
+    <mergeCell ref="F111:F117"/>
+    <mergeCell ref="A118:A124"/>
+    <mergeCell ref="F118:F124"/>
+    <mergeCell ref="A90:A96"/>
+    <mergeCell ref="F90:F96"/>
+    <mergeCell ref="A97:A103"/>
+    <mergeCell ref="F97:F103"/>
+    <mergeCell ref="A104:A110"/>
+    <mergeCell ref="F104:F110"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="F64:F75"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="F76:F82"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="F83:F89"/>
+    <mergeCell ref="A33:A41"/>
+    <mergeCell ref="F33:F41"/>
+    <mergeCell ref="A42:A51"/>
+    <mergeCell ref="F42:F51"/>
+    <mergeCell ref="A52:A63"/>
+    <mergeCell ref="F52:F63"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="F2:F12"/>
     <mergeCell ref="A13:A21"/>
     <mergeCell ref="F13:F21"/>
     <mergeCell ref="A22:A32"/>
     <mergeCell ref="F22:F32"/>
-    <mergeCell ref="A33:A41"/>
-    <mergeCell ref="F33:F41"/>
-    <mergeCell ref="A42:A51"/>
-    <mergeCell ref="F42:F51"/>
-    <mergeCell ref="A52:A63"/>
-    <mergeCell ref="F52:F63"/>
-    <mergeCell ref="A64:A73"/>
-    <mergeCell ref="F64:F73"/>
-    <mergeCell ref="A74:A80"/>
-    <mergeCell ref="F74:F80"/>
-    <mergeCell ref="A81:A87"/>
-    <mergeCell ref="F81:F87"/>
-    <mergeCell ref="A109:A115"/>
-    <mergeCell ref="F109:F115"/>
-    <mergeCell ref="A116:A122"/>
-    <mergeCell ref="F116:F122"/>
-    <mergeCell ref="A88:A94"/>
-    <mergeCell ref="F88:F94"/>
-    <mergeCell ref="A95:A101"/>
-    <mergeCell ref="F95:F101"/>
-    <mergeCell ref="A102:A108"/>
-    <mergeCell ref="F102:F108"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10439,7 +10480,7 @@
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -10454,7 +10495,7 @@
       <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="44">
+      <c r="F2" s="45">
         <f>SUM(E2:E8)</f>
         <v>26</v>
       </c>
@@ -10480,7 +10521,7 @@
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="5">
         <v>42563</v>
       </c>
@@ -10493,7 +10534,7 @@
       <c r="E3" s="2">
         <v>5.5</v>
       </c>
-      <c r="F3" s="44"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -10516,7 +10557,7 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="5">
         <v>42564</v>
       </c>
@@ -10529,7 +10570,7 @@
       <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="44"/>
+      <c r="F4" s="45"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -10552,7 +10593,7 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="5">
         <v>42565</v>
       </c>
@@ -10565,7 +10606,7 @@
       <c r="E5" s="2">
         <v>3.5</v>
       </c>
-      <c r="F5" s="44"/>
+      <c r="F5" s="45"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -10588,7 +10629,7 @@
       <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="5">
         <v>42566</v>
       </c>
@@ -10601,7 +10642,7 @@
       <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="44"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -10624,14 +10665,14 @@
       <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="5">
         <v>42567</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -10654,14 +10695,14 @@
       <c r="Z7" s="29"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="5">
         <v>42568</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -10684,7 +10725,7 @@
       <c r="Z8" s="29"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+      <c r="A9" s="47">
         <v>2</v>
       </c>
       <c r="B9" s="5">
@@ -10699,7 +10740,7 @@
       <c r="E9" s="31">
         <v>4</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="45">
         <f>SUM(E9:E16)</f>
         <v>26</v>
       </c>
@@ -10725,7 +10766,7 @@
       <c r="Z9" s="29"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="5">
         <v>42570</v>
       </c>
@@ -10738,7 +10779,7 @@
       <c r="E10" s="31">
         <v>5</v>
       </c>
-      <c r="F10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -10761,7 +10802,7 @@
       <c r="Z10" s="29"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="5">
         <v>42571</v>
       </c>
@@ -10774,7 +10815,7 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -10797,7 +10838,7 @@
       <c r="Z11" s="29"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="5">
         <v>42571</v>
       </c>
@@ -10810,7 +10851,7 @@
       <c r="E12" s="2">
         <v>6</v>
       </c>
-      <c r="F12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -10833,14 +10874,14 @@
       <c r="Z12" s="29"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="5">
         <v>42572</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -10863,7 +10904,7 @@
       <c r="Z13" s="29"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="5">
         <v>42573</v>
       </c>
@@ -10876,7 +10917,7 @@
       <c r="E14" s="2">
         <v>6</v>
       </c>
-      <c r="F14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -10899,14 +10940,14 @@
       <c r="Z14" s="29"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="5">
         <v>42574</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -10929,7 +10970,7 @@
       <c r="Z15" s="29"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="46"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="5">
         <v>42575</v>
       </c>
@@ -10942,7 +10983,7 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="F16" s="44"/>
+      <c r="F16" s="45"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -10965,7 +11006,7 @@
       <c r="Z16" s="29"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="46">
+      <c r="A17" s="47">
         <v>3</v>
       </c>
       <c r="B17" s="5">
@@ -10980,7 +11021,7 @@
       <c r="E17" s="2">
         <v>7</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="45">
         <f>SUM(E17:E23)</f>
         <v>30</v>
       </c>
@@ -11006,7 +11047,7 @@
       <c r="Z17" s="29"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="5">
         <v>42577</v>
       </c>
@@ -11019,7 +11060,7 @@
       <c r="E18" s="2">
         <v>8</v>
       </c>
-      <c r="F18" s="44"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
@@ -11042,7 +11083,7 @@
       <c r="Z18" s="29"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="5">
         <v>42578</v>
       </c>
@@ -11055,7 +11096,7 @@
       <c r="E19" s="2">
         <v>7.5</v>
       </c>
-      <c r="F19" s="44"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -11078,14 +11119,14 @@
       <c r="Z19" s="29"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="5">
         <v>42579</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
-      <c r="F20" s="44"/>
+      <c r="F20" s="45"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -11108,7 +11149,7 @@
       <c r="Z20" s="29"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="5">
         <v>42580</v>
       </c>
@@ -11121,7 +11162,7 @@
       <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="44"/>
+      <c r="F21" s="45"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
@@ -11144,14 +11185,14 @@
       <c r="Z21" s="29"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="5">
         <v>42581</v>
       </c>
       <c r="C22"/>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
-      <c r="F22" s="44"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
@@ -11174,7 +11215,7 @@
       <c r="Z22" s="29"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="5">
         <v>42582</v>
       </c>
@@ -11187,7 +11228,7 @@
       <c r="E23" s="2">
         <v>3.5</v>
       </c>
-      <c r="F23" s="44"/>
+      <c r="F23" s="45"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
@@ -11210,7 +11251,7 @@
       <c r="Z23" s="29"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="46">
+      <c r="A24" s="47">
         <v>4</v>
       </c>
       <c r="B24" s="5">
@@ -11225,7 +11266,7 @@
       <c r="E24" s="2">
         <v>4</v>
       </c>
-      <c r="F24" s="44">
+      <c r="F24" s="45">
         <f>SUM(E24:E30)</f>
         <v>27.5</v>
       </c>
@@ -11251,7 +11292,7 @@
       <c r="Z24" s="29"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="5">
         <v>42584</v>
       </c>
@@ -11264,7 +11305,7 @@
       <c r="E25" s="2">
         <v>4.5</v>
       </c>
-      <c r="F25" s="44"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
@@ -11287,7 +11328,7 @@
       <c r="Z25" s="29"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="5">
         <v>42585</v>
       </c>
@@ -11300,7 +11341,7 @@
       <c r="E26" s="2">
         <v>8.5</v>
       </c>
-      <c r="F26" s="44"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -11323,14 +11364,14 @@
       <c r="Z26" s="29"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="5">
         <v>42586</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="44"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -11353,7 +11394,7 @@
       <c r="Z27" s="29"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="5">
         <v>42587</v>
       </c>
@@ -11366,7 +11407,7 @@
       <c r="E28" s="2">
         <v>4.5</v>
       </c>
-      <c r="F28" s="44"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -11389,14 +11430,14 @@
       <c r="Z28" s="29"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="5">
         <v>42588</v>
       </c>
       <c r="C29"/>
       <c r="D29" s="30"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="44"/>
+      <c r="F29" s="45"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -11419,7 +11460,7 @@
       <c r="Z29" s="29"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="46"/>
+      <c r="A30" s="47"/>
       <c r="B30" s="5">
         <v>42589</v>
       </c>
@@ -11432,7 +11473,7 @@
       <c r="E30" s="2">
         <v>6</v>
       </c>
-      <c r="F30" s="44"/>
+      <c r="F30" s="45"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
@@ -11455,7 +11496,7 @@
       <c r="Z30" s="29"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="46">
+      <c r="A31" s="47">
         <v>5</v>
       </c>
       <c r="B31" s="5">
@@ -11470,7 +11511,7 @@
       <c r="E31" s="2">
         <v>8</v>
       </c>
-      <c r="F31" s="44">
+      <c r="F31" s="45">
         <f>SUM(E31:E37)</f>
         <v>24</v>
       </c>
@@ -11496,7 +11537,7 @@
       <c r="Z31" s="29"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="5">
         <v>42591</v>
       </c>
@@ -11509,7 +11550,7 @@
       <c r="E32" s="2">
         <v>6</v>
       </c>
-      <c r="F32" s="44"/>
+      <c r="F32" s="45"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
@@ -11532,7 +11573,7 @@
       <c r="Z32" s="29"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="5">
         <v>42592</v>
       </c>
@@ -11545,7 +11586,7 @@
       <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="44"/>
+      <c r="F33" s="45"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -11568,14 +11609,14 @@
       <c r="Z33" s="29"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="5">
         <v>42593</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="30"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="44"/>
+      <c r="F34" s="45"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
@@ -11598,7 +11639,7 @@
       <c r="Z34" s="29"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="5">
         <v>42594</v>
       </c>
@@ -11611,7 +11652,7 @@
       <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="44"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -11634,14 +11675,14 @@
       <c r="Z35" s="29"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="5">
         <v>42595</v>
       </c>
       <c r="C36"/>
       <c r="D36" s="30"/>
       <c r="E36" s="31"/>
-      <c r="F36" s="44"/>
+      <c r="F36" s="45"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -11664,7 +11705,7 @@
       <c r="Z36" s="29"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="46"/>
+      <c r="A37" s="47"/>
       <c r="B37" s="5">
         <v>42596</v>
       </c>
@@ -11677,7 +11718,7 @@
       <c r="E37" s="2">
         <v>4</v>
       </c>
-      <c r="F37" s="44"/>
+      <c r="F37" s="45"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -11700,7 +11741,7 @@
       <c r="Z37" s="29"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="46">
+      <c r="A38" s="47">
         <v>6</v>
       </c>
       <c r="B38" s="5">
@@ -11715,7 +11756,7 @@
       <c r="E38" s="2">
         <v>9</v>
       </c>
-      <c r="F38" s="44">
+      <c r="F38" s="45">
         <f>SUM(E38:E51)</f>
         <v>34</v>
       </c>
@@ -11741,7 +11782,7 @@
       <c r="Z38" s="29"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="5">
         <v>42598</v>
       </c>
@@ -11754,7 +11795,7 @@
       <c r="E39" s="2">
         <v>4.5</v>
       </c>
-      <c r="F39" s="44"/>
+      <c r="F39" s="45"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -11777,7 +11818,7 @@
       <c r="Z39" s="29"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="5">
         <v>42599</v>
       </c>
@@ -11790,7 +11831,7 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="44"/>
+      <c r="F40" s="45"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
@@ -11813,7 +11854,7 @@
       <c r="Z40" s="29"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="5">
         <v>42599</v>
       </c>
@@ -11826,7 +11867,7 @@
       <c r="E41" s="2">
         <v>2.5</v>
       </c>
-      <c r="F41" s="44"/>
+      <c r="F41" s="45"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
@@ -11849,7 +11890,7 @@
       <c r="Z41" s="29"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="5">
         <v>42599</v>
       </c>
@@ -11862,7 +11903,7 @@
       <c r="E42" s="2">
         <v>3.5</v>
       </c>
-      <c r="F42" s="44"/>
+      <c r="F42" s="45"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
@@ -11885,7 +11926,7 @@
       <c r="Z42" s="29"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="5">
         <v>42599</v>
       </c>
@@ -11898,7 +11939,7 @@
       <c r="E43" s="2">
         <v>0.5</v>
       </c>
-      <c r="F43" s="44"/>
+      <c r="F43" s="45"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
@@ -11921,7 +11962,7 @@
       <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="46"/>
+      <c r="A44" s="47"/>
       <c r="B44" s="5">
         <v>42599</v>
       </c>
@@ -11934,7 +11975,7 @@
       <c r="E44" s="2">
         <v>0.5</v>
       </c>
-      <c r="F44" s="44"/>
+      <c r="F44" s="45"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -11957,7 +11998,7 @@
       <c r="Z44" s="29"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="5">
         <v>42600</v>
       </c>
@@ -11966,7 +12007,7 @@
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="44"/>
+      <c r="F45" s="45"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -11989,7 +12030,7 @@
       <c r="Z45" s="29"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="46"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="5">
         <v>42601</v>
       </c>
@@ -12002,7 +12043,7 @@
       <c r="E46" s="2">
         <v>2.5</v>
       </c>
-      <c r="F46" s="44"/>
+      <c r="F46" s="45"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
@@ -12025,7 +12066,7 @@
       <c r="Z46" s="29"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="5">
         <v>42602</v>
       </c>
@@ -12038,7 +12079,7 @@
       <c r="E47" s="2">
         <v>2</v>
       </c>
-      <c r="F47" s="44"/>
+      <c r="F47" s="45"/>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
       <c r="I47" s="29"/>
@@ -12061,7 +12102,7 @@
       <c r="Z47" s="29"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="5">
         <v>42603</v>
       </c>
@@ -12074,7 +12115,7 @@
       <c r="E48" s="2">
         <v>0.5</v>
       </c>
-      <c r="F48" s="44"/>
+      <c r="F48" s="45"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -12097,7 +12138,7 @@
       <c r="Z48" s="29"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="46"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="5">
         <v>42603</v>
       </c>
@@ -12110,7 +12151,7 @@
       <c r="E49" s="2">
         <v>0.5</v>
       </c>
-      <c r="F49" s="44"/>
+      <c r="F49" s="45"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
@@ -12133,7 +12174,7 @@
       <c r="Z49" s="29"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="46"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="5">
         <v>42603</v>
       </c>
@@ -12146,7 +12187,7 @@
       <c r="E50" s="2">
         <v>3.5</v>
       </c>
-      <c r="F50" s="44"/>
+      <c r="F50" s="45"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
@@ -12169,7 +12210,7 @@
       <c r="Z50" s="29"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="46"/>
+      <c r="A51" s="47"/>
       <c r="B51" s="5">
         <v>42603</v>
       </c>
@@ -12182,7 +12223,7 @@
       <c r="E51" s="2">
         <v>3.5</v>
       </c>
-      <c r="F51" s="44"/>
+      <c r="F51" s="45"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
@@ -12205,7 +12246,7 @@
       <c r="Z51" s="29"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="46">
+      <c r="A52" s="47">
         <v>7</v>
       </c>
       <c r="B52" s="5">
@@ -12220,7 +12261,7 @@
       <c r="E52" s="2">
         <v>7.5</v>
       </c>
-      <c r="F52" s="44">
+      <c r="F52" s="45">
         <f>SUM(E52:E58)</f>
         <v>7.5</v>
       </c>
@@ -12246,13 +12287,13 @@
       <c r="Z52" s="29"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="46"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="5">
         <v>42605</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="44"/>
+      <c r="F53" s="45"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
@@ -12275,13 +12316,13 @@
       <c r="Z53" s="29"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="46"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="5">
         <v>42606</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="44"/>
+      <c r="F54" s="45"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -12304,13 +12345,13 @@
       <c r="Z54" s="29"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="5">
         <v>42607</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="44"/>
+      <c r="F55" s="45"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -12333,13 +12374,13 @@
       <c r="Z55" s="29"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="46"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="5">
         <v>42608</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="44"/>
+      <c r="F56" s="45"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
@@ -12362,13 +12403,13 @@
       <c r="Z56" s="29"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="5">
         <v>42609</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="44"/>
+      <c r="F57" s="45"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
@@ -12391,13 +12432,13 @@
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="46"/>
+      <c r="A58" s="47"/>
       <c r="B58" s="5">
         <v>42610</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="44"/>
+      <c r="F58" s="45"/>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
@@ -12420,7 +12461,7 @@
       <c r="Z58" s="29"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="46">
+      <c r="A59" s="47">
         <v>8</v>
       </c>
       <c r="B59" s="5">
@@ -12428,7 +12469,7 @@
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="44">
+      <c r="F59" s="45">
         <f>SUM(E59:E65)</f>
         <v>0</v>
       </c>
@@ -12454,13 +12495,13 @@
       <c r="Z59" s="29"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="5">
         <v>42612</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="44"/>
+      <c r="F60" s="45"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
@@ -12483,13 +12524,13 @@
       <c r="Z60" s="29"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="5">
         <v>42613</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="44"/>
+      <c r="F61" s="45"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
@@ -12512,13 +12553,13 @@
       <c r="Z61" s="29"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="46"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="5">
         <v>42614</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="44"/>
+      <c r="F62" s="45"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
@@ -12541,13 +12582,13 @@
       <c r="Z62" s="29"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="5">
         <v>42615</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="44"/>
+      <c r="F63" s="45"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
@@ -12570,13 +12611,13 @@
       <c r="Z63" s="29"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="46"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="5">
         <v>42616</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="44"/>
+      <c r="F64" s="45"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
@@ -12599,13 +12640,13 @@
       <c r="Z64" s="29"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A65" s="46"/>
+      <c r="A65" s="47"/>
       <c r="B65" s="5">
         <v>42617</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="44"/>
+      <c r="F65" s="45"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
@@ -12628,7 +12669,7 @@
       <c r="Z65" s="29"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="46">
+      <c r="A66" s="47">
         <v>9</v>
       </c>
       <c r="B66" s="5">
@@ -12636,7 +12677,7 @@
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="44">
+      <c r="F66" s="45">
         <f>SUM(E66:E72)</f>
         <v>0</v>
       </c>
@@ -12662,13 +12703,13 @@
       <c r="Z66" s="29"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A67" s="46"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="5">
         <v>42619</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="44"/>
+      <c r="F67" s="45"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
@@ -12691,13 +12732,13 @@
       <c r="Z67" s="29"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="5">
         <v>42620</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="44"/>
+      <c r="F68" s="45"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
@@ -12720,13 +12761,13 @@
       <c r="Z68" s="29"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="46"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="5">
         <v>42621</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="44"/>
+      <c r="F69" s="45"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
@@ -12749,13 +12790,13 @@
       <c r="Z69" s="29"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A70" s="46"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="5">
         <v>42622</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="44"/>
+      <c r="F70" s="45"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
@@ -12778,13 +12819,13 @@
       <c r="Z70" s="29"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="5">
         <v>42623</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="44"/>
+      <c r="F71" s="45"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
@@ -12807,13 +12848,13 @@
       <c r="Z71" s="29"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A72" s="46"/>
+      <c r="A72" s="47"/>
       <c r="B72" s="5">
         <v>42624</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="44"/>
+      <c r="F72" s="45"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
@@ -12836,7 +12877,7 @@
       <c r="Z72" s="29"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A73" s="46">
+      <c r="A73" s="47">
         <v>10</v>
       </c>
       <c r="B73" s="5">
@@ -12844,7 +12885,7 @@
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="44">
+      <c r="F73" s="45">
         <f>SUM(E73:E79)</f>
         <v>0</v>
       </c>
@@ -12870,13 +12911,13 @@
       <c r="Z73" s="29"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A74" s="46"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="5">
         <v>42626</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="44"/>
+      <c r="F74" s="45"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
@@ -12899,13 +12940,13 @@
       <c r="Z74" s="29"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A75" s="46"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="5">
         <v>42627</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="44"/>
+      <c r="F75" s="45"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
@@ -12928,13 +12969,13 @@
       <c r="Z75" s="29"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A76" s="46"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="5">
         <v>42628</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="44"/>
+      <c r="F76" s="45"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
@@ -12957,13 +12998,13 @@
       <c r="Z76" s="29"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A77" s="46"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="5">
         <v>42629</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="44"/>
+      <c r="F77" s="45"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
@@ -12986,13 +13027,13 @@
       <c r="Z77" s="29"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A78" s="46"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="5">
         <v>42630</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="44"/>
+      <c r="F78" s="45"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
@@ -13015,13 +13056,13 @@
       <c r="Z78" s="29"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A79" s="46"/>
+      <c r="A79" s="47"/>
       <c r="B79" s="5">
         <v>42631</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="44"/>
+      <c r="F79" s="45"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
@@ -13044,7 +13085,7 @@
       <c r="Z79" s="29"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="46">
+      <c r="A80" s="47">
         <v>11</v>
       </c>
       <c r="B80" s="5">
@@ -13052,7 +13093,7 @@
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="44">
+      <c r="F80" s="45">
         <f>SUM(E80:E86)</f>
         <v>0</v>
       </c>
@@ -13078,13 +13119,13 @@
       <c r="Z80" s="29"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A81" s="46"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="5">
         <v>42633</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="44"/>
+      <c r="F81" s="45"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
@@ -13107,13 +13148,13 @@
       <c r="Z81" s="29"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A82" s="46"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="5">
         <v>42634</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="44"/>
+      <c r="F82" s="45"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
@@ -13136,13 +13177,13 @@
       <c r="Z82" s="29"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="46"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="5">
         <v>42635</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="44"/>
+      <c r="F83" s="45"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
       <c r="I83" s="29"/>
@@ -13165,13 +13206,13 @@
       <c r="Z83" s="29"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A84" s="46"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="5">
         <v>42636</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="44"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
@@ -13194,13 +13235,13 @@
       <c r="Z84" s="29"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A85" s="46"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="5">
         <v>42637</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="44"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
       <c r="I85" s="29"/>
@@ -13223,13 +13264,13 @@
       <c r="Z85" s="29"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A86" s="46"/>
+      <c r="A86" s="47"/>
       <c r="B86" s="5">
         <v>42638</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="44"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
@@ -13252,7 +13293,7 @@
       <c r="Z86" s="29"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" s="46">
+      <c r="A87" s="47">
         <v>12</v>
       </c>
       <c r="B87" s="5">
@@ -13260,7 +13301,7 @@
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="44">
+      <c r="F87" s="45">
         <f>SUM(E87:E93)</f>
         <v>0</v>
       </c>
@@ -13286,13 +13327,13 @@
       <c r="Z87" s="29"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" s="46"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="5">
         <v>42640</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="44"/>
+      <c r="F88" s="45"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
@@ -13315,13 +13356,13 @@
       <c r="Z88" s="29"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A89" s="46"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="5">
         <v>42641</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="44"/>
+      <c r="F89" s="45"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
@@ -13344,13 +13385,13 @@
       <c r="Z89" s="29"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="5">
         <v>42642</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="44"/>
+      <c r="F90" s="45"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
@@ -13373,13 +13414,13 @@
       <c r="Z90" s="29"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A91" s="46"/>
+      <c r="A91" s="47"/>
       <c r="B91" s="5">
         <v>42643</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="44"/>
+      <c r="F91" s="45"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
@@ -13402,13 +13443,13 @@
       <c r="Z91" s="29"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A92" s="46"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="5">
         <v>42644</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="44"/>
+      <c r="F92" s="45"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
@@ -13431,13 +13472,13 @@
       <c r="Z92" s="29"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A93" s="46"/>
+      <c r="A93" s="47"/>
       <c r="B93" s="5">
         <v>42645</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="44"/>
+      <c r="F93" s="45"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
       <c r="I93" s="29"/>
@@ -13460,7 +13501,7 @@
       <c r="Z93" s="29"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A94" s="46">
+      <c r="A94" s="47">
         <v>13</v>
       </c>
       <c r="B94" s="5">
@@ -13468,7 +13509,7 @@
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="44">
+      <c r="F94" s="45">
         <f>SUM(E94:E100)</f>
         <v>0</v>
       </c>
@@ -13494,13 +13535,13 @@
       <c r="Z94" s="29"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A95" s="46"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="5">
         <v>42647</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="44"/>
+      <c r="F95" s="45"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
@@ -13523,13 +13564,13 @@
       <c r="Z95" s="29"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A96" s="46"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="5">
         <v>42648</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="44"/>
+      <c r="F96" s="45"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
@@ -13552,13 +13593,13 @@
       <c r="Z96" s="29"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="46"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="5">
         <v>42649</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="44"/>
+      <c r="F97" s="45"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="29"/>
@@ -13581,13 +13622,13 @@
       <c r="Z97" s="29"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" s="46"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="5">
         <v>42650</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="44"/>
+      <c r="F98" s="45"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
@@ -13610,13 +13651,13 @@
       <c r="Z98" s="29"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A99" s="46"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="5">
         <v>42651</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="44"/>
+      <c r="F99" s="45"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
@@ -13639,13 +13680,13 @@
       <c r="Z99" s="29"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A100" s="46"/>
+      <c r="A100" s="47"/>
       <c r="B100" s="5">
         <v>42652</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="44"/>
+      <c r="F100" s="45"/>
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
@@ -13668,7 +13709,7 @@
       <c r="Z100" s="29"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A101" s="46">
+      <c r="A101" s="47">
         <v>14</v>
       </c>
       <c r="B101" s="5">
@@ -13676,7 +13717,7 @@
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="44">
+      <c r="F101" s="45">
         <f>SUM(E101:E107)</f>
         <v>0</v>
       </c>
@@ -13702,13 +13743,13 @@
       <c r="Z101" s="29"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A102" s="46"/>
+      <c r="A102" s="47"/>
       <c r="B102" s="5">
         <v>42654</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="44"/>
+      <c r="F102" s="45"/>
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
@@ -13731,13 +13772,13 @@
       <c r="Z102" s="29"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A103" s="46"/>
+      <c r="A103" s="47"/>
       <c r="B103" s="5">
         <v>42655</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="44"/>
+      <c r="F103" s="45"/>
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
       <c r="I103" s="29"/>
@@ -13760,13 +13801,13 @@
       <c r="Z103" s="29"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A104" s="46"/>
+      <c r="A104" s="47"/>
       <c r="B104" s="5">
         <v>42656</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="44"/>
+      <c r="F104" s="45"/>
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
@@ -13789,13 +13830,13 @@
       <c r="Z104" s="29"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" s="46"/>
+      <c r="A105" s="47"/>
       <c r="B105" s="5">
         <v>42657</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="44"/>
+      <c r="F105" s="45"/>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29"/>
@@ -13818,13 +13859,13 @@
       <c r="Z105" s="29"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A106" s="46"/>
+      <c r="A106" s="47"/>
       <c r="B106" s="5">
         <v>42658</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="44"/>
+      <c r="F106" s="45"/>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
@@ -13847,13 +13888,13 @@
       <c r="Z106" s="29"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A107" s="46"/>
+      <c r="A107" s="47"/>
       <c r="B107" s="5">
         <v>42659</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="44"/>
+      <c r="F107" s="45"/>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
       <c r="I107" s="29"/>
@@ -13877,24 +13918,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="F38:F51"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="F66:F72"/>
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="F94:F100"/>
     <mergeCell ref="A101:A107"/>
@@ -13905,6 +13928,24 @@
     <mergeCell ref="F80:F86"/>
     <mergeCell ref="A87:A93"/>
     <mergeCell ref="F87:F93"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="F66:F72"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="F38:F51"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -13974,7 +14015,7 @@
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46">
+      <c r="A2" s="47">
         <v>1</v>
       </c>
       <c r="B2" s="34">
@@ -13987,7 +14028,7 @@
       <c r="E2" s="39">
         <v>9</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="47">
         <f>SUM(E2:E8)</f>
         <v>27</v>
       </c>
@@ -14013,7 +14054,7 @@
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="34">
         <v>42563</v>
       </c>
@@ -14024,7 +14065,7 @@
       <c r="E3" s="39">
         <v>7</v>
       </c>
-      <c r="F3" s="46"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -14047,7 +14088,7 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="34">
         <v>42564</v>
       </c>
@@ -14058,7 +14099,7 @@
       <c r="E4" s="39">
         <v>7</v>
       </c>
-      <c r="F4" s="46"/>
+      <c r="F4" s="47"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -14081,14 +14122,14 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="34">
         <v>42565</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="46"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -14111,14 +14152,14 @@
       <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="34">
         <v>42566</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="46"/>
+      <c r="F6" s="47"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -14141,14 +14182,14 @@
       <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="34">
         <v>42567</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="46"/>
+      <c r="F7" s="47"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -14171,7 +14212,7 @@
       <c r="Z7" s="29"/>
     </row>
     <row r="8" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="34">
         <v>42568</v>
       </c>
@@ -14182,7 +14223,7 @@
       <c r="E8" s="39">
         <v>4</v>
       </c>
-      <c r="F8" s="46"/>
+      <c r="F8" s="47"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -14205,7 +14246,7 @@
       <c r="Z8" s="29"/>
     </row>
     <row r="9" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46">
+      <c r="A9" s="47">
         <v>2</v>
       </c>
       <c r="B9" s="34">
@@ -14218,7 +14259,7 @@
       <c r="E9" s="39">
         <v>4</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="47">
         <f>SUM(E9:E15)</f>
         <v>21</v>
       </c>
@@ -14244,7 +14285,7 @@
       <c r="Z9" s="29"/>
     </row>
     <row r="10" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="34">
         <v>42570</v>
       </c>
@@ -14255,7 +14296,7 @@
       <c r="E10" s="39">
         <v>5</v>
       </c>
-      <c r="F10" s="46"/>
+      <c r="F10" s="47"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -14278,7 +14319,7 @@
       <c r="Z10" s="29"/>
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="34">
         <v>42571</v>
       </c>
@@ -14289,7 +14330,7 @@
       <c r="E11" s="39">
         <v>6</v>
       </c>
-      <c r="F11" s="46"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -14312,14 +14353,14 @@
       <c r="Z11" s="29"/>
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="46"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="34">
         <v>42572</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="46"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -14342,14 +14383,14 @@
       <c r="Z12" s="29"/>
     </row>
     <row r="13" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="34">
         <v>42573</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="46"/>
+      <c r="F13" s="47"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -14372,7 +14413,7 @@
       <c r="Z13" s="29"/>
     </row>
     <row r="14" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
+      <c r="A14" s="47"/>
       <c r="B14" s="34">
         <v>42574</v>
       </c>
@@ -14383,7 +14424,7 @@
       <c r="E14" s="39">
         <v>1</v>
       </c>
-      <c r="F14" s="46"/>
+      <c r="F14" s="47"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -14406,7 +14447,7 @@
       <c r="Z14" s="29"/>
     </row>
     <row r="15" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="46"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="34">
         <v>42575</v>
       </c>
@@ -14417,7 +14458,7 @@
       <c r="E15" s="39">
         <v>5</v>
       </c>
-      <c r="F15" s="46"/>
+      <c r="F15" s="47"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -14440,7 +14481,7 @@
       <c r="Z15" s="29"/>
     </row>
     <row r="16" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="46">
+      <c r="A16" s="47">
         <v>3</v>
       </c>
       <c r="B16" s="34">
@@ -14453,7 +14494,7 @@
       <c r="E16" s="39">
         <v>7</v>
       </c>
-      <c r="F16" s="46">
+      <c r="F16" s="47">
         <f>SUM(E16:E22)</f>
         <v>30</v>
       </c>
@@ -14479,7 +14520,7 @@
       <c r="Z16" s="29"/>
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="34">
         <v>42577</v>
       </c>
@@ -14490,7 +14531,7 @@
       <c r="E17" s="39">
         <v>7</v>
       </c>
-      <c r="F17" s="46"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
@@ -14513,7 +14554,7 @@
       <c r="Z17" s="29"/>
     </row>
     <row r="18" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="47"/>
       <c r="B18" s="34">
         <v>42578</v>
       </c>
@@ -14524,7 +14565,7 @@
       <c r="E18" s="39">
         <v>6</v>
       </c>
-      <c r="F18" s="46"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
@@ -14547,14 +14588,14 @@
       <c r="Z18" s="29"/>
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
+      <c r="A19" s="47"/>
       <c r="B19" s="34">
         <v>42579</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="46"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -14577,14 +14618,14 @@
       <c r="Z19" s="29"/>
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
+      <c r="A20" s="47"/>
       <c r="B20" s="34">
         <v>42580</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="46"/>
+      <c r="F20" s="47"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -14607,7 +14648,7 @@
       <c r="Z20" s="29"/>
     </row>
     <row r="21" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="34">
         <v>42581</v>
       </c>
@@ -14618,7 +14659,7 @@
       <c r="E21" s="39">
         <v>5</v>
       </c>
-      <c r="F21" s="46"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
@@ -14641,7 +14682,7 @@
       <c r="Z21" s="29"/>
     </row>
     <row r="22" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="34">
         <v>42582</v>
       </c>
@@ -14652,7 +14693,7 @@
       <c r="E22" s="39">
         <v>5</v>
       </c>
-      <c r="F22" s="46"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
@@ -14675,7 +14716,7 @@
       <c r="Z22" s="29"/>
     </row>
     <row r="23" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46">
+      <c r="A23" s="47">
         <v>4</v>
       </c>
       <c r="B23" s="34">
@@ -14688,7 +14729,7 @@
       <c r="E23" s="39">
         <v>7</v>
       </c>
-      <c r="F23" s="46">
+      <c r="F23" s="47">
         <f>SUM(E23:E29)</f>
         <v>28</v>
       </c>
@@ -14714,7 +14755,7 @@
       <c r="Z23" s="29"/>
     </row>
     <row r="24" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="34">
         <v>42584</v>
       </c>
@@ -14725,7 +14766,7 @@
       <c r="E24" s="39">
         <v>10</v>
       </c>
-      <c r="F24" s="46"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
@@ -14748,7 +14789,7 @@
       <c r="Z24" s="29"/>
     </row>
     <row r="25" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="34">
         <v>42585</v>
       </c>
@@ -14759,7 +14800,7 @@
       <c r="E25" s="28">
         <v>6</v>
       </c>
-      <c r="F25" s="46"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
@@ -14782,14 +14823,14 @@
       <c r="Z25" s="29"/>
     </row>
     <row r="26" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="34">
         <v>42586</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="46"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -14812,14 +14853,14 @@
       <c r="Z26" s="29"/>
     </row>
     <row r="27" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="34">
         <v>42587</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="46"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -14842,14 +14883,14 @@
       <c r="Z27" s="29"/>
     </row>
     <row r="28" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
+      <c r="A28" s="47"/>
       <c r="B28" s="34">
         <v>42588</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="46"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -14872,7 +14913,7 @@
       <c r="Z28" s="29"/>
     </row>
     <row r="29" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
+      <c r="A29" s="47"/>
       <c r="B29" s="34">
         <v>42589</v>
       </c>
@@ -14883,7 +14924,7 @@
       <c r="E29" s="28">
         <v>5</v>
       </c>
-      <c r="F29" s="46"/>
+      <c r="F29" s="47"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -14906,7 +14947,7 @@
       <c r="Z29" s="29"/>
     </row>
     <row r="30" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="46">
+      <c r="A30" s="47">
         <v>5</v>
       </c>
       <c r="B30" s="34">
@@ -14919,7 +14960,7 @@
       <c r="E30" s="28">
         <v>5</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="47">
         <f>SUM(E30:E36)</f>
         <v>28</v>
       </c>
@@ -14945,7 +14986,7 @@
       <c r="Z30" s="29"/>
     </row>
     <row r="31" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="34">
         <v>42591</v>
       </c>
@@ -14956,7 +14997,7 @@
       <c r="E31" s="28">
         <v>4</v>
       </c>
-      <c r="F31" s="46"/>
+      <c r="F31" s="47"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -14979,7 +15020,7 @@
       <c r="Z31" s="29"/>
     </row>
     <row r="32" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="34">
         <v>42592</v>
       </c>
@@ -14990,7 +15031,7 @@
       <c r="E32" s="28">
         <v>4</v>
       </c>
-      <c r="F32" s="46"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
@@ -15013,14 +15054,14 @@
       <c r="Z32" s="29"/>
     </row>
     <row r="33" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="34">
         <v>42593</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
       <c r="E33" s="28"/>
-      <c r="F33" s="46"/>
+      <c r="F33" s="47"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -15043,14 +15084,14 @@
       <c r="Z33" s="29"/>
     </row>
     <row r="34" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="34">
         <v>42594</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="46"/>
+      <c r="F34" s="47"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
@@ -15073,7 +15114,7 @@
       <c r="Z34" s="29"/>
     </row>
     <row r="35" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
+      <c r="A35" s="47"/>
       <c r="B35" s="34">
         <v>42595</v>
       </c>
@@ -15084,7 +15125,7 @@
       <c r="E35" s="28">
         <v>7</v>
       </c>
-      <c r="F35" s="46"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -15107,7 +15148,7 @@
       <c r="Z35" s="29"/>
     </row>
     <row r="36" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="46"/>
+      <c r="A36" s="47"/>
       <c r="B36" s="34">
         <v>42596</v>
       </c>
@@ -15118,7 +15159,7 @@
       <c r="E36" s="28">
         <v>8</v>
       </c>
-      <c r="F36" s="46"/>
+      <c r="F36" s="47"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -15141,7 +15182,7 @@
       <c r="Z36" s="29"/>
     </row>
     <row r="37" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="46">
+      <c r="A37" s="47">
         <v>6</v>
       </c>
       <c r="B37" s="34">
@@ -15154,7 +15195,7 @@
       <c r="E37" s="28">
         <v>8</v>
       </c>
-      <c r="F37" s="46">
+      <c r="F37" s="47">
         <f>SUM(E37:E43)</f>
         <v>16</v>
       </c>
@@ -15180,7 +15221,7 @@
       <c r="Z37" s="29"/>
     </row>
     <row r="38" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="46"/>
+      <c r="A38" s="47"/>
       <c r="B38" s="34">
         <v>42598</v>
       </c>
@@ -15191,7 +15232,7 @@
       <c r="E38" s="28">
         <v>8</v>
       </c>
-      <c r="F38" s="46"/>
+      <c r="F38" s="47"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -15214,14 +15255,14 @@
       <c r="Z38" s="29"/>
     </row>
     <row r="39" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="46"/>
+      <c r="A39" s="47"/>
       <c r="B39" s="34">
         <v>42599</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="38"/>
       <c r="E39" s="28"/>
-      <c r="F39" s="46"/>
+      <c r="F39" s="47"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -15244,14 +15285,14 @@
       <c r="Z39" s="29"/>
     </row>
     <row r="40" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46"/>
+      <c r="A40" s="47"/>
       <c r="B40" s="34">
         <v>42600</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="38"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="46"/>
+      <c r="F40" s="47"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
@@ -15274,14 +15315,14 @@
       <c r="Z40" s="29"/>
     </row>
     <row r="41" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
+      <c r="A41" s="47"/>
       <c r="B41" s="34">
         <v>42601</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="38"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="46"/>
+      <c r="F41" s="47"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
@@ -15304,14 +15345,14 @@
       <c r="Z41" s="29"/>
     </row>
     <row r="42" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="46"/>
+      <c r="A42" s="47"/>
       <c r="B42" s="34">
         <v>42602</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="38"/>
       <c r="E42" s="28"/>
-      <c r="F42" s="46"/>
+      <c r="F42" s="47"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
@@ -15334,14 +15375,14 @@
       <c r="Z42" s="29"/>
     </row>
     <row r="43" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="46"/>
+      <c r="A43" s="47"/>
       <c r="B43" s="34">
         <v>42603</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="38"/>
       <c r="E43" s="28"/>
-      <c r="F43" s="46"/>
+      <c r="F43" s="47"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
@@ -15364,7 +15405,7 @@
       <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="46">
+      <c r="A44" s="47">
         <v>7</v>
       </c>
       <c r="B44" s="34">
@@ -15373,7 +15414,7 @@
       <c r="C44" s="37"/>
       <c r="D44" s="38"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="46">
+      <c r="F44" s="47">
         <f>SUM(E44:E50)</f>
         <v>0</v>
       </c>
@@ -15399,14 +15440,14 @@
       <c r="Z44" s="29"/>
     </row>
     <row r="45" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="46"/>
+      <c r="A45" s="47"/>
       <c r="B45" s="34">
         <v>42605</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="38"/>
       <c r="E45" s="28"/>
-      <c r="F45" s="46"/>
+      <c r="F45" s="47"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -15429,14 +15470,14 @@
       <c r="Z45" s="29"/>
     </row>
     <row r="46" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="46"/>
+      <c r="A46" s="47"/>
       <c r="B46" s="34">
         <v>42606</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="38"/>
       <c r="E46" s="28"/>
-      <c r="F46" s="46"/>
+      <c r="F46" s="47"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
@@ -15459,14 +15500,14 @@
       <c r="Z46" s="29"/>
     </row>
     <row r="47" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="46"/>
+      <c r="A47" s="47"/>
       <c r="B47" s="34">
         <v>42607</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="38"/>
       <c r="E47" s="28"/>
-      <c r="F47" s="46"/>
+      <c r="F47" s="47"/>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
       <c r="I47" s="29"/>
@@ -15489,14 +15530,14 @@
       <c r="Z47" s="29"/>
     </row>
     <row r="48" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="34">
         <v>42608</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="38"/>
       <c r="E48" s="28"/>
-      <c r="F48" s="46"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -15519,14 +15560,14 @@
       <c r="Z48" s="29"/>
     </row>
     <row r="49" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="46"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="34">
         <v>42609</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="38"/>
       <c r="E49" s="28"/>
-      <c r="F49" s="46"/>
+      <c r="F49" s="47"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
@@ -15549,14 +15590,14 @@
       <c r="Z49" s="29"/>
     </row>
     <row r="50" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="46"/>
+      <c r="A50" s="47"/>
       <c r="B50" s="34">
         <v>42610</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="38"/>
       <c r="E50" s="28"/>
-      <c r="F50" s="46"/>
+      <c r="F50" s="47"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
@@ -15579,7 +15620,7 @@
       <c r="Z50" s="29"/>
     </row>
     <row r="51" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="46">
+      <c r="A51" s="47">
         <v>8</v>
       </c>
       <c r="B51" s="34">
@@ -15588,7 +15629,7 @@
       <c r="C51" s="37"/>
       <c r="D51" s="38"/>
       <c r="E51" s="28"/>
-      <c r="F51" s="46">
+      <c r="F51" s="47">
         <f>SUM(E51:E57)</f>
         <v>0</v>
       </c>
@@ -15614,14 +15655,14 @@
       <c r="Z51" s="29"/>
     </row>
     <row r="52" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46"/>
+      <c r="A52" s="47"/>
       <c r="B52" s="34">
         <v>42612</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="38"/>
       <c r="E52" s="28"/>
-      <c r="F52" s="46"/>
+      <c r="F52" s="47"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -15644,14 +15685,14 @@
       <c r="Z52" s="29"/>
     </row>
     <row r="53" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46"/>
+      <c r="A53" s="47"/>
       <c r="B53" s="34">
         <v>42613</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="38"/>
       <c r="E53" s="28"/>
-      <c r="F53" s="46"/>
+      <c r="F53" s="47"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
@@ -15674,14 +15715,14 @@
       <c r="Z53" s="29"/>
     </row>
     <row r="54" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46"/>
+      <c r="A54" s="47"/>
       <c r="B54" s="34">
         <v>42614</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="38"/>
       <c r="E54" s="28"/>
-      <c r="F54" s="46"/>
+      <c r="F54" s="47"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -15704,14 +15745,14 @@
       <c r="Z54" s="29"/>
     </row>
     <row r="55" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
+      <c r="A55" s="47"/>
       <c r="B55" s="34">
         <v>42615</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="38"/>
       <c r="E55" s="28"/>
-      <c r="F55" s="46"/>
+      <c r="F55" s="47"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -15734,14 +15775,14 @@
       <c r="Z55" s="29"/>
     </row>
     <row r="56" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="46"/>
+      <c r="A56" s="47"/>
       <c r="B56" s="34">
         <v>42616</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="38"/>
       <c r="E56" s="28"/>
-      <c r="F56" s="46"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
@@ -15764,14 +15805,14 @@
       <c r="Z56" s="29"/>
     </row>
     <row r="57" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="46"/>
+      <c r="A57" s="47"/>
       <c r="B57" s="34">
         <v>42617</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="38"/>
       <c r="E57" s="28"/>
-      <c r="F57" s="46"/>
+      <c r="F57" s="47"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
@@ -15794,7 +15835,7 @@
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="46">
+      <c r="A58" s="47">
         <v>9</v>
       </c>
       <c r="B58" s="34">
@@ -15803,7 +15844,7 @@
       <c r="C58" s="37"/>
       <c r="D58" s="38"/>
       <c r="E58" s="28"/>
-      <c r="F58" s="46">
+      <c r="F58" s="47">
         <f>SUM(E58:E64)</f>
         <v>0</v>
       </c>
@@ -15829,14 +15870,14 @@
       <c r="Z58" s="29"/>
     </row>
     <row r="59" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="46"/>
+      <c r="A59" s="47"/>
       <c r="B59" s="34">
         <v>42619</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="38"/>
       <c r="E59" s="28"/>
-      <c r="F59" s="46"/>
+      <c r="F59" s="47"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
@@ -15859,14 +15900,14 @@
       <c r="Z59" s="29"/>
     </row>
     <row r="60" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
+      <c r="A60" s="47"/>
       <c r="B60" s="34">
         <v>42620</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="38"/>
       <c r="E60" s="28"/>
-      <c r="F60" s="46"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
@@ -15889,14 +15930,14 @@
       <c r="Z60" s="29"/>
     </row>
     <row r="61" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
+      <c r="A61" s="47"/>
       <c r="B61" s="34">
         <v>42621</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="38"/>
       <c r="E61" s="28"/>
-      <c r="F61" s="46"/>
+      <c r="F61" s="47"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
@@ -15919,14 +15960,14 @@
       <c r="Z61" s="29"/>
     </row>
     <row r="62" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="46"/>
+      <c r="A62" s="47"/>
       <c r="B62" s="34">
         <v>42622</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="38"/>
       <c r="E62" s="28"/>
-      <c r="F62" s="46"/>
+      <c r="F62" s="47"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
@@ -15949,14 +15990,14 @@
       <c r="Z62" s="29"/>
     </row>
     <row r="63" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
+      <c r="A63" s="47"/>
       <c r="B63" s="34">
         <v>42623</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="38"/>
       <c r="E63" s="28"/>
-      <c r="F63" s="46"/>
+      <c r="F63" s="47"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
@@ -15979,14 +16020,14 @@
       <c r="Z63" s="29"/>
     </row>
     <row r="64" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="46"/>
+      <c r="A64" s="47"/>
       <c r="B64" s="34">
         <v>42624</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="38"/>
       <c r="E64" s="28"/>
-      <c r="F64" s="46"/>
+      <c r="F64" s="47"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
@@ -16009,7 +16050,7 @@
       <c r="Z64" s="29"/>
     </row>
     <row r="65" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="46">
+      <c r="A65" s="47">
         <v>10</v>
       </c>
       <c r="B65" s="34">
@@ -16018,7 +16059,7 @@
       <c r="C65" s="37"/>
       <c r="D65" s="38"/>
       <c r="E65" s="28"/>
-      <c r="F65" s="46">
+      <c r="F65" s="47">
         <f>SUM(E65:E71)</f>
         <v>0</v>
       </c>
@@ -16044,14 +16085,14 @@
       <c r="Z65" s="29"/>
     </row>
     <row r="66" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="46"/>
+      <c r="A66" s="47"/>
       <c r="B66" s="34">
         <v>42626</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="38"/>
       <c r="E66" s="28"/>
-      <c r="F66" s="46"/>
+      <c r="F66" s="47"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
@@ -16074,14 +16115,14 @@
       <c r="Z66" s="29"/>
     </row>
     <row r="67" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="46"/>
+      <c r="A67" s="47"/>
       <c r="B67" s="34">
         <v>42627</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="38"/>
       <c r="E67" s="28"/>
-      <c r="F67" s="46"/>
+      <c r="F67" s="47"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
@@ -16104,14 +16145,14 @@
       <c r="Z67" s="29"/>
     </row>
     <row r="68" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="46"/>
+      <c r="A68" s="47"/>
       <c r="B68" s="34">
         <v>42628</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="38"/>
       <c r="E68" s="28"/>
-      <c r="F68" s="46"/>
+      <c r="F68" s="47"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
@@ -16134,14 +16175,14 @@
       <c r="Z68" s="29"/>
     </row>
     <row r="69" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="46"/>
+      <c r="A69" s="47"/>
       <c r="B69" s="34">
         <v>42629</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="38"/>
       <c r="E69" s="28"/>
-      <c r="F69" s="46"/>
+      <c r="F69" s="47"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
@@ -16164,14 +16205,14 @@
       <c r="Z69" s="29"/>
     </row>
     <row r="70" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="46"/>
+      <c r="A70" s="47"/>
       <c r="B70" s="34">
         <v>42630</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="38"/>
       <c r="E70" s="28"/>
-      <c r="F70" s="46"/>
+      <c r="F70" s="47"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
@@ -16194,14 +16235,14 @@
       <c r="Z70" s="29"/>
     </row>
     <row r="71" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="46"/>
+      <c r="A71" s="47"/>
       <c r="B71" s="34">
         <v>42631</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="38"/>
       <c r="E71" s="28"/>
-      <c r="F71" s="46"/>
+      <c r="F71" s="47"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
@@ -16224,7 +16265,7 @@
       <c r="Z71" s="29"/>
     </row>
     <row r="72" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="46">
+      <c r="A72" s="47">
         <v>11</v>
       </c>
       <c r="B72" s="34">
@@ -16233,7 +16274,7 @@
       <c r="C72" s="37"/>
       <c r="D72" s="38"/>
       <c r="E72" s="28"/>
-      <c r="F72" s="46">
+      <c r="F72" s="47">
         <f>SUM(E72:E78)</f>
         <v>0</v>
       </c>
@@ -16259,14 +16300,14 @@
       <c r="Z72" s="29"/>
     </row>
     <row r="73" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="46"/>
+      <c r="A73" s="47"/>
       <c r="B73" s="34">
         <v>42633</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="38"/>
       <c r="E73" s="28"/>
-      <c r="F73" s="46"/>
+      <c r="F73" s="47"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
@@ -16289,14 +16330,14 @@
       <c r="Z73" s="29"/>
     </row>
     <row r="74" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="46"/>
+      <c r="A74" s="47"/>
       <c r="B74" s="34">
         <v>42634</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="38"/>
       <c r="E74" s="28"/>
-      <c r="F74" s="46"/>
+      <c r="F74" s="47"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
@@ -16319,14 +16360,14 @@
       <c r="Z74" s="29"/>
     </row>
     <row r="75" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="46"/>
+      <c r="A75" s="47"/>
       <c r="B75" s="34">
         <v>42635</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="38"/>
       <c r="E75" s="28"/>
-      <c r="F75" s="46"/>
+      <c r="F75" s="47"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
@@ -16349,14 +16390,14 @@
       <c r="Z75" s="29"/>
     </row>
     <row r="76" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="46"/>
+      <c r="A76" s="47"/>
       <c r="B76" s="34">
         <v>42636</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="38"/>
       <c r="E76" s="28"/>
-      <c r="F76" s="46"/>
+      <c r="F76" s="47"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
@@ -16379,14 +16420,14 @@
       <c r="Z76" s="29"/>
     </row>
     <row r="77" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="46"/>
+      <c r="A77" s="47"/>
       <c r="B77" s="34">
         <v>42637</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="38"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="46"/>
+      <c r="F77" s="47"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
@@ -16409,14 +16450,14 @@
       <c r="Z77" s="29"/>
     </row>
     <row r="78" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="46"/>
+      <c r="A78" s="47"/>
       <c r="B78" s="34">
         <v>42638</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="38"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="46"/>
+      <c r="F78" s="47"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
@@ -16439,7 +16480,7 @@
       <c r="Z78" s="29"/>
     </row>
     <row r="79" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="46">
+      <c r="A79" s="47">
         <v>12</v>
       </c>
       <c r="B79" s="34">
@@ -16448,7 +16489,7 @@
       <c r="C79" s="37"/>
       <c r="D79" s="38"/>
       <c r="E79" s="28"/>
-      <c r="F79" s="46">
+      <c r="F79" s="47">
         <f>SUM(E79:E85)</f>
         <v>0</v>
       </c>
@@ -16474,14 +16515,14 @@
       <c r="Z79" s="29"/>
     </row>
     <row r="80" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="46"/>
+      <c r="A80" s="47"/>
       <c r="B80" s="34">
         <v>42640</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="38"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="46"/>
+      <c r="F80" s="47"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
@@ -16504,14 +16545,14 @@
       <c r="Z80" s="29"/>
     </row>
     <row r="81" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="46"/>
+      <c r="A81" s="47"/>
       <c r="B81" s="34">
         <v>42641</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="38"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="46"/>
+      <c r="F81" s="47"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
@@ -16534,14 +16575,14 @@
       <c r="Z81" s="29"/>
     </row>
     <row r="82" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="46"/>
+      <c r="A82" s="47"/>
       <c r="B82" s="34">
         <v>42642</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="38"/>
       <c r="E82" s="28"/>
-      <c r="F82" s="46"/>
+      <c r="F82" s="47"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
@@ -16564,14 +16605,14 @@
       <c r="Z82" s="29"/>
     </row>
     <row r="83" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="46"/>
+      <c r="A83" s="47"/>
       <c r="B83" s="34">
         <v>42643</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="38"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="46"/>
+      <c r="F83" s="47"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
       <c r="I83" s="29"/>
@@ -16594,14 +16635,14 @@
       <c r="Z83" s="29"/>
     </row>
     <row r="84" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="46"/>
+      <c r="A84" s="47"/>
       <c r="B84" s="34">
         <v>42644</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="38"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="46"/>
+      <c r="F84" s="47"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
@@ -16624,14 +16665,14 @@
       <c r="Z84" s="29"/>
     </row>
     <row r="85" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="46"/>
+      <c r="A85" s="47"/>
       <c r="B85" s="34">
         <v>42645</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="38"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="46"/>
+      <c r="F85" s="47"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
       <c r="I85" s="29"/>
@@ -16654,7 +16695,7 @@
       <c r="Z85" s="29"/>
     </row>
     <row r="86" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="46">
+      <c r="A86" s="47">
         <v>13</v>
       </c>
       <c r="B86" s="34">
@@ -16663,7 +16704,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="38"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="46">
+      <c r="F86" s="47">
         <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
@@ -16689,14 +16730,14 @@
       <c r="Z86" s="29"/>
     </row>
     <row r="87" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="46"/>
+      <c r="A87" s="47"/>
       <c r="B87" s="34">
         <v>42647</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="38"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="46"/>
+      <c r="F87" s="47"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
@@ -16719,14 +16760,14 @@
       <c r="Z87" s="29"/>
     </row>
     <row r="88" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="46"/>
+      <c r="A88" s="47"/>
       <c r="B88" s="34">
         <v>42648</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="38"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="46"/>
+      <c r="F88" s="47"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
@@ -16749,14 +16790,14 @@
       <c r="Z88" s="29"/>
     </row>
     <row r="89" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="46"/>
+      <c r="A89" s="47"/>
       <c r="B89" s="34">
         <v>42649</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="38"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="46"/>
+      <c r="F89" s="47"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
@@ -16779,14 +16820,14 @@
       <c r="Z89" s="29"/>
     </row>
     <row r="90" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="46"/>
+      <c r="A90" s="47"/>
       <c r="B90" s="34">
         <v>42650</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="38"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="46"/>
+      <c r="F90" s="47"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
@@ -16809,14 +16850,14 @@
       <c r="Z90" s="29"/>
     </row>
     <row r="91" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="46"/>
+      <c r="A91" s="47"/>
       <c r="B91" s="34">
         <v>42651</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="38"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="46"/>
+      <c r="F91" s="47"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
@@ -16839,14 +16880,14 @@
       <c r="Z91" s="29"/>
     </row>
     <row r="92" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="46"/>
+      <c r="A92" s="47"/>
       <c r="B92" s="34">
         <v>42652</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="38"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="46"/>
+      <c r="F92" s="47"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
@@ -16869,7 +16910,7 @@
       <c r="Z92" s="29"/>
     </row>
     <row r="93" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="46">
+      <c r="A93" s="47">
         <v>14</v>
       </c>
       <c r="B93" s="34">
@@ -16878,7 +16919,7 @@
       <c r="C93" s="37"/>
       <c r="D93" s="38"/>
       <c r="E93" s="28"/>
-      <c r="F93" s="46">
+      <c r="F93" s="47">
         <f>SUM(E93:E99)</f>
         <v>0</v>
       </c>
@@ -16904,14 +16945,14 @@
       <c r="Z93" s="29"/>
     </row>
     <row r="94" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="46"/>
+      <c r="A94" s="47"/>
       <c r="B94" s="34">
         <v>42654</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="38"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="46"/>
+      <c r="F94" s="47"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
@@ -16934,14 +16975,14 @@
       <c r="Z94" s="29"/>
     </row>
     <row r="95" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="46"/>
+      <c r="A95" s="47"/>
       <c r="B95" s="34">
         <v>42655</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="38"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="46"/>
+      <c r="F95" s="47"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
@@ -16964,14 +17005,14 @@
       <c r="Z95" s="29"/>
     </row>
     <row r="96" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="46"/>
+      <c r="A96" s="47"/>
       <c r="B96" s="34">
         <v>42656</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="38"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="46"/>
+      <c r="F96" s="47"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
@@ -16994,14 +17035,14 @@
       <c r="Z96" s="29"/>
     </row>
     <row r="97" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="46"/>
+      <c r="A97" s="47"/>
       <c r="B97" s="34">
         <v>42657</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="38"/>
       <c r="E97" s="28"/>
-      <c r="F97" s="46"/>
+      <c r="F97" s="47"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="29"/>
@@ -17024,14 +17065,14 @@
       <c r="Z97" s="29"/>
     </row>
     <row r="98" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="46"/>
+      <c r="A98" s="47"/>
       <c r="B98" s="34">
         <v>42658</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="38"/>
       <c r="E98" s="28"/>
-      <c r="F98" s="46"/>
+      <c r="F98" s="47"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
@@ -17054,14 +17095,14 @@
       <c r="Z98" s="29"/>
     </row>
     <row r="99" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="46"/>
+      <c r="A99" s="47"/>
       <c r="B99" s="34">
         <v>42659</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="38"/>
       <c r="E99" s="28"/>
-      <c r="F99" s="46"/>
+      <c r="F99" s="47"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
@@ -17085,24 +17126,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="F16:F22"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="F58:F64"/>
     <mergeCell ref="A86:A92"/>
     <mergeCell ref="F86:F92"/>
     <mergeCell ref="A93:A99"/>
@@ -17113,6 +17136,24 @@
     <mergeCell ref="F72:F78"/>
     <mergeCell ref="A79:A85"/>
     <mergeCell ref="F79:F85"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="F58:F64"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="F16:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/1. Final Documentation/24. Time Sheet/Project Time Sheet.xlsx
+++ b/1. Final Documentation/24. Time Sheet/Project Time Sheet.xlsx
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="Tasks">'Project Tasks'!$A$2:$A$71</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="260">
   <si>
     <t>Week</t>
   </si>
@@ -855,6 +855,12 @@
   </si>
   <si>
     <t>3:00 PM to 5:00 PM</t>
+  </si>
+  <si>
+    <t>12:00 PM to 4:30 PM</t>
+  </si>
+  <si>
+    <t>12:00 PM to 5:00 PM</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1049,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1151,6 +1157,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1516,7 +1525,7 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1586,7 +1595,7 @@
         <v>25</v>
       </c>
       <c r="D2" s="2">
-        <f>VLOOKUP(A2,'Hardik Kansara'!A1:F124,6,0)</f>
+        <f>VLOOKUP(A2,'Hardik Kansara'!A1:F127,6,0)</f>
         <v>21</v>
       </c>
       <c r="E2" s="2">
@@ -1633,7 +1642,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="2">
-        <f>VLOOKUP(A3,'Hardik Kansara'!A2:F125,6,0)</f>
+        <f>VLOOKUP(A3,'Hardik Kansara'!A2:F128,6,0)</f>
         <v>22</v>
       </c>
       <c r="E3" s="2">
@@ -1680,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="2">
-        <f>VLOOKUP(A4,'Hardik Kansara'!A4:F126,6,0)</f>
+        <f>VLOOKUP(A4,'Hardik Kansara'!A4:F129,6,0)</f>
         <v>24</v>
       </c>
       <c r="E4" s="2">
@@ -1727,7 +1736,7 @@
         <v>24</v>
       </c>
       <c r="D5" s="2">
-        <f>VLOOKUP(A5,'Hardik Kansara'!A5:F127,6,0)</f>
+        <f>VLOOKUP(A5,'Hardik Kansara'!A5:F130,6,0)</f>
         <v>22</v>
       </c>
       <c r="E5" s="2">
@@ -1774,7 +1783,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="2">
-        <f>VLOOKUP(A6,'Hardik Kansara'!A6:F128,6,0)</f>
+        <f>VLOOKUP(A6,'Hardik Kansara'!A6:F131,6,0)</f>
         <v>23</v>
       </c>
       <c r="E6" s="2">
@@ -1821,7 +1830,7 @@
         <v>42.5</v>
       </c>
       <c r="D7" s="2">
-        <f>VLOOKUP(A7,'Hardik Kansara'!A7:F129,6,0)</f>
+        <f>VLOOKUP(A7,'Hardik Kansara'!A7:F132,6,0)</f>
         <v>42</v>
       </c>
       <c r="E7" s="2">
@@ -1868,7 +1877,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f>VLOOKUP(A8,'Hardik Kansara'!A9:F130,6,0)</f>
+        <f>VLOOKUP(A8,'Hardik Kansara'!A9:F133,6,0)</f>
         <v>42</v>
       </c>
       <c r="E8" s="2">
@@ -1915,8 +1924,8 @@
         <v>0</v>
       </c>
       <c r="D9" s="2">
-        <f>VLOOKUP(A9,'Hardik Kansara'!A12:F131,6,0)</f>
-        <v>0</v>
+        <f>VLOOKUP(A9,'Hardik Kansara'!A12:F134,6,0)</f>
+        <v>38</v>
       </c>
       <c r="E9" s="2">
         <f>VLOOKUP(A9,'Kwinno Pineda'!A8:F114,6,0)</f>
@@ -1928,7 +1937,7 @@
       </c>
       <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1962,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f>VLOOKUP(A10,'Hardik Kansara'!A13:F132,6,0)</f>
+        <f>VLOOKUP(A10,'Hardik Kansara'!A13:F135,6,0)</f>
         <v>0</v>
       </c>
       <c r="E10" s="2">
@@ -2009,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f>VLOOKUP(A11,'Hardik Kansara'!A14:F133,6,0)</f>
+        <f>VLOOKUP(A11,'Hardik Kansara'!A14:F136,6,0)</f>
         <v>0</v>
       </c>
       <c r="E11" s="2">
@@ -2056,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f>VLOOKUP(A12,'Hardik Kansara'!A15:F134,6,0)</f>
+        <f>VLOOKUP(A12,'Hardik Kansara'!A15:F137,6,0)</f>
         <v>0</v>
       </c>
       <c r="E12" s="2">
@@ -2103,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f>VLOOKUP(A13,'Hardik Kansara'!A16:F135,6,0)</f>
+        <f>VLOOKUP(A13,'Hardik Kansara'!A16:F138,6,0)</f>
         <v>0</v>
       </c>
       <c r="E13" s="2">
@@ -2150,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f>VLOOKUP(A14,'Hardik Kansara'!A17:F136,6,0)</f>
+        <f>VLOOKUP(A14,'Hardik Kansara'!A17:F139,6,0)</f>
         <v>0</v>
       </c>
       <c r="E14" s="2">
@@ -2197,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f>VLOOKUP(A15,'Hardik Kansara'!A20:F137,6,0)</f>
+        <f>VLOOKUP(A15,'Hardik Kansara'!A20:F140,6,0)</f>
         <v>0</v>
       </c>
       <c r="E15" s="2">
@@ -2241,7 +2250,7 @@
       </c>
       <c r="D16" s="2">
         <f>SUM(D2:D15)</f>
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="E16" s="2">
         <f>SUM(E2:E15)</f>
@@ -2253,7 +2262,7 @@
       </c>
       <c r="G16" s="2">
         <f>SUM(G2:G15)</f>
-        <v>690.5</v>
+        <v>728.5</v>
       </c>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -2340,10 +2349,10 @@
       <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
-      <c r="B2" s="46">
+      <c r="B2" s="47">
         <v>42562</v>
       </c>
       <c r="C2" s="10" t="s">
@@ -2355,7 +2364,7 @@
       <c r="E2" s="2">
         <v>4</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="46">
         <f>SUM(E2:E23)</f>
         <v>25</v>
       </c>
@@ -2381,8 +2390,8 @@
       <c r="Z2" s="11"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
       <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
@@ -2392,7 +2401,7 @@
       <c r="E3" s="2">
         <v>0.5</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
@@ -2415,8 +2424,8 @@
       <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="10" t="s">
         <v>29</v>
       </c>
@@ -2426,7 +2435,7 @@
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
@@ -2449,8 +2458,8 @@
       <c r="Z4" s="11"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46">
+      <c r="A5" s="46"/>
+      <c r="B5" s="47">
         <v>42563</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -2462,7 +2471,7 @@
       <c r="E5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="11"/>
@@ -2485,8 +2494,8 @@
       <c r="Z5" s="11"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="10" t="s">
         <v>27</v>
       </c>
@@ -2496,7 +2505,7 @@
       <c r="E6" s="2">
         <v>0.5</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
       <c r="I6" s="11"/>
@@ -2519,8 +2528,8 @@
       <c r="Z6" s="11"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="10" t="s">
         <v>29</v>
       </c>
@@ -2530,7 +2539,7 @@
       <c r="E7" s="2">
         <v>0.5</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
@@ -2553,8 +2562,8 @@
       <c r="Z7" s="11"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46">
+      <c r="A8" s="46"/>
+      <c r="B8" s="47">
         <v>42564</v>
       </c>
       <c r="C8" s="10" t="s">
@@ -2566,7 +2575,7 @@
       <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="F8" s="45"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
@@ -2589,8 +2598,8 @@
       <c r="Z8" s="11"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="10" t="s">
         <v>27</v>
       </c>
@@ -2600,7 +2609,7 @@
       <c r="E9" s="2">
         <v>0.5</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="46"/>
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
       <c r="I9" s="11"/>
@@ -2623,8 +2632,8 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
@@ -2634,7 +2643,7 @@
       <c r="E10" s="2">
         <v>0.5</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -2657,8 +2666,8 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="10" t="s">
         <v>29</v>
       </c>
@@ -2668,7 +2677,7 @@
       <c r="E11" s="2">
         <v>0.5</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
@@ -2691,8 +2700,8 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47">
         <v>42565</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -2704,7 +2713,7 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
       <c r="I12" s="11"/>
@@ -2727,8 +2736,8 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
@@ -2738,7 +2747,7 @@
       <c r="E13" s="2">
         <v>0.5</v>
       </c>
-      <c r="F13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
@@ -2761,8 +2770,8 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="10" t="s">
         <v>29</v>
       </c>
@@ -2772,7 +2781,7 @@
       <c r="E14" s="2">
         <v>0.5</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -2795,14 +2804,14 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="5">
         <v>42566</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
@@ -2825,8 +2834,8 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46">
+      <c r="A16" s="46"/>
+      <c r="B16" s="47">
         <v>42567</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -2838,7 +2847,7 @@
       <c r="E16" s="10">
         <v>2</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
@@ -2861,8 +2870,8 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="10" t="s">
         <v>29</v>
       </c>
@@ -2872,7 +2881,7 @@
       <c r="E17" s="10">
         <v>0.5</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
@@ -2895,8 +2904,8 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46">
+      <c r="A18" s="46"/>
+      <c r="B18" s="47">
         <v>42568</v>
       </c>
       <c r="C18" s="10" t="s">
@@ -2908,7 +2917,7 @@
       <c r="E18" s="10">
         <v>1</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
       <c r="I18" s="11"/>
@@ -2931,8 +2940,8 @@
       <c r="Z18" s="11"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="10" t="s">
         <v>42</v>
       </c>
@@ -2942,7 +2951,7 @@
       <c r="E19" s="10">
         <v>1</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
@@ -2965,8 +2974,8 @@
       <c r="Z19" s="11"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="46"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="10" t="s">
         <v>25</v>
       </c>
@@ -2976,7 +2985,7 @@
       <c r="E20" s="10">
         <v>1.5</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="11"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
@@ -2999,8 +3008,8 @@
       <c r="Z20" s="11"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="10" t="s">
         <v>27</v>
       </c>
@@ -3010,7 +3019,7 @@
       <c r="E21" s="10">
         <v>0.5</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
       <c r="I21" s="11"/>
@@ -3033,8 +3042,8 @@
       <c r="Z21" s="11"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="45"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
@@ -3044,7 +3053,7 @@
       <c r="E22" s="10">
         <v>0.5</v>
       </c>
-      <c r="F22" s="45"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
@@ -3067,8 +3076,8 @@
       <c r="Z22" s="11"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="10" t="s">
         <v>29</v>
       </c>
@@ -3078,7 +3087,7 @@
       <c r="E23" s="10">
         <v>0.5</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
@@ -3101,10 +3110,10 @@
       <c r="Z23" s="11"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="45">
+      <c r="A24" s="46">
         <v>2</v>
       </c>
-      <c r="B24" s="46">
+      <c r="B24" s="47">
         <v>42569</v>
       </c>
       <c r="C24" s="10" t="s">
@@ -3116,7 +3125,7 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="46">
         <f>SUM(E24:E47)</f>
         <v>26</v>
       </c>
@@ -3142,8 +3151,8 @@
       <c r="Z24" s="11"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
@@ -3153,7 +3162,7 @@
       <c r="E25" s="2">
         <v>4</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
@@ -3176,8 +3185,8 @@
       <c r="Z25" s="11"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="10" t="s">
         <v>27</v>
       </c>
@@ -3187,7 +3196,7 @@
       <c r="E26" s="2">
         <v>0.5</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
@@ -3210,8 +3219,8 @@
       <c r="Z26" s="11"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
@@ -3221,7 +3230,7 @@
       <c r="E27" s="2">
         <v>0.5</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
       <c r="I27" s="11"/>
@@ -3244,8 +3253,8 @@
       <c r="Z27" s="11"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46">
+      <c r="A28" s="46"/>
+      <c r="B28" s="47">
         <v>42570</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3257,7 +3266,7 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
       <c r="I28" s="11"/>
@@ -3280,8 +3289,8 @@
       <c r="Z28" s="11"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="46"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="10" t="s">
         <v>51</v>
       </c>
@@ -3291,7 +3300,7 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="45"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
@@ -3314,8 +3323,8 @@
       <c r="Z29" s="11"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
       <c r="C30" s="10" t="s">
         <v>53</v>
       </c>
@@ -3325,7 +3334,7 @@
       <c r="E30" s="2">
         <v>1</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
@@ -3348,8 +3357,8 @@
       <c r="Z30" s="11"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="10" t="s">
         <v>29</v>
       </c>
@@ -3359,7 +3368,7 @@
       <c r="E31" s="2">
         <v>0.5</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="46"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
       <c r="I31" s="11"/>
@@ -3382,8 +3391,8 @@
       <c r="Z31" s="11"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46">
+      <c r="A32" s="46"/>
+      <c r="B32" s="47">
         <v>42571</v>
       </c>
       <c r="C32" s="10" t="s">
@@ -3395,7 +3404,7 @@
       <c r="E32" s="2">
         <v>2</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
       <c r="I32" s="11"/>
@@ -3418,8 +3427,8 @@
       <c r="Z32" s="11"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="45"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="10" t="s">
         <v>56</v>
       </c>
@@ -3429,7 +3438,7 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="46"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
       <c r="I33" s="11"/>
@@ -3452,8 +3461,8 @@
       <c r="Z33" s="11"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="10" t="s">
         <v>27</v>
       </c>
@@ -3463,7 +3472,7 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
@@ -3486,8 +3495,8 @@
       <c r="Z34" s="11"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
-      <c r="B35" s="46"/>
+      <c r="A35" s="46"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="10" t="s">
         <v>34</v>
       </c>
@@ -3497,7 +3506,7 @@
       <c r="E35" s="2">
         <v>0.5</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -3520,8 +3529,8 @@
       <c r="Z35" s="11"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="46"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
@@ -3531,7 +3540,7 @@
       <c r="E36" s="2">
         <v>0.5</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
       <c r="I36" s="11"/>
@@ -3554,8 +3563,8 @@
       <c r="Z36" s="11"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
-      <c r="B37" s="46">
+      <c r="A37" s="46"/>
+      <c r="B37" s="47">
         <v>42572</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -3567,7 +3576,7 @@
       <c r="E37" s="2">
         <v>0.5</v>
       </c>
-      <c r="F37" s="45"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
       <c r="I37" s="11"/>
@@ -3590,8 +3599,8 @@
       <c r="Z37" s="11"/>
     </row>
     <row r="38" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="46"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="10" t="s">
         <v>59</v>
       </c>
@@ -3601,7 +3610,7 @@
       <c r="E38" s="2">
         <v>3.5</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="46"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
@@ -3624,8 +3633,8 @@
       <c r="Z38" s="11"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="10" t="s">
         <v>29</v>
       </c>
@@ -3635,7 +3644,7 @@
       <c r="E39" s="2">
         <v>0.5</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -3658,14 +3667,14 @@
       <c r="Z39" s="11"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="5">
         <v>42573</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="45"/>
+      <c r="F40" s="46"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -3688,8 +3697,8 @@
       <c r="Z40" s="11"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
-      <c r="B41" s="46">
+      <c r="A41" s="46"/>
+      <c r="B41" s="47">
         <v>42574</v>
       </c>
       <c r="C41" s="10" t="s">
@@ -3701,7 +3710,7 @@
       <c r="E41" s="2">
         <v>2</v>
       </c>
-      <c r="F41" s="45"/>
+      <c r="F41" s="46"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -3724,8 +3733,8 @@
       <c r="Z41" s="11"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="45"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="46"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="10" t="s">
         <v>29</v>
       </c>
@@ -3735,7 +3744,7 @@
       <c r="E42" s="10">
         <v>0.5</v>
       </c>
-      <c r="F42" s="45"/>
+      <c r="F42" s="46"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -3758,8 +3767,8 @@
       <c r="Z42" s="11"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
-      <c r="B43" s="46">
+      <c r="A43" s="46"/>
+      <c r="B43" s="47">
         <v>42575</v>
       </c>
       <c r="C43" s="10" t="s">
@@ -3771,7 +3780,7 @@
       <c r="E43" s="10">
         <v>1</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="46"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
@@ -3794,8 +3803,8 @@
       <c r="Z43" s="11"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="46"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="10" t="s">
         <v>42</v>
       </c>
@@ -3805,7 +3814,7 @@
       <c r="E44" s="10">
         <v>1</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
@@ -3828,8 +3837,8 @@
       <c r="Z44" s="11"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="46"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="10" t="s">
         <v>61</v>
       </c>
@@ -3839,7 +3848,7 @@
       <c r="E45" s="10">
         <v>1.5</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="46"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
       <c r="I45" s="11"/>
@@ -3862,8 +3871,8 @@
       <c r="Z45" s="11"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="10" t="s">
         <v>27</v>
       </c>
@@ -3873,7 +3882,7 @@
       <c r="E46" s="10">
         <v>0.5</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="46"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
@@ -3896,8 +3905,8 @@
       <c r="Z46" s="11"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="47"/>
       <c r="C47" s="10" t="s">
         <v>29</v>
       </c>
@@ -3907,7 +3916,7 @@
       <c r="E47" s="10">
         <v>0.5</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="46"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
       <c r="I47" s="11"/>
@@ -3930,10 +3939,10 @@
       <c r="Z47" s="11"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="45">
+      <c r="A48" s="46">
         <v>3</v>
       </c>
-      <c r="B48" s="46">
+      <c r="B48" s="47">
         <v>42576</v>
       </c>
       <c r="C48" s="10" t="s">
@@ -3945,7 +3954,7 @@
       <c r="E48" s="2">
         <v>5</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="46">
         <f>SUM(E48:E67)</f>
         <v>27</v>
       </c>
@@ -3971,8 +3980,8 @@
       <c r="Z48" s="11"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="47"/>
       <c r="C49" s="10" t="s">
         <v>29</v>
       </c>
@@ -3982,7 +3991,7 @@
       <c r="E49" s="2">
         <v>0.5</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
       <c r="I49" s="11"/>
@@ -4005,8 +4014,8 @@
       <c r="Z49" s="11"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
-      <c r="B50" s="46"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="10" t="s">
         <v>27</v>
       </c>
@@ -4016,7 +4025,7 @@
       <c r="E50" s="2">
         <v>0.5</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="46"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
@@ -4039,8 +4048,8 @@
       <c r="Z50" s="11"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
-      <c r="B51" s="46">
+      <c r="A51" s="46"/>
+      <c r="B51" s="47">
         <v>42577</v>
       </c>
       <c r="C51" s="10" t="s">
@@ -4052,7 +4061,7 @@
       <c r="E51" s="2">
         <v>4</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="46"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
       <c r="I51" s="11"/>
@@ -4075,8 +4084,8 @@
       <c r="Z51" s="11"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="45"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="46"/>
+      <c r="B52" s="47"/>
       <c r="C52" s="10" t="s">
         <v>27</v>
       </c>
@@ -4086,7 +4095,7 @@
       <c r="E52" s="2">
         <v>0.5</v>
       </c>
-      <c r="F52" s="45"/>
+      <c r="F52" s="46"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
       <c r="I52" s="11"/>
@@ -4109,8 +4118,8 @@
       <c r="Z52" s="11"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
+      <c r="A53" s="46"/>
+      <c r="B53" s="47"/>
       <c r="C53" s="10" t="s">
         <v>34</v>
       </c>
@@ -4120,7 +4129,7 @@
       <c r="E53" s="2">
         <v>0.5</v>
       </c>
-      <c r="F53" s="45"/>
+      <c r="F53" s="46"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
       <c r="I53" s="11"/>
@@ -4143,8 +4152,8 @@
       <c r="Z53" s="11"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="46"/>
+      <c r="B54" s="47"/>
       <c r="C54" s="10" t="s">
         <v>29</v>
       </c>
@@ -4154,7 +4163,7 @@
       <c r="E54" s="2">
         <v>0.5</v>
       </c>
-      <c r="F54" s="45"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
@@ -4177,8 +4186,8 @@
       <c r="Z54" s="11"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="45"/>
-      <c r="B55" s="46">
+      <c r="A55" s="46"/>
+      <c r="B55" s="47">
         <v>42578</v>
       </c>
       <c r="C55" s="10" t="s">
@@ -4190,7 +4199,7 @@
       <c r="E55" s="2">
         <v>5</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="46"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
       <c r="I55" s="11"/>
@@ -4213,8 +4222,8 @@
       <c r="Z55" s="11"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="46"/>
+      <c r="B56" s="47"/>
       <c r="C56" s="10" t="s">
         <v>27</v>
       </c>
@@ -4224,7 +4233,7 @@
       <c r="E56" s="2">
         <v>0.5</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="46"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
       <c r="I56" s="11"/>
@@ -4247,8 +4256,8 @@
       <c r="Z56" s="11"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="46"/>
+      <c r="B57" s="47"/>
       <c r="C57" s="10" t="s">
         <v>29</v>
       </c>
@@ -4258,7 +4267,7 @@
       <c r="E57" s="2">
         <v>0.5</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="46"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
       <c r="I57" s="11"/>
@@ -4281,14 +4290,14 @@
       <c r="Z57" s="11"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="45"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="5">
         <v>42579</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="45"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
@@ -4311,14 +4320,14 @@
       <c r="Z58" s="11"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="45"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="5">
         <v>42580</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="45"/>
+      <c r="F59" s="46"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
       <c r="I59" s="11"/>
@@ -4341,8 +4350,8 @@
       <c r="Z59" s="11"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A60" s="45"/>
-      <c r="B60" s="46">
+      <c r="A60" s="46"/>
+      <c r="B60" s="47">
         <v>42581</v>
       </c>
       <c r="C60" s="10" t="s">
@@ -4354,7 +4363,7 @@
       <c r="E60" s="10">
         <v>4</v>
       </c>
-      <c r="F60" s="45"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
       <c r="I60" s="11"/>
@@ -4377,8 +4386,8 @@
       <c r="Z60" s="11"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="46"/>
+      <c r="B61" s="47"/>
       <c r="C61" s="10" t="s">
         <v>27</v>
       </c>
@@ -4388,7 +4397,7 @@
       <c r="E61" s="10">
         <v>0.5</v>
       </c>
-      <c r="F61" s="45"/>
+      <c r="F61" s="46"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
       <c r="I61" s="11"/>
@@ -4411,8 +4420,8 @@
       <c r="Z61" s="11"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="46"/>
+      <c r="B62" s="47"/>
       <c r="C62" s="10" t="s">
         <v>29</v>
       </c>
@@ -4422,7 +4431,7 @@
       <c r="E62" s="10">
         <v>0.5</v>
       </c>
-      <c r="F62" s="45"/>
+      <c r="F62" s="46"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
       <c r="I62" s="11"/>
@@ -4445,8 +4454,8 @@
       <c r="Z62" s="11"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="45"/>
-      <c r="B63" s="46">
+      <c r="A63" s="46"/>
+      <c r="B63" s="47">
         <v>42582</v>
       </c>
       <c r="C63" s="10" t="s">
@@ -4458,7 +4467,7 @@
       <c r="E63" s="10">
         <v>1</v>
       </c>
-      <c r="F63" s="45"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
       <c r="I63" s="11"/>
@@ -4481,8 +4490,8 @@
       <c r="Z63" s="11"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="45"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="46"/>
+      <c r="B64" s="47"/>
       <c r="C64" s="10" t="s">
         <v>42</v>
       </c>
@@ -4492,7 +4501,7 @@
       <c r="E64" s="10">
         <v>1</v>
       </c>
-      <c r="F64" s="45"/>
+      <c r="F64" s="46"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
       <c r="I64" s="11"/>
@@ -4515,8 +4524,8 @@
       <c r="Z64" s="11"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A65" s="45"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="46"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="10" t="s">
         <v>74</v>
       </c>
@@ -4526,7 +4535,7 @@
       <c r="E65" s="10">
         <v>1.5</v>
       </c>
-      <c r="F65" s="45"/>
+      <c r="F65" s="46"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
       <c r="I65" s="11"/>
@@ -4549,8 +4558,8 @@
       <c r="Z65" s="11"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="45"/>
-      <c r="B66" s="46"/>
+      <c r="A66" s="46"/>
+      <c r="B66" s="47"/>
       <c r="C66" s="10" t="s">
         <v>27</v>
       </c>
@@ -4560,7 +4569,7 @@
       <c r="E66" s="10">
         <v>0.5</v>
       </c>
-      <c r="F66" s="45"/>
+      <c r="F66" s="46"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
       <c r="I66" s="11"/>
@@ -4583,8 +4592,8 @@
       <c r="Z66" s="11"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A67" s="45"/>
-      <c r="B67" s="46"/>
+      <c r="A67" s="46"/>
+      <c r="B67" s="47"/>
       <c r="C67" s="10" t="s">
         <v>29</v>
       </c>
@@ -4594,7 +4603,7 @@
       <c r="E67" s="10">
         <v>0.5</v>
       </c>
-      <c r="F67" s="45"/>
+      <c r="F67" s="46"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
       <c r="I67" s="11"/>
@@ -4617,10 +4626,10 @@
       <c r="Z67" s="11"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A68" s="45">
+      <c r="A68" s="46">
         <v>4</v>
       </c>
-      <c r="B68" s="46">
+      <c r="B68" s="47">
         <v>42583</v>
       </c>
       <c r="C68" s="10" t="s">
@@ -4632,7 +4641,7 @@
       <c r="E68" s="2">
         <v>1</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="46">
         <f>SUM(E68:E92)</f>
         <v>24</v>
       </c>
@@ -4658,8 +4667,8 @@
       <c r="Z68" s="11"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
       <c r="C69" s="10" t="s">
         <v>76</v>
       </c>
@@ -4669,7 +4678,7 @@
       <c r="E69" s="2">
         <v>4</v>
       </c>
-      <c r="F69" s="45"/>
+      <c r="F69" s="46"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
       <c r="I69" s="11"/>
@@ -4692,8 +4701,8 @@
       <c r="Z69" s="11"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A70" s="45"/>
-      <c r="B70" s="46"/>
+      <c r="A70" s="46"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="10" t="s">
         <v>27</v>
       </c>
@@ -4703,7 +4712,7 @@
       <c r="E70" s="2">
         <v>0.5</v>
       </c>
-      <c r="F70" s="45"/>
+      <c r="F70" s="46"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
       <c r="I70" s="11"/>
@@ -4726,8 +4735,8 @@
       <c r="Z70" s="11"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A71" s="45"/>
-      <c r="B71" s="46"/>
+      <c r="A71" s="46"/>
+      <c r="B71" s="47"/>
       <c r="C71" s="10" t="s">
         <v>34</v>
       </c>
@@ -4737,7 +4746,7 @@
       <c r="E71" s="2">
         <v>0.5</v>
       </c>
-      <c r="F71" s="45"/>
+      <c r="F71" s="46"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
       <c r="I71" s="11"/>
@@ -4760,8 +4769,8 @@
       <c r="Z71" s="11"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A72" s="45"/>
-      <c r="B72" s="46"/>
+      <c r="A72" s="46"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="10" t="s">
         <v>29</v>
       </c>
@@ -4771,7 +4780,7 @@
       <c r="E72" s="2">
         <v>0.5</v>
       </c>
-      <c r="F72" s="45"/>
+      <c r="F72" s="46"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
       <c r="I72" s="11"/>
@@ -4794,8 +4803,8 @@
       <c r="Z72" s="11"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A73" s="45"/>
-      <c r="B73" s="46">
+      <c r="A73" s="46"/>
+      <c r="B73" s="47">
         <v>42584</v>
       </c>
       <c r="C73" s="10" t="s">
@@ -4807,7 +4816,7 @@
       <c r="E73" s="2">
         <v>1</v>
       </c>
-      <c r="F73" s="45"/>
+      <c r="F73" s="46"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
       <c r="I73" s="11"/>
@@ -4830,8 +4839,8 @@
       <c r="Z73" s="11"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A74" s="45"/>
-      <c r="B74" s="46"/>
+      <c r="A74" s="46"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="10" t="s">
         <v>78</v>
       </c>
@@ -4841,7 +4850,7 @@
       <c r="E74" s="2">
         <v>3</v>
       </c>
-      <c r="F74" s="45"/>
+      <c r="F74" s="46"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
       <c r="I74" s="11"/>
@@ -4864,8 +4873,8 @@
       <c r="Z74" s="11"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A75" s="45"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="46"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="10" t="s">
         <v>27</v>
       </c>
@@ -4875,7 +4884,7 @@
       <c r="E75" s="2">
         <v>0.5</v>
       </c>
-      <c r="F75" s="45"/>
+      <c r="F75" s="46"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
       <c r="I75" s="11"/>
@@ -4898,8 +4907,8 @@
       <c r="Z75" s="11"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A76" s="45"/>
-      <c r="B76" s="46"/>
+      <c r="A76" s="46"/>
+      <c r="B76" s="47"/>
       <c r="C76" s="10" t="s">
         <v>34</v>
       </c>
@@ -4909,7 +4918,7 @@
       <c r="E76" s="2">
         <v>0.5</v>
       </c>
-      <c r="F76" s="45"/>
+      <c r="F76" s="46"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
@@ -4932,8 +4941,8 @@
       <c r="Z76" s="11"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A77" s="45"/>
-      <c r="B77" s="46"/>
+      <c r="A77" s="46"/>
+      <c r="B77" s="47"/>
       <c r="C77" s="10" t="s">
         <v>29</v>
       </c>
@@ -4943,7 +4952,7 @@
       <c r="E77" s="2">
         <v>0.5</v>
       </c>
-      <c r="F77" s="45"/>
+      <c r="F77" s="46"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
@@ -4966,8 +4975,8 @@
       <c r="Z77" s="11"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
-      <c r="B78" s="46">
+      <c r="A78" s="46"/>
+      <c r="B78" s="47">
         <v>42585</v>
       </c>
       <c r="C78" s="10" t="s">
@@ -4979,7 +4988,7 @@
       <c r="E78" s="2">
         <v>3</v>
       </c>
-      <c r="F78" s="45"/>
+      <c r="F78" s="46"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
       <c r="I78" s="11"/>
@@ -5002,8 +5011,8 @@
       <c r="Z78" s="11"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
-      <c r="B79" s="46"/>
+      <c r="A79" s="46"/>
+      <c r="B79" s="47"/>
       <c r="C79" s="10" t="s">
         <v>27</v>
       </c>
@@ -5013,7 +5022,7 @@
       <c r="E79" s="2">
         <v>0.5</v>
       </c>
-      <c r="F79" s="45"/>
+      <c r="F79" s="46"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -5036,8 +5045,8 @@
       <c r="Z79" s="11"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="45"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="46"/>
+      <c r="B80" s="47"/>
       <c r="C80" s="10" t="s">
         <v>34</v>
       </c>
@@ -5047,7 +5056,7 @@
       <c r="E80" s="2">
         <v>0.5</v>
       </c>
-      <c r="F80" s="45"/>
+      <c r="F80" s="46"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
       <c r="I80" s="11"/>
@@ -5070,8 +5079,8 @@
       <c r="Z80" s="11"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A81" s="45"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="46"/>
+      <c r="B81" s="47"/>
       <c r="C81" s="10" t="s">
         <v>29</v>
       </c>
@@ -5081,7 +5090,7 @@
       <c r="E81" s="2">
         <v>0.5</v>
       </c>
-      <c r="F81" s="45"/>
+      <c r="F81" s="46"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
       <c r="I81" s="11"/>
@@ -5104,14 +5113,14 @@
       <c r="Z81" s="11"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A82" s="45"/>
+      <c r="A82" s="46"/>
       <c r="B82" s="5">
         <v>42586</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="45"/>
+      <c r="F82" s="46"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -5134,14 +5143,14 @@
       <c r="Z82" s="11"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="45"/>
+      <c r="A83" s="46"/>
       <c r="B83" s="5">
         <v>42587</v>
       </c>
       <c r="C83" s="10"/>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
-      <c r="F83" s="45"/>
+      <c r="F83" s="46"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
       <c r="I83" s="11"/>
@@ -5164,8 +5173,8 @@
       <c r="Z83" s="11"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A84" s="45"/>
-      <c r="B84" s="46">
+      <c r="A84" s="46"/>
+      <c r="B84" s="47">
         <v>42588</v>
       </c>
       <c r="C84" s="10" t="s">
@@ -5177,7 +5186,7 @@
       <c r="E84" s="10">
         <v>2</v>
       </c>
-      <c r="F84" s="45"/>
+      <c r="F84" s="46"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
@@ -5200,8 +5209,8 @@
       <c r="Z84" s="11"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A85" s="45"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="46"/>
+      <c r="B85" s="47"/>
       <c r="C85" s="10" t="s">
         <v>27</v>
       </c>
@@ -5211,7 +5220,7 @@
       <c r="E85" s="10">
         <v>0.5</v>
       </c>
-      <c r="F85" s="45"/>
+      <c r="F85" s="46"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
@@ -5234,8 +5243,8 @@
       <c r="Z85" s="11"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A86" s="45"/>
-      <c r="B86" s="46"/>
+      <c r="A86" s="46"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="10" t="s">
         <v>29</v>
       </c>
@@ -5245,7 +5254,7 @@
       <c r="E86" s="10">
         <v>0.5</v>
       </c>
-      <c r="F86" s="45"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
       <c r="I86" s="11"/>
@@ -5268,8 +5277,8 @@
       <c r="Z86" s="11"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" s="45"/>
-      <c r="B87" s="46">
+      <c r="A87" s="46"/>
+      <c r="B87" s="47">
         <v>42589</v>
       </c>
       <c r="C87" s="10" t="s">
@@ -5281,7 +5290,7 @@
       <c r="E87" s="10">
         <v>1</v>
       </c>
-      <c r="F87" s="45"/>
+      <c r="F87" s="46"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
@@ -5304,8 +5313,8 @@
       <c r="Z87" s="11"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" s="45"/>
-      <c r="B88" s="46"/>
+      <c r="A88" s="46"/>
+      <c r="B88" s="47"/>
       <c r="C88" s="10" t="s">
         <v>42</v>
       </c>
@@ -5315,7 +5324,7 @@
       <c r="E88" s="10">
         <v>1</v>
       </c>
-      <c r="F88" s="45"/>
+      <c r="F88" s="46"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
       <c r="I88" s="11"/>
@@ -5338,8 +5347,8 @@
       <c r="Z88" s="11"/>
     </row>
     <row r="89" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="45"/>
-      <c r="B89" s="46"/>
+      <c r="A89" s="46"/>
+      <c r="B89" s="47"/>
       <c r="C89" s="10" t="s">
         <v>81</v>
       </c>
@@ -5349,7 +5358,7 @@
       <c r="E89" s="10">
         <v>1</v>
       </c>
-      <c r="F89" s="45"/>
+      <c r="F89" s="46"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
       <c r="I89" s="11"/>
@@ -5372,8 +5381,8 @@
       <c r="Z89" s="11"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A90" s="45"/>
-      <c r="B90" s="46"/>
+      <c r="A90" s="46"/>
+      <c r="B90" s="47"/>
       <c r="C90" s="10" t="s">
         <v>27</v>
       </c>
@@ -5383,7 +5392,7 @@
       <c r="E90" s="10">
         <v>0.5</v>
       </c>
-      <c r="F90" s="45"/>
+      <c r="F90" s="46"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -5406,8 +5415,8 @@
       <c r="Z90" s="11"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A91" s="45"/>
-      <c r="B91" s="46"/>
+      <c r="A91" s="46"/>
+      <c r="B91" s="47"/>
       <c r="C91" s="10" t="s">
         <v>34</v>
       </c>
@@ -5417,7 +5426,7 @@
       <c r="E91" s="10">
         <v>0.5</v>
       </c>
-      <c r="F91" s="45"/>
+      <c r="F91" s="46"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
@@ -5440,8 +5449,8 @@
       <c r="Z91" s="11"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A92" s="45"/>
-      <c r="B92" s="46"/>
+      <c r="A92" s="46"/>
+      <c r="B92" s="47"/>
       <c r="C92" s="10" t="s">
         <v>29</v>
       </c>
@@ -5451,7 +5460,7 @@
       <c r="E92" s="2">
         <v>0.5</v>
       </c>
-      <c r="F92" s="45"/>
+      <c r="F92" s="46"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
@@ -5474,10 +5483,10 @@
       <c r="Z92" s="11"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A93" s="45">
+      <c r="A93" s="46">
         <v>5</v>
       </c>
-      <c r="B93" s="46">
+      <c r="B93" s="47">
         <v>42590</v>
       </c>
       <c r="C93" s="10" t="s">
@@ -5489,7 +5498,7 @@
       <c r="E93" s="2">
         <v>2</v>
       </c>
-      <c r="F93" s="45">
+      <c r="F93" s="46">
         <f>SUM(E93:E115)</f>
         <v>25</v>
       </c>
@@ -5515,8 +5524,8 @@
       <c r="Z93" s="11"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
-      <c r="B94" s="46"/>
+      <c r="A94" s="46"/>
+      <c r="B94" s="47"/>
       <c r="C94" s="10" t="s">
         <v>85</v>
       </c>
@@ -5526,7 +5535,7 @@
       <c r="E94" s="2">
         <v>1</v>
       </c>
-      <c r="F94" s="45"/>
+      <c r="F94" s="46"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
       <c r="I94" s="11"/>
@@ -5549,8 +5558,8 @@
       <c r="Z94" s="11"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A95" s="45"/>
-      <c r="B95" s="46"/>
+      <c r="A95" s="46"/>
+      <c r="B95" s="47"/>
       <c r="C95" s="10" t="s">
         <v>27</v>
       </c>
@@ -5560,7 +5569,7 @@
       <c r="E95" s="2">
         <v>0.5</v>
       </c>
-      <c r="F95" s="45"/>
+      <c r="F95" s="46"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -5583,8 +5592,8 @@
       <c r="Z95" s="11"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
-      <c r="B96" s="46"/>
+      <c r="A96" s="46"/>
+      <c r="B96" s="47"/>
       <c r="C96" s="10" t="s">
         <v>29</v>
       </c>
@@ -5594,7 +5603,7 @@
       <c r="E96" s="2">
         <v>0.5</v>
       </c>
-      <c r="F96" s="45"/>
+      <c r="F96" s="46"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
       <c r="I96" s="11"/>
@@ -5617,8 +5626,8 @@
       <c r="Z96" s="11"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="45"/>
-      <c r="B97" s="46">
+      <c r="A97" s="46"/>
+      <c r="B97" s="47">
         <v>42591</v>
       </c>
       <c r="C97" s="10" t="s">
@@ -5630,7 +5639,7 @@
       <c r="E97" s="2">
         <v>5</v>
       </c>
-      <c r="F97" s="45"/>
+      <c r="F97" s="46"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -5653,8 +5662,8 @@
       <c r="Z97" s="11"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" s="45"/>
-      <c r="B98" s="46"/>
+      <c r="A98" s="46"/>
+      <c r="B98" s="47"/>
       <c r="C98" s="10" t="s">
         <v>27</v>
       </c>
@@ -5664,7 +5673,7 @@
       <c r="E98" s="2">
         <v>0.5</v>
       </c>
-      <c r="F98" s="45"/>
+      <c r="F98" s="46"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
@@ -5687,8 +5696,8 @@
       <c r="Z98" s="11"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A99" s="45"/>
-      <c r="B99" s="46"/>
+      <c r="A99" s="46"/>
+      <c r="B99" s="47"/>
       <c r="C99" s="10" t="s">
         <v>34</v>
       </c>
@@ -5698,7 +5707,7 @@
       <c r="E99" s="2">
         <v>0.5</v>
       </c>
-      <c r="F99" s="45"/>
+      <c r="F99" s="46"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
@@ -5721,8 +5730,8 @@
       <c r="Z99" s="11"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A100" s="45"/>
-      <c r="B100" s="46">
+      <c r="A100" s="46"/>
+      <c r="B100" s="47">
         <v>42592</v>
       </c>
       <c r="C100" s="10" t="s">
@@ -5734,7 +5743,7 @@
       <c r="E100" s="2">
         <v>1.5</v>
       </c>
-      <c r="F100" s="45"/>
+      <c r="F100" s="46"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
@@ -5757,8 +5766,8 @@
       <c r="Z100" s="11"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A101" s="45"/>
-      <c r="B101" s="46"/>
+      <c r="A101" s="46"/>
+      <c r="B101" s="47"/>
       <c r="C101" s="10" t="s">
         <v>91</v>
       </c>
@@ -5768,7 +5777,7 @@
       <c r="E101" s="2">
         <v>1</v>
       </c>
-      <c r="F101" s="45"/>
+      <c r="F101" s="46"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
       <c r="I101" s="11"/>
@@ -5791,8 +5800,8 @@
       <c r="Z101" s="11"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A102" s="45"/>
-      <c r="B102" s="46"/>
+      <c r="A102" s="46"/>
+      <c r="B102" s="47"/>
       <c r="C102" s="10" t="s">
         <v>56</v>
       </c>
@@ -5802,7 +5811,7 @@
       <c r="E102" s="2">
         <v>1</v>
       </c>
-      <c r="F102" s="45"/>
+      <c r="F102" s="46"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
       <c r="I102" s="11"/>
@@ -5825,8 +5834,8 @@
       <c r="Z102" s="11"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A103" s="45"/>
-      <c r="B103" s="46"/>
+      <c r="A103" s="46"/>
+      <c r="B103" s="47"/>
       <c r="C103" s="10" t="s">
         <v>27</v>
       </c>
@@ -5836,7 +5845,7 @@
       <c r="E103" s="2">
         <v>0.5</v>
       </c>
-      <c r="F103" s="45"/>
+      <c r="F103" s="46"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
@@ -5859,8 +5868,8 @@
       <c r="Z103" s="11"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A104" s="45"/>
-      <c r="B104" s="46"/>
+      <c r="A104" s="46"/>
+      <c r="B104" s="47"/>
       <c r="C104" s="10" t="s">
         <v>29</v>
       </c>
@@ -5870,7 +5879,7 @@
       <c r="E104" s="2">
         <v>0.5</v>
       </c>
-      <c r="F104" s="45"/>
+      <c r="F104" s="46"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
@@ -5893,7 +5902,7 @@
       <c r="Z104" s="11"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" s="45"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="5">
         <v>42593</v>
       </c>
@@ -5906,7 +5915,7 @@
       <c r="E105" s="2">
         <v>1</v>
       </c>
-      <c r="F105" s="45"/>
+      <c r="F105" s="46"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
@@ -5929,14 +5938,14 @@
       <c r="Z105" s="11"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A106" s="45"/>
+      <c r="A106" s="46"/>
       <c r="B106" s="5">
         <v>42594</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
       <c r="E106" s="10"/>
-      <c r="F106" s="45"/>
+      <c r="F106" s="46"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
@@ -5959,8 +5968,8 @@
       <c r="Z106" s="11"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A107" s="45"/>
-      <c r="B107" s="46">
+      <c r="A107" s="46"/>
+      <c r="B107" s="47">
         <v>42595</v>
       </c>
       <c r="C107" s="10" t="s">
@@ -5972,7 +5981,7 @@
       <c r="E107" s="10">
         <v>2.5</v>
       </c>
-      <c r="F107" s="45"/>
+      <c r="F107" s="46"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
       <c r="I107" s="11"/>
@@ -5995,8 +6004,8 @@
       <c r="Z107" s="11"/>
     </row>
     <row r="108" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A108" s="45"/>
-      <c r="B108" s="46"/>
+      <c r="A108" s="46"/>
+      <c r="B108" s="47"/>
       <c r="C108" s="10" t="s">
         <v>27</v>
       </c>
@@ -6006,7 +6015,7 @@
       <c r="E108" s="10">
         <v>0.5</v>
       </c>
-      <c r="F108" s="45"/>
+      <c r="F108" s="46"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
@@ -6029,8 +6038,8 @@
       <c r="Z108" s="11"/>
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A109" s="45"/>
-      <c r="B109" s="46"/>
+      <c r="A109" s="46"/>
+      <c r="B109" s="47"/>
       <c r="C109" s="10" t="s">
         <v>29</v>
       </c>
@@ -6040,7 +6049,7 @@
       <c r="E109" s="10">
         <v>0.5</v>
       </c>
-      <c r="F109" s="45"/>
+      <c r="F109" s="46"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
@@ -6063,8 +6072,8 @@
       <c r="Z109" s="11"/>
     </row>
     <row r="110" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A110" s="45"/>
-      <c r="B110" s="46">
+      <c r="A110" s="46"/>
+      <c r="B110" s="47">
         <v>42596</v>
       </c>
       <c r="C110" s="10" t="s">
@@ -6076,7 +6085,7 @@
       <c r="E110" s="10">
         <v>1</v>
       </c>
-      <c r="F110" s="45"/>
+      <c r="F110" s="46"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
@@ -6099,8 +6108,8 @@
       <c r="Z110" s="11"/>
     </row>
     <row r="111" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A111" s="45"/>
-      <c r="B111" s="46"/>
+      <c r="A111" s="46"/>
+      <c r="B111" s="47"/>
       <c r="C111" s="10" t="s">
         <v>42</v>
       </c>
@@ -6110,7 +6119,7 @@
       <c r="E111" s="10">
         <v>1</v>
       </c>
-      <c r="F111" s="45"/>
+      <c r="F111" s="46"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
@@ -6133,8 +6142,8 @@
       <c r="Z111" s="11"/>
     </row>
     <row r="112" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A112" s="45"/>
-      <c r="B112" s="46"/>
+      <c r="A112" s="46"/>
+      <c r="B112" s="47"/>
       <c r="C112" s="10" t="s">
         <v>96</v>
       </c>
@@ -6144,7 +6153,7 @@
       <c r="E112" s="10">
         <v>2.5</v>
       </c>
-      <c r="F112" s="45"/>
+      <c r="F112" s="46"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
@@ -6167,8 +6176,8 @@
       <c r="Z112" s="11"/>
     </row>
     <row r="113" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A113" s="45"/>
-      <c r="B113" s="46"/>
+      <c r="A113" s="46"/>
+      <c r="B113" s="47"/>
       <c r="C113" s="10" t="s">
         <v>27</v>
       </c>
@@ -6178,7 +6187,7 @@
       <c r="E113" s="10">
         <v>0.5</v>
       </c>
-      <c r="F113" s="45"/>
+      <c r="F113" s="46"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
@@ -6201,8 +6210,8 @@
       <c r="Z113" s="11"/>
     </row>
     <row r="114" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A114" s="45"/>
-      <c r="B114" s="46"/>
+      <c r="A114" s="46"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="10" t="s">
         <v>34</v>
       </c>
@@ -6212,7 +6221,7 @@
       <c r="E114" s="10">
         <v>0.5</v>
       </c>
-      <c r="F114" s="45"/>
+      <c r="F114" s="46"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
@@ -6235,8 +6244,8 @@
       <c r="Z114" s="11"/>
     </row>
     <row r="115" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A115" s="45"/>
-      <c r="B115" s="46"/>
+      <c r="A115" s="46"/>
+      <c r="B115" s="47"/>
       <c r="C115" s="10" t="s">
         <v>29</v>
       </c>
@@ -6246,7 +6255,7 @@
       <c r="E115" s="2">
         <v>0.5</v>
       </c>
-      <c r="F115" s="45"/>
+      <c r="F115" s="46"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
@@ -6269,10 +6278,10 @@
       <c r="Z115" s="11"/>
     </row>
     <row r="116" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A116" s="45">
+      <c r="A116" s="46">
         <v>6</v>
       </c>
-      <c r="B116" s="46">
+      <c r="B116" s="47">
         <v>42597</v>
       </c>
       <c r="C116" s="10" t="s">
@@ -6284,7 +6293,7 @@
       <c r="E116" s="2">
         <v>0.5</v>
       </c>
-      <c r="F116" s="45">
+      <c r="F116" s="46">
         <f>SUM(E116:E152)</f>
         <v>42.5</v>
       </c>
@@ -6310,8 +6319,8 @@
       <c r="Z116" s="11"/>
     </row>
     <row r="117" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A117" s="45"/>
-      <c r="B117" s="46"/>
+      <c r="A117" s="46"/>
+      <c r="B117" s="47"/>
       <c r="C117" s="10" t="s">
         <v>98</v>
       </c>
@@ -6321,7 +6330,7 @@
       <c r="E117" s="2">
         <v>6</v>
       </c>
-      <c r="F117" s="45"/>
+      <c r="F117" s="46"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
       <c r="I117" s="11"/>
@@ -6344,8 +6353,8 @@
       <c r="Z117" s="11"/>
     </row>
     <row r="118" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A118" s="45"/>
-      <c r="B118" s="46"/>
+      <c r="A118" s="46"/>
+      <c r="B118" s="47"/>
       <c r="C118" s="10" t="s">
         <v>27</v>
       </c>
@@ -6355,7 +6364,7 @@
       <c r="E118" s="2">
         <v>0.5</v>
       </c>
-      <c r="F118" s="45"/>
+      <c r="F118" s="46"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
@@ -6378,8 +6387,8 @@
       <c r="Z118" s="11"/>
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A119" s="45"/>
-      <c r="B119" s="46"/>
+      <c r="A119" s="46"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="10" t="s">
         <v>34</v>
       </c>
@@ -6389,7 +6398,7 @@
       <c r="E119" s="2">
         <v>0.5</v>
       </c>
-      <c r="F119" s="45"/>
+      <c r="F119" s="46"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
       <c r="I119" s="11"/>
@@ -6412,8 +6421,8 @@
       <c r="Z119" s="11"/>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A120" s="45"/>
-      <c r="B120" s="46"/>
+      <c r="A120" s="46"/>
+      <c r="B120" s="47"/>
       <c r="C120" s="10" t="s">
         <v>29</v>
       </c>
@@ -6423,7 +6432,7 @@
       <c r="E120" s="2">
         <v>0.5</v>
       </c>
-      <c r="F120" s="45"/>
+      <c r="F120" s="46"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
@@ -6446,8 +6455,8 @@
       <c r="Z120" s="11"/>
     </row>
     <row r="121" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A121" s="45"/>
-      <c r="B121" s="46">
+      <c r="A121" s="46"/>
+      <c r="B121" s="47">
         <v>42598</v>
       </c>
       <c r="C121" s="10" t="s">
@@ -6459,7 +6468,7 @@
       <c r="E121" s="2">
         <v>0.5</v>
       </c>
-      <c r="F121" s="45"/>
+      <c r="F121" s="46"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
@@ -6482,8 +6491,8 @@
       <c r="Z121" s="11"/>
     </row>
     <row r="122" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A122" s="45"/>
-      <c r="B122" s="46"/>
+      <c r="A122" s="46"/>
+      <c r="B122" s="47"/>
       <c r="C122" s="10" t="s">
         <v>94</v>
       </c>
@@ -6493,7 +6502,7 @@
       <c r="E122" s="2">
         <v>1</v>
       </c>
-      <c r="F122" s="45"/>
+      <c r="F122" s="46"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
@@ -6516,8 +6525,8 @@
       <c r="Z122" s="11"/>
     </row>
     <row r="123" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A123" s="45"/>
-      <c r="B123" s="46"/>
+      <c r="A123" s="46"/>
+      <c r="B123" s="47"/>
       <c r="C123" s="10" t="s">
         <v>89</v>
       </c>
@@ -6527,7 +6536,7 @@
       <c r="E123" s="2">
         <v>4</v>
       </c>
-      <c r="F123" s="45"/>
+      <c r="F123" s="46"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
       <c r="I123" s="11"/>
@@ -6550,8 +6559,8 @@
       <c r="Z123" s="11"/>
     </row>
     <row r="124" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A124" s="45"/>
-      <c r="B124" s="46"/>
+      <c r="A124" s="46"/>
+      <c r="B124" s="47"/>
       <c r="C124" s="10" t="s">
         <v>104</v>
       </c>
@@ -6561,7 +6570,7 @@
       <c r="E124" s="2">
         <v>1</v>
       </c>
-      <c r="F124" s="45"/>
+      <c r="F124" s="46"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
       <c r="I124" s="11"/>
@@ -6584,8 +6593,8 @@
       <c r="Z124" s="11"/>
     </row>
     <row r="125" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A125" s="45"/>
-      <c r="B125" s="46"/>
+      <c r="A125" s="46"/>
+      <c r="B125" s="47"/>
       <c r="C125" s="10" t="s">
         <v>27</v>
       </c>
@@ -6595,7 +6604,7 @@
       <c r="E125" s="2">
         <v>0.5</v>
       </c>
-      <c r="F125" s="45"/>
+      <c r="F125" s="46"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
       <c r="I125" s="11"/>
@@ -6618,8 +6627,8 @@
       <c r="Z125" s="11"/>
     </row>
     <row r="126" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A126" s="45"/>
-      <c r="B126" s="46"/>
+      <c r="A126" s="46"/>
+      <c r="B126" s="47"/>
       <c r="C126" s="10" t="s">
         <v>34</v>
       </c>
@@ -6629,7 +6638,7 @@
       <c r="E126" s="2">
         <v>0.5</v>
       </c>
-      <c r="F126" s="45"/>
+      <c r="F126" s="46"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
       <c r="I126" s="11"/>
@@ -6652,8 +6661,8 @@
       <c r="Z126" s="11"/>
     </row>
     <row r="127" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A127" s="45"/>
-      <c r="B127" s="46"/>
+      <c r="A127" s="46"/>
+      <c r="B127" s="47"/>
       <c r="C127" s="10" t="s">
         <v>29</v>
       </c>
@@ -6663,7 +6672,7 @@
       <c r="E127" s="2">
         <v>0.5</v>
       </c>
-      <c r="F127" s="45"/>
+      <c r="F127" s="46"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="11"/>
@@ -6686,8 +6695,8 @@
       <c r="Z127" s="11"/>
     </row>
     <row r="128" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A128" s="45"/>
-      <c r="B128" s="46">
+      <c r="A128" s="46"/>
+      <c r="B128" s="47">
         <v>42599</v>
       </c>
       <c r="C128" s="10" t="s">
@@ -6699,7 +6708,7 @@
       <c r="E128" s="2">
         <v>3</v>
       </c>
-      <c r="F128" s="45"/>
+      <c r="F128" s="46"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
@@ -6722,8 +6731,8 @@
       <c r="Z128" s="11"/>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A129" s="45"/>
-      <c r="B129" s="46"/>
+      <c r="A129" s="46"/>
+      <c r="B129" s="47"/>
       <c r="C129" s="10" t="s">
         <v>108</v>
       </c>
@@ -6733,7 +6742,7 @@
       <c r="E129" s="2">
         <v>1</v>
       </c>
-      <c r="F129" s="45"/>
+      <c r="F129" s="46"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
@@ -6756,8 +6765,8 @@
       <c r="Z129" s="11"/>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A130" s="45"/>
-      <c r="B130" s="46"/>
+      <c r="A130" s="46"/>
+      <c r="B130" s="47"/>
       <c r="C130" s="10" t="s">
         <v>109</v>
       </c>
@@ -6767,7 +6776,7 @@
       <c r="E130" s="2">
         <v>2</v>
       </c>
-      <c r="F130" s="45"/>
+      <c r="F130" s="46"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
@@ -6790,8 +6799,8 @@
       <c r="Z130" s="11"/>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A131" s="45"/>
-      <c r="B131" s="46"/>
+      <c r="A131" s="46"/>
+      <c r="B131" s="47"/>
       <c r="C131" s="10" t="s">
         <v>34</v>
       </c>
@@ -6801,7 +6810,7 @@
       <c r="E131" s="2">
         <v>0.5</v>
       </c>
-      <c r="F131" s="45"/>
+      <c r="F131" s="46"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
@@ -6824,8 +6833,8 @@
       <c r="Z131" s="11"/>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A132" s="45"/>
-      <c r="B132" s="46"/>
+      <c r="A132" s="46"/>
+      <c r="B132" s="47"/>
       <c r="C132" s="10" t="s">
         <v>29</v>
       </c>
@@ -6835,7 +6844,7 @@
       <c r="E132" s="2">
         <v>0.5</v>
       </c>
-      <c r="F132" s="45"/>
+      <c r="F132" s="46"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
@@ -6858,8 +6867,8 @@
       <c r="Z132" s="11"/>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A133" s="45"/>
-      <c r="B133" s="46"/>
+      <c r="A133" s="46"/>
+      <c r="B133" s="47"/>
       <c r="C133" s="10" t="s">
         <v>27</v>
       </c>
@@ -6869,7 +6878,7 @@
       <c r="E133" s="2">
         <v>0.5</v>
       </c>
-      <c r="F133" s="45"/>
+      <c r="F133" s="46"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
@@ -6892,8 +6901,8 @@
       <c r="Z133" s="11"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A134" s="45"/>
-      <c r="B134" s="46">
+      <c r="A134" s="46"/>
+      <c r="B134" s="47">
         <v>42600</v>
       </c>
       <c r="C134" s="10" t="s">
@@ -6905,7 +6914,7 @@
       <c r="E134" s="2">
         <v>2</v>
       </c>
-      <c r="F134" s="45"/>
+      <c r="F134" s="46"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
@@ -6928,8 +6937,8 @@
       <c r="Z134" s="11"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A135" s="45"/>
-      <c r="B135" s="46"/>
+      <c r="A135" s="46"/>
+      <c r="B135" s="47"/>
       <c r="C135" s="10" t="s">
         <v>27</v>
       </c>
@@ -6939,7 +6948,7 @@
       <c r="E135" s="2">
         <v>0.5</v>
       </c>
-      <c r="F135" s="45"/>
+      <c r="F135" s="46"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="11"/>
@@ -6962,8 +6971,8 @@
       <c r="Z135" s="11"/>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A136" s="45"/>
-      <c r="B136" s="46"/>
+      <c r="A136" s="46"/>
+      <c r="B136" s="47"/>
       <c r="C136" s="10" t="s">
         <v>34</v>
       </c>
@@ -6973,7 +6982,7 @@
       <c r="E136" s="2">
         <v>0.5</v>
       </c>
-      <c r="F136" s="45"/>
+      <c r="F136" s="46"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
       <c r="I136" s="11"/>
@@ -6996,8 +7005,8 @@
       <c r="Z136" s="11"/>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A137" s="45"/>
-      <c r="B137" s="46"/>
+      <c r="A137" s="46"/>
+      <c r="B137" s="47"/>
       <c r="C137" s="10" t="s">
         <v>29</v>
       </c>
@@ -7007,7 +7016,7 @@
       <c r="E137" s="2">
         <v>0.5</v>
       </c>
-      <c r="F137" s="45"/>
+      <c r="F137" s="46"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
       <c r="I137" s="11"/>
@@ -7030,8 +7039,8 @@
       <c r="Z137" s="11"/>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A138" s="45"/>
-      <c r="B138" s="46"/>
+      <c r="A138" s="46"/>
+      <c r="B138" s="47"/>
       <c r="C138" s="10" t="s">
         <v>113</v>
       </c>
@@ -7041,7 +7050,7 @@
       <c r="E138" s="2">
         <v>1</v>
       </c>
-      <c r="F138" s="45"/>
+      <c r="F138" s="46"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="11"/>
@@ -7064,8 +7073,8 @@
       <c r="Z138" s="11"/>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A139" s="45"/>
-      <c r="B139" s="46">
+      <c r="A139" s="46"/>
+      <c r="B139" s="47">
         <v>42601</v>
       </c>
       <c r="C139" s="10" t="s">
@@ -7077,7 +7086,7 @@
       <c r="E139" s="2">
         <v>3</v>
       </c>
-      <c r="F139" s="45"/>
+      <c r="F139" s="46"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
@@ -7100,8 +7109,8 @@
       <c r="Z139" s="11"/>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A140" s="45"/>
-      <c r="B140" s="46"/>
+      <c r="A140" s="46"/>
+      <c r="B140" s="47"/>
       <c r="C140" s="10" t="s">
         <v>27</v>
       </c>
@@ -7111,7 +7120,7 @@
       <c r="E140" s="2">
         <v>0.5</v>
       </c>
-      <c r="F140" s="45"/>
+      <c r="F140" s="46"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
       <c r="I140" s="11"/>
@@ -7134,8 +7143,8 @@
       <c r="Z140" s="11"/>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A141" s="45"/>
-      <c r="B141" s="46"/>
+      <c r="A141" s="46"/>
+      <c r="B141" s="47"/>
       <c r="C141" s="10" t="s">
         <v>34</v>
       </c>
@@ -7145,7 +7154,7 @@
       <c r="E141" s="2">
         <v>0.5</v>
       </c>
-      <c r="F141" s="45"/>
+      <c r="F141" s="46"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="11"/>
@@ -7168,8 +7177,8 @@
       <c r="Z141" s="11"/>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A142" s="45"/>
-      <c r="B142" s="46"/>
+      <c r="A142" s="46"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="10" t="s">
         <v>29</v>
       </c>
@@ -7179,7 +7188,7 @@
       <c r="E142" s="2">
         <v>0.5</v>
       </c>
-      <c r="F142" s="45"/>
+      <c r="F142" s="46"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="11"/>
@@ -7202,8 +7211,8 @@
       <c r="Z142" s="11"/>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A143" s="45"/>
-      <c r="B143" s="46">
+      <c r="A143" s="46"/>
+      <c r="B143" s="47">
         <v>42602</v>
       </c>
       <c r="C143" s="10" t="s">
@@ -7215,7 +7224,7 @@
       <c r="E143" s="2">
         <v>3</v>
       </c>
-      <c r="F143" s="45"/>
+      <c r="F143" s="46"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
@@ -7238,8 +7247,8 @@
       <c r="Z143" s="11"/>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A144" s="45"/>
-      <c r="B144" s="46"/>
+      <c r="A144" s="46"/>
+      <c r="B144" s="47"/>
       <c r="C144" s="10" t="s">
         <v>34</v>
       </c>
@@ -7249,7 +7258,7 @@
       <c r="E144" s="2">
         <v>0.5</v>
       </c>
-      <c r="F144" s="45"/>
+      <c r="F144" s="46"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11"/>
@@ -7272,8 +7281,8 @@
       <c r="Z144" s="11"/>
     </row>
     <row r="145" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A145" s="45"/>
-      <c r="B145" s="46"/>
+      <c r="A145" s="46"/>
+      <c r="B145" s="47"/>
       <c r="C145" s="10" t="s">
         <v>29</v>
       </c>
@@ -7283,7 +7292,7 @@
       <c r="E145" s="2">
         <v>0.5</v>
       </c>
-      <c r="F145" s="45"/>
+      <c r="F145" s="46"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
       <c r="I145" s="11"/>
@@ -7306,8 +7315,8 @@
       <c r="Z145" s="11"/>
     </row>
     <row r="146" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A146" s="45"/>
-      <c r="B146" s="46"/>
+      <c r="A146" s="46"/>
+      <c r="B146" s="47"/>
       <c r="C146" s="10" t="s">
         <v>27</v>
       </c>
@@ -7317,7 +7326,7 @@
       <c r="E146" s="2">
         <v>0.5</v>
       </c>
-      <c r="F146" s="45"/>
+      <c r="F146" s="46"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
       <c r="I146" s="11"/>
@@ -7340,8 +7349,8 @@
       <c r="Z146" s="11"/>
     </row>
     <row r="147" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A147" s="45"/>
-      <c r="B147" s="46">
+      <c r="A147" s="46"/>
+      <c r="B147" s="47">
         <v>42603</v>
       </c>
       <c r="C147" s="10" t="s">
@@ -7353,7 +7362,7 @@
       <c r="E147" s="2">
         <v>1</v>
       </c>
-      <c r="F147" s="45"/>
+      <c r="F147" s="46"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
       <c r="I147" s="11"/>
@@ -7376,8 +7385,8 @@
       <c r="Z147" s="11"/>
     </row>
     <row r="148" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A148" s="45"/>
-      <c r="B148" s="46"/>
+      <c r="A148" s="46"/>
+      <c r="B148" s="47"/>
       <c r="C148" s="10" t="s">
         <v>117</v>
       </c>
@@ -7387,7 +7396,7 @@
       <c r="E148" s="2">
         <v>2</v>
       </c>
-      <c r="F148" s="45"/>
+      <c r="F148" s="46"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
       <c r="I148" s="11"/>
@@ -7410,8 +7419,8 @@
       <c r="Z148" s="11"/>
     </row>
     <row r="149" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="45"/>
-      <c r="B149" s="46"/>
+      <c r="A149" s="46"/>
+      <c r="B149" s="47"/>
       <c r="C149" s="10" t="s">
         <v>118</v>
       </c>
@@ -7421,7 +7430,7 @@
       <c r="E149" s="2">
         <v>1</v>
       </c>
-      <c r="F149" s="45"/>
+      <c r="F149" s="46"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
@@ -7444,8 +7453,8 @@
       <c r="Z149" s="11"/>
     </row>
     <row r="150" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="45"/>
-      <c r="B150" s="46"/>
+      <c r="A150" s="46"/>
+      <c r="B150" s="47"/>
       <c r="C150" s="10" t="s">
         <v>27</v>
       </c>
@@ -7455,7 +7464,7 @@
       <c r="E150" s="2">
         <v>0.5</v>
       </c>
-      <c r="F150" s="45"/>
+      <c r="F150" s="46"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
@@ -7478,8 +7487,8 @@
       <c r="Z150" s="11"/>
     </row>
     <row r="151" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="45"/>
-      <c r="B151" s="46"/>
+      <c r="A151" s="46"/>
+      <c r="B151" s="47"/>
       <c r="C151" s="10" t="s">
         <v>34</v>
       </c>
@@ -7489,7 +7498,7 @@
       <c r="E151" s="2">
         <v>0.5</v>
       </c>
-      <c r="F151" s="45"/>
+      <c r="F151" s="46"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
@@ -7512,8 +7521,8 @@
       <c r="Z151" s="11"/>
     </row>
     <row r="152" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="45"/>
-      <c r="B152" s="46"/>
+      <c r="A152" s="46"/>
+      <c r="B152" s="47"/>
       <c r="C152" s="10" t="s">
         <v>29</v>
       </c>
@@ -7523,7 +7532,7 @@
       <c r="E152" s="2">
         <v>0.5</v>
       </c>
-      <c r="F152" s="45"/>
+      <c r="F152" s="46"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
@@ -7546,7 +7555,7 @@
       <c r="Z152" s="11"/>
     </row>
     <row r="153" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A153" s="45">
+      <c r="A153" s="46">
         <v>7</v>
       </c>
       <c r="B153" s="5">
@@ -7555,7 +7564,7 @@
       <c r="C153" s="10"/>
       <c r="D153" s="14"/>
       <c r="E153" s="2"/>
-      <c r="F153" s="45">
+      <c r="F153" s="46">
         <f>SUM(E153:E158)</f>
         <v>0</v>
       </c>
@@ -7581,14 +7590,14 @@
       <c r="Z153" s="11"/>
     </row>
     <row r="154" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A154" s="45"/>
+      <c r="A154" s="46"/>
       <c r="B154" s="5">
         <v>42605</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="14"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="45"/>
+      <c r="F154" s="46"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
@@ -7611,14 +7620,14 @@
       <c r="Z154" s="11"/>
     </row>
     <row r="155" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A155" s="45"/>
+      <c r="A155" s="46"/>
       <c r="B155" s="5">
         <v>42606</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="14"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="45"/>
+      <c r="F155" s="46"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
@@ -7641,14 +7650,14 @@
       <c r="Z155" s="11"/>
     </row>
     <row r="156" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A156" s="45"/>
+      <c r="A156" s="46"/>
       <c r="B156" s="5">
         <v>42607</v>
       </c>
       <c r="C156" s="10"/>
       <c r="D156" s="14"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="45"/>
+      <c r="F156" s="46"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
@@ -7671,14 +7680,14 @@
       <c r="Z156" s="11"/>
     </row>
     <row r="157" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A157" s="45"/>
+      <c r="A157" s="46"/>
       <c r="B157" s="5">
         <v>42608</v>
       </c>
       <c r="C157" s="10"/>
       <c r="D157" s="14"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="45"/>
+      <c r="F157" s="46"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
@@ -7701,14 +7710,14 @@
       <c r="Z157" s="11"/>
     </row>
     <row r="158" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A158" s="45"/>
+      <c r="A158" s="46"/>
       <c r="B158" s="5">
         <v>42609</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="14"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="45"/>
+      <c r="F158" s="46"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
       <c r="I158" s="11"/>
@@ -7731,14 +7740,14 @@
       <c r="Z158" s="11"/>
     </row>
     <row r="159" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A159" s="45"/>
+      <c r="A159" s="46"/>
       <c r="B159" s="5">
         <v>42610</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="14"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="45"/>
+      <c r="F159" s="46"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
@@ -7761,7 +7770,7 @@
       <c r="Z159" s="11"/>
     </row>
     <row r="160" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A160" s="45">
+      <c r="A160" s="46">
         <v>8</v>
       </c>
       <c r="B160" s="5">
@@ -7770,7 +7779,7 @@
       <c r="C160" s="10"/>
       <c r="D160" s="14"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="45">
+      <c r="F160" s="46">
         <f>SUM(E159:E165)</f>
         <v>0</v>
       </c>
@@ -7796,14 +7805,14 @@
       <c r="Z160" s="11"/>
     </row>
     <row r="161" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A161" s="45"/>
+      <c r="A161" s="46"/>
       <c r="B161" s="5">
         <v>42612</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="14"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="45"/>
+      <c r="F161" s="46"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
@@ -7826,14 +7835,14 @@
       <c r="Z161" s="11"/>
     </row>
     <row r="162" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A162" s="45"/>
+      <c r="A162" s="46"/>
       <c r="B162" s="5">
         <v>42613</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="14"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="45"/>
+      <c r="F162" s="46"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
@@ -7856,14 +7865,14 @@
       <c r="Z162" s="11"/>
     </row>
     <row r="163" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A163" s="45"/>
+      <c r="A163" s="46"/>
       <c r="B163" s="5">
         <v>42614</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="14"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="45"/>
+      <c r="F163" s="46"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
       <c r="I163" s="11"/>
@@ -7886,14 +7895,14 @@
       <c r="Z163" s="11"/>
     </row>
     <row r="164" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A164" s="45"/>
+      <c r="A164" s="46"/>
       <c r="B164" s="5">
         <v>42615</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="14"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="45"/>
+      <c r="F164" s="46"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
@@ -7916,14 +7925,14 @@
       <c r="Z164" s="11"/>
     </row>
     <row r="165" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A165" s="45"/>
+      <c r="A165" s="46"/>
       <c r="B165" s="5">
         <v>42616</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="14"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="45"/>
+      <c r="F165" s="46"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
@@ -7946,14 +7955,14 @@
       <c r="Z165" s="11"/>
     </row>
     <row r="166" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A166" s="45"/>
+      <c r="A166" s="46"/>
       <c r="B166" s="5">
         <v>42617</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="14"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="45"/>
+      <c r="F166" s="46"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
       <c r="I166" s="11"/>
@@ -7976,7 +7985,7 @@
       <c r="Z166" s="11"/>
     </row>
     <row r="167" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A167" s="45">
+      <c r="A167" s="46">
         <v>9</v>
       </c>
       <c r="B167" s="5">
@@ -7985,7 +7994,7 @@
       <c r="C167" s="10"/>
       <c r="D167" s="14"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="45">
+      <c r="F167" s="46">
         <f>SUM(E166:E172)</f>
         <v>0</v>
       </c>
@@ -8011,14 +8020,14 @@
       <c r="Z167" s="11"/>
     </row>
     <row r="168" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A168" s="45"/>
+      <c r="A168" s="46"/>
       <c r="B168" s="5">
         <v>42619</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="14"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="45"/>
+      <c r="F168" s="46"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
       <c r="I168" s="11"/>
@@ -8041,14 +8050,14 @@
       <c r="Z168" s="11"/>
     </row>
     <row r="169" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A169" s="45"/>
+      <c r="A169" s="46"/>
       <c r="B169" s="5">
         <v>42620</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="14"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="45"/>
+      <c r="F169" s="46"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
       <c r="I169" s="11"/>
@@ -8071,14 +8080,14 @@
       <c r="Z169" s="11"/>
     </row>
     <row r="170" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A170" s="45"/>
+      <c r="A170" s="46"/>
       <c r="B170" s="5">
         <v>42621</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="14"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="45"/>
+      <c r="F170" s="46"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
@@ -8101,14 +8110,14 @@
       <c r="Z170" s="11"/>
     </row>
     <row r="171" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A171" s="45"/>
+      <c r="A171" s="46"/>
       <c r="B171" s="5">
         <v>42622</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="14"/>
       <c r="E171" s="2"/>
-      <c r="F171" s="45"/>
+      <c r="F171" s="46"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
       <c r="I171" s="11"/>
@@ -8131,14 +8140,14 @@
       <c r="Z171" s="11"/>
     </row>
     <row r="172" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A172" s="45"/>
+      <c r="A172" s="46"/>
       <c r="B172" s="5">
         <v>42623</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="14"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="45"/>
+      <c r="F172" s="46"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
@@ -8161,14 +8170,14 @@
       <c r="Z172" s="11"/>
     </row>
     <row r="173" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A173" s="45"/>
+      <c r="A173" s="46"/>
       <c r="B173" s="5">
         <v>42624</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="14"/>
       <c r="E173" s="2"/>
-      <c r="F173" s="45"/>
+      <c r="F173" s="46"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
@@ -8191,7 +8200,7 @@
       <c r="Z173" s="11"/>
     </row>
     <row r="174" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A174" s="45">
+      <c r="A174" s="46">
         <v>10</v>
       </c>
       <c r="B174" s="5">
@@ -8200,7 +8209,7 @@
       <c r="C174" s="10"/>
       <c r="D174" s="14"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="45">
+      <c r="F174" s="46">
         <f>SUM(E173:E179)</f>
         <v>0</v>
       </c>
@@ -8226,14 +8235,14 @@
       <c r="Z174" s="11"/>
     </row>
     <row r="175" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A175" s="45"/>
+      <c r="A175" s="46"/>
       <c r="B175" s="5">
         <v>42626</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="14"/>
       <c r="E175" s="2"/>
-      <c r="F175" s="45"/>
+      <c r="F175" s="46"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
@@ -8256,14 +8265,14 @@
       <c r="Z175" s="11"/>
     </row>
     <row r="176" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A176" s="45"/>
+      <c r="A176" s="46"/>
       <c r="B176" s="5">
         <v>42627</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="14"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="45"/>
+      <c r="F176" s="46"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
@@ -8286,14 +8295,14 @@
       <c r="Z176" s="11"/>
     </row>
     <row r="177" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A177" s="45"/>
+      <c r="A177" s="46"/>
       <c r="B177" s="5">
         <v>42628</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="14"/>
       <c r="E177" s="2"/>
-      <c r="F177" s="45"/>
+      <c r="F177" s="46"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
@@ -8316,37 +8325,37 @@
       <c r="Z177" s="11"/>
     </row>
     <row r="178" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A178" s="45"/>
+      <c r="A178" s="46"/>
       <c r="B178" s="5">
         <v>42629</v>
       </c>
       <c r="C178" s="10"/>
       <c r="D178" s="14"/>
       <c r="E178" s="2"/>
-      <c r="F178" s="45"/>
+      <c r="F178" s="46"/>
     </row>
     <row r="179" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A179" s="45"/>
+      <c r="A179" s="46"/>
       <c r="B179" s="5">
         <v>42630</v>
       </c>
       <c r="C179" s="10"/>
       <c r="D179" s="14"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="45"/>
+      <c r="F179" s="46"/>
     </row>
     <row r="180" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A180" s="45"/>
+      <c r="A180" s="46"/>
       <c r="B180" s="5">
         <v>42631</v>
       </c>
       <c r="C180" s="10"/>
       <c r="D180" s="14"/>
       <c r="E180" s="2"/>
-      <c r="F180" s="45"/>
+      <c r="F180" s="46"/>
     </row>
     <row r="181" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A181" s="45">
+      <c r="A181" s="46">
         <v>11</v>
       </c>
       <c r="B181" s="5">
@@ -8355,73 +8364,73 @@
       <c r="C181" s="10"/>
       <c r="D181" s="14"/>
       <c r="E181" s="2"/>
-      <c r="F181" s="45">
+      <c r="F181" s="46">
         <f>SUM(E180:E186)</f>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A182" s="45"/>
+      <c r="A182" s="46"/>
       <c r="B182" s="5">
         <v>42633</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="14"/>
       <c r="E182" s="2"/>
-      <c r="F182" s="45"/>
+      <c r="F182" s="46"/>
     </row>
     <row r="183" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A183" s="45"/>
+      <c r="A183" s="46"/>
       <c r="B183" s="5">
         <v>42634</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="14"/>
       <c r="E183" s="2"/>
-      <c r="F183" s="45"/>
+      <c r="F183" s="46"/>
     </row>
     <row r="184" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A184" s="45"/>
+      <c r="A184" s="46"/>
       <c r="B184" s="5">
         <v>42635</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="14"/>
       <c r="E184" s="2"/>
-      <c r="F184" s="45"/>
+      <c r="F184" s="46"/>
     </row>
     <row r="185" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A185" s="45"/>
+      <c r="A185" s="46"/>
       <c r="B185" s="5">
         <v>42636</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="14"/>
       <c r="E185" s="2"/>
-      <c r="F185" s="45"/>
+      <c r="F185" s="46"/>
     </row>
     <row r="186" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A186" s="45"/>
+      <c r="A186" s="46"/>
       <c r="B186" s="5">
         <v>42637</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="14"/>
       <c r="E186" s="2"/>
-      <c r="F186" s="45"/>
+      <c r="F186" s="46"/>
     </row>
     <row r="187" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A187" s="45"/>
+      <c r="A187" s="46"/>
       <c r="B187" s="5">
         <v>42638</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="14"/>
       <c r="E187" s="2"/>
-      <c r="F187" s="45"/>
+      <c r="F187" s="46"/>
     </row>
     <row r="188" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A188" s="45">
+      <c r="A188" s="46">
         <v>12</v>
       </c>
       <c r="B188" s="5">
@@ -8430,73 +8439,73 @@
       <c r="C188" s="10"/>
       <c r="D188" s="14"/>
       <c r="E188" s="2"/>
-      <c r="F188" s="45">
+      <c r="F188" s="46">
         <f>SUM(E187:E193)</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A189" s="45"/>
+      <c r="A189" s="46"/>
       <c r="B189" s="5">
         <v>42640</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="14"/>
       <c r="E189" s="2"/>
-      <c r="F189" s="45"/>
+      <c r="F189" s="46"/>
     </row>
     <row r="190" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A190" s="45"/>
+      <c r="A190" s="46"/>
       <c r="B190" s="5">
         <v>42641</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="14"/>
       <c r="E190" s="2"/>
-      <c r="F190" s="45"/>
+      <c r="F190" s="46"/>
     </row>
     <row r="191" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A191" s="45"/>
+      <c r="A191" s="46"/>
       <c r="B191" s="5">
         <v>42642</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="14"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="45"/>
+      <c r="F191" s="46"/>
     </row>
     <row r="192" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A192" s="45"/>
+      <c r="A192" s="46"/>
       <c r="B192" s="5">
         <v>42643</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="14"/>
       <c r="E192" s="2"/>
-      <c r="F192" s="45"/>
+      <c r="F192" s="46"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="45"/>
+      <c r="A193" s="46"/>
       <c r="B193" s="5">
         <v>42644</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="14"/>
       <c r="E193" s="2"/>
-      <c r="F193" s="45"/>
+      <c r="F193" s="46"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="45"/>
+      <c r="A194" s="46"/>
       <c r="B194" s="5">
         <v>42645</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="14"/>
       <c r="E194" s="2"/>
-      <c r="F194" s="45"/>
+      <c r="F194" s="46"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="45">
+      <c r="A195" s="46">
         <v>13</v>
       </c>
       <c r="B195" s="5">
@@ -8505,73 +8514,73 @@
       <c r="C195" s="10"/>
       <c r="D195" s="14"/>
       <c r="E195" s="2"/>
-      <c r="F195" s="45">
+      <c r="F195" s="46">
         <f>SUM(E194:E200)</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="45"/>
+      <c r="A196" s="46"/>
       <c r="B196" s="5">
         <v>42647</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="14"/>
       <c r="E196" s="2"/>
-      <c r="F196" s="45"/>
+      <c r="F196" s="46"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="45"/>
+      <c r="A197" s="46"/>
       <c r="B197" s="5">
         <v>42648</v>
       </c>
       <c r="C197" s="10"/>
       <c r="D197" s="14"/>
       <c r="E197" s="2"/>
-      <c r="F197" s="45"/>
+      <c r="F197" s="46"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="45"/>
+      <c r="A198" s="46"/>
       <c r="B198" s="5">
         <v>42649</v>
       </c>
       <c r="C198" s="10"/>
       <c r="D198" s="14"/>
       <c r="E198" s="2"/>
-      <c r="F198" s="45"/>
+      <c r="F198" s="46"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="45"/>
+      <c r="A199" s="46"/>
       <c r="B199" s="5">
         <v>42650</v>
       </c>
       <c r="C199" s="10"/>
       <c r="D199" s="14"/>
       <c r="E199" s="2"/>
-      <c r="F199" s="45"/>
+      <c r="F199" s="46"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="45"/>
+      <c r="A200" s="46"/>
       <c r="B200" s="5">
         <v>42651</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="14"/>
       <c r="E200" s="2"/>
-      <c r="F200" s="45"/>
+      <c r="F200" s="46"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="45"/>
+      <c r="A201" s="46"/>
       <c r="B201" s="5">
         <v>42652</v>
       </c>
       <c r="C201" s="10"/>
       <c r="D201" s="14"/>
       <c r="E201" s="2"/>
-      <c r="F201" s="45"/>
+      <c r="F201" s="46"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="45">
+      <c r="A202" s="46">
         <v>14</v>
       </c>
       <c r="B202" s="5">
@@ -8580,73 +8589,125 @@
       <c r="C202" s="10"/>
       <c r="D202" s="14"/>
       <c r="E202" s="2"/>
-      <c r="F202" s="45">
+      <c r="F202" s="46">
         <f>SUM(E201:E207)</f>
         <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="45"/>
+      <c r="A203" s="46"/>
       <c r="B203" s="5">
         <v>42654</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="14"/>
       <c r="E203" s="2"/>
-      <c r="F203" s="45"/>
+      <c r="F203" s="46"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="45"/>
+      <c r="A204" s="46"/>
       <c r="B204" s="5">
         <v>42655</v>
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="14"/>
       <c r="E204" s="2"/>
-      <c r="F204" s="45"/>
+      <c r="F204" s="46"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="45"/>
+      <c r="A205" s="46"/>
       <c r="B205" s="5">
         <v>42656</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="14"/>
       <c r="E205" s="2"/>
-      <c r="F205" s="45"/>
+      <c r="F205" s="46"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="45"/>
+      <c r="A206" s="46"/>
       <c r="B206" s="5">
         <v>42657</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="14"/>
       <c r="E206" s="2"/>
-      <c r="F206" s="45"/>
+      <c r="F206" s="46"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="45"/>
+      <c r="A207" s="46"/>
       <c r="B207" s="5">
         <v>42658</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="14"/>
       <c r="E207" s="2"/>
-      <c r="F207" s="45"/>
+      <c r="F207" s="46"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="45"/>
+      <c r="A208" s="46"/>
       <c r="B208" s="5">
         <v>42659</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="14"/>
       <c r="E208" s="2"/>
-      <c r="F208" s="45"/>
+      <c r="F208" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A2:A23"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="F2:F23"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B23"/>
+    <mergeCell ref="A24:A47"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="F24:F47"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B43:B47"/>
+    <mergeCell ref="A48:A67"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="F48:F67"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A68:A92"/>
+    <mergeCell ref="B68:B72"/>
+    <mergeCell ref="F68:F92"/>
+    <mergeCell ref="B73:B77"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B84:B86"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="A93:A115"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="F93:F115"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B115"/>
+    <mergeCell ref="A116:A152"/>
+    <mergeCell ref="B116:B120"/>
+    <mergeCell ref="F116:F152"/>
+    <mergeCell ref="B121:B127"/>
+    <mergeCell ref="B128:B133"/>
+    <mergeCell ref="B134:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B146"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="A153:A159"/>
+    <mergeCell ref="F153:F159"/>
+    <mergeCell ref="A160:A166"/>
+    <mergeCell ref="F160:F166"/>
+    <mergeCell ref="A167:A173"/>
+    <mergeCell ref="F167:F173"/>
     <mergeCell ref="A195:A201"/>
     <mergeCell ref="F195:F201"/>
     <mergeCell ref="A202:A208"/>
@@ -8657,58 +8718,6 @@
     <mergeCell ref="F181:F187"/>
     <mergeCell ref="A188:A194"/>
     <mergeCell ref="F188:F194"/>
-    <mergeCell ref="A153:A159"/>
-    <mergeCell ref="F153:F159"/>
-    <mergeCell ref="A160:A166"/>
-    <mergeCell ref="F160:F166"/>
-    <mergeCell ref="A167:A173"/>
-    <mergeCell ref="F167:F173"/>
-    <mergeCell ref="A116:A152"/>
-    <mergeCell ref="B116:B120"/>
-    <mergeCell ref="F116:F152"/>
-    <mergeCell ref="B121:B127"/>
-    <mergeCell ref="B128:B133"/>
-    <mergeCell ref="B134:B138"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B143:B146"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="A93:A115"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="F93:F115"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B115"/>
-    <mergeCell ref="A68:A92"/>
-    <mergeCell ref="B68:B72"/>
-    <mergeCell ref="F68:F92"/>
-    <mergeCell ref="B73:B77"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B84:B86"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="A48:A67"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="F48:F67"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B57"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A24:A47"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="F24:F47"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B47"/>
-    <mergeCell ref="A2:A23"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="F2:F23"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -8717,11 +8726,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK124"/>
+  <dimension ref="A1:AMK127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G71" sqref="G71"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8757,7 +8766,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="45">
+      <c r="A2" s="46">
         <v>1</v>
       </c>
       <c r="B2" s="16">
@@ -8770,13 +8779,13 @@
       <c r="E2" s="20">
         <v>2</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="46">
         <f>SUM(E2:E12)</f>
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="16">
         <v>42562</v>
       </c>
@@ -8787,10 +8796,10 @@
       <c r="E3" s="20">
         <v>2</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="16">
         <v>42563</v>
       </c>
@@ -8801,10 +8810,10 @@
       <c r="E4" s="20">
         <v>4</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="16">
         <v>42564</v>
       </c>
@@ -8815,10 +8824,10 @@
       <c r="E5" s="20">
         <v>4</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="16">
         <v>42565</v>
       </c>
@@ -8829,10 +8838,10 @@
       <c r="E6" s="20">
         <v>2</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="46"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="16">
         <v>42566</v>
       </c>
@@ -8843,20 +8852,20 @@
       <c r="E7" s="20">
         <v>1</v>
       </c>
-      <c r="F7" s="45"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="16">
         <v>42567</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="45"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="16">
         <v>42568</v>
       </c>
@@ -8867,10 +8876,10 @@
       <c r="E9" s="20">
         <v>4</v>
       </c>
-      <c r="F9" s="45"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="16">
         <v>42568</v>
       </c>
@@ -8881,10 +8890,10 @@
       <c r="E10" s="20">
         <v>1</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="46"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="16">
         <v>42568</v>
       </c>
@@ -8895,10 +8904,10 @@
       <c r="E11" s="20">
         <v>0.5</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="46"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="16">
         <v>42568</v>
       </c>
@@ -8909,10 +8918,10 @@
       <c r="E12" s="20">
         <v>0.5</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="46"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
+      <c r="A13" s="46">
         <v>2</v>
       </c>
       <c r="B13" s="16">
@@ -8925,13 +8934,13 @@
       <c r="E13" s="20">
         <v>5</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="46">
         <f>SUM(E13:E21)</f>
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
+      <c r="A14" s="46"/>
       <c r="B14" s="16">
         <v>42570</v>
       </c>
@@ -8942,20 +8951,20 @@
       <c r="E14" s="20">
         <v>5</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="46"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
+      <c r="A15" s="46"/>
       <c r="B15" s="16">
         <v>42571</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="19"/>
       <c r="E15" s="20"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="46"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
+      <c r="A16" s="46"/>
       <c r="B16" s="16">
         <v>42572</v>
       </c>
@@ -8966,10 +8975,10 @@
       <c r="E16" s="20">
         <v>5</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="46"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="16">
         <v>42573</v>
       </c>
@@ -8980,10 +8989,10 @@
       <c r="E17" s="20">
         <v>3</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="F17" s="46"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="16">
         <v>42574</v>
       </c>
@@ -8994,10 +9003,10 @@
       <c r="E18" s="20">
         <v>2</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="46"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="16">
         <v>42575</v>
       </c>
@@ -9008,10 +9017,10 @@
       <c r="E19" s="20">
         <v>1</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="46"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="16">
         <v>42575</v>
       </c>
@@ -9022,10 +9031,10 @@
       <c r="E20" s="20">
         <v>0.5</v>
       </c>
-      <c r="F20" s="45"/>
+      <c r="F20" s="46"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="16">
         <v>42575</v>
       </c>
@@ -9036,10 +9045,10 @@
       <c r="E21" s="20">
         <v>0.5</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="46"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="45">
+      <c r="A22" s="46">
         <v>3</v>
       </c>
       <c r="B22" s="16">
@@ -9052,13 +9061,13 @@
       <c r="E22" s="2">
         <v>5</v>
       </c>
-      <c r="F22" s="45">
+      <c r="F22" s="46">
         <f>SUM(E22:E32)</f>
         <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="21">
         <v>42577</v>
       </c>
@@ -9069,10 +9078,10 @@
       <c r="E23" s="2">
         <v>4</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="46"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="45"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="16">
         <v>42577</v>
       </c>
@@ -9083,10 +9092,10 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-      <c r="F24" s="45"/>
+      <c r="F24" s="46"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="16">
         <v>42578</v>
       </c>
@@ -9097,10 +9106,10 @@
       <c r="E25" s="2">
         <v>4</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="46"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="45"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="16">
         <v>42578</v>
       </c>
@@ -9111,10 +9120,10 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="46"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="23">
         <v>42579</v>
       </c>
@@ -9125,10 +9134,10 @@
       <c r="E27" s="2">
         <v>4</v>
       </c>
-      <c r="F27" s="45"/>
+      <c r="F27" s="46"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="45"/>
+      <c r="A28" s="46"/>
       <c r="B28" s="16">
         <v>42580</v>
       </c>
@@ -9139,20 +9148,20 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="46"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="45"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="16">
         <v>42581</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="45"/>
+      <c r="F29" s="46"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="45"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="16">
         <v>42582</v>
       </c>
@@ -9163,10 +9172,10 @@
       <c r="E30" s="20">
         <v>1</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="46"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="16">
         <v>42582</v>
       </c>
@@ -9177,10 +9186,10 @@
       <c r="E31" s="20">
         <v>0.5</v>
       </c>
-      <c r="F31" s="45"/>
+      <c r="F31" s="46"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="45"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="16">
         <v>42582</v>
       </c>
@@ -9191,10 +9200,10 @@
       <c r="E32" s="20">
         <v>0.5</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="46"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="45">
+      <c r="A33" s="46">
         <v>4</v>
       </c>
       <c r="B33" s="16">
@@ -9207,13 +9216,13 @@
       <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="45">
+      <c r="F33" s="46">
         <f>SUM(E33:E41)</f>
         <v>22</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="16">
         <v>42584</v>
       </c>
@@ -9224,10 +9233,10 @@
       <c r="E34" s="2">
         <v>5</v>
       </c>
-      <c r="F34" s="45"/>
+      <c r="F34" s="46"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="45"/>
+      <c r="A35" s="46"/>
       <c r="B35" s="16">
         <v>42585</v>
       </c>
@@ -9238,10 +9247,10 @@
       <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="46"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="16">
         <v>42586</v>
       </c>
@@ -9252,10 +9261,10 @@
       <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="45"/>
+      <c r="F36" s="46"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="45"/>
+      <c r="A37" s="46"/>
       <c r="B37" s="16">
         <v>42587</v>
       </c>
@@ -9266,10 +9275,10 @@
       <c r="E37" s="2">
         <v>5</v>
       </c>
-      <c r="F37" s="45"/>
+      <c r="F37" s="46"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="45"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="16">
         <v>42588</v>
       </c>
@@ -9280,10 +9289,10 @@
       <c r="E38" s="2">
         <v>2</v>
       </c>
-      <c r="F38" s="45"/>
+      <c r="F38" s="46"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="45"/>
+      <c r="A39" s="46"/>
       <c r="B39" s="16">
         <v>42589</v>
       </c>
@@ -9294,10 +9303,10 @@
       <c r="E39" s="20">
         <v>1</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="46"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="45"/>
+      <c r="A40" s="46"/>
       <c r="B40" s="16">
         <v>42589</v>
       </c>
@@ -9308,10 +9317,10 @@
       <c r="E40" s="20">
         <v>0.5</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="46"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="45"/>
+      <c r="A41" s="46"/>
       <c r="B41" s="16">
         <v>42589</v>
       </c>
@@ -9322,10 +9331,10 @@
       <c r="E41" s="20">
         <v>0.5</v>
       </c>
-      <c r="F41" s="45"/>
+      <c r="F41" s="46"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="45">
+      <c r="A42" s="46">
         <v>5</v>
       </c>
       <c r="B42" s="16">
@@ -9336,13 +9345,13 @@
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="45">
+      <c r="F42" s="46">
         <f>SUM(E42:E51)</f>
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="45"/>
+      <c r="A43" s="46"/>
       <c r="B43" s="16">
         <v>42591</v>
       </c>
@@ -9353,10 +9362,10 @@
       <c r="E43" s="2">
         <v>4</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="46"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="45"/>
+      <c r="A44" s="46"/>
       <c r="B44" s="16">
         <v>42592</v>
       </c>
@@ -9367,10 +9376,10 @@
       <c r="E44" s="2">
         <v>0.5</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="46"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="45"/>
+      <c r="A45" s="46"/>
       <c r="B45" s="16">
         <v>42592</v>
       </c>
@@ -9381,10 +9390,10 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-      <c r="F45" s="45"/>
+      <c r="F45" s="46"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="45"/>
+      <c r="A46" s="46"/>
       <c r="B46" s="16">
         <v>42592</v>
       </c>
@@ -9395,10 +9404,10 @@
       <c r="E46" s="2">
         <v>2</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="46"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="45"/>
+      <c r="A47" s="46"/>
       <c r="B47" s="16">
         <v>42592</v>
       </c>
@@ -9409,20 +9418,20 @@
       <c r="E47" s="2">
         <v>2.5</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="46"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="45"/>
+      <c r="A48" s="46"/>
       <c r="B48" s="16">
         <v>42593</v>
       </c>
       <c r="C48" s="18"/>
       <c r="D48" s="19"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="45"/>
+      <c r="F48" s="46"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="45"/>
+      <c r="A49" s="46"/>
       <c r="B49" s="16">
         <v>42594</v>
       </c>
@@ -9433,10 +9442,10 @@
       <c r="E49" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="46"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
+      <c r="A50" s="46"/>
       <c r="B50" s="16">
         <v>42595</v>
       </c>
@@ -9447,10 +9456,10 @@
       <c r="E50" s="2">
         <v>4</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="46"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
+      <c r="A51" s="46"/>
       <c r="B51" s="16">
         <v>42596</v>
       </c>
@@ -9461,10 +9470,10 @@
       <c r="E51" s="2">
         <v>5</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="46"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="45">
+      <c r="A52" s="46">
         <v>6</v>
       </c>
       <c r="B52" s="16">
@@ -9479,13 +9488,13 @@
       <c r="E52" s="2">
         <v>6</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="46">
         <f>SUM(E52:E63)</f>
         <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
+      <c r="A53" s="46"/>
       <c r="B53" s="16">
         <v>42598</v>
       </c>
@@ -9498,10 +9507,10 @@
       <c r="E53" s="2">
         <v>5.5</v>
       </c>
-      <c r="F53" s="45"/>
+      <c r="F53" s="46"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="45"/>
+      <c r="A54" s="46"/>
       <c r="B54" s="16">
         <v>42598</v>
       </c>
@@ -9514,10 +9523,10 @@
       <c r="E54" s="2">
         <v>0.5</v>
       </c>
-      <c r="F54" s="45"/>
+      <c r="F54" s="46"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="45"/>
+      <c r="A55" s="46"/>
       <c r="B55" s="16">
         <v>42599</v>
       </c>
@@ -9530,10 +9539,10 @@
       <c r="E55" s="2">
         <v>1</v>
       </c>
-      <c r="F55" s="45"/>
+      <c r="F55" s="46"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="45"/>
+      <c r="A56" s="46"/>
       <c r="B56" s="16">
         <v>42599</v>
       </c>
@@ -9546,10 +9555,10 @@
       <c r="E56" s="2">
         <v>4</v>
       </c>
-      <c r="F56" s="45"/>
+      <c r="F56" s="46"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="45"/>
+      <c r="A57" s="46"/>
       <c r="B57" s="16">
         <v>42599</v>
       </c>
@@ -9562,10 +9571,10 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
-      <c r="F57" s="45"/>
+      <c r="F57" s="46"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="45"/>
+      <c r="A58" s="46"/>
       <c r="B58" s="16">
         <v>42600</v>
       </c>
@@ -9578,10 +9587,10 @@
       <c r="E58" s="2">
         <v>6</v>
       </c>
-      <c r="F58" s="45"/>
+      <c r="F58" s="46"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="45"/>
+      <c r="A59" s="46"/>
       <c r="B59" s="16">
         <v>42601</v>
       </c>
@@ -9594,10 +9603,10 @@
       <c r="E59" s="2">
         <v>6</v>
       </c>
-      <c r="F59" s="45"/>
+      <c r="F59" s="46"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="45"/>
+      <c r="A60" s="46"/>
       <c r="B60" s="16">
         <v>42602</v>
       </c>
@@ -9610,10 +9619,10 @@
       <c r="E60" s="2">
         <v>6</v>
       </c>
-      <c r="F60" s="45"/>
+      <c r="F60" s="46"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="45"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="16">
         <v>42603</v>
       </c>
@@ -9626,10 +9635,10 @@
       <c r="E61" s="2">
         <v>4</v>
       </c>
-      <c r="F61" s="45"/>
+      <c r="F61" s="46"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="45"/>
+      <c r="A62" s="46"/>
       <c r="B62" s="16">
         <v>42603</v>
       </c>
@@ -9642,10 +9651,10 @@
       <c r="E62" s="2">
         <v>1</v>
       </c>
-      <c r="F62" s="45"/>
+      <c r="F62" s="46"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="45"/>
+      <c r="A63" s="46"/>
       <c r="B63" s="16">
         <v>42603</v>
       </c>
@@ -9658,10 +9667,10 @@
       <c r="E63" s="2">
         <v>1</v>
       </c>
-      <c r="F63" s="45"/>
+      <c r="F63" s="46"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="45">
+      <c r="A64" s="46">
         <v>7</v>
       </c>
       <c r="B64" s="16">
@@ -9676,13 +9685,13 @@
       <c r="E64" s="2">
         <v>3</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="46">
         <f>SUM(E64:E75)</f>
         <v>42</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="45"/>
+      <c r="A65" s="46"/>
       <c r="B65" s="16">
         <v>42604</v>
       </c>
@@ -9695,10 +9704,10 @@
       <c r="E65" s="2">
         <v>1</v>
       </c>
-      <c r="F65" s="45"/>
+      <c r="F65" s="46"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="45"/>
+      <c r="A66" s="46"/>
       <c r="B66" s="16">
         <v>42604</v>
       </c>
@@ -9711,10 +9720,10 @@
       <c r="E66" s="2">
         <v>2</v>
       </c>
-      <c r="F66" s="45"/>
+      <c r="F66" s="46"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="45"/>
+      <c r="A67" s="46"/>
       <c r="B67" s="16">
         <v>42605</v>
       </c>
@@ -9727,10 +9736,10 @@
       <c r="E67" s="2">
         <v>6</v>
       </c>
-      <c r="F67" s="45"/>
+      <c r="F67" s="46"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="45"/>
+      <c r="A68" s="46"/>
       <c r="B68" s="16">
         <v>42606</v>
       </c>
@@ -9743,10 +9752,10 @@
       <c r="E68" s="2">
         <v>3</v>
       </c>
-      <c r="F68" s="45"/>
+      <c r="F68" s="46"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="45"/>
+      <c r="A69" s="46"/>
       <c r="B69" s="16">
         <v>42606</v>
       </c>
@@ -9759,10 +9768,10 @@
       <c r="E69" s="2">
         <v>3</v>
       </c>
-      <c r="F69" s="45"/>
+      <c r="F69" s="46"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="45"/>
+      <c r="A70" s="46"/>
       <c r="B70" s="16">
         <v>42607</v>
       </c>
@@ -9775,10 +9784,10 @@
       <c r="E70" s="2">
         <v>6</v>
       </c>
-      <c r="F70" s="45"/>
+      <c r="F70" s="46"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="45"/>
+      <c r="A71" s="46"/>
       <c r="B71" s="16">
         <v>42608</v>
       </c>
@@ -9791,10 +9800,10 @@
       <c r="E71" s="2">
         <v>6</v>
       </c>
-      <c r="F71" s="45"/>
+      <c r="F71" s="46"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="45"/>
+      <c r="A72" s="46"/>
       <c r="B72" s="16">
         <v>42609</v>
       </c>
@@ -9807,10 +9816,10 @@
       <c r="E72" s="2">
         <v>6</v>
       </c>
-      <c r="F72" s="45"/>
+      <c r="F72" s="46"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="45"/>
+      <c r="A73" s="46"/>
       <c r="B73" s="16">
         <v>42610</v>
       </c>
@@ -9823,10 +9832,10 @@
       <c r="E73" s="44">
         <v>4</v>
       </c>
-      <c r="F73" s="45"/>
+      <c r="F73" s="46"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="45"/>
+      <c r="A74" s="46"/>
       <c r="B74" s="16">
         <v>42610</v>
       </c>
@@ -9839,10 +9848,10 @@
       <c r="E74" s="44">
         <v>1</v>
       </c>
-      <c r="F74" s="45"/>
+      <c r="F74" s="46"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="45"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="16">
         <v>42610</v>
       </c>
@@ -9855,563 +9864,653 @@
       <c r="E75" s="44">
         <v>1</v>
       </c>
-      <c r="F75" s="45"/>
+      <c r="F75" s="46"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="45">
+      <c r="A76" s="46">
         <v>8</v>
       </c>
       <c r="B76" s="16">
         <v>42611</v>
       </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="45">
-        <f>SUM(E76:E82)</f>
-        <v>0</v>
+      <c r="C76" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E76" s="45">
+        <v>6</v>
+      </c>
+      <c r="F76" s="46">
+        <f>SUM(E76:E85)</f>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="45"/>
+      <c r="A77" s="46"/>
       <c r="B77" s="16">
         <v>42612</v>
       </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="45"/>
+      <c r="C77" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D77" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E77" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="46"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
+      <c r="A78" s="46"/>
       <c r="B78" s="16">
+        <v>42612</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D78" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="E78" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="F78" s="46"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="46"/>
+      <c r="B79" s="16">
         <v>42613</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="45"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="45"/>
-      <c r="B79" s="16">
+      <c r="C79" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D79" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E79" s="45">
+        <v>6</v>
+      </c>
+      <c r="F79" s="46"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="46"/>
+      <c r="B80" s="16">
         <v>42614</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="45"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="45"/>
-      <c r="B80" s="16">
+      <c r="C80" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E80" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="F80" s="46"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="46"/>
+      <c r="B81" s="16">
         <v>42615</v>
       </c>
-      <c r="C80" s="10"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="45"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="45"/>
-      <c r="B81" s="16">
+      <c r="C81" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="45">
+        <v>4.5</v>
+      </c>
+      <c r="F81" s="46"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="46"/>
+      <c r="B82" s="16">
         <v>42616</v>
       </c>
-      <c r="C81" s="10"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="45"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="45"/>
-      <c r="B82" s="16">
+      <c r="C82" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E82" s="45">
+        <v>6</v>
+      </c>
+      <c r="F82" s="46"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="46"/>
+      <c r="B83" s="16">
         <v>42617</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="45"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="45">
+      <c r="C83" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E83" s="45">
+        <v>4</v>
+      </c>
+      <c r="F83" s="46"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="46"/>
+      <c r="B84" s="16">
+        <v>42617</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="45">
+        <v>1</v>
+      </c>
+      <c r="F84" s="46"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="46"/>
+      <c r="B85" s="16">
+        <v>42617</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="E85" s="45">
+        <v>1</v>
+      </c>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="46">
         <v>9</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B86" s="16">
         <v>42618</v>
-      </c>
-      <c r="C83" s="10"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="45">
-        <f>SUM(E83:E89)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="45"/>
-      <c r="B84" s="16">
-        <v>42619</v>
-      </c>
-      <c r="C84" s="10"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="45"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="45"/>
-      <c r="B85" s="16">
-        <v>42620</v>
-      </c>
-      <c r="C85" s="10"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="45"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="45"/>
-      <c r="B86" s="16">
-        <v>42621</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="19"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="45"/>
+      <c r="F86" s="46">
+        <f>SUM(E86:E92)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="45"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="16">
-        <v>42622</v>
+        <v>42619</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="19"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="45"/>
+      <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="45"/>
+      <c r="A88" s="46"/>
       <c r="B88" s="16">
-        <v>42623</v>
+        <v>42620</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="19"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="45"/>
+      <c r="F88" s="46"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="45"/>
+      <c r="A89" s="46"/>
       <c r="B89" s="16">
-        <v>42624</v>
+        <v>42621</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="19"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="45"/>
+      <c r="F89" s="46"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="45">
-        <v>10</v>
-      </c>
+      <c r="A90" s="46"/>
       <c r="B90" s="16">
-        <v>42625</v>
+        <v>42622</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="19"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="45">
-        <f>SUM(E90:E96)</f>
-        <v>0</v>
-      </c>
+      <c r="F90" s="46"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="45"/>
+      <c r="A91" s="46"/>
       <c r="B91" s="16">
-        <v>42626</v>
+        <v>42623</v>
       </c>
       <c r="C91" s="10"/>
       <c r="D91" s="19"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="45"/>
+      <c r="F91" s="46"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="45"/>
+      <c r="A92" s="46"/>
       <c r="B92" s="16">
-        <v>42627</v>
+        <v>42624</v>
       </c>
       <c r="C92" s="10"/>
       <c r="D92" s="19"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="45"/>
+      <c r="F92" s="46"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="45"/>
+      <c r="A93" s="46">
+        <v>10</v>
+      </c>
       <c r="B93" s="16">
-        <v>42628</v>
+        <v>42625</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="19"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="45"/>
+      <c r="F93" s="46">
+        <f>SUM(E93:E99)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="45"/>
+      <c r="A94" s="46"/>
       <c r="B94" s="16">
-        <v>42629</v>
+        <v>42626</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="19"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="45"/>
+      <c r="F94" s="46"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="45"/>
+      <c r="A95" s="46"/>
       <c r="B95" s="16">
-        <v>42630</v>
+        <v>42627</v>
       </c>
       <c r="C95" s="10"/>
       <c r="D95" s="19"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="45"/>
+      <c r="F95" s="46"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="45"/>
+      <c r="A96" s="46"/>
       <c r="B96" s="16">
-        <v>42631</v>
+        <v>42628</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="19"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="45"/>
+      <c r="F96" s="46"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="45">
-        <v>11</v>
-      </c>
+      <c r="A97" s="46"/>
       <c r="B97" s="16">
-        <v>42632</v>
+        <v>42629</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="19"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="45">
-        <f>SUM(E97:E103)</f>
-        <v>0</v>
-      </c>
+      <c r="F97" s="46"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="45"/>
+      <c r="A98" s="46"/>
       <c r="B98" s="16">
-        <v>42633</v>
+        <v>42630</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="19"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="45"/>
+      <c r="F98" s="46"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="45"/>
+      <c r="A99" s="46"/>
       <c r="B99" s="16">
-        <v>42634</v>
+        <v>42631</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="19"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="45"/>
+      <c r="F99" s="46"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="45"/>
+      <c r="A100" s="46">
+        <v>11</v>
+      </c>
       <c r="B100" s="16">
-        <v>42635</v>
+        <v>42632</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="19"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="45"/>
+      <c r="F100" s="46">
+        <f>SUM(E100:E106)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="45"/>
+      <c r="A101" s="46"/>
       <c r="B101" s="16">
-        <v>42636</v>
+        <v>42633</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="19"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="45"/>
+      <c r="F101" s="46"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="45"/>
+      <c r="A102" s="46"/>
       <c r="B102" s="16">
-        <v>42637</v>
+        <v>42634</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="19"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="45"/>
+      <c r="F102" s="46"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="45"/>
+      <c r="A103" s="46"/>
       <c r="B103" s="16">
-        <v>42638</v>
+        <v>42635</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="19"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="45"/>
+      <c r="F103" s="46"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="45">
-        <v>12</v>
-      </c>
+      <c r="A104" s="46"/>
       <c r="B104" s="16">
-        <v>42639</v>
+        <v>42636</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="19"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="45">
-        <f>SUM(E104:E110)</f>
-        <v>0</v>
-      </c>
+      <c r="F104" s="46"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="45"/>
+      <c r="A105" s="46"/>
       <c r="B105" s="16">
-        <v>42640</v>
+        <v>42637</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="19"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="45"/>
+      <c r="F105" s="46"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="45"/>
+      <c r="A106" s="46"/>
       <c r="B106" s="16">
-        <v>42641</v>
+        <v>42638</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="19"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="45"/>
+      <c r="F106" s="46"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="45"/>
+      <c r="A107" s="46">
+        <v>12</v>
+      </c>
       <c r="B107" s="16">
-        <v>42642</v>
+        <v>42639</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="19"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="45"/>
+      <c r="F107" s="46">
+        <f>SUM(E107:E113)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="45"/>
+      <c r="A108" s="46"/>
       <c r="B108" s="16">
-        <v>42643</v>
+        <v>42640</v>
       </c>
       <c r="C108" s="10"/>
       <c r="D108" s="19"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="45"/>
+      <c r="F108" s="46"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="45"/>
+      <c r="A109" s="46"/>
       <c r="B109" s="16">
-        <v>42644</v>
+        <v>42641</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="19"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="45"/>
+      <c r="F109" s="46"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="45"/>
+      <c r="A110" s="46"/>
       <c r="B110" s="16">
-        <v>42645</v>
+        <v>42642</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="19"/>
       <c r="E110" s="2"/>
-      <c r="F110" s="45"/>
+      <c r="F110" s="46"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="45">
-        <v>13</v>
-      </c>
+      <c r="A111" s="46"/>
       <c r="B111" s="16">
-        <v>42646</v>
+        <v>42643</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="19"/>
       <c r="E111" s="2"/>
-      <c r="F111" s="45">
-        <f>SUM(E111:E117)</f>
-        <v>0</v>
-      </c>
+      <c r="F111" s="46"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="45"/>
+      <c r="A112" s="46"/>
       <c r="B112" s="16">
-        <v>42647</v>
+        <v>42644</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="19"/>
       <c r="E112" s="2"/>
-      <c r="F112" s="45"/>
+      <c r="F112" s="46"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="45"/>
+      <c r="A113" s="46"/>
       <c r="B113" s="16">
-        <v>42648</v>
+        <v>42645</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="19"/>
       <c r="E113" s="2"/>
-      <c r="F113" s="45"/>
+      <c r="F113" s="46"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="45"/>
+      <c r="A114" s="46">
+        <v>13</v>
+      </c>
       <c r="B114" s="16">
-        <v>42649</v>
+        <v>42646</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="19"/>
       <c r="E114" s="2"/>
-      <c r="F114" s="45"/>
+      <c r="F114" s="46">
+        <f>SUM(E114:E120)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="45"/>
+      <c r="A115" s="46"/>
       <c r="B115" s="16">
-        <v>42650</v>
+        <v>42647</v>
       </c>
       <c r="C115" s="10"/>
       <c r="D115" s="19"/>
       <c r="E115" s="2"/>
-      <c r="F115" s="45"/>
+      <c r="F115" s="46"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="45"/>
+      <c r="A116" s="46"/>
       <c r="B116" s="16">
-        <v>42651</v>
+        <v>42648</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="19"/>
       <c r="E116" s="2"/>
-      <c r="F116" s="45"/>
+      <c r="F116" s="46"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="45"/>
+      <c r="A117" s="46"/>
       <c r="B117" s="16">
-        <v>42652</v>
+        <v>42649</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="19"/>
       <c r="E117" s="2"/>
-      <c r="F117" s="45"/>
+      <c r="F117" s="46"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="45">
-        <v>14</v>
-      </c>
+      <c r="A118" s="46"/>
       <c r="B118" s="16">
-        <v>42653</v>
+        <v>42650</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="19"/>
       <c r="E118" s="2"/>
-      <c r="F118" s="45">
-        <f>SUM(E118:E124)</f>
-        <v>0</v>
-      </c>
+      <c r="F118" s="46"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="45"/>
+      <c r="A119" s="46"/>
       <c r="B119" s="16">
-        <v>42654</v>
+        <v>42651</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="19"/>
       <c r="E119" s="2"/>
-      <c r="F119" s="45"/>
+      <c r="F119" s="46"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="45"/>
+      <c r="A120" s="46"/>
       <c r="B120" s="16">
-        <v>42655</v>
+        <v>42652</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="19"/>
       <c r="E120" s="2"/>
-      <c r="F120" s="45"/>
+      <c r="F120" s="46"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="45"/>
+      <c r="A121" s="46">
+        <v>14</v>
+      </c>
       <c r="B121" s="16">
-        <v>42656</v>
+        <v>42653</v>
       </c>
       <c r="C121" s="10"/>
       <c r="D121" s="19"/>
       <c r="E121" s="2"/>
-      <c r="F121" s="45"/>
+      <c r="F121" s="46">
+        <f>SUM(E121:E127)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="45"/>
+      <c r="A122" s="46"/>
       <c r="B122" s="16">
-        <v>42657</v>
+        <v>42654</v>
       </c>
       <c r="C122" s="10"/>
       <c r="D122" s="19"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="45"/>
+      <c r="F122" s="46"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="45"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="16">
-        <v>42658</v>
+        <v>42655</v>
       </c>
       <c r="C123" s="10"/>
       <c r="D123" s="19"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="45"/>
+      <c r="F123" s="46"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="45"/>
+      <c r="A124" s="46"/>
       <c r="B124" s="16">
-        <v>42659</v>
+        <v>42656</v>
       </c>
       <c r="C124" s="10"/>
       <c r="D124" s="19"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="45"/>
+      <c r="F124" s="46"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="46"/>
+      <c r="B125" s="16">
+        <v>42657</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="19"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="46"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="46"/>
+      <c r="B126" s="16">
+        <v>42658</v>
+      </c>
+      <c r="C126" s="10"/>
+      <c r="D126" s="19"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="46"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="46"/>
+      <c r="B127" s="16">
+        <v>42659</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A111:A117"/>
-    <mergeCell ref="F111:F117"/>
-    <mergeCell ref="A118:A124"/>
-    <mergeCell ref="F118:F124"/>
-    <mergeCell ref="A90:A96"/>
-    <mergeCell ref="F90:F96"/>
-    <mergeCell ref="A97:A103"/>
-    <mergeCell ref="F97:F103"/>
-    <mergeCell ref="A104:A110"/>
-    <mergeCell ref="F104:F110"/>
-    <mergeCell ref="A64:A75"/>
-    <mergeCell ref="F64:F75"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="F76:F82"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="F83:F89"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="F2:F12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="F13:F21"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="F22:F32"/>
     <mergeCell ref="A33:A41"/>
     <mergeCell ref="F33:F41"/>
     <mergeCell ref="A42:A51"/>
     <mergeCell ref="F42:F51"/>
     <mergeCell ref="A52:A63"/>
     <mergeCell ref="F52:F63"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="F2:F12"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="F13:F21"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="F22:F32"/>
+    <mergeCell ref="A64:A75"/>
+    <mergeCell ref="F64:F75"/>
+    <mergeCell ref="A76:A85"/>
+    <mergeCell ref="F76:F85"/>
+    <mergeCell ref="A86:A92"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="A114:A120"/>
+    <mergeCell ref="F114:F120"/>
+    <mergeCell ref="A121:A127"/>
+    <mergeCell ref="F121:F127"/>
+    <mergeCell ref="A93:A99"/>
+    <mergeCell ref="F93:F99"/>
+    <mergeCell ref="A100:A106"/>
+    <mergeCell ref="F100:F106"/>
+    <mergeCell ref="A107:A113"/>
+    <mergeCell ref="F107:F113"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -10480,7 +10579,7 @@
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="47">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
       <c r="B2" s="5">
@@ -10495,7 +10594,7 @@
       <c r="E2" s="2">
         <v>5</v>
       </c>
-      <c r="F2" s="45">
+      <c r="F2" s="46">
         <f>SUM(E2:E8)</f>
         <v>26</v>
       </c>
@@ -10521,7 +10620,7 @@
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="5">
         <v>42563</v>
       </c>
@@ -10534,7 +10633,7 @@
       <c r="E3" s="2">
         <v>5.5</v>
       </c>
-      <c r="F3" s="45"/>
+      <c r="F3" s="46"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -10557,7 +10656,7 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="5">
         <v>42564</v>
       </c>
@@ -10570,7 +10669,7 @@
       <c r="E4" s="2">
         <v>6</v>
       </c>
-      <c r="F4" s="45"/>
+      <c r="F4" s="46"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -10593,7 +10692,7 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="5">
         <v>42565</v>
       </c>
@@ -10606,7 +10705,7 @@
       <c r="E5" s="2">
         <v>3.5</v>
       </c>
-      <c r="F5" s="45"/>
+      <c r="F5" s="46"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -10629,7 +10728,7 @@
       <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5">
         <v>42566</v>
       </c>
@@ -10642,7 +10741,7 @@
       <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="F6" s="45"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -10665,14 +10764,14 @@
       <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5">
         <v>42567</v>
       </c>
       <c r="C7"/>
       <c r="D7" s="30"/>
       <c r="E7" s="31"/>
-      <c r="F7" s="45"/>
+      <c r="F7" s="46"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -10695,14 +10794,14 @@
       <c r="Z7" s="29"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5">
         <v>42568</v>
       </c>
       <c r="C8"/>
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
-      <c r="F8" s="45"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -10725,7 +10824,7 @@
       <c r="Z8" s="29"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
+      <c r="A9" s="48">
         <v>2</v>
       </c>
       <c r="B9" s="5">
@@ -10740,7 +10839,7 @@
       <c r="E9" s="31">
         <v>4</v>
       </c>
-      <c r="F9" s="45">
+      <c r="F9" s="46">
         <f>SUM(E9:E16)</f>
         <v>26</v>
       </c>
@@ -10766,7 +10865,7 @@
       <c r="Z9" s="29"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5">
         <v>42570</v>
       </c>
@@ -10779,7 +10878,7 @@
       <c r="E10" s="31">
         <v>5</v>
       </c>
-      <c r="F10" s="45"/>
+      <c r="F10" s="46"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -10802,7 +10901,7 @@
       <c r="Z10" s="29"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5">
         <v>42571</v>
       </c>
@@ -10815,7 +10914,7 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="45"/>
+      <c r="F11" s="46"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -10838,7 +10937,7 @@
       <c r="Z11" s="29"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="5">
         <v>42571</v>
       </c>
@@ -10851,7 +10950,7 @@
       <c r="E12" s="2">
         <v>6</v>
       </c>
-      <c r="F12" s="45"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -10874,14 +10973,14 @@
       <c r="Z12" s="29"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="5">
         <v>42572</v>
       </c>
       <c r="C13"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31"/>
-      <c r="F13" s="45"/>
+      <c r="F13" s="46"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -10904,7 +11003,7 @@
       <c r="Z13" s="29"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="5">
         <v>42573</v>
       </c>
@@ -10917,7 +11016,7 @@
       <c r="E14" s="2">
         <v>6</v>
       </c>
-      <c r="F14" s="45"/>
+      <c r="F14" s="46"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -10940,14 +11039,14 @@
       <c r="Z14" s="29"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="5">
         <v>42574</v>
       </c>
       <c r="C15"/>
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
-      <c r="F15" s="45"/>
+      <c r="F15" s="46"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -10970,7 +11069,7 @@
       <c r="Z15" s="29"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A16" s="47"/>
+      <c r="A16" s="48"/>
       <c r="B16" s="5">
         <v>42575</v>
       </c>
@@ -10983,7 +11082,7 @@
       <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="F16" s="45"/>
+      <c r="F16" s="46"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
@@ -11006,7 +11105,7 @@
       <c r="Z16" s="29"/>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="48">
         <v>3</v>
       </c>
       <c r="B17" s="5">
@@ -11021,7 +11120,7 @@
       <c r="E17" s="2">
         <v>7</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="46">
         <f>SUM(E17:E23)</f>
         <v>30</v>
       </c>
@@ -11047,7 +11146,7 @@
       <c r="Z17" s="29"/>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="5">
         <v>42577</v>
       </c>
@@ -11060,7 +11159,7 @@
       <c r="E18" s="2">
         <v>8</v>
       </c>
-      <c r="F18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
@@ -11083,7 +11182,7 @@
       <c r="Z18" s="29"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="5">
         <v>42578</v>
       </c>
@@ -11096,7 +11195,7 @@
       <c r="E19" s="2">
         <v>7.5</v>
       </c>
-      <c r="F19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -11119,14 +11218,14 @@
       <c r="Z19" s="29"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="5">
         <v>42579</v>
       </c>
       <c r="C20"/>
       <c r="D20" s="30"/>
       <c r="E20" s="31"/>
-      <c r="F20" s="45"/>
+      <c r="F20" s="46"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -11149,7 +11248,7 @@
       <c r="Z20" s="29"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="5">
         <v>42580</v>
       </c>
@@ -11162,7 +11261,7 @@
       <c r="E21" s="2">
         <v>4</v>
       </c>
-      <c r="F21" s="45"/>
+      <c r="F21" s="46"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
@@ -11185,14 +11284,14 @@
       <c r="Z21" s="29"/>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="5">
         <v>42581</v>
       </c>
       <c r="C22"/>
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
-      <c r="F22" s="45"/>
+      <c r="F22" s="46"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
@@ -11215,7 +11314,7 @@
       <c r="Z22" s="29"/>
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A23" s="47"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="5">
         <v>42582</v>
       </c>
@@ -11228,7 +11327,7 @@
       <c r="E23" s="2">
         <v>3.5</v>
       </c>
-      <c r="F23" s="45"/>
+      <c r="F23" s="46"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
       <c r="I23" s="29"/>
@@ -11251,7 +11350,7 @@
       <c r="Z23" s="29"/>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A24" s="47">
+      <c r="A24" s="48">
         <v>4</v>
       </c>
       <c r="B24" s="5">
@@ -11266,7 +11365,7 @@
       <c r="E24" s="2">
         <v>4</v>
       </c>
-      <c r="F24" s="45">
+      <c r="F24" s="46">
         <f>SUM(E24:E30)</f>
         <v>27.5</v>
       </c>
@@ -11292,7 +11391,7 @@
       <c r="Z24" s="29"/>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="5">
         <v>42584</v>
       </c>
@@ -11305,7 +11404,7 @@
       <c r="E25" s="2">
         <v>4.5</v>
       </c>
-      <c r="F25" s="45"/>
+      <c r="F25" s="46"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
@@ -11328,7 +11427,7 @@
       <c r="Z25" s="29"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="5">
         <v>42585</v>
       </c>
@@ -11341,7 +11440,7 @@
       <c r="E26" s="2">
         <v>8.5</v>
       </c>
-      <c r="F26" s="45"/>
+      <c r="F26" s="46"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -11364,14 +11463,14 @@
       <c r="Z26" s="29"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="5">
         <v>42586</v>
       </c>
       <c r="C27"/>
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
-      <c r="F27" s="45"/>
+      <c r="F27" s="46"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -11394,7 +11493,7 @@
       <c r="Z27" s="29"/>
     </row>
     <row r="28" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="5">
         <v>42587</v>
       </c>
@@ -11407,7 +11506,7 @@
       <c r="E28" s="2">
         <v>4.5</v>
       </c>
-      <c r="F28" s="45"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -11430,14 +11529,14 @@
       <c r="Z28" s="29"/>
     </row>
     <row r="29" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="5">
         <v>42588</v>
       </c>
       <c r="C29"/>
       <c r="D29" s="30"/>
       <c r="E29" s="31"/>
-      <c r="F29" s="45"/>
+      <c r="F29" s="46"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -11460,7 +11559,7 @@
       <c r="Z29" s="29"/>
     </row>
     <row r="30" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="5">
         <v>42589</v>
       </c>
@@ -11473,7 +11572,7 @@
       <c r="E30" s="2">
         <v>6</v>
       </c>
-      <c r="F30" s="45"/>
+      <c r="F30" s="46"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
@@ -11496,7 +11595,7 @@
       <c r="Z30" s="29"/>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A31" s="47">
+      <c r="A31" s="48">
         <v>5</v>
       </c>
       <c r="B31" s="5">
@@ -11511,7 +11610,7 @@
       <c r="E31" s="2">
         <v>8</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="46">
         <f>SUM(E31:E37)</f>
         <v>24</v>
       </c>
@@ -11537,7 +11636,7 @@
       <c r="Z31" s="29"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="5">
         <v>42591</v>
       </c>
@@ -11550,7 +11649,7 @@
       <c r="E32" s="2">
         <v>6</v>
       </c>
-      <c r="F32" s="45"/>
+      <c r="F32" s="46"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
@@ -11573,7 +11672,7 @@
       <c r="Z32" s="29"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="5">
         <v>42592</v>
       </c>
@@ -11586,7 +11685,7 @@
       <c r="E33" s="2">
         <v>4</v>
       </c>
-      <c r="F33" s="45"/>
+      <c r="F33" s="46"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -11609,14 +11708,14 @@
       <c r="Z33" s="29"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="5">
         <v>42593</v>
       </c>
       <c r="C34"/>
       <c r="D34" s="30"/>
       <c r="E34" s="31"/>
-      <c r="F34" s="45"/>
+      <c r="F34" s="46"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
@@ -11639,7 +11738,7 @@
       <c r="Z34" s="29"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="5">
         <v>42594</v>
       </c>
@@ -11652,7 +11751,7 @@
       <c r="E35" s="2">
         <v>2</v>
       </c>
-      <c r="F35" s="45"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -11675,14 +11774,14 @@
       <c r="Z35" s="29"/>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="5">
         <v>42595</v>
       </c>
       <c r="C36"/>
       <c r="D36" s="30"/>
       <c r="E36" s="31"/>
-      <c r="F36" s="45"/>
+      <c r="F36" s="46"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -11705,7 +11804,7 @@
       <c r="Z36" s="29"/>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A37" s="47"/>
+      <c r="A37" s="48"/>
       <c r="B37" s="5">
         <v>42596</v>
       </c>
@@ -11718,7 +11817,7 @@
       <c r="E37" s="2">
         <v>4</v>
       </c>
-      <c r="F37" s="45"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="29"/>
       <c r="H37" s="29"/>
       <c r="I37" s="29"/>
@@ -11741,7 +11840,7 @@
       <c r="Z37" s="29"/>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A38" s="47">
+      <c r="A38" s="48">
         <v>6</v>
       </c>
       <c r="B38" s="5">
@@ -11756,7 +11855,7 @@
       <c r="E38" s="2">
         <v>9</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="46">
         <f>SUM(E38:E51)</f>
         <v>34</v>
       </c>
@@ -11782,7 +11881,7 @@
       <c r="Z38" s="29"/>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="5">
         <v>42598</v>
       </c>
@@ -11795,7 +11894,7 @@
       <c r="E39" s="2">
         <v>4.5</v>
       </c>
-      <c r="F39" s="45"/>
+      <c r="F39" s="46"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -11818,7 +11917,7 @@
       <c r="Z39" s="29"/>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="5">
         <v>42599</v>
       </c>
@@ -11831,7 +11930,7 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-      <c r="F40" s="45"/>
+      <c r="F40" s="46"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
@@ -11854,7 +11953,7 @@
       <c r="Z40" s="29"/>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="5">
         <v>42599</v>
       </c>
@@ -11867,7 +11966,7 @@
       <c r="E41" s="2">
         <v>2.5</v>
       </c>
-      <c r="F41" s="45"/>
+      <c r="F41" s="46"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
@@ -11890,7 +11989,7 @@
       <c r="Z41" s="29"/>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="5">
         <v>42599</v>
       </c>
@@ -11903,7 +12002,7 @@
       <c r="E42" s="2">
         <v>3.5</v>
       </c>
-      <c r="F42" s="45"/>
+      <c r="F42" s="46"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
@@ -11926,7 +12025,7 @@
       <c r="Z42" s="29"/>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="5">
         <v>42599</v>
       </c>
@@ -11939,7 +12038,7 @@
       <c r="E43" s="2">
         <v>0.5</v>
       </c>
-      <c r="F43" s="45"/>
+      <c r="F43" s="46"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
@@ -11962,7 +12061,7 @@
       <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A44" s="47"/>
+      <c r="A44" s="48"/>
       <c r="B44" s="5">
         <v>42599</v>
       </c>
@@ -11975,7 +12074,7 @@
       <c r="E44" s="2">
         <v>0.5</v>
       </c>
-      <c r="F44" s="45"/>
+      <c r="F44" s="46"/>
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
       <c r="I44" s="29"/>
@@ -11998,7 +12097,7 @@
       <c r="Z44" s="29"/>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="5">
         <v>42600</v>
       </c>
@@ -12007,7 +12106,7 @@
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="45"/>
+      <c r="F45" s="46"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -12030,7 +12129,7 @@
       <c r="Z45" s="29"/>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="5">
         <v>42601</v>
       </c>
@@ -12043,7 +12142,7 @@
       <c r="E46" s="2">
         <v>2.5</v>
       </c>
-      <c r="F46" s="45"/>
+      <c r="F46" s="46"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
@@ -12066,7 +12165,7 @@
       <c r="Z46" s="29"/>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="5">
         <v>42602</v>
       </c>
@@ -12079,7 +12178,7 @@
       <c r="E47" s="2">
         <v>2</v>
       </c>
-      <c r="F47" s="45"/>
+      <c r="F47" s="46"/>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
       <c r="I47" s="29"/>
@@ -12102,7 +12201,7 @@
       <c r="Z47" s="29"/>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="5">
         <v>42603</v>
       </c>
@@ -12115,7 +12214,7 @@
       <c r="E48" s="2">
         <v>0.5</v>
       </c>
-      <c r="F48" s="45"/>
+      <c r="F48" s="46"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -12138,7 +12237,7 @@
       <c r="Z48" s="29"/>
     </row>
     <row r="49" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="5">
         <v>42603</v>
       </c>
@@ -12151,7 +12250,7 @@
       <c r="E49" s="2">
         <v>0.5</v>
       </c>
-      <c r="F49" s="45"/>
+      <c r="F49" s="46"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
@@ -12174,7 +12273,7 @@
       <c r="Z49" s="29"/>
     </row>
     <row r="50" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="5">
         <v>42603</v>
       </c>
@@ -12187,7 +12286,7 @@
       <c r="E50" s="2">
         <v>3.5</v>
       </c>
-      <c r="F50" s="45"/>
+      <c r="F50" s="46"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
@@ -12210,7 +12309,7 @@
       <c r="Z50" s="29"/>
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A51" s="47"/>
+      <c r="A51" s="48"/>
       <c r="B51" s="5">
         <v>42603</v>
       </c>
@@ -12223,7 +12322,7 @@
       <c r="E51" s="2">
         <v>3.5</v>
       </c>
-      <c r="F51" s="45"/>
+      <c r="F51" s="46"/>
       <c r="G51" s="29"/>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
@@ -12246,7 +12345,7 @@
       <c r="Z51" s="29"/>
     </row>
     <row r="52" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A52" s="47">
+      <c r="A52" s="48">
         <v>7</v>
       </c>
       <c r="B52" s="5">
@@ -12261,7 +12360,7 @@
       <c r="E52" s="2">
         <v>7.5</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="46">
         <f>SUM(E52:E58)</f>
         <v>7.5</v>
       </c>
@@ -12287,13 +12386,13 @@
       <c r="Z52" s="29"/>
     </row>
     <row r="53" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="5">
         <v>42605</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="45"/>
+      <c r="F53" s="46"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
@@ -12316,13 +12415,13 @@
       <c r="Z53" s="29"/>
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="5">
         <v>42606</v>
       </c>
       <c r="D54" s="14"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="45"/>
+      <c r="F54" s="46"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -12345,13 +12444,13 @@
       <c r="Z54" s="29"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A55" s="47"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="5">
         <v>42607</v>
       </c>
       <c r="D55" s="14"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="45"/>
+      <c r="F55" s="46"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -12374,13 +12473,13 @@
       <c r="Z55" s="29"/>
     </row>
     <row r="56" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A56" s="47"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="5">
         <v>42608</v>
       </c>
       <c r="D56" s="14"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="45"/>
+      <c r="F56" s="46"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
@@ -12403,13 +12502,13 @@
       <c r="Z56" s="29"/>
     </row>
     <row r="57" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="5">
         <v>42609</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="45"/>
+      <c r="F57" s="46"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
@@ -12432,13 +12531,13 @@
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A58" s="47"/>
+      <c r="A58" s="48"/>
       <c r="B58" s="5">
         <v>42610</v>
       </c>
       <c r="D58" s="14"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="45"/>
+      <c r="F58" s="46"/>
       <c r="G58" s="29"/>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
@@ -12461,7 +12560,7 @@
       <c r="Z58" s="29"/>
     </row>
     <row r="59" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A59" s="47">
+      <c r="A59" s="48">
         <v>8</v>
       </c>
       <c r="B59" s="5">
@@ -12469,7 +12568,7 @@
       </c>
       <c r="D59" s="14"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="45">
+      <c r="F59" s="46">
         <f>SUM(E59:E65)</f>
         <v>0</v>
       </c>
@@ -12495,13 +12594,13 @@
       <c r="Z59" s="29"/>
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="5">
         <v>42612</v>
       </c>
       <c r="D60" s="14"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="45"/>
+      <c r="F60" s="46"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
@@ -12524,13 +12623,13 @@
       <c r="Z60" s="29"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A61" s="47"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="5">
         <v>42613</v>
       </c>
       <c r="D61" s="14"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="45"/>
+      <c r="F61" s="46"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
@@ -12553,13 +12652,13 @@
       <c r="Z61" s="29"/>
     </row>
     <row r="62" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A62" s="47"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="5">
         <v>42614</v>
       </c>
       <c r="D62" s="14"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="45"/>
+      <c r="F62" s="46"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
@@ -12582,13 +12681,13 @@
       <c r="Z62" s="29"/>
     </row>
     <row r="63" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="5">
         <v>42615</v>
       </c>
       <c r="D63" s="14"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="45"/>
+      <c r="F63" s="46"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
@@ -12611,13 +12710,13 @@
       <c r="Z63" s="29"/>
     </row>
     <row r="64" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A64" s="47"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="5">
         <v>42616</v>
       </c>
       <c r="D64" s="14"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="45"/>
+      <c r="F64" s="46"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
@@ -12640,13 +12739,13 @@
       <c r="Z64" s="29"/>
     </row>
     <row r="65" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A65" s="47"/>
+      <c r="A65" s="48"/>
       <c r="B65" s="5">
         <v>42617</v>
       </c>
       <c r="D65" s="14"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="45"/>
+      <c r="F65" s="46"/>
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
       <c r="I65" s="29"/>
@@ -12669,7 +12768,7 @@
       <c r="Z65" s="29"/>
     </row>
     <row r="66" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A66" s="47">
+      <c r="A66" s="48">
         <v>9</v>
       </c>
       <c r="B66" s="5">
@@ -12677,7 +12776,7 @@
       </c>
       <c r="D66" s="14"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="45">
+      <c r="F66" s="46">
         <f>SUM(E66:E72)</f>
         <v>0</v>
       </c>
@@ -12703,13 +12802,13 @@
       <c r="Z66" s="29"/>
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A67" s="47"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="5">
         <v>42619</v>
       </c>
       <c r="D67" s="14"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="45"/>
+      <c r="F67" s="46"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
@@ -12732,13 +12831,13 @@
       <c r="Z67" s="29"/>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A68" s="47"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="5">
         <v>42620</v>
       </c>
       <c r="D68" s="14"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="45"/>
+      <c r="F68" s="46"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
@@ -12761,13 +12860,13 @@
       <c r="Z68" s="29"/>
     </row>
     <row r="69" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A69" s="47"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="5">
         <v>42621</v>
       </c>
       <c r="D69" s="14"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="45"/>
+      <c r="F69" s="46"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
@@ -12790,13 +12889,13 @@
       <c r="Z69" s="29"/>
     </row>
     <row r="70" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A70" s="47"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="5">
         <v>42622</v>
       </c>
       <c r="D70" s="14"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="45"/>
+      <c r="F70" s="46"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
@@ -12819,13 +12918,13 @@
       <c r="Z70" s="29"/>
     </row>
     <row r="71" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A71" s="47"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="5">
         <v>42623</v>
       </c>
       <c r="D71" s="14"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="45"/>
+      <c r="F71" s="46"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
@@ -12848,13 +12947,13 @@
       <c r="Z71" s="29"/>
     </row>
     <row r="72" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A72" s="47"/>
+      <c r="A72" s="48"/>
       <c r="B72" s="5">
         <v>42624</v>
       </c>
       <c r="D72" s="14"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="45"/>
+      <c r="F72" s="46"/>
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
       <c r="I72" s="29"/>
@@ -12877,7 +12976,7 @@
       <c r="Z72" s="29"/>
     </row>
     <row r="73" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A73" s="47">
+      <c r="A73" s="48">
         <v>10</v>
       </c>
       <c r="B73" s="5">
@@ -12885,7 +12984,7 @@
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="45">
+      <c r="F73" s="46">
         <f>SUM(E73:E79)</f>
         <v>0</v>
       </c>
@@ -12911,13 +13010,13 @@
       <c r="Z73" s="29"/>
     </row>
     <row r="74" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A74" s="47"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="5">
         <v>42626</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="45"/>
+      <c r="F74" s="46"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
@@ -12940,13 +13039,13 @@
       <c r="Z74" s="29"/>
     </row>
     <row r="75" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A75" s="47"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="5">
         <v>42627</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="45"/>
+      <c r="F75" s="46"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
@@ -12969,13 +13068,13 @@
       <c r="Z75" s="29"/>
     </row>
     <row r="76" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A76" s="47"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="5">
         <v>42628</v>
       </c>
       <c r="D76" s="14"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="45"/>
+      <c r="F76" s="46"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
@@ -12998,13 +13097,13 @@
       <c r="Z76" s="29"/>
     </row>
     <row r="77" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A77" s="47"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="5">
         <v>42629</v>
       </c>
       <c r="D77" s="14"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="45"/>
+      <c r="F77" s="46"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
@@ -13027,13 +13126,13 @@
       <c r="Z77" s="29"/>
     </row>
     <row r="78" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A78" s="47"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="5">
         <v>42630</v>
       </c>
       <c r="D78" s="14"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="45"/>
+      <c r="F78" s="46"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
@@ -13056,13 +13155,13 @@
       <c r="Z78" s="29"/>
     </row>
     <row r="79" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A79" s="47"/>
+      <c r="A79" s="48"/>
       <c r="B79" s="5">
         <v>42631</v>
       </c>
       <c r="D79" s="14"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="45"/>
+      <c r="F79" s="46"/>
       <c r="G79" s="29"/>
       <c r="H79" s="29"/>
       <c r="I79" s="29"/>
@@ -13085,7 +13184,7 @@
       <c r="Z79" s="29"/>
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A80" s="47">
+      <c r="A80" s="48">
         <v>11</v>
       </c>
       <c r="B80" s="5">
@@ -13093,7 +13192,7 @@
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="45">
+      <c r="F80" s="46">
         <f>SUM(E80:E86)</f>
         <v>0</v>
       </c>
@@ -13119,13 +13218,13 @@
       <c r="Z80" s="29"/>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A81" s="47"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="5">
         <v>42633</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="45"/>
+      <c r="F81" s="46"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
@@ -13148,13 +13247,13 @@
       <c r="Z81" s="29"/>
     </row>
     <row r="82" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A82" s="47"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="5">
         <v>42634</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="45"/>
+      <c r="F82" s="46"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
@@ -13177,13 +13276,13 @@
       <c r="Z82" s="29"/>
     </row>
     <row r="83" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A83" s="47"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="5">
         <v>42635</v>
       </c>
       <c r="D83" s="14"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="45"/>
+      <c r="F83" s="46"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
       <c r="I83" s="29"/>
@@ -13206,13 +13305,13 @@
       <c r="Z83" s="29"/>
     </row>
     <row r="84" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="5">
         <v>42636</v>
       </c>
       <c r="D84" s="14"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="45"/>
+      <c r="F84" s="46"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
@@ -13235,13 +13334,13 @@
       <c r="Z84" s="29"/>
     </row>
     <row r="85" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A85" s="47"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="5">
         <v>42637</v>
       </c>
       <c r="D85" s="14"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="45"/>
+      <c r="F85" s="46"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
       <c r="I85" s="29"/>
@@ -13264,13 +13363,13 @@
       <c r="Z85" s="29"/>
     </row>
     <row r="86" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A86" s="47"/>
+      <c r="A86" s="48"/>
       <c r="B86" s="5">
         <v>42638</v>
       </c>
       <c r="D86" s="14"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="45"/>
+      <c r="F86" s="46"/>
       <c r="G86" s="29"/>
       <c r="H86" s="29"/>
       <c r="I86" s="29"/>
@@ -13293,7 +13392,7 @@
       <c r="Z86" s="29"/>
     </row>
     <row r="87" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A87" s="47">
+      <c r="A87" s="48">
         <v>12</v>
       </c>
       <c r="B87" s="5">
@@ -13301,7 +13400,7 @@
       </c>
       <c r="D87" s="14"/>
       <c r="E87" s="2"/>
-      <c r="F87" s="45">
+      <c r="F87" s="46">
         <f>SUM(E87:E93)</f>
         <v>0</v>
       </c>
@@ -13327,13 +13426,13 @@
       <c r="Z87" s="29"/>
     </row>
     <row r="88" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A88" s="47"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="5">
         <v>42640</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="45"/>
+      <c r="F88" s="46"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
@@ -13356,13 +13455,13 @@
       <c r="Z88" s="29"/>
     </row>
     <row r="89" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A89" s="47"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="5">
         <v>42641</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="45"/>
+      <c r="F89" s="46"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
@@ -13385,13 +13484,13 @@
       <c r="Z89" s="29"/>
     </row>
     <row r="90" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A90" s="47"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="5">
         <v>42642</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="45"/>
+      <c r="F90" s="46"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
@@ -13414,13 +13513,13 @@
       <c r="Z90" s="29"/>
     </row>
     <row r="91" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A91" s="47"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="5">
         <v>42643</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="45"/>
+      <c r="F91" s="46"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
@@ -13443,13 +13542,13 @@
       <c r="Z91" s="29"/>
     </row>
     <row r="92" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A92" s="47"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="5">
         <v>42644</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="45"/>
+      <c r="F92" s="46"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
@@ -13472,13 +13571,13 @@
       <c r="Z92" s="29"/>
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A93" s="47"/>
+      <c r="A93" s="48"/>
       <c r="B93" s="5">
         <v>42645</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="2"/>
-      <c r="F93" s="45"/>
+      <c r="F93" s="46"/>
       <c r="G93" s="29"/>
       <c r="H93" s="29"/>
       <c r="I93" s="29"/>
@@ -13501,7 +13600,7 @@
       <c r="Z93" s="29"/>
     </row>
     <row r="94" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A94" s="47">
+      <c r="A94" s="48">
         <v>13</v>
       </c>
       <c r="B94" s="5">
@@ -13509,7 +13608,7 @@
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="45">
+      <c r="F94" s="46">
         <f>SUM(E94:E100)</f>
         <v>0</v>
       </c>
@@ -13535,13 +13634,13 @@
       <c r="Z94" s="29"/>
     </row>
     <row r="95" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="5">
         <v>42647</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="45"/>
+      <c r="F95" s="46"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
@@ -13564,13 +13663,13 @@
       <c r="Z95" s="29"/>
     </row>
     <row r="96" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A96" s="47"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="5">
         <v>42648</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="2"/>
-      <c r="F96" s="45"/>
+      <c r="F96" s="46"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
@@ -13593,13 +13692,13 @@
       <c r="Z96" s="29"/>
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A97" s="47"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="5">
         <v>42649</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="2"/>
-      <c r="F97" s="45"/>
+      <c r="F97" s="46"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="29"/>
@@ -13622,13 +13721,13 @@
       <c r="Z97" s="29"/>
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A98" s="47"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="5">
         <v>42650</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="2"/>
-      <c r="F98" s="45"/>
+      <c r="F98" s="46"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
@@ -13651,13 +13750,13 @@
       <c r="Z98" s="29"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="5">
         <v>42651</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="2"/>
-      <c r="F99" s="45"/>
+      <c r="F99" s="46"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
@@ -13680,13 +13779,13 @@
       <c r="Z99" s="29"/>
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A100" s="47"/>
+      <c r="A100" s="48"/>
       <c r="B100" s="5">
         <v>42652</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="2"/>
-      <c r="F100" s="45"/>
+      <c r="F100" s="46"/>
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
       <c r="I100" s="29"/>
@@ -13709,7 +13808,7 @@
       <c r="Z100" s="29"/>
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A101" s="47">
+      <c r="A101" s="48">
         <v>14</v>
       </c>
       <c r="B101" s="5">
@@ -13717,7 +13816,7 @@
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="2"/>
-      <c r="F101" s="45">
+      <c r="F101" s="46">
         <f>SUM(E101:E107)</f>
         <v>0</v>
       </c>
@@ -13743,13 +13842,13 @@
       <c r="Z101" s="29"/>
     </row>
     <row r="102" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A102" s="47"/>
+      <c r="A102" s="48"/>
       <c r="B102" s="5">
         <v>42654</v>
       </c>
       <c r="D102" s="14"/>
       <c r="E102" s="2"/>
-      <c r="F102" s="45"/>
+      <c r="F102" s="46"/>
       <c r="G102" s="29"/>
       <c r="H102" s="29"/>
       <c r="I102" s="29"/>
@@ -13772,13 +13871,13 @@
       <c r="Z102" s="29"/>
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A103" s="47"/>
+      <c r="A103" s="48"/>
       <c r="B103" s="5">
         <v>42655</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="2"/>
-      <c r="F103" s="45"/>
+      <c r="F103" s="46"/>
       <c r="G103" s="29"/>
       <c r="H103" s="29"/>
       <c r="I103" s="29"/>
@@ -13801,13 +13900,13 @@
       <c r="Z103" s="29"/>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A104" s="47"/>
+      <c r="A104" s="48"/>
       <c r="B104" s="5">
         <v>42656</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="45"/>
+      <c r="F104" s="46"/>
       <c r="G104" s="29"/>
       <c r="H104" s="29"/>
       <c r="I104" s="29"/>
@@ -13830,13 +13929,13 @@
       <c r="Z104" s="29"/>
     </row>
     <row r="105" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A105" s="47"/>
+      <c r="A105" s="48"/>
       <c r="B105" s="5">
         <v>42657</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="45"/>
+      <c r="F105" s="46"/>
       <c r="G105" s="29"/>
       <c r="H105" s="29"/>
       <c r="I105" s="29"/>
@@ -13859,13 +13958,13 @@
       <c r="Z105" s="29"/>
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A106" s="47"/>
+      <c r="A106" s="48"/>
       <c r="B106" s="5">
         <v>42658</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="2"/>
-      <c r="F106" s="45"/>
+      <c r="F106" s="46"/>
       <c r="G106" s="29"/>
       <c r="H106" s="29"/>
       <c r="I106" s="29"/>
@@ -13888,13 +13987,13 @@
       <c r="Z106" s="29"/>
     </row>
     <row r="107" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A107" s="47"/>
+      <c r="A107" s="48"/>
       <c r="B107" s="5">
         <v>42659</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="2"/>
-      <c r="F107" s="45"/>
+      <c r="F107" s="46"/>
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
       <c r="I107" s="29"/>
@@ -13918,6 +14017,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="F9:F16"/>
+    <mergeCell ref="A17:A23"/>
+    <mergeCell ref="F17:F23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="F24:F30"/>
+    <mergeCell ref="A31:A37"/>
+    <mergeCell ref="F31:F37"/>
+    <mergeCell ref="A38:A51"/>
+    <mergeCell ref="F38:F51"/>
+    <mergeCell ref="A52:A58"/>
+    <mergeCell ref="F52:F58"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="F59:F65"/>
+    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="F66:F72"/>
     <mergeCell ref="A94:A100"/>
     <mergeCell ref="F94:F100"/>
     <mergeCell ref="A101:A107"/>
@@ -13928,24 +14045,6 @@
     <mergeCell ref="F80:F86"/>
     <mergeCell ref="A87:A93"/>
     <mergeCell ref="F87:F93"/>
-    <mergeCell ref="A52:A58"/>
-    <mergeCell ref="F52:F58"/>
-    <mergeCell ref="A59:A65"/>
-    <mergeCell ref="F59:F65"/>
-    <mergeCell ref="A66:A72"/>
-    <mergeCell ref="F66:F72"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="F24:F30"/>
-    <mergeCell ref="A31:A37"/>
-    <mergeCell ref="F31:F37"/>
-    <mergeCell ref="A38:A51"/>
-    <mergeCell ref="F38:F51"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="F9:F16"/>
-    <mergeCell ref="A17:A23"/>
-    <mergeCell ref="F17:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -14015,7 +14114,7 @@
       <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47">
+      <c r="A2" s="48">
         <v>1</v>
       </c>
       <c r="B2" s="34">
@@ -14028,7 +14127,7 @@
       <c r="E2" s="39">
         <v>9</v>
       </c>
-      <c r="F2" s="47">
+      <c r="F2" s="48">
         <f>SUM(E2:E8)</f>
         <v>27</v>
       </c>
@@ -14054,7 +14153,7 @@
       <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="34">
         <v>42563</v>
       </c>
@@ -14065,7 +14164,7 @@
       <c r="E3" s="39">
         <v>7</v>
       </c>
-      <c r="F3" s="47"/>
+      <c r="F3" s="48"/>
       <c r="G3" s="29"/>
       <c r="H3" s="29"/>
       <c r="I3" s="29"/>
@@ -14088,7 +14187,7 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="47"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="34">
         <v>42564</v>
       </c>
@@ -14099,7 +14198,7 @@
       <c r="E4" s="39">
         <v>7</v>
       </c>
-      <c r="F4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
       <c r="I4" s="29"/>
@@ -14122,14 +14221,14 @@
       <c r="Z4" s="29"/>
     </row>
     <row r="5" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="34">
         <v>42565</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="38"/>
       <c r="E5" s="39"/>
-      <c r="F5" s="47"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29"/>
@@ -14152,14 +14251,14 @@
       <c r="Z5" s="29"/>
     </row>
     <row r="6" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="34">
         <v>42566</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="38"/>
       <c r="E6" s="39"/>
-      <c r="F6" s="47"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29"/>
@@ -14182,14 +14281,14 @@
       <c r="Z6" s="29"/>
     </row>
     <row r="7" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="34">
         <v>42567</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="38"/>
       <c r="E7" s="39"/>
-      <c r="F7" s="47"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
@@ -14212,7 +14311,7 @@
       <c r="Z7" s="29"/>
     </row>
     <row r="8" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="34">
         <v>42568</v>
       </c>
@@ -14223,7 +14322,7 @@
       <c r="E8" s="39">
         <v>4</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
       <c r="I8" s="29"/>
@@ -14246,7 +14345,7 @@
       <c r="Z8" s="29"/>
     </row>
     <row r="9" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="47">
+      <c r="A9" s="48">
         <v>2</v>
       </c>
       <c r="B9" s="34">
@@ -14259,7 +14358,7 @@
       <c r="E9" s="39">
         <v>4</v>
       </c>
-      <c r="F9" s="47">
+      <c r="F9" s="48">
         <f>SUM(E9:E15)</f>
         <v>21</v>
       </c>
@@ -14285,7 +14384,7 @@
       <c r="Z9" s="29"/>
     </row>
     <row r="10" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="34">
         <v>42570</v>
       </c>
@@ -14296,7 +14395,7 @@
       <c r="E10" s="39">
         <v>5</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
       <c r="I10" s="29"/>
@@ -14319,7 +14418,7 @@
       <c r="Z10" s="29"/>
     </row>
     <row r="11" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="34">
         <v>42571</v>
       </c>
@@ -14330,7 +14429,7 @@
       <c r="E11" s="39">
         <v>6</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
@@ -14353,14 +14452,14 @@
       <c r="Z11" s="29"/>
     </row>
     <row r="12" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="34">
         <v>42572</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="38"/>
       <c r="E12" s="39"/>
-      <c r="F12" s="47"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
@@ -14383,14 +14482,14 @@
       <c r="Z12" s="29"/>
     </row>
     <row r="13" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="47"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="34">
         <v>42573</v>
       </c>
       <c r="C13" s="37"/>
       <c r="D13" s="38"/>
       <c r="E13" s="39"/>
-      <c r="F13" s="47"/>
+      <c r="F13" s="48"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
@@ -14413,7 +14512,7 @@
       <c r="Z13" s="29"/>
     </row>
     <row r="14" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
+      <c r="A14" s="48"/>
       <c r="B14" s="34">
         <v>42574</v>
       </c>
@@ -14424,7 +14523,7 @@
       <c r="E14" s="39">
         <v>1</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -14447,7 +14546,7 @@
       <c r="Z14" s="29"/>
     </row>
     <row r="15" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="47"/>
+      <c r="A15" s="48"/>
       <c r="B15" s="34">
         <v>42575</v>
       </c>
@@ -14458,7 +14557,7 @@
       <c r="E15" s="39">
         <v>5</v>
       </c>
-      <c r="F15" s="47"/>
+      <c r="F15" s="48"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
@@ -14481,7 +14580,7 @@
       <c r="Z15" s="29"/>
     </row>
     <row r="16" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47">
+      <c r="A16" s="48">
         <v>3</v>
       </c>
       <c r="B16" s="34">
@@ -14494,7 +14593,7 @@
       <c r="E16" s="39">
         <v>7</v>
       </c>
-      <c r="F16" s="47">
+      <c r="F16" s="48">
         <f>SUM(E16:E22)</f>
         <v>30</v>
       </c>
@@ -14520,7 +14619,7 @@
       <c r="Z16" s="29"/>
     </row>
     <row r="17" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
+      <c r="A17" s="48"/>
       <c r="B17" s="34">
         <v>42577</v>
       </c>
@@ -14531,7 +14630,7 @@
       <c r="E17" s="39">
         <v>7</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="48"/>
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
@@ -14554,7 +14653,7 @@
       <c r="Z17" s="29"/>
     </row>
     <row r="18" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="47"/>
+      <c r="A18" s="48"/>
       <c r="B18" s="34">
         <v>42578</v>
       </c>
@@ -14565,7 +14664,7 @@
       <c r="E18" s="39">
         <v>6</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="48"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
       <c r="I18" s="29"/>
@@ -14588,14 +14687,14 @@
       <c r="Z18" s="29"/>
     </row>
     <row r="19" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="47"/>
+      <c r="A19" s="48"/>
       <c r="B19" s="34">
         <v>42579</v>
       </c>
       <c r="C19" s="37"/>
       <c r="D19" s="38"/>
       <c r="E19" s="39"/>
-      <c r="F19" s="47"/>
+      <c r="F19" s="48"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
       <c r="I19" s="29"/>
@@ -14618,14 +14717,14 @@
       <c r="Z19" s="29"/>
     </row>
     <row r="20" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
+      <c r="A20" s="48"/>
       <c r="B20" s="34">
         <v>42580</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="38"/>
       <c r="E20" s="39"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="48"/>
       <c r="G20" s="29"/>
       <c r="H20" s="29"/>
       <c r="I20" s="29"/>
@@ -14648,7 +14747,7 @@
       <c r="Z20" s="29"/>
     </row>
     <row r="21" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="34">
         <v>42581</v>
       </c>
@@ -14659,7 +14758,7 @@
       <c r="E21" s="39">
         <v>5</v>
       </c>
-      <c r="F21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="29"/>
       <c r="H21" s="29"/>
       <c r="I21" s="29"/>
@@ -14682,7 +14781,7 @@
       <c r="Z21" s="29"/>
     </row>
     <row r="22" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="34">
         <v>42582</v>
       </c>
@@ -14693,7 +14792,7 @@
       <c r="E22" s="39">
         <v>5</v>
       </c>
-      <c r="F22" s="47"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
@@ -14716,7 +14815,7 @@
       <c r="Z22" s="29"/>
     </row>
     <row r="23" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="47">
+      <c r="A23" s="48">
         <v>4</v>
       </c>
       <c r="B23" s="34">
@@ -14729,7 +14828,7 @@
       <c r="E23" s="39">
         <v>7</v>
       </c>
-      <c r="F23" s="47">
+      <c r="F23" s="48">
         <f>SUM(E23:E29)</f>
         <v>28</v>
       </c>
@@ -14755,7 +14854,7 @@
       <c r="Z23" s="29"/>
     </row>
     <row r="24" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="34">
         <v>42584</v>
       </c>
@@ -14766,7 +14865,7 @@
       <c r="E24" s="39">
         <v>10</v>
       </c>
-      <c r="F24" s="47"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="29"/>
@@ -14789,7 +14888,7 @@
       <c r="Z24" s="29"/>
     </row>
     <row r="25" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="34">
         <v>42585</v>
       </c>
@@ -14800,7 +14899,7 @@
       <c r="E25" s="28">
         <v>6</v>
       </c>
-      <c r="F25" s="47"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
@@ -14823,14 +14922,14 @@
       <c r="Z25" s="29"/>
     </row>
     <row r="26" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="34">
         <v>42586</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="38"/>
       <c r="E26" s="28"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -14853,14 +14952,14 @@
       <c r="Z26" s="29"/>
     </row>
     <row r="27" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="34">
         <v>42587</v>
       </c>
       <c r="C27" s="37"/>
       <c r="D27" s="38"/>
       <c r="E27" s="28"/>
-      <c r="F27" s="47"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -14883,14 +14982,14 @@
       <c r="Z27" s="29"/>
     </row>
     <row r="28" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="47"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="34">
         <v>42588</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="38"/>
       <c r="E28" s="28"/>
-      <c r="F28" s="47"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
@@ -14913,7 +15012,7 @@
       <c r="Z28" s="29"/>
     </row>
     <row r="29" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="34">
         <v>42589</v>
       </c>
@@ -14924,7 +15023,7 @@
       <c r="E29" s="28">
         <v>5</v>
       </c>
-      <c r="F29" s="47"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="29"/>
@@ -14947,7 +15046,7 @@
       <c r="Z29" s="29"/>
     </row>
     <row r="30" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47">
+      <c r="A30" s="48">
         <v>5</v>
       </c>
       <c r="B30" s="34">
@@ -14960,7 +15059,7 @@
       <c r="E30" s="28">
         <v>5</v>
       </c>
-      <c r="F30" s="47">
+      <c r="F30" s="48">
         <f>SUM(E30:E36)</f>
         <v>28</v>
       </c>
@@ -14986,7 +15085,7 @@
       <c r="Z30" s="29"/>
     </row>
     <row r="31" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="47"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="34">
         <v>42591</v>
       </c>
@@ -14997,7 +15096,7 @@
       <c r="E31" s="28">
         <v>4</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="48"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
@@ -15020,7 +15119,7 @@
       <c r="Z31" s="29"/>
     </row>
     <row r="32" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="47"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="34">
         <v>42592</v>
       </c>
@@ -15031,7 +15130,7 @@
       <c r="E32" s="28">
         <v>4</v>
       </c>
-      <c r="F32" s="47"/>
+      <c r="F32" s="48"/>
       <c r="G32" s="29"/>
       <c r="H32" s="29"/>
       <c r="I32" s="29"/>
@@ -15054,14 +15153,14 @@
       <c r="Z32" s="29"/>
     </row>
     <row r="33" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="34">
         <v>42593</v>
       </c>
       <c r="C33" s="37"/>
       <c r="D33" s="38"/>
       <c r="E33" s="28"/>
-      <c r="F33" s="47"/>
+      <c r="F33" s="48"/>
       <c r="G33" s="29"/>
       <c r="H33" s="29"/>
       <c r="I33" s="29"/>
@@ -15084,14 +15183,14 @@
       <c r="Z33" s="29"/>
     </row>
     <row r="34" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="34">
         <v>42594</v>
       </c>
       <c r="C34" s="37"/>
       <c r="D34" s="38"/>
       <c r="E34" s="28"/>
-      <c r="F34" s="47"/>
+      <c r="F34" s="48"/>
       <c r="G34" s="29"/>
       <c r="H34" s="29"/>
       <c r="I34" s="29"/>
@@ -15114,7 +15213,7 @@
       <c r="Z34" s="29"/>
     </row>
     <row r="35" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="47"/>
+      <c r="A35" s="48"/>
       <c r="B35" s="34">
         <v>42595</v>
       </c>
@@ -15125,7 +15224,7 @@
       <c r="E35" s="28">
         <v>7</v>
       </c>
-      <c r="F35" s="47"/>
+      <c r="F35" s="48"/>
       <c r="G35" s="29"/>
       <c r="H35" s="29"/>
       <c r="I35" s="29"/>
@@ -15148,7 +15247,7 @@
       <c r="Z35" s="29"/>
     </row>
     <row r="36" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="47"/>
+      <c r="A36" s="48"/>
       <c r="B36" s="34">
         <v>42596</v>
       </c>
@@ -15159,7 +15258,7 @@
       <c r="E36" s="28">
         <v>8</v>
       </c>
-      <c r="F36" s="47"/>
+      <c r="F36" s="48"/>
       <c r="G36" s="29"/>
       <c r="H36" s="29"/>
       <c r="I36" s="29"/>
@@ -15182,7 +15281,7 @@
       <c r="Z36" s="29"/>
     </row>
     <row r="37" spans="1:26" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="47">
+      <c r="A37" s="48">
         <v>6</v>
       </c>
       <c r="B37" s="34">
@@ -15195,7 +15294,7 @@
       <c r="E37" s="28">
         <v>8</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="48">
         <f>SUM(E37:E43)</f>
         <v>16</v>
       </c>
@@ -15221,7 +15320,7 @@
       <c r="Z37" s="29"/>
     </row>
     <row r="38" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47"/>
+      <c r="A38" s="48"/>
       <c r="B38" s="34">
         <v>42598</v>
       </c>
@@ -15232,7 +15331,7 @@
       <c r="E38" s="28">
         <v>8</v>
       </c>
-      <c r="F38" s="47"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="29"/>
       <c r="H38" s="29"/>
       <c r="I38" s="29"/>
@@ -15255,14 +15354,14 @@
       <c r="Z38" s="29"/>
     </row>
     <row r="39" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
+      <c r="A39" s="48"/>
       <c r="B39" s="34">
         <v>42599</v>
       </c>
       <c r="C39" s="37"/>
       <c r="D39" s="38"/>
       <c r="E39" s="28"/>
-      <c r="F39" s="47"/>
+      <c r="F39" s="48"/>
       <c r="G39" s="29"/>
       <c r="H39" s="29"/>
       <c r="I39" s="29"/>
@@ -15285,14 +15384,14 @@
       <c r="Z39" s="29"/>
     </row>
     <row r="40" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="47"/>
+      <c r="A40" s="48"/>
       <c r="B40" s="34">
         <v>42600</v>
       </c>
       <c r="C40" s="37"/>
       <c r="D40" s="38"/>
       <c r="E40" s="28"/>
-      <c r="F40" s="47"/>
+      <c r="F40" s="48"/>
       <c r="G40" s="29"/>
       <c r="H40" s="29"/>
       <c r="I40" s="29"/>
@@ -15315,14 +15414,14 @@
       <c r="Z40" s="29"/>
     </row>
     <row r="41" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47"/>
+      <c r="A41" s="48"/>
       <c r="B41" s="34">
         <v>42601</v>
       </c>
       <c r="C41" s="37"/>
       <c r="D41" s="38"/>
       <c r="E41" s="28"/>
-      <c r="F41" s="47"/>
+      <c r="F41" s="48"/>
       <c r="G41" s="29"/>
       <c r="H41" s="29"/>
       <c r="I41" s="29"/>
@@ -15345,14 +15444,14 @@
       <c r="Z41" s="29"/>
     </row>
     <row r="42" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
+      <c r="A42" s="48"/>
       <c r="B42" s="34">
         <v>42602</v>
       </c>
       <c r="C42" s="37"/>
       <c r="D42" s="38"/>
       <c r="E42" s="28"/>
-      <c r="F42" s="47"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="29"/>
       <c r="H42" s="29"/>
       <c r="I42" s="29"/>
@@ -15375,14 +15474,14 @@
       <c r="Z42" s="29"/>
     </row>
     <row r="43" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="47"/>
+      <c r="A43" s="48"/>
       <c r="B43" s="34">
         <v>42603</v>
       </c>
       <c r="C43" s="37"/>
       <c r="D43" s="38"/>
       <c r="E43" s="28"/>
-      <c r="F43" s="47"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="29"/>
       <c r="H43" s="29"/>
       <c r="I43" s="29"/>
@@ -15405,7 +15504,7 @@
       <c r="Z43" s="29"/>
     </row>
     <row r="44" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47">
+      <c r="A44" s="48">
         <v>7</v>
       </c>
       <c r="B44" s="34">
@@ -15414,7 +15513,7 @@
       <c r="C44" s="37"/>
       <c r="D44" s="38"/>
       <c r="E44" s="28"/>
-      <c r="F44" s="47">
+      <c r="F44" s="48">
         <f>SUM(E44:E50)</f>
         <v>0</v>
       </c>
@@ -15440,14 +15539,14 @@
       <c r="Z44" s="29"/>
     </row>
     <row r="45" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
+      <c r="A45" s="48"/>
       <c r="B45" s="34">
         <v>42605</v>
       </c>
       <c r="C45" s="37"/>
       <c r="D45" s="38"/>
       <c r="E45" s="28"/>
-      <c r="F45" s="47"/>
+      <c r="F45" s="48"/>
       <c r="G45" s="29"/>
       <c r="H45" s="29"/>
       <c r="I45" s="29"/>
@@ -15470,14 +15569,14 @@
       <c r="Z45" s="29"/>
     </row>
     <row r="46" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="47"/>
+      <c r="A46" s="48"/>
       <c r="B46" s="34">
         <v>42606</v>
       </c>
       <c r="C46" s="37"/>
       <c r="D46" s="38"/>
       <c r="E46" s="28"/>
-      <c r="F46" s="47"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="29"/>
       <c r="H46" s="29"/>
       <c r="I46" s="29"/>
@@ -15500,14 +15599,14 @@
       <c r="Z46" s="29"/>
     </row>
     <row r="47" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="47"/>
+      <c r="A47" s="48"/>
       <c r="B47" s="34">
         <v>42607</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="38"/>
       <c r="E47" s="28"/>
-      <c r="F47" s="47"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="29"/>
       <c r="H47" s="29"/>
       <c r="I47" s="29"/>
@@ -15530,14 +15629,14 @@
       <c r="Z47" s="29"/>
     </row>
     <row r="48" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="47"/>
+      <c r="A48" s="48"/>
       <c r="B48" s="34">
         <v>42608</v>
       </c>
       <c r="C48" s="37"/>
       <c r="D48" s="38"/>
       <c r="E48" s="28"/>
-      <c r="F48" s="47"/>
+      <c r="F48" s="48"/>
       <c r="G48" s="29"/>
       <c r="H48" s="29"/>
       <c r="I48" s="29"/>
@@ -15560,14 +15659,14 @@
       <c r="Z48" s="29"/>
     </row>
     <row r="49" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="47"/>
+      <c r="A49" s="48"/>
       <c r="B49" s="34">
         <v>42609</v>
       </c>
       <c r="C49" s="37"/>
       <c r="D49" s="38"/>
       <c r="E49" s="28"/>
-      <c r="F49" s="47"/>
+      <c r="F49" s="48"/>
       <c r="G49" s="29"/>
       <c r="H49" s="29"/>
       <c r="I49" s="29"/>
@@ -15590,14 +15689,14 @@
       <c r="Z49" s="29"/>
     </row>
     <row r="50" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="47"/>
+      <c r="A50" s="48"/>
       <c r="B50" s="34">
         <v>42610</v>
       </c>
       <c r="C50" s="37"/>
       <c r="D50" s="38"/>
       <c r="E50" s="28"/>
-      <c r="F50" s="47"/>
+      <c r="F50" s="48"/>
       <c r="G50" s="29"/>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
@@ -15620,7 +15719,7 @@
       <c r="Z50" s="29"/>
     </row>
     <row r="51" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="47">
+      <c r="A51" s="48">
         <v>8</v>
       </c>
       <c r="B51" s="34">
@@ -15629,7 +15728,7 @@
       <c r="C51" s="37"/>
       <c r="D51" s="38"/>
       <c r="E51" s="28"/>
-      <c r="F51" s="47">
+      <c r="F51" s="48">
         <f>SUM(E51:E57)</f>
         <v>0</v>
       </c>
@@ -15655,14 +15754,14 @@
       <c r="Z51" s="29"/>
     </row>
     <row r="52" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47"/>
+      <c r="A52" s="48"/>
       <c r="B52" s="34">
         <v>42612</v>
       </c>
       <c r="C52" s="37"/>
       <c r="D52" s="38"/>
       <c r="E52" s="28"/>
-      <c r="F52" s="47"/>
+      <c r="F52" s="48"/>
       <c r="G52" s="29"/>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
@@ -15685,14 +15784,14 @@
       <c r="Z52" s="29"/>
     </row>
     <row r="53" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
+      <c r="A53" s="48"/>
       <c r="B53" s="34">
         <v>42613</v>
       </c>
       <c r="C53" s="37"/>
       <c r="D53" s="38"/>
       <c r="E53" s="28"/>
-      <c r="F53" s="47"/>
+      <c r="F53" s="48"/>
       <c r="G53" s="29"/>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
@@ -15715,14 +15814,14 @@
       <c r="Z53" s="29"/>
     </row>
     <row r="54" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="47"/>
+      <c r="A54" s="48"/>
       <c r="B54" s="34">
         <v>42614</v>
       </c>
       <c r="C54" s="37"/>
       <c r="D54" s="38"/>
       <c r="E54" s="28"/>
-      <c r="F54" s="47"/>
+      <c r="F54" s="48"/>
       <c r="G54" s="29"/>
       <c r="H54" s="29"/>
       <c r="I54" s="29"/>
@@ -15745,14 +15844,14 @@
       <c r="Z54" s="29"/>
     </row>
     <row r="55" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="47"/>
+      <c r="A55" s="48"/>
       <c r="B55" s="34">
         <v>42615</v>
       </c>
       <c r="C55" s="37"/>
       <c r="D55" s="38"/>
       <c r="E55" s="28"/>
-      <c r="F55" s="47"/>
+      <c r="F55" s="48"/>
       <c r="G55" s="29"/>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -15775,14 +15874,14 @@
       <c r="Z55" s="29"/>
     </row>
     <row r="56" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="47"/>
+      <c r="A56" s="48"/>
       <c r="B56" s="34">
         <v>42616</v>
       </c>
       <c r="C56" s="37"/>
       <c r="D56" s="38"/>
       <c r="E56" s="28"/>
-      <c r="F56" s="47"/>
+      <c r="F56" s="48"/>
       <c r="G56" s="29"/>
       <c r="H56" s="29"/>
       <c r="I56" s="29"/>
@@ -15805,14 +15904,14 @@
       <c r="Z56" s="29"/>
     </row>
     <row r="57" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="47"/>
+      <c r="A57" s="48"/>
       <c r="B57" s="34">
         <v>42617</v>
       </c>
       <c r="C57" s="37"/>
       <c r="D57" s="38"/>
       <c r="E57" s="28"/>
-      <c r="F57" s="47"/>
+      <c r="F57" s="48"/>
       <c r="G57" s="29"/>
       <c r="H57" s="29"/>
       <c r="I57" s="29"/>
@@ -15835,7 +15934,7 @@
       <c r="Z57" s="29"/>
     </row>
     <row r="58" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="47">
+      <c r="A58" s="48">
         <v>9</v>
       </c>
       <c r="B58" s="34">
@@ -15844,7 +15943,7 @@
       <c r="C58" s="37"/>
       <c r="D58" s="38"/>
       <c r="E58" s="28"/>
-      <c r="F58" s="47">
+      <c r="F58" s="48">
         <f>SUM(E58:E64)</f>
         <v>0</v>
       </c>
@@ -15870,14 +15969,14 @@
       <c r="Z58" s="29"/>
     </row>
     <row r="59" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="47"/>
+      <c r="A59" s="48"/>
       <c r="B59" s="34">
         <v>42619</v>
       </c>
       <c r="C59" s="37"/>
       <c r="D59" s="38"/>
       <c r="E59" s="28"/>
-      <c r="F59" s="47"/>
+      <c r="F59" s="48"/>
       <c r="G59" s="29"/>
       <c r="H59" s="29"/>
       <c r="I59" s="29"/>
@@ -15900,14 +15999,14 @@
       <c r="Z59" s="29"/>
     </row>
     <row r="60" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="47"/>
+      <c r="A60" s="48"/>
       <c r="B60" s="34">
         <v>42620</v>
       </c>
       <c r="C60" s="37"/>
       <c r="D60" s="38"/>
       <c r="E60" s="28"/>
-      <c r="F60" s="47"/>
+      <c r="F60" s="48"/>
       <c r="G60" s="29"/>
       <c r="H60" s="29"/>
       <c r="I60" s="29"/>
@@ -15930,14 +16029,14 @@
       <c r="Z60" s="29"/>
     </row>
     <row r="61" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="47"/>
+      <c r="A61" s="48"/>
       <c r="B61" s="34">
         <v>42621</v>
       </c>
       <c r="C61" s="37"/>
       <c r="D61" s="38"/>
       <c r="E61" s="28"/>
-      <c r="F61" s="47"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="29"/>
       <c r="H61" s="29"/>
       <c r="I61" s="29"/>
@@ -15960,14 +16059,14 @@
       <c r="Z61" s="29"/>
     </row>
     <row r="62" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="47"/>
+      <c r="A62" s="48"/>
       <c r="B62" s="34">
         <v>42622</v>
       </c>
       <c r="C62" s="37"/>
       <c r="D62" s="38"/>
       <c r="E62" s="28"/>
-      <c r="F62" s="47"/>
+      <c r="F62" s="48"/>
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
       <c r="I62" s="29"/>
@@ -15990,14 +16089,14 @@
       <c r="Z62" s="29"/>
     </row>
     <row r="63" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47"/>
+      <c r="A63" s="48"/>
       <c r="B63" s="34">
         <v>42623</v>
       </c>
       <c r="C63" s="37"/>
       <c r="D63" s="38"/>
       <c r="E63" s="28"/>
-      <c r="F63" s="47"/>
+      <c r="F63" s="48"/>
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
       <c r="I63" s="29"/>
@@ -16020,14 +16119,14 @@
       <c r="Z63" s="29"/>
     </row>
     <row r="64" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="47"/>
+      <c r="A64" s="48"/>
       <c r="B64" s="34">
         <v>42624</v>
       </c>
       <c r="C64" s="37"/>
       <c r="D64" s="38"/>
       <c r="E64" s="28"/>
-      <c r="F64" s="47"/>
+      <c r="F64" s="48"/>
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
       <c r="I64" s="29"/>
@@ -16050,7 +16149,7 @@
       <c r="Z64" s="29"/>
     </row>
     <row r="65" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="47">
+      <c r="A65" s="48">
         <v>10</v>
       </c>
       <c r="B65" s="34">
@@ -16059,7 +16158,7 @@
       <c r="C65" s="37"/>
       <c r="D65" s="38"/>
       <c r="E65" s="28"/>
-      <c r="F65" s="47">
+      <c r="F65" s="48">
         <f>SUM(E65:E71)</f>
         <v>0</v>
       </c>
@@ -16085,14 +16184,14 @@
       <c r="Z65" s="29"/>
     </row>
     <row r="66" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="47"/>
+      <c r="A66" s="48"/>
       <c r="B66" s="34">
         <v>42626</v>
       </c>
       <c r="C66" s="37"/>
       <c r="D66" s="38"/>
       <c r="E66" s="28"/>
-      <c r="F66" s="47"/>
+      <c r="F66" s="48"/>
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
       <c r="I66" s="29"/>
@@ -16115,14 +16214,14 @@
       <c r="Z66" s="29"/>
     </row>
     <row r="67" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="47"/>
+      <c r="A67" s="48"/>
       <c r="B67" s="34">
         <v>42627</v>
       </c>
       <c r="C67" s="37"/>
       <c r="D67" s="38"/>
       <c r="E67" s="28"/>
-      <c r="F67" s="47"/>
+      <c r="F67" s="48"/>
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
       <c r="I67" s="29"/>
@@ -16145,14 +16244,14 @@
       <c r="Z67" s="29"/>
     </row>
     <row r="68" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="47"/>
+      <c r="A68" s="48"/>
       <c r="B68" s="34">
         <v>42628</v>
       </c>
       <c r="C68" s="37"/>
       <c r="D68" s="38"/>
       <c r="E68" s="28"/>
-      <c r="F68" s="47"/>
+      <c r="F68" s="48"/>
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
       <c r="I68" s="29"/>
@@ -16175,14 +16274,14 @@
       <c r="Z68" s="29"/>
     </row>
     <row r="69" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="47"/>
+      <c r="A69" s="48"/>
       <c r="B69" s="34">
         <v>42629</v>
       </c>
       <c r="C69" s="37"/>
       <c r="D69" s="38"/>
       <c r="E69" s="28"/>
-      <c r="F69" s="47"/>
+      <c r="F69" s="48"/>
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
       <c r="I69" s="29"/>
@@ -16205,14 +16304,14 @@
       <c r="Z69" s="29"/>
     </row>
     <row r="70" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="47"/>
+      <c r="A70" s="48"/>
       <c r="B70" s="34">
         <v>42630</v>
       </c>
       <c r="C70" s="37"/>
       <c r="D70" s="38"/>
       <c r="E70" s="28"/>
-      <c r="F70" s="47"/>
+      <c r="F70" s="48"/>
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
       <c r="I70" s="29"/>
@@ -16235,14 +16334,14 @@
       <c r="Z70" s="29"/>
     </row>
     <row r="71" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="47"/>
+      <c r="A71" s="48"/>
       <c r="B71" s="34">
         <v>42631</v>
       </c>
       <c r="C71" s="37"/>
       <c r="D71" s="38"/>
       <c r="E71" s="28"/>
-      <c r="F71" s="47"/>
+      <c r="F71" s="48"/>
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
       <c r="I71" s="29"/>
@@ -16265,7 +16364,7 @@
       <c r="Z71" s="29"/>
     </row>
     <row r="72" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="47">
+      <c r="A72" s="48">
         <v>11</v>
       </c>
       <c r="B72" s="34">
@@ -16274,7 +16373,7 @@
       <c r="C72" s="37"/>
       <c r="D72" s="38"/>
       <c r="E72" s="28"/>
-      <c r="F72" s="47">
+      <c r="F72" s="48">
         <f>SUM(E72:E78)</f>
         <v>0</v>
       </c>
@@ -16300,14 +16399,14 @@
       <c r="Z72" s="29"/>
     </row>
     <row r="73" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="47"/>
+      <c r="A73" s="48"/>
       <c r="B73" s="34">
         <v>42633</v>
       </c>
       <c r="C73" s="37"/>
       <c r="D73" s="38"/>
       <c r="E73" s="28"/>
-      <c r="F73" s="47"/>
+      <c r="F73" s="48"/>
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
       <c r="I73" s="29"/>
@@ -16330,14 +16429,14 @@
       <c r="Z73" s="29"/>
     </row>
     <row r="74" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="47"/>
+      <c r="A74" s="48"/>
       <c r="B74" s="34">
         <v>42634</v>
       </c>
       <c r="C74" s="37"/>
       <c r="D74" s="38"/>
       <c r="E74" s="28"/>
-      <c r="F74" s="47"/>
+      <c r="F74" s="48"/>
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
       <c r="I74" s="29"/>
@@ -16360,14 +16459,14 @@
       <c r="Z74" s="29"/>
     </row>
     <row r="75" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="47"/>
+      <c r="A75" s="48"/>
       <c r="B75" s="34">
         <v>42635</v>
       </c>
       <c r="C75" s="37"/>
       <c r="D75" s="38"/>
       <c r="E75" s="28"/>
-      <c r="F75" s="47"/>
+      <c r="F75" s="48"/>
       <c r="G75" s="29"/>
       <c r="H75" s="29"/>
       <c r="I75" s="29"/>
@@ -16390,14 +16489,14 @@
       <c r="Z75" s="29"/>
     </row>
     <row r="76" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="47"/>
+      <c r="A76" s="48"/>
       <c r="B76" s="34">
         <v>42636</v>
       </c>
       <c r="C76" s="37"/>
       <c r="D76" s="38"/>
       <c r="E76" s="28"/>
-      <c r="F76" s="47"/>
+      <c r="F76" s="48"/>
       <c r="G76" s="29"/>
       <c r="H76" s="29"/>
       <c r="I76" s="29"/>
@@ -16420,14 +16519,14 @@
       <c r="Z76" s="29"/>
     </row>
     <row r="77" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="47"/>
+      <c r="A77" s="48"/>
       <c r="B77" s="34">
         <v>42637</v>
       </c>
       <c r="C77" s="37"/>
       <c r="D77" s="38"/>
       <c r="E77" s="28"/>
-      <c r="F77" s="47"/>
+      <c r="F77" s="48"/>
       <c r="G77" s="29"/>
       <c r="H77" s="29"/>
       <c r="I77" s="29"/>
@@ -16450,14 +16549,14 @@
       <c r="Z77" s="29"/>
     </row>
     <row r="78" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="47"/>
+      <c r="A78" s="48"/>
       <c r="B78" s="34">
         <v>42638</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="38"/>
       <c r="E78" s="28"/>
-      <c r="F78" s="47"/>
+      <c r="F78" s="48"/>
       <c r="G78" s="29"/>
       <c r="H78" s="29"/>
       <c r="I78" s="29"/>
@@ -16480,7 +16579,7 @@
       <c r="Z78" s="29"/>
     </row>
     <row r="79" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="47">
+      <c r="A79" s="48">
         <v>12</v>
       </c>
       <c r="B79" s="34">
@@ -16489,7 +16588,7 @@
       <c r="C79" s="37"/>
       <c r="D79" s="38"/>
       <c r="E79" s="28"/>
-      <c r="F79" s="47">
+      <c r="F79" s="48">
         <f>SUM(E79:E85)</f>
         <v>0</v>
       </c>
@@ -16515,14 +16614,14 @@
       <c r="Z79" s="29"/>
     </row>
     <row r="80" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="47"/>
+      <c r="A80" s="48"/>
       <c r="B80" s="34">
         <v>42640</v>
       </c>
       <c r="C80" s="37"/>
       <c r="D80" s="38"/>
       <c r="E80" s="28"/>
-      <c r="F80" s="47"/>
+      <c r="F80" s="48"/>
       <c r="G80" s="29"/>
       <c r="H80" s="29"/>
       <c r="I80" s="29"/>
@@ -16545,14 +16644,14 @@
       <c r="Z80" s="29"/>
     </row>
     <row r="81" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="47"/>
+      <c r="A81" s="48"/>
       <c r="B81" s="34">
         <v>42641</v>
       </c>
       <c r="C81" s="37"/>
       <c r="D81" s="38"/>
       <c r="E81" s="28"/>
-      <c r="F81" s="47"/>
+      <c r="F81" s="48"/>
       <c r="G81" s="29"/>
       <c r="H81" s="29"/>
       <c r="I81" s="29"/>
@@ -16575,14 +16674,14 @@
       <c r="Z81" s="29"/>
     </row>
     <row r="82" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="47"/>
+      <c r="A82" s="48"/>
       <c r="B82" s="34">
         <v>42642</v>
       </c>
       <c r="C82" s="37"/>
       <c r="D82" s="38"/>
       <c r="E82" s="28"/>
-      <c r="F82" s="47"/>
+      <c r="F82" s="48"/>
       <c r="G82" s="29"/>
       <c r="H82" s="29"/>
       <c r="I82" s="29"/>
@@ -16605,14 +16704,14 @@
       <c r="Z82" s="29"/>
     </row>
     <row r="83" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="47"/>
+      <c r="A83" s="48"/>
       <c r="B83" s="34">
         <v>42643</v>
       </c>
       <c r="C83" s="37"/>
       <c r="D83" s="38"/>
       <c r="E83" s="28"/>
-      <c r="F83" s="47"/>
+      <c r="F83" s="48"/>
       <c r="G83" s="29"/>
       <c r="H83" s="29"/>
       <c r="I83" s="29"/>
@@ -16635,14 +16734,14 @@
       <c r="Z83" s="29"/>
     </row>
     <row r="84" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="47"/>
+      <c r="A84" s="48"/>
       <c r="B84" s="34">
         <v>42644</v>
       </c>
       <c r="C84" s="37"/>
       <c r="D84" s="38"/>
       <c r="E84" s="28"/>
-      <c r="F84" s="47"/>
+      <c r="F84" s="48"/>
       <c r="G84" s="29"/>
       <c r="H84" s="29"/>
       <c r="I84" s="29"/>
@@ -16665,14 +16764,14 @@
       <c r="Z84" s="29"/>
     </row>
     <row r="85" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="47"/>
+      <c r="A85" s="48"/>
       <c r="B85" s="34">
         <v>42645</v>
       </c>
       <c r="C85" s="37"/>
       <c r="D85" s="38"/>
       <c r="E85" s="28"/>
-      <c r="F85" s="47"/>
+      <c r="F85" s="48"/>
       <c r="G85" s="29"/>
       <c r="H85" s="29"/>
       <c r="I85" s="29"/>
@@ -16695,7 +16794,7 @@
       <c r="Z85" s="29"/>
     </row>
     <row r="86" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="47">
+      <c r="A86" s="48">
         <v>13</v>
       </c>
       <c r="B86" s="34">
@@ -16704,7 +16803,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="38"/>
       <c r="E86" s="28"/>
-      <c r="F86" s="47">
+      <c r="F86" s="48">
         <f>SUM(E86:E92)</f>
         <v>0</v>
       </c>
@@ -16730,14 +16829,14 @@
       <c r="Z86" s="29"/>
     </row>
     <row r="87" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="47"/>
+      <c r="A87" s="48"/>
       <c r="B87" s="34">
         <v>42647</v>
       </c>
       <c r="C87" s="37"/>
       <c r="D87" s="38"/>
       <c r="E87" s="28"/>
-      <c r="F87" s="47"/>
+      <c r="F87" s="48"/>
       <c r="G87" s="29"/>
       <c r="H87" s="29"/>
       <c r="I87" s="29"/>
@@ -16760,14 +16859,14 @@
       <c r="Z87" s="29"/>
     </row>
     <row r="88" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="47"/>
+      <c r="A88" s="48"/>
       <c r="B88" s="34">
         <v>42648</v>
       </c>
       <c r="C88" s="37"/>
       <c r="D88" s="38"/>
       <c r="E88" s="28"/>
-      <c r="F88" s="47"/>
+      <c r="F88" s="48"/>
       <c r="G88" s="29"/>
       <c r="H88" s="29"/>
       <c r="I88" s="29"/>
@@ -16790,14 +16889,14 @@
       <c r="Z88" s="29"/>
     </row>
     <row r="89" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="47"/>
+      <c r="A89" s="48"/>
       <c r="B89" s="34">
         <v>42649</v>
       </c>
       <c r="C89" s="37"/>
       <c r="D89" s="38"/>
       <c r="E89" s="28"/>
-      <c r="F89" s="47"/>
+      <c r="F89" s="48"/>
       <c r="G89" s="29"/>
       <c r="H89" s="29"/>
       <c r="I89" s="29"/>
@@ -16820,14 +16919,14 @@
       <c r="Z89" s="29"/>
     </row>
     <row r="90" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="47"/>
+      <c r="A90" s="48"/>
       <c r="B90" s="34">
         <v>42650</v>
       </c>
       <c r="C90" s="37"/>
       <c r="D90" s="38"/>
       <c r="E90" s="28"/>
-      <c r="F90" s="47"/>
+      <c r="F90" s="48"/>
       <c r="G90" s="29"/>
       <c r="H90" s="29"/>
       <c r="I90" s="29"/>
@@ -16850,14 +16949,14 @@
       <c r="Z90" s="29"/>
     </row>
     <row r="91" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="47"/>
+      <c r="A91" s="48"/>
       <c r="B91" s="34">
         <v>42651</v>
       </c>
       <c r="C91" s="37"/>
       <c r="D91" s="38"/>
       <c r="E91" s="28"/>
-      <c r="F91" s="47"/>
+      <c r="F91" s="48"/>
       <c r="G91" s="29"/>
       <c r="H91" s="29"/>
       <c r="I91" s="29"/>
@@ -16880,14 +16979,14 @@
       <c r="Z91" s="29"/>
     </row>
     <row r="92" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="47"/>
+      <c r="A92" s="48"/>
       <c r="B92" s="34">
         <v>42652</v>
       </c>
       <c r="C92" s="37"/>
       <c r="D92" s="38"/>
       <c r="E92" s="28"/>
-      <c r="F92" s="47"/>
+      <c r="F92" s="48"/>
       <c r="G92" s="29"/>
       <c r="H92" s="29"/>
       <c r="I92" s="29"/>
@@ -16910,7 +17009,7 @@
       <c r="Z92" s="29"/>
     </row>
     <row r="93" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="47">
+      <c r="A93" s="48">
         <v>14</v>
       </c>
       <c r="B93" s="34">
@@ -16919,7 +17018,7 @@
       <c r="C93" s="37"/>
       <c r="D93" s="38"/>
       <c r="E93" s="28"/>
-      <c r="F93" s="47">
+      <c r="F93" s="48">
         <f>SUM(E93:E99)</f>
         <v>0</v>
       </c>
@@ -16945,14 +17044,14 @@
       <c r="Z93" s="29"/>
     </row>
     <row r="94" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="47"/>
+      <c r="A94" s="48"/>
       <c r="B94" s="34">
         <v>42654</v>
       </c>
       <c r="C94" s="37"/>
       <c r="D94" s="38"/>
       <c r="E94" s="28"/>
-      <c r="F94" s="47"/>
+      <c r="F94" s="48"/>
       <c r="G94" s="29"/>
       <c r="H94" s="29"/>
       <c r="I94" s="29"/>
@@ -16975,14 +17074,14 @@
       <c r="Z94" s="29"/>
     </row>
     <row r="95" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="47"/>
+      <c r="A95" s="48"/>
       <c r="B95" s="34">
         <v>42655</v>
       </c>
       <c r="C95" s="37"/>
       <c r="D95" s="38"/>
       <c r="E95" s="28"/>
-      <c r="F95" s="47"/>
+      <c r="F95" s="48"/>
       <c r="G95" s="29"/>
       <c r="H95" s="29"/>
       <c r="I95" s="29"/>
@@ -17005,14 +17104,14 @@
       <c r="Z95" s="29"/>
     </row>
     <row r="96" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="47"/>
+      <c r="A96" s="48"/>
       <c r="B96" s="34">
         <v>42656</v>
       </c>
       <c r="C96" s="37"/>
       <c r="D96" s="38"/>
       <c r="E96" s="28"/>
-      <c r="F96" s="47"/>
+      <c r="F96" s="48"/>
       <c r="G96" s="29"/>
       <c r="H96" s="29"/>
       <c r="I96" s="29"/>
@@ -17035,14 +17134,14 @@
       <c r="Z96" s="29"/>
     </row>
     <row r="97" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="47"/>
+      <c r="A97" s="48"/>
       <c r="B97" s="34">
         <v>42657</v>
       </c>
       <c r="C97" s="37"/>
       <c r="D97" s="38"/>
       <c r="E97" s="28"/>
-      <c r="F97" s="47"/>
+      <c r="F97" s="48"/>
       <c r="G97" s="29"/>
       <c r="H97" s="29"/>
       <c r="I97" s="29"/>
@@ -17065,14 +17164,14 @@
       <c r="Z97" s="29"/>
     </row>
     <row r="98" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="47"/>
+      <c r="A98" s="48"/>
       <c r="B98" s="34">
         <v>42658</v>
       </c>
       <c r="C98" s="37"/>
       <c r="D98" s="38"/>
       <c r="E98" s="28"/>
-      <c r="F98" s="47"/>
+      <c r="F98" s="48"/>
       <c r="G98" s="29"/>
       <c r="H98" s="29"/>
       <c r="I98" s="29"/>
@@ -17095,14 +17194,14 @@
       <c r="Z98" s="29"/>
     </row>
     <row r="99" spans="1:26" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="47"/>
+      <c r="A99" s="48"/>
       <c r="B99" s="34">
         <v>42659</v>
       </c>
       <c r="C99" s="37"/>
       <c r="D99" s="38"/>
       <c r="E99" s="28"/>
-      <c r="F99" s="47"/>
+      <c r="F99" s="48"/>
       <c r="G99" s="29"/>
       <c r="H99" s="29"/>
       <c r="I99" s="29"/>
@@ -17126,6 +17225,24 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="F2:F8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="F9:F15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="F16:F22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="F23:F29"/>
+    <mergeCell ref="A30:A36"/>
+    <mergeCell ref="F30:F36"/>
+    <mergeCell ref="A37:A43"/>
+    <mergeCell ref="F37:F43"/>
+    <mergeCell ref="A44:A50"/>
+    <mergeCell ref="F44:F50"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="F51:F57"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="F58:F64"/>
     <mergeCell ref="A86:A92"/>
     <mergeCell ref="F86:F92"/>
     <mergeCell ref="A93:A99"/>
@@ -17136,24 +17253,6 @@
     <mergeCell ref="F72:F78"/>
     <mergeCell ref="A79:A85"/>
     <mergeCell ref="F79:F85"/>
-    <mergeCell ref="A44:A50"/>
-    <mergeCell ref="F44:F50"/>
-    <mergeCell ref="A51:A57"/>
-    <mergeCell ref="F51:F57"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="F58:F64"/>
-    <mergeCell ref="A23:A29"/>
-    <mergeCell ref="F23:F29"/>
-    <mergeCell ref="A30:A36"/>
-    <mergeCell ref="F30:F36"/>
-    <mergeCell ref="A37:A43"/>
-    <mergeCell ref="F37:F43"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="F2:F8"/>
-    <mergeCell ref="A9:A15"/>
-    <mergeCell ref="F9:F15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="F16:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -17164,8 +17263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK78"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
